--- a/VC_News_Daily.xlsx
+++ b/VC_News_Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +434,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Burst Oral Care</t>
+          <t>Quizlet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BURST has one simple aim: to make sonic oral care affordable and available to everyone. With the help of the dental community, we've crafted an incredible sonic toothbrush that boasts charcoal nano-particle embedded bristles, 33,000 sonic vibrations and an industry leading lithium ion battery that lasts for 4 weeks on just one charge.</t>
+          <t>Quizlet's study tools and applications are used by tens of millions of learners and teachers every day in every country of the world. Quizlet is easy, fun and powerful, and uses proven learning techniques benefiting learners and teachers worldwide. Quizlet was founded in 2005 and is based in San Francisco, California.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -449,32 +449,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$20,000,000</t>
+          <t>$30,000,000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Burst Oral Care Grabs $20M in Funding</t>
+          <t>Quizlet Raises $30M Series C Funding</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/burst-oral-care/venture-capital-funding/cyckhnbjdp</t>
+          <t>https://vcnewsdaily.com/quizlet/venture-capital-funding/dhqnlmcmsv</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>WALNUT, CA, Burst Oral Care has received $20 million in Series C financing.</t>
+          <t>SAN FRANCISCO, CA, Quizlet announced a Series C funding round of $30 million, led by General Atlantic.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -484,12 +484,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Burst%20Oral%20Care/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Quizlet/venture-funding.php</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Burst Oral Care has received $20 million in financing. The Series C funding round was led by Goldman Sachs' Growth Equity Platform, GS Growth.BURST has one simple aim: to make sonic oral care affordable and available to everyone. With the help of the dental community, we've crafted an incredible sonic toothbrush that boasts charcoal nano-particle embedded bristles, 33,000 sonic vibrations and an industry leading lithium ion battery that lasts for 4 weeks on just one charge.</t>
+          <t>Quizlet, the global learning platform known for its engaging AI-powered study tools, today announced a Series C funding round of $30 million, led by General Atlantic, a leading global growth equity firm. The capital will help fuel Quizlet's continued product innovation with an emphasis on data science and machine learning capabilities, as well as aiding strategic expansion opportunities that align with Quizlet's mission to help people practice and master whatever they want to learn.Quizlet, which allows learners to create, share and consume high-quality user-generated content, caters to a diverse userbase across geographies and stages of education. Quizlet continues to scale, with more than 50 million active users a month and over a billion questions answered on the platform each week, and with two-thirds of high school students and half of all college-aged students in the United States on the platform. Students and teachers can access over 400 million user-generated study sets, or create their own, to study across activities ranging from flashcards and practice questions to interactive diagrams and games.Quizlet's AI-powered platform is able to personalize and adapt study sessions for each user, helping students focus on what they need to learn. Of note:Quizlet's most popular study activity, Quizlet Learn, leverages AI to create an adaptive study plan that adjusts to the users' learning needs and can be scheduled to help them reach mastery by a specific date, such as a test or final.Quizlet's Smarter Grading &amp; Feedback system can understand a student's answer beyond a word-for-word match, determine what is correct and what needs further understanding, and then guide the student's studying."Imagine if every person had access to an AI-powered tutor to help them confidently study anything they wanted to learn. The team at Quizlet wakes up every day excited to make students' lives better by creating innovative tools that move our users towards mastery more quickly and more effectively," said Matthew Glotzbach, CEO of Quizlet. "General Atlantic recognizes the value of technology's impact on learning, and we welcome them as a long-term partner and strategic advisor as we pursue our next phase of growth."Peter Munzig, Managing Director in General Atlantic's Technology investing sector, continued, "Quizlet's differentiated learning platform caters to a wide base of users who find value in the depth and breadth of the educational content it offers. Through aggregate and individual user behavior, Quizlet is able to curate and enhance learning experiences, an offering that resonates with its students and has enabled the company to capture significant momentum. General Atlantic is a strong backer of the digitization and personalization of education, and we are excited to leverage our expertise in this field to partner with Matt and the talented Quizlet team to continue to scale the business globally."As part of the transaction, Mr. Munzig will join Quizlet's Board of Directors. Additional terms of the deal were not disclosed.About QuizletQuizlet is a global learning platform that provides engaging study tools to help people practice and master whatever they are learning. Every month, over 50 million students, teachers and everyday people use Quizlet to study any subject imaginable for school, work or as part of their personal interests -- including 2 in 3 high school students and 1 in 2 college students in the US. Combining cognitive science and machine learning, Quizlet guides students through adaptive study activities to confidently reach their learning goals. The company offers a combination of free and paid subscriptions for both students and teachers that enable further customization. Quizlet is headquartered in San Francisco, California and is backed by Icon Ventures, Union Square Ventures, Costanoa Ventures and General Atlantic. For more information, please visit www.quizlet.com.About General AtlanticGeneral Atlantic is a leading global growth equity firm providing capital and strategic support for growth companies. Established in 1980, General Atlantic combines a collaborative global approach, sector specific expertise, a long-term investment horizon and a deep understanding of growth drivers to partner with great entrepreneurs and management teams to build exceptional businesses worldwide. General Atlantic has more than 150 investment professionals based in New York, Amsterdam, Beijing, Greenwich, Hong Kong, Jakarta, London, Mexico City, Mumbai, Munich, Palo Alto, Sao Paulo, Shanghai, and Singapore. For more information on General Atlantic, please visit: www.generalatlantic.com.</t>
         </is>
       </c>
     </row>
@@ -499,47 +499,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grail</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GRAIL is a life sciences company whose mission is to detect cancer early when it can be cured. GRAIL combines the power of high-intensity sequencing (ultra-broad and ultra-deep sequencing), leading-edge computer science, and large population-scale clinical studies to enhance the scientific understanding of cancer biology and develop a blood test for early-stage cancer detection.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Series D</t>
-        </is>
-      </c>
+          <t>FalconX is a digital asset trading platform that provides clients best execution using data science, and is backed by Accel, Accomplice VC, Coinbase Ventures, Fenbushi Capital, Flybridge Capital Partners, Lightspeed Venture Partners, and Avon Ventures, a venture capital fund affiliated with FMR LLC, the parent company of Fidelity Investments.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$390,000,000</t>
+          <t>$17,000,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GRAIL Scoops Up $390M Series D</t>
+          <t>FalconX Secures $17M Funding Round</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/grail/venture-capital-funding/tdggfjrsdk</t>
+          <t>https://vcnewsdaily.com/falconx/venture-capital-funding/bkvdllzqth</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MENLO PARK, CA, GRAIL, a healthcare company whose mission is to detect cancer early, when it can be cured, today announced a $390 million Series D financing round.</t>
+          <t>SAN FRANCISCO, CA, Digital asset trading platform, FalconX has secured $17M in financing.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Menlo Park</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -549,12 +545,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/GRAIL/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/FalconX/venture-funding.php</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>New investors including Public Sector Pension Investment Board (PSP Investments) and Canada Pension Plan Investment Board (CPP Investments), as well as two undisclosed investors, joined existing backers including Illumina, Inc. in this round of funding."GRAIL is making significant progress with our blood-based, multi-cancer early detection test," said Hans Bishop, Chief Executive Officer at GRAIL. "Nearly 80 percent of cancer deaths result from cancers for which there is no screening test today, and GRAIL's mission is to change that through the early detection and localization of more than 50 cancers. Enabling this through a single blood draw could improve patient access and adherence to cancer screening and address disparities in cancer care by improving access for rural, vulnerable, and under-served populations. We are delighted that such a high-quality group of investors share our vision and recognize the public health benefits of our technology."The Series D funding adds to the company's balance sheet and will support continued development and commercialization of GRAIL's multi-cancer early detection blood test. Since early 2016, GRAIL has raised more than $1.9 billion in four rounds of equity financing to pursue reducing cancer mortality worldwide through multi-cancer early detection.About GRAIL's Multi-Cancer Early Detection TestGRAIL's multi-cancer early detection test is designed to detect cancers in early stages, when the chance of survival is higher than if cancer is detected after symptoms appear. Clinical data have shown the ability of this technology to detect more than 50 cancer types with a very low false positive rate of less than one percent. GRAIL's test was designed to minimize false positives in order to limit associated harms, including patient anxiety and unnecessary diagnostic workups. When a cancer signal is detected, the test has been able to identify where in the body the cancer is located with high accuracy, an important step to guiding diagnostic next steps and care.GRAIL's methylation-based technology preferentially targets the most informative regions of the genome and is designed to use its proprietary database and machine-learning algorithms to both detect the presence of cancer and identify the tumor's tissue of origin. GRAIL believes its sequencing database of cancer and non-cancer methylation signatures is the largest of its kind.About GRAILGRAIL is a healthcare company whose mission is to detect cancer early, when it can be cured. GRAIL is focused on alleviating the global burden of cancer by developing pioneering technology to detect and identify multiple deadly cancer types early. The company is using the power of next-generation sequencing, population-scale clinical studies, and state-of-the-art computer science and data science to enhance the scientific understanding of cancer biology, and to develop its multi-cancer early detection blood test. GRAIL is located in Menlo Park, California and Washington, D.C. It is supported by leading global investors and pharmaceutical, technology, and healthcare companies. For more information, please visit www.grail.com.</t>
+          <t>FalconX, a digital asset trading platform that provides clients best execution using data science, announced today it has secured $17M in financing from investors including Accel, Accomplice VC, Coinbase Ventures, Fenbushi Capital, Flybridge Capital Partners, Lightspeed Venture Partners, and Avon Ventures, a venture capital fund affiliated with FMR LLC, the parent company of Fidelity Investments. The funding will be used to introduce new products, expand FalconX's trade execution suite and scale infrastructure to support growing institutional demand for cryptocurrency."We're entering an era defined by the true digitization of value - whether Bitcoin, Ethereum or new experiments such as Libra, or Digital Yuan - much like what we saw in the early 2000s with the digitization of information on the internet. For open, permissionless and truly global digital assets to be adopted by mainstream institutions, today's digital financial infrastructure is grossly inadequate," said Raghu Yarlagadda, FalconX CEO and co-founder. "FalconX is building the connective tissue, with seamless price discovery, trade execution, and value transfer. Our technology will provide the infrastructure for the future of digital assets."Over the last 10 months, FalconX has generated $7 billion in global trading volume at a quarterly growth rate of over 600 percent - driven by tight spreads, eliminating slippage and hidden fees, and maintaining enterprise-grade security. Trading as principal, FalconX has built robust liquidity through a combination of lit liquidity pools (exchanges) and proprietary dark pools. Its client base includes over 100 financial institutions across traditional finance including hedge funds, proprietary trading firms, payment gateways, over-the-counter trading desks, cryptocurrency miners, and exchanges. FalconX is expanding its regulatory footprint to continue growing its customer base across new jurisdictions and product lines."FalconX allows us to operate a more productive trading desk by solving for some of the major inefficiencies in the crypto markets. I have been extremely impressed with FalconX's relentless focus on delivering value-added solutions and superior customer service," said Brad Koeppen, Head of Trading and Business Development at CMT Digital, a proprietary trading and financial services firm, founded in 1997, with offices across US &amp; Europe.FalconX was founded by Raghu Yarlagadda and Prabhakar Reddy in 2018. Raghu, an engineer and entrepreneur by background, held several product leadership roles prior to FalconX, including at Google, where he was instrumental in scaling Chromebooks to a multi-billion dollar revenue business. Prabhakar, an investor, engineer and a serial entrepreneur, previously drove blockchain and enterprise SaaS investments at venture capital firm Accel. The founding team blends Silicon Valley and Wall Street, bringing experience from Google, Citadel, Goldman Sachs, Jump Trading, PayPal, Pantera Capital, WorldQuant, Kraken, and PEAK6 Investments."FalconX demonstrated exceptional growth with institutional counterparties through their focus on technology and reliability during volatile market conditions. They've proven themselves at scale without compromising on enterprise-grade security and high compliance standards - capturing a tremendous opportunity to serve the next generation of institutions looking to enter the digital asset space," said Shekhar Kirani, General Partner at Accel.About FalconXFalconX is a digital asset trading platform that provides clients best execution using data science, and is backed by Accel, Accomplice VC, Coinbase Ventures, Fenbushi Capital, Flybridge Capital Partners, Lightspeed Venture Partners, and Avon Ventures, a venture capital fund affiliated with FMR LLC, the parent company of Fidelity Investments. FalconX has offices in Silicon Valley, Chicago, Bengaluru, and Malta. For more information visit falconx.io.</t>
         </is>
       </c>
     </row>
@@ -564,12 +560,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stardog</t>
+          <t>UpKeep</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stardog enterprise data unification platform unifies data across the enterprise using smart graph technology. Stardog has enterprise customers from Fortune 500 in finance, health care &amp; life sciences, energy, media, and government.</t>
+          <t>UpKeep was created to alleviate all of the pain points that many companies face. A tool for managers to communicate with technicians who are in the field. A portal for technicians to respond to urgent issues without having to shuffle through paperwork. A modern, intuitive, and efficient maintenance management system that is proven to expedite the workflow process.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -579,47 +575,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$36,000,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Stardog Expands Its Series B Financing</t>
+          <t>UpKeep Raises $36M Series B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/stardog/venture-capital-funding/pjlnxshfms</t>
+          <t>https://vcnewsdaily.com/upkeep/venture-capital-funding/xchkdyvxjj</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ARLINGTON, VA, Stardog has expanded its Series B to $11.4 million by securing an additional $3 million.</t>
+          <t>LOS ANGELES, CA, UpKeep announced it raised $36M in Series B funding led by Insight Partners.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Stardog/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/UpKeep/venture-funding.php</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Stardog, the leading Enterprise Knowledge Graph platform, today announced it has expanded its Series B round to $11.4m, securing an additional $3 million from new investors Contour Venture Partners, Dcode Capital, and Presidio Ventures, the corporate venture capital arm of Sumitomo Corporation. The additional capital will be used to scale go-to-market operations, following the market's increasing interest in knowledge graph technology."Our new partners have deep knowledge in critical areas of our go-to-market," said Kendall Clark, CEO and Founder of Stardog. "We plan to expand our successful EU operations, strengthen our work in the public sector, and to develop tools and partnerships to broaden access to knowledge graphs."Stardog's Enterprise Knowledge Graph platform is used by industry leaders including Morgan Stanley, NASA, Schneider Electric and Bayer. Customers use Stardog for a range of solutions including operational resilience, pharmaceutical R&amp;D and situational awareness. Stardog's platform uniquely combines graph storage and virtualization capabilities for flexible, cost-effective data integration. In March, Stardog was recognized by Fast Company in its annual list of the World's Most Innovative Companies as the 7th most innovative Enterprise. "Now more than ever, knowledge graphs are poised to have a strategic impact on the data management landscape," said Clark. "People need tools that can handle complexity, allowing them to adapt accordingly. Knowledge graphs are proven to do just that by unifying data that is varied, hybrid and changing to reliably deliver insight."Stardog, the leading Enterprise Knowledge Graph platform, turns data into knowledge to power more effective digital transformations. Industry leaders including Bayer, Bosch, Morgan Stanley and NASA use Stardog to create a flexible data layer that can support countless applications. Stardog is a privately held, venture-backed company headquartered in Arlington, VA. For more information, please visit www.stardog.com.</t>
+          <t>UpKeep, the award-winning platform for maintenance and operations teams, today announced it raised $36M in Series B funding. UpKeep is transforming the way frontline and deskless technicians manage their work and collaborate by replacing tedious paperwork and outdated systems with an easy-to-use mobile app. The round was led by Insight Partners with participation from existing investors Emergence Capital, Battery Ventures, Y Combinator, Mucker Capital, and Fundersclub.Since UpKeep's Series A in 2018, the company has continued to see rapid growth across users and its customer base:10 million work orders have been created on the UpKeep app400,000+ users2,000+ paying businessesRanked the #1 Maintenance Management Software by Capterra/Gartner and G2 based 1520+ 5-star reviewsUpKeep customers span 61 countries and range from local small businesses to large corporations, including many essential businesses such as manufacturing plants, hospitals, and wastewater treatment facilitiesNotable brands include Unilever, Siemens, DHL, Thermo Fisher Scientific, McDonald's and Jet.com206% revenue growth last year"At UpKeep, we know maintenance and facility managers are typically only thought of when something at a facility is broken so badly that it's out of commission," said Ryan Chan, UpKeep founder and CEO. "The truth is, maintenance and facility workers are part of the backbone of every industry, in every country in the world. They make a huge impact on all of our lives, every single day, whether we're aware of it or not - and that's never been more apparent than now as they work on the frontlines of the COVID-19 crisis. Today, and every day, our commitment is to serve these maintenance workers as they lead the charge molding the post-COVID world around us.""COVID-19 is bringing the importance of maintenance into the spotlight, underscoring UpKeep's mission. We are incredibly proud to support Ryan and his team at this critical time as they build out their platform and expedite offerings to help their customers navigate post-pandemic realities," said Deven Parekh, Managing Director at Insight Partners. "We believe UpKeep will continue to be instrumental to the industries and people that keep our world safe and running."As a software solution designed with the technician at the forefront, UpKeep is now focusing on innovation to empower technicians to keep their facilities safe and help managers retain business in a changing global health and economic climate. Particularly, Customer Success Managers at UpKeep are uploading critical resources, like maintenance and sanitation checklists, to customers' UpKeep accounts, at no additional cost."When we first met Ryan, we were impressed by his passion for changing the lives of deskless workers in maintenance and operations functions. He and the rest of the UpKeep team are, for the first time, bringing great software to this important part of the workforce," said Kevin Spain, Founding General Partner at Emergence Capital. "We are proud of UpKeep for the incredible growth they've experienced so far and are excited about what this round will allow them to build for their customers."The financing allows UpKeep to continue to provide support for essential maintenance workers worldwide, as well as invest in their teams, communities, and products to scale operations.Clint Jantz, a Clinical Engineer at a hospital in Colorado shared how UpKeep has been instrumental in tracking essential equipment during uncertain times: "At the end of the day, it's about our patient care." He explains that with UpKeep, "If I have a director come in and ask me how many IV pumps we have, I can pull those answers up quickly and have documentation for him on UpKeep."Jantz captured the necessity of maintenance software for the essential workforce: "We utilize UpKeep's software to make sure that we can mitigate issues prior to them becoming fires. And that has been great, and that's exactly what a CMMS is supposed to do, help us mitigate the issues that are going to arise.""For the past decade, maintenance and facility managers and field workers have been largely overlooked by technology innovation," says UpKeep's Founder, Ryan Chan. "The legacy technologies available to this industry have been outdated, clunky, and inconvenient-to-use web applications that do not translate to mobile."________________________________________________________________________________________________About UpKeep:Founded in 2014 by Ryan Chan (Forbes 30 Under 30), UpKeep is unlocking the potential of maintenance and facilities teams by offering them the simplest and smartest way to manage their work and collaborate, all from their pocket. Unlike some clunky, legacy software vendors and DIY solutions, UpKeep was built to give technicians everything they need to manage their work on-the-go while empowering managers with the insights to make better decisions, faster. UpKeep is backed by leading investors, including Insight Partners, Emergence Capital, Battery Ventures, Y Combinator, Mucker Capital, and Fundersclub. The company is headquartered in Los Angeles, California with offices in San Francisco, the UK, and Canada.UpKeep is the #1 Maintenance Management Software by Capterra/Gartner and G2, with 1,360+ positive reviews, named #1 Facility Management Solution By GetApp, and awarded Top 100 Fastest-Growing Products by G2.UpKeep is free for anyone to use, available in the Apple App Store or Google Play. Get a personalized demo today!About Insight Partners:Insight Partners is a leading global venture capital and private equity firm investing in high-growth technology and software ScaleUp companies that are driving transformative change in their industries. Founded in 1995, Insight Partners has invested in more than 400 companies worldwide and has raised through a series of funds more than $30 billion in capital commitments. Insight's mission is to find, fund, and work successfully with visionary executives, providing them with practical, hands-on software expertise to foster long-term success. Across its people and its portfolio, Insight encourages a culture around a belief that ScaleUp companies and growth create opportunity for all. For more information on Insight and all its investments, visit http://www.insightpartners.com or follow us on Twitter @insightpartners.</t>
         </is>
       </c>
     </row>
@@ -629,62 +625,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LetsGetChecked</t>
+          <t>ConverseNow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Founded in 2014 by Peter Foley, LetsGetChecked is a medical technology platform linking customers to regulated laboratory testing to better manage and control their personal health. LetsGetChecked is making healthcare and diagnostics open and patient-led, empowering people to use technology in a simple but powerful way by providing greater control of personal health. LetsGetChecked is based in Dublin and New York with more than 30 tests for general health, sexual health, cancer screening and fertility checks available in the US, Canada and 14 European countries.</t>
+          <t>ConverseNow connects restaurants with their customers and brings them one step closer to their customers using AI. The ConverseNow platform automates and personalizes restaurant orders in high volume voice channels such as phone, drive thru, self-service kiosks, voice assistants, and voice assisted chat on mobile. Emma, the context-aware digital ordering expert of ConverseNow, engages with customers in a human-like manner using anonymized abstracted machine intelligence to predict customer ordering behaviors and offers highly relevant and personalized recommendations. Emma drives revenue for restaurants by improving margins and increasing upsell while providing a better consumer experience.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$71,000,000</t>
+          <t>$3,250,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>LetsGetChecked Secures $71M Series C</t>
+          <t>ConverseNow Raises $3.25M Seed Funding</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/letsgetchecked/venture-capital-funding/zjwnzlxxxx</t>
+          <t>https://vcnewsdaily.com/conversenow/venture-capital-funding/bhqjxdtqzt</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NEW YORK, NY, LetsGetChecked has announced an oversubscribed $71 million Series C round.</t>
+          <t>AUSTIN, TX, ConverseNow Technologies announced $3.25M in seed round funding led by Bala Investments.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/LetsGetChecked/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/ConverseNow/venture-funding.php</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>According to MobiHealthNews, LetsGetChecked has wrapped up an oversubscribed $71 million Series C round co-led by Illumina Ventures and HLM Venture Partners.The raise also included new backers Deerfield, CommonFund Capital and Angeles Investments, while investors Transformation Capital, Optum Ventures and Qiming Venture Partners USA returned to further fuel the startup's business. With this, Illumina's Nick Naclerio, founding partner, and HLM's Steven Tolle, partner, will be joining LetsGetChecked's board as members.WHAT IT DOESFounded in 2014, LetsGetChecked provides consumer customers with a range of at-home testing kits, such as ones for hormone levels, sexually transmitted infections, liver performance, nutrition and - specifically for frontline healthcare workers - COVID-19.Customers receive their kit in the mail, with which they collect and return a personal sample for testing. One of the startup's lab partners analyzes the sample and returns it to a LetsGetChecked physician, who reviews the results and counsels customers - over the phone, if necessary. For later reference, test results are saved in a LetsGetChecked patient app that interfaces with Apple Health, Fitbit, Garmin and other consumer-friendly health tools.As of March, the company has also been offering a COVID-19 "twin-track" antibody and PCR test exclusive to providers working at the point of care. However, the company said it hopes to release a direct-to-consumer version of the testing kit down the road."The company's work has never been more important now that the world faces a global pandemic, forcing us all to re-evaluate how we obtain health and wellness services," Illumina's Naclerio said in a statement. "LetsGetChecked is already having a profound impact on patient-led at-home healthcare, which is necessary now and will become increasingly common in the future."WHAT IT'S FORThe company said these funds will help build up its manufacturing, supply and testing capacity for COVID-19. It will be increasing activity at its California laboratory while boosting operations and partnerships across the U.S. and Europe."We have been developing our platform for more than five years and have helped hundreds of thousands of individuals by enabling access to high-quality testing and telehealth services in the home, across many health conditions," Peter Foley, CEO and founder of LetsGetChecked, said in a statement. "With the onset of COVID-19, we realigned resources with a view to helping with this global pandemic and are currently delivering tens of thousands of tests per day to critical and frontline healthcare workers"MARKET SNAPSHOTConsumer-facing home testing startups were already picking up momentum around the time of LetsGetChecked's $30 million Series B, with competitors like EverlyWell, healthy.io and Scanwell Health all announcing new rounds or services over the course of the last year. However, COVID-19 has ramped up demand across the industry and led to some confusion with the FDA on more than one occasion. But the window for these companies to take their COVID-19 tests directly to consumers appears to be reopening: It was just a few weeks ago that LabCorp's COVID-19 RT-PCR test became the first permitted for at-home sample collection.ON THE RECORD"HLM invests in companies that inherently drive adoption due to the need they serve, and companies that leverage important market trends," Tolle said in a statement. "In this case, LetsGetChecked is helping to improve consumer access to care, which is increasingly essential."</t>
+          <t>ConverseNow Technologies, Inc., an Austin-based startup that automates and personalizes restaurant orders on high-volume voice channels using Artificial Intelligence (AI), today announced $3.25M in seed round funding led by Bala Investments with participation from LiveOak Venture Partners, Tensility Venture Partners, Knoll Ventures, 2048 Ventures, Bridge Investments and Connexus A1 Fund managed by Ken Neeld, CEO of Delphi Display Systems. Rajiv Bala, Managing Director at Bala Investments, will join the company's board of directors.While restaurant dine-in business has fallen because of the pandemic, quick service restaurants (QSRs) have quickly adapted to new ways of optimizing contactless customer interactions, e.g. contactless ordering, delivery, curbside pickup stations, and an increase in drive-thru orders to minimize spread of COVID-19 during these uncertain times.As consumers adjust to this new normal by choosing to stay home, increasing social distancing and switching to more contactless off-premise ordering options, operators are responding to this behavioral shift. QSRs are now adapting technology to support growing volume on voice-based ordering channels such as drive-thru, phone and self-service kiosks to enable contactless ordering.ConverseNow's Voice AI platform has been helping QSRs by automating and personalizing the ordering process, driving efficiencies and reducing customer wait times. The platform also helps in managing the peak demand of resources efficiently and drives higher order value using personalized upsell recommendations."We're building a unique plug and play technology that will allow QSRs to use AI as a Service. The platform is already being used by leading QSRs and has demonstrated a measurable 25% increase in order value. The funds will enable ConverseNow to further enhance its technology, significantly increase its sales, and continue to grow its customer base." ConverseNow, co-founder and CEO Vinay Shukla said in a statement. "Our partners and investors bring a unique blend of industry expertise that will help us expand our footprint across US.""Understanding user intent and emotional quotient is the key to driving great customer experiences, order closures and upsell revenue. ConverseNow's platform uses highly nuanced speech technology and custom AI/ML models to continuously learn from customer ordering behavior to drive end-to-end customer conversations," said Rahul Aggarwal, co-founder / COO &amp; CPO at ConverseNow.Wayne Pederson, CIO of Fazoli's Restaurant Management, LLC, adds, "AI will play a large role in restaurant technology as we work to balance the shift to off-premise and drive-thru. We want to maximize this channel so that our team can manage the increased order volume, whether they are placing an order via phone, the drive-thru or the dining room. We found ConverseNow's technology to be a perfect fit to address our requirements without compromising on the guest experience.""At Delphi, we believe AI and contactless interactions will be a key factor in customer engagement in the post-pandemic new normal. In partnership with ConverseNow, we believe that we can provide immediate value to our QSR customers' in-store kiosks and drive thru by optimizing their order-to-service time, increasing order accuracy, expanding check size through dynamic suggestive upsell, and growing customer satisfaction," said Ken Neeld, Founder and CEO at Delphi Display Systems."ConverseNow is revolutionizing the restaurant industry with its technology. We are excited to support ConverseNow team as they write the playbook for contactless ordering with consumers and restauranteurs alike." said Rajiv Bala, Managing Director at Bala Investments.About ConverseNow:ConverseNow connects restaurants with their customers and brings them one step closer to their customers using AI. The ConverseNow platform automates and personalizes restaurant orders in high volume voice channels such as phone, drive thru, self-service kiosks, voice assistants, and voice assisted chat on mobile. Emma, the context-aware digital ordering expert of ConverseNow, engages with customers in a human-like manner using anonymized abstracted machine intelligence to predict customer ordering behaviors and offers highly relevant and personalized recommendations. Emma drives revenue for restaurants by improving margins and increasing upsell while providing a better consumer experience.For more information, visit http://www.conversenow.ai.</t>
         </is>
       </c>
     </row>
@@ -694,62 +690,58 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Invisible AI</t>
+          <t>Transect</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Invisible AI is a visual intelligence platform that's building the next generation of computer vision solutions for manufacturing. Headquartered in San Francisco, CA, the company's founding team comes from the world of autonomous vehicles, having previously developed state-of-the-art AI systems. Invisible AI has built an intelligent camera that tracks body posture and movement to automatically monitor assembly processes, and works with operators to ensure high production quality.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
+          <t>Founded in San Antonio in 2016, Transect provides solutions for environmental risk for renewable energy, oil and gas, transportation, and real estate customers. The Transect team has over 25 years of experience managing environmental compliance and permitting built into the technology.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$3,600,000</t>
+          <t>undisclosed</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Invisible AI Raises $3.6M Seed Round</t>
+          <t>Transect Closes Funding Round</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/invisible-ai/venture-capital-funding/hzqgmnqgjj</t>
+          <t>https://vcnewsdaily.com/transect/venture-capital-funding/ndxtxqjglt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO, CA, Invisible AI, a next-generation computer vision company, today announced that it has raised a $3.6 million seed round, led by 8VC.</t>
+          <t>SAN ANTONIO, TX, Transect has successfully secured venture capital funding.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Invisible%20AI/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Transect/venture-funding.php</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Participating investors include iRobot Ventures, K9 Ventures, Sierra Ventures and Slow Ventures. Invisible AI offers the industry's first no-code, edge-based computer vision platform. Their first application tracks body movement to improve manual assembly processes in manufacturing facilities. Invisible AI's technology augments the workforce by giving operators real-time feedback to increase productivity, improve quality, and ensure safety.Earlier this year, Invisible AI was showcased by Toyota Motor North America as one of four technologies augmenting the workforce on the manufacturing floor of the world's largest automaker."We are proud to be working closely with 8VC and other strategic partners to help us advance the product and meet demand," said Eric Danziger, CEO of Invisible AI. "We are already working with some of the best names in manufacturing, but we believe every organization can benefit from our AI-enabled cameras. Our service helps to assure high quality, a safe workplace, and replicate best practices throughout manufacturing facilities."Introducing Invisible AI's edge computer vision platformBusinesses are starting to rapidly install cameras to gain visibility but this simply increases the burden on employees to review the video to gain insights. Invisible AI instead uses computer vision to help businesses answer critical questions, consistently and inexpensively. Specifically, the inability for manufacturers to monitor assembly processes results in millions of dollars of waste, lost worker time and preventable human injury or error. With this first product, Invisible AI has seen strong demand within top-tier manufacturing companies and this round of funding will be used to rapidly grow the team and expand product capabilities.Invisible AI's low-bandwidth and low-cost cameras can be deployed at each workstation to enable full visibility into assembly processes. This computer vision technology operates entirely at the edge with deep learning models 100x smaller than the current state-of-the-art technology available today. The proprietary, custom solution can be deployed in hours, compared to their competition which typically has a lead time of 8 weeks. There is also built-in privacy, with no video data stored in the cloud and no facial data ever utilized."8VC is excited to help Invisible AI expand its reach and grow its customer base," said Alex Moore, partner at 8VC. "We are convinced that Invisible AI is set to have a huge impact on the $200-billion global manufacturing market, saving money and helping improve processes for a multitude of clients."For more information about Invisible AI, please visit www.invisible.ai.ABOUT INVISIBLE AIInvisible AI is a visual intelligence platform that's building the next generation of computer vision solutions for manufacturing. Headquartered in San Francisco, CA, the company's founding team comes from the world of autonomous vehicles, having previously developed state-of-the-art AI systems. Invisible AI has built an intelligent camera that tracks body posture and movement to automatically monitor assembly processes, and works with operators to ensure high production quality. The company recently closed a seed round led by 8VC, with participation from iRobot Ventures, K9 Ventures, Sierra Ventures and Slow Ventures.</t>
+          <t>Transect, a B2B SaaS company that partners with energy and other industries to identify and plan for environmental risk, announced it has successfully secured venture capital funding to accelerate growth.Blue Bear Capital led the round alongside existing investors, including Holt Ventures. Gary Horn, CEO of Horn Solutions, Inc. and return investor, joins the Transect founding team and Vaughn Blake, a partner at Blue Bear Capital, on the board."Primary energy consumption is reaching record highs and the need for energy and transportation infrastructure is critical, but unforeseen environmental hurdles can really frustrate progress," said Robin Laine, CEO of Transect. "Our strategic partnership with Blue Bear Capital, an expert investor in the energy and technology markets, will accelerate growth, open us to new customer relationships, and expand our technical, development, and sales teams."Navigating environmental regulations is complicated, especially for oil and gas, renewable, and transmission companies, which have current and prospective assets across the nation. Just a few of the many of the challenges that businesses face include:Identifying endangered species habitat,Minimizing wetlands impacts and planning for setbacks,Requirements around public land ownership, andNavigating federal and local permit requirements.Dealing with these challenges must be done responsibly, but they can slow acquisition, development, and maintenance of valuable infrastructure. Transect provides an online tool that identifies these and other environmental challenges, pinpoints the relevant regulations and permits, and provides site-specific insight on recommendations and timelines to make informed project decisions. Existing customers include several of the country's largest pipeline and renewable energy infrastructure companies, including Plains All American Pipeline, GE Renewable Energy, and Origis Energy.Considering the many infrastructure projects proposed by President Trump, like the U.S.-Mexico border wall or his recent $2 trillion infrastructure plan, as well as ongoing uncertainty from regulatory rollbacks, it is more important than ever for the public to have easy access to the best available information about environmental issues. "We are all spending more time working from home right now because of COVID-19. With Transect, businesses can find answers in minutes, from anywhere," explains Laine."Our firm is thrilled to support Transect as they leverage data and automation software to improve efficiencies, reduce costs, and increase accuracy for energy companies navigating the many environmental workstreams their projects require," said Blake of Blue Bear Capital. "The team's experience and insight are second-to-none and it's a privilege to support a company that enables the responsible development of our natural resources."The funding round coincides with the launch of Transect Vision, a prospecting tool that helps Transect users find the perfect project site.About TransectFounded in San Antonio in 2016, Transect provides solutions for environmental risk for renewable energy, oil and gas, transportation, and real estate customers. The Transect team has over 25 years of experience managing environmental compliance and permitting built into the technology. To learn more about Transect, visit www.transect.com.About Blue Bear CapitalBlue Bear is a venture capital and growth equity firm driving digital technologies into multibillion-dollar verticals across the energy industry. The team comes together from leading energy private equity firms and features technology expertise from the tech startup world alongside operational leadership from the NASA astronaut corps. Blue Bear's portfolio covers AI, IoT, and cybersecurity technologies, all deployed with leading enterprise customers as they improve the economics of wind, solar, and storage while driving efficiencies across the energy industry. For additional information, visit www.bluebearcap.com and @BlueBearCap.</t>
         </is>
       </c>
     </row>
@@ -759,62 +751,62 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LimeBike</t>
+          <t>Vennfi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lime was focused on the idea that mobility can be smart, equitable, and fun. By connecting cities and improving the way people experience first and last mile transporation, we aim to leave future generations with a cleaner, healthier planet. From smart bikes to electronic scooters ans beyond, weâre committed to building strong social bonds, lasting community relationships, and the worlds most versatile smart mobility fleet.</t>
+          <t>Vennfi's flagship platform Charityvest offers individuals and businesses free tax-deductible charitable giving funds. Users can donate cash or stock to their fund, make donations to any of the 1.4M nonprofits in the U.S., and keep track of all of their giving activity with a single consolidated tax receipt. The experience has been called "Venmo for charitable giving." Since launching in December 2019, Charityvest has facilitated giving to over 300 nonprofits and received nearly $2M in charitable contributions from donors.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Venture</t>
+          <t>Pre-Seed</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$170,000,000</t>
+          <t>$1,100,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lime Lands $170M Funding Round</t>
+          <t>Vennfi Closes Pre-Seed Round of $1.1M</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/limebike/venture-capital-funding/kktwwvynzx</t>
+          <t>https://vcnewsdaily.com/vennfi/venture-capital-funding/vglldgrtbk</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SAN MATEO, CA, Lime has secured $170 million in financing led by Uber Technologies.</t>
+          <t>ATLANTA, GA, Vennfi announced that it closed a pre-seed funding round of $1.1M.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>San Mateo</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/LimeBike/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Vennfi/venture-funding.php</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Uber Technologies Inc. is leading an investment round of $170 million in scooter-rental company Lime, a lifeline for a startup reeling from plunging customer numbers and company-wide layoffs.Alphabet Inc., GV and Bain Capital Ventures, along with other new and existing stakeholders, also participated, Lime said in a statement on Thursday. As part of the deal, Lime will acquire Uber's Jump bike-sharing business operations and the two companies will expand the integration of their mobile apps.The investment round valued Lime at $400 million, a person familiar with the terms said, asking not to be identified because they're private. That's a massive drop from the $2.4 billion investors priced the company at in a funding round last year. Lime didn't comment on the valuation in the statement.Venture capitalists have invested more than $1 billion in the last few years in two startups renting electric scooters -- Lime and Bird -- but they began falling out of favor this year. First unprofitable business models fell out of fashion, and then the pandemic kept customers stuck at home. Both companies had to drastically reduce their fleets by mid-March.Lime said in January it was cutting 14% of staff, about 100 employees, and retreating from a dozen markets in a drive toward profitability. In March it said it was "winding down or pausing" service in all markets but South Korea. And in April, further job cuts were announced.Lime said its chief executive officer, Brad Bao, would be replaced by Wayne Ting, previously the company's head of operations. Bao will continue as board chairman.Global self-isolation measures and government bans on travel had decimated Lime's ability to generate revenue from the hundreds of thousands of scooters it has around the world. The company went from 147,000 scooter trips globally on March 14 to about 52,000 three days later as Europe went into lockdown.Scooter companies are also suffering from a sharp decline in transportation spending and a newfound aversion to the sharing economy. This combination of factors is also weighing heavily on Airbnb Inc., Getaround Inc., Lyft Inc. and Uber. Lyft said Wednesday that it's cutting 17% of its workforce.</t>
+          <t>Vennfi, the financial technology company for tax-exempt payments, announced that it closed a pre-seed funding round of $1.1M, composed of a diverse set of seasoned private investors. It will use the investment to expand the platform's capabilities and increase its growth.The company's flagship platform Charityvest offers individuals and businesses free tax-deductible charitable giving funds. Users can donate cash or stock to their fund, make donations to any of the 1.4M nonprofits in the U.S., and keep track of all of their giving activity with a single consolidated tax receipt. The experience has been called "Venmo for charitable giving." Since launching in December 2019, Charityvest has facilitated giving to over 300 nonprofits and received nearly $2M in charitable contributions from donors.Charityvest uses donor-advised funds (DAFs), which have traditionally been marketed to wealthy donors. The platform has dramatically reduced the complexity and cost of DAFs and can offer its funds with no fees or minimums.Unique aspects of Charityvest are that 100% of donated funds go to charities, and any organization can receive funds with no setup or contract.Charityvest's mission is to enable generosity through technology. It aims to foster habits of intentional giving among donors, which has been shown in numerous studies to increase positive psychological effects and decrease anxiety and depression.In addition to providing charitable giving funds to individuals or families, the company plans to grow by providing businesses the ability to sponsor tax-advantaged charitable giving funds for employees and provide churches with a free digital solution to collect donations from members.The venture was first envisioned by Stephen Kump at Yale University in 2016 where he was an MBA student at the time. "My wife and I made a commitment to give a percentage of our income away and we wanted a donor-advised fund to manage it, but the fees and experience of traditional funds didn't make sense for us or our friends," said Kump, the venture's CEO. Instead of collecting fees, Charityvest invests aggregated account balances in low-risk investment vehicles, like a bank. It can create positive economics this way due to its efficient, scalable technology.Stephen is joined by co-founders Jon Koon, CTO, and Ashby Foltz, COO, who have added experience in consumer software development and financial technology products, respectively.Two family offices were the largest investors in the funding round, each of them founded by successful technology entrepreneurs. One of them is His Fund, founded by former Convergint Technologies entrepreneur Greg Lernihan. "We believe Charityvest will shift the economics of giving and we're excited to come alongside this team to execute on this vision," said Tom Lernihan, who manages the venture portfolio for His Fund.</t>
         </is>
       </c>
     </row>
@@ -824,62 +816,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Braid Health</t>
+          <t>QurAlis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Braid Health is a digital health innovation company focused on the development and delivery of an AI powered diagnostic collaboration platform for radiology and the healthcare industry. Headquartered in San Francisco, CA, the company was founded in 2018 by Kevin Quennesson and Alessandro Sabatelli, developers behind the Apple Watch, iPhone and Siri.</t>
+          <t>QurAlis Corporation is a Cambridge (USA) based biotech company focused on developing precision therapeutics for ALS and other neurological diseases.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Seed and Series A</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$9,000,000</t>
+          <t>$42,000,000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Braid Health Pulls In $9M</t>
+          <t>QurAlis Collects $42M in Series A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/braid-health/venture-capital-funding/pmqgfzynvc</t>
+          <t>https://vcnewsdaily.com/quralis/venture-capital-funding/dmrcjxvbxj</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO, CA, Braid Health has announced the close of $9 million in seed and Series A investment rounds.</t>
+          <t>CAMBRIDGE, MA, QurAlis Corporation announced the raise of a $42 million Series A financing.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Cambridge</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Braid%20Health/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/QurAlis/venture-funding.php</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Braid Health, a digital health innovation company that develops AI-powered diagnostic tools for radiology, today announced the close of $9 million in seed and Series A investment rounds led by Lux Capital. Venture capital firms 01 Advisors, formed by top Twitter executives Dick Costolo and Adam Bain, and Rucker Park Capital also participated in the financing.Braid Health combines AI-powered diagnostics with board-certified radiologists to unlock the next generation of augmented radiology. Whereas imaging technology can be slow, cumbersome and difficult to share with patients, Braid Health offers urgent care centers, health systems and retail pharmacies an AI-powered, end-to-end teleradiology platform built from the ground up with speed, accuracy, security and mobility in mind."At Lux Capital, we invest at the outermost edges of what is possible," says Zavain Dar, partner at Lux Capital and Braid Health board member. "Kevin Quennesson and Alessandro Sabatelli founded Braid Health to challenge the status quo in medical imaging and diagnostics at a time when a growing aging population is straining the ability of teleradiology firms and urgent care centers to meet patient demand. We are excited to support their innovative approach to delivering nearly instant access to the best possible imaging diagnostics in the world."Braid Health will use proceeds of the financing to:-Hire the most experienced team in healthcare technology.-Build the healthcare industry's most advanced, AI-driven diagnostic imaging platform.-Develop the Braid Network, a technology platform connecting a virtual network of healthcare specialists to improve care delivery and drive cost out of the system."Since our founding in 2018, Braid Health has been committed to delivering expert diagnosis at significantly lower costs and faster turnaround times," said Kevin Quennesson, CEO and co-founder of Braid Health. "Today, as we reinvent the imaging experience and enhance diagnostic accuracy by bringing expanded capabilities to market, we are honored to have the support of visionary investors who believe in our mission of universal access to medical expertise."About Braid.HealthBraid Health is a digital health innovation company focused on the development and delivery of an AI powered diagnostic collaboration platform for radiology and the healthcare industry. Headquartered in San Francisco, CA, the company was founded in 2018 by Kevin Quennesson and Alessandro Sabatelli, developers behind the Apple Watch, iPhone and Siri. The company is backed by Lux Capital and other prominent investors including former Twitter CEO and COO Dick Costolo and Adam Bain. To learn more, visit braid.health.</t>
+          <t>QurAlis Corporation, a biotech company focused on developing precision therapeutics for amyotrophic lateral sclerosis (ALS) and other neurologic diseases, today announced the raise of a $42 million Series A financing, bringing the total funds raised to $50.5 million. The financing was led by LS Polaris Innovation Fund, lead seed investor Mission BioCapital, INKEF Capital and the Dementia Discovery Fund, and co-led by Droia Ventures. Additional new investors include Mitsui Global Investment and Dolby Family Ventures, joined by investments from existing investors Amgen Ventures, MP Healthcare Venture Management, and Sanford Biosciences. QurAlis intends to use this funding to support the development of new therapies for ALS and genetically related frontotemporal dementia (FTD), neurodegenerative diseases for which there is currently no cure."This Series A funding will allow us to take the next major step in our growth and advance our lead programs into the clinic. Recent advances in science and technology have identified strong disease targets for specific groups of ALS and FTD patients. Combined with our proprietary human stem cell technologies and development capabilities, we believe we are placed in a very good position to bring forth real treatments," said Kasper Roet, Ph.D., Chief Executive Officer of QurAlis. "The QurAlis team built this company from the ground up on a foundation of cutting-edge science and profound dedication to helping ALS patients above all else. The great support of our existing and new investors from the US, Europe and Japan underscores the international nature of our mission. We plan to use this funding to continue advancing ALS and FTD therapies for patients around the world who are in critical need of effective treatments."As ALS can be caused by mutations in over 25 individual human genes, many of which also cause FTD, QurAlis' strategy is to systematically investigate treatments targeting specific disease-causing mechanisms in patient sub-populations. The company evaluates a wide range of potential treatments through the company's transformative system that utilizes lab-grown neuronal networks derived from cells of ALS patients."Between the company's strong scientific foundation and support by ALS luminaries Kevin Eggan and his co-founders, promising pipeline of potential ALS treatments, and its dedicated team of experts in the field of neurologic therapeutics, QurAlis is very well positioned to make a tremendous difference for patients with ALS and FTD," said Amy Schulman, Managing Partner of the LS Polaris Innovation Fund. "We are proud to support their mission and have deep faith in their transformative technology, which has already supported the discovery of several promising ALS candidate therapeutics."In connection with the financing round, Amy Schulman, Managing Partner of the LS Polaris Innovation Fund; Roel Bulthuis, Managing Partner at INKEF Capital; Jonathan Behr, Ph.D., Partner at the Dementia Discovery Fund; and Luc Dochez, Managing Partner at DROIA Ventures, will be joining Johannes Fruehauf, M.D., Ph.D., General Partner at Mission BioCapital, on QurAlis' Board.About ALSAmyotrophic lateral sclerosis (ALS), also known as Lou Gehrig's disease, is a progressive neurodegenerative disease impacting nerve cells in the brain and spinal cord. ALS breaks down nerve cells, reducing muscle function and causing loss of muscle control. ALS can be traced to mutations in over 25 different genes and is often caused by a combination of multiple sub-forms of the condition. Its average life expectancy is three years, and there is currently no cure for the disease.About QurAlis CorporationQurAlis is developing precision therapeutics for ALS, a terminal disease that causes muscle paralysis through degeneration of the motor system. We are digging deep into the root causes of the multiple sub-forms of this destructive disease and focus our programs on tackling specific disease-causing mechanisms.</t>
         </is>
       </c>
     </row>
@@ -889,62 +881,58 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Every Mother</t>
+          <t>Tock</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Every Mother is designed for women at all stages of motherhood, from those first moments of pregnancy to decades after giving birth. We offer an evidence-based pre and postnatal fitness exercise program (previously known as The Dia Method) proven to prevent and resolve diastasis recti and improve core strength and function while building total body fitness through safe, effective workouts.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
+          <t>Tock is a complete reservation, guest, and table management system built to power all types of restaurants, wineries, and events. With a global network, automated booking tools, and first-class hospitality reports, Tock is committed to reimagining how reservations-based businesses connect with their customers.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$1,500,000</t>
+          <t>$10,000,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>13 May 2020</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Every Mother Collects $1.5M Seed Round</t>
+          <t>Tock Announces $10M in Funding</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/every-mother/venture-capital-funding/txzsdrgrzg</t>
+          <t>https://vcnewsdaily.com/tock/venture-capital-funding/yqkpwgzgqg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BROOKLYN, NY, Every Mother has raised a $1.5 million seed round led by Courtside Ventures.</t>
+          <t>CHICAGO, IL, Tock announced an oversubscribed $10 million financing led by Valor Siren Ventures with participation from Origin Ventures.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Brooklyn</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Every%20Mother/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Tock/venture-funding.php</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>According to TC, Every Mother has raised a $1.5 million seed round led by Courtside Ventures, with participation from Serena Williams' Serena Ventures, Techstars Ventures, The Fund and prominent angels Robin Berzin of Parsley Health and Ilia Papas of Blue Apron.Every Mother is designed for women at all stages of motherhood, from those first moments of pregnancy to decades after giving birth. We offer an evidence-based pre and postnatal fitness exercise program (previously known as The Dia Method) proven to prevent and resolve diastasis recti and improve core strength and function while building total body fitness through safe, effective workouts.</t>
+          <t>Tock, the premier restaurant and winery booking system, today announced an oversubscribed $10 million financing led by Valor Siren Ventures with participation from Origin Ventures."We were impressed with Tock's system, innovations, and rapidly expanding raving-fan customer base throughout 2019," said Valor Siren Ventures fund manager, and Tock board member Jon Shulkin, "but we were blown away by its rapid development and deployment of Tock to Go amidst this terrible pandemic. Tock revealed its true grit and entrepreneurial spirit, and is helping thousands of restaurants build a bridge to the future. As restaurants slowly begin to reopen, the combination of Tock's reservations, events, CRM, and carryout functions on a single affordable platform is game changing for the industry."Tock's core business of reservations, event bookings, and intelligent hospitality tools served nearly 3,000 restaurants, wineries, and pop-ups across 28 countries in over 200 cities as of February. But as Covid-19 struck the vast majority of those businesses were forced to close. Tock's cloud based platform, flexible data structures, and best in class hospitality features enabled the rapid design, build, and deployment of Tock to Go -- built to help restaurants offer pickup and delivery. In April alone Tock added nearly 1,000 new restaurants, allowing them to offer elevated carryout menus and delivery service to millions of Tock diners while safely reemploying their staff. Tock charges a flat 3% for this service, compared to over 25% for many third party delivery apps."Tock's mission has never waivered," said CEO Nick Kokonas. "We always focus on empowering restaurants to have a better, direct connection with their customers. In doing so we help them provide superior hospitality, increase their sales, and streamline their operations. While we never expected a crisis like this, we know that what worked so well in good times is now critical. Our work has always been rewarding because we love the hospitality industry. Now it is truly important."To date Tock has seated tens of millions of guests, booked nearly $1 billion of pre-paid reservations, deposits, and events, and has already enabled the service of 1 million To Go meals. As restaurants begin to reopen, Tock will continue to create tools that restaurants need to resume operations, including contactless payment, dual dine-in and carryout service operations, data-driven hospitality reporting, and marketing integrations. Tock is the only system that provides reservation management capacity controls and the ability to offer pickup and/or delivery orders on one unified platform."Tock is doing well by doing good for the industry," said Origin's Jason Heltzer, a Tock board member. "This is an investment not only in Tock, but in the future of the restaurant industry -- one that we believe will rebound because it is so tied to our collective culture."About Tock:Launched in December 2014, Tock powers reservation, table management, and carryout operations for nearly 3,000 restaurants ranging from neighborhood pizzerias to Michelin-starred destinations, wineries, and pop-ups in 28 countries.From ordinary reservations to extraordinary experiences, Tock allows guests to discover and book wherever they are - on Google, Instagram, Facebook, Maps, or on the Tock app. Coming soon is Tock Time, the first of its kind digital concierge system for diners. Later this summer, Tock's partnership with JPMorgan Chase will see the launch of Ultimate Rewards Dining, allowing millions of diners to discover and book Tock restaurants through a direct integration into the Chase platform. For more information, visit www.exploretock.com.About Origin Ventures:Origin Ventures is a venture capital firm founded in 1999 based in Chicago and Salt Lake City, primarily focused on Seed and Series A equity investments in companies building products and services for the Digital Native economy. The partners are former operators and engineers with a combined 75+ years of venture investing experience and have produced $4.2B of aggregate company exit value. Previous investments include Grubhub, Teem, Ahalogy, Cameo, 15Five, BacklotCars, and Tovala. For more information, visit www.originventures.com.About Valor Siren Ventures:The Valor Siren Ventures mission is to be the leading innovation engine and market maker in early-stage food, food technology, and retail technology investing. Our team aspires to create value by generating differentiated investment opportunities, applying our intellectual capital, and accelerating the growth of portfolio companies through VSV operations assistance in scaling. For more information, please visit www.valorep.com/valor-siren-ventures-vsv.</t>
         </is>
       </c>
     </row>
@@ -954,47 +942,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sleuth</t>
+          <t>SiMa.ai</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Deployment tracking, move fast without breaking things. When a deployment causes downtime, reduced performance, or customer facing bugs, Sleuth knows. Drawing from the best in class tools your engineering teams already use such as source control, APM, issue and error tracking. We equip your teams with the data needed to dramatically reduce downtime!</t>
+          <t>SiMa.ai is a machine learning company enabling high performance compute at the lowest power. Initially focused on solutions for computer vision applications at the embedded edge, the company is led by a team of technology experts committed to delivering the industry's highest frames per second per watt solution to its customers. Is your ML Green?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$3,000,000</t>
+          <t>$30,000,000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sleuth Snares $3M Seed Financing</t>
+          <t>SiMa.ai Raises $30M Series A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/sleuth/venture-capital-funding/wzspdptbqz</t>
+          <t>https://vcnewsdaily.com/sima.ai/venture-capital-funding/tmmttgcsmk</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO, CA, Sleuth announced it has raised a $3 million seed round led by CRV.</t>
+          <t>SAN JOSE, CA, SiMa.ai, the machine learning company enabling high performance compute at the lowest power, today announced a $30 million Series A funding.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1004,12 +992,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Sleuth/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/SiMa.ai/venture-funding.php</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>According to TC, Sleuth announced it has raised a $3 million seed round. CRV led the round with participation from angel investors from New Relic, Atlassian and LaunchDarkly.Deployment tracking, move fast without breaking things. When a deployment causes downtime, reduced performance, or customer facing bugs, Sleuth knows. Drawing from the best in class tools your engineering teams already use such as source control, APM, issue and error tracking. We equip your teams with the data needed to dramatically reduce downtime.</t>
+          <t>The Series A funding round was led by Dell Technologies Capital with participation from institutional investors Amplify Partners, Wing Venture Capital, and +ND Capital. The round brings the total amount raised to $40 million. SiMa.ai will use the funding to accelerate production and deliver on customer commitments. Daniel Docter, Managing Director at Dell Technologies Capital joins the SiMa.ai Board of Directors.As organizations embrace the ramp up of machine learning to address computer vision applications at the embedded edge, the great limiter is power usage. SiMa.ai's Machine Learning SoC (MLSoC™) is the industry's first unified solution to support traditional compute with the highest performance, lowest power, safe and secure machine learning inference. With a focus on developing environmentally friendly and efficient solutions, SiMa.ai delivers the highest frames per second per Watt (FPS/W) available today, offering greater than 30x improvement in FPS/W compared to other competing solutions."Securing this funding round is a testament to our team, technology, and customer traction," said Krishna Rangasayee, founder and CEO, SiMa.ai. "Our solution addresses a significant market need - customers across industries are challenged to fully adopt machine learning at the edge due to the lack of ease-of-use and low-power solutions. We are engaged with over 20 global and market-leading customers in the areas of robotics, smart cities, autonomous vehicles, medical imaging, and public sector use cases. With this funding round, we will scale our architecture and toolchain to production to deliver on customer commitments.""While ML workloads are already proliferating in data centers and ML functionality is being incorporated in edge devices, power constraints are inhibiting adoption in a wide spectrum of embedded system use cases that could benefit from ML," said Daniel Docter, managing director, Dell Technologies Capital. "Most other ML solutions are not aimed at addressing this market segment. We are excited to work with SiMa.ai's visionary team developing a disruptive and holistic solution to address this opportunity.""Through its new MLSoC architecture, SiMa.ai wants to bring a new level of high performance and power efficiency to embedded systems that require neural networks," said Linley Gwennap, principal analyst and president, The Linley Group. "As disclosed at our recent processor conference, their solution's unique feature is the deep-learning accelerator, which is called Mosaic. It employs a new approach that shifts complexity from the hardware to the software, thus reducing power consumption, enough for even the most demanding edge applications.""I invested behind Krishna's vision to make SiMa.ai the trusted computer vision partner for the embedded edge market," said Jake Flomenberg, general partner, Wing Venture Capital. "SiMa.ai's MLSoC solution offers groundbreaking energy efficiency that has the potential to greatly expand what is possible to do on the edge and to provide significant runtime improvements in power-constrained environments.""The intersection of computer vision and AI are going to shift billions of dollars of semiconductor spend over the next decade," said Mike Dauber, general partner at Amplify Partners. "SiMa.ai is forging a path to be the unquestioned leader in this space as their performance per Watt is orders of magnitude better than their competitors."SiMa.ai is based in San Jose, CA. For more information, visit SiMa.ai or read founder Krishna Rangasayee's blog.About Dell Technologies CapitalDell Technologies Capital is the global venture capital investment arm of Dell Technologies. The investment team backs passionate early stage founders who push the envelope on technology innovation for enterprises. Since inception in 2012, the team has sustained an investment pace of $150 million a year and has invested in more than 100 startups, 40 of which have been acquired and 5 have gone public. Portfolio companies also gain unique access to the go-to-market capabilities of Dell Technologies (Dell, Dell EMC, VMWare, Pivotal, RSA, Secureworks). Notable investments include Adallom, Arista Networks, Cylance, Docusign, Graphcore, JFrog, MongoDB, Netskope, Nutanix, RedLock, RiskRecon, TwistLock, Wavefront and Zscaler. Headquartered in Palo Alto, California, Dell Technologies Capital has offices in Boston, Austin, and Israel. For more information visit www.delltechcapital.com.About SiMa.aiSiMa.ai is a machine learning company enabling high performance compute at the lowest power. Initially focused on solutions for computer vision applications at the embedded edge, the company is led by a team of technology experts committed to delivering the industry's highest frames per second per watt solution to its customers. Is your ML Green?™For more details or to schedule a demonstration under NDA, contact: mlsoc@sima.ai.</t>
         </is>
       </c>
     </row>
@@ -1019,62 +1007,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VNDLY</t>
+          <t>Stellar Health</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Founded in 2017, VNDLY transforms how companies manage the contingent workforce. With its SaaS Work Management System (WMS), companies can manage the entire non-employee engagement lifecycle from talent acquisition to training to payment and off boarding. The VNDLY WMS applies sophisticated algorithms, Machine Learning (ML) and Artificial Intelligence (AI) technology to automate manual tasks, increasing efficiency and productivity in today's digital and agile environment. Unlike legacy VMS offerings, VNDLY uses an "outcomes"-based management, rather than a traditional "process" based approach, giving organizations worldwide the opportunity to execute projects in a timely and cost effective manner. The VNDLY platform is comprised of four major modules: Contingent Workforce Management, Statement of Work (SoW) Management, Independent Contractor (IC) Compliance and Total Talent Acquisition.</t>
+          <t>Stellar Health is a point-of-care, cloud-based platform that activates primary care providers to achieve value-based care (VBC) goals that improve patient outcomes, such as improving quality scores and optimizing the patient care journey through transitions of care and high-value referrals. The Stellar platform helps primary care providers continually engage with their patients by providing them real-time information and tangible action-based incentives for improving quality of care. Stellar Health's mission is to enable all providers to engage and succeed in VBC by bridging the incentive gap between providers and payors.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Series B-1</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$8,500,000</t>
+          <t>$10,000,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>VNDLY Receives $8.5M in Series B-1</t>
+          <t>Stellar Health Nabs $10M Series A Round</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/vndly/venture-capital-funding/cnqpgpjqgz</t>
+          <t>https://vcnewsdaily.com/stellar-health/venture-capital-funding/dbndpxztxl</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CINCINNATI, OH, VNDLY announced its most recent round of Series B-1 funding of $8.5 million led by Madrona Venture Group.</t>
+          <t>NEW YORK, NY, Stellar Health, a rapidly growing value-based healthcare technology company, announced today that it has raised over $10 million in Series A funding.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/VNDLY/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Stellar%20Health/venture-funding.php</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>VNDLY, a leading cloud-based workforce management systems provider, announced its most recent round of Series B-1 funding -- $8.5 million led by Madrona Venture Group. Madrona's Steve Singh will join the VNDLY board. This brings the company's external funding total to $57.5 million, with the previous Series B investments totaling $35 million in 2019. Madrona Venture Group is a Seattle-based venture firm that has backed many industry-defining technology companies like Amazon, Smartsheet, and Snowflake.Founded in 2017, VNDLY is recognized by industry experts as a top-ranking technology provider in the vendor management systems category (VMS). The company, which already has many Fortune 500 clients, will use the most recent investment to continue its industry-changing innovation, global expansion, and product development that includes building out new software modules. "We're honored that Madrona sees VNDLY in the same light as the other technology greats they stand behind. We know this will be a major driver for us as we move to the next level in our industry, continuing our mission to successfully challenge the status quo offered by legacy VMS firms," said Shashank Saxena, VNDLY's CEO.Singh, the former CEO and co-founder of Concur, joined Madrona earlier this year as a managing director after participating for many years as a strategic advisor and angel investor. Concur was acquired by SAP in 2014 for $8.3 billion.  He remained with the company through 2017 and was responsible for the majority of their cloud businesses, including Ariba, Fieldglass and Concur. Singh currently serves as the Chairman of Talend and on the boards of DocuSign and WaFd Bank.  "As the contract workforce grows, VNDLY's cloud-native vendor management solution gives employers and contractors an AI-based platform that adapts to the changing needs of both groups. I am looking forward to working with Shashank and the VNDLY team to build the market-leading workforce management company," Singh said.Contact:Dominique Castle(513) 572-2512dominique@vndly.com About VNDLYFounded in 2017, VNDLY transforms how companies manage the contingent workforce. With its SaaS Work Management System (WMS), companies can manage the entire non-employee engagement lifecycle from talent acquisition to training to payment and offboarding. VNDLY serves as the ERP system of record for multiple Fortune 500 companies to manage their entire contingent and non-employee workforce on a single platform. VNDLY is a cloud-native platform that helps simplify the implementation, integration, and change management aspects compared to legacy VMS solutions. The VNDLY platform is composed of four modules: contingent workforce management, statement of work (SOW) management, independent contractor (IC) compliance, and total talent acquisition. For more information, please visit www.VNDLY.com.About MadronaMadrona (www.madrona.com) has been investing in early-stage technology companies in the Pacific Northwest since 1995 and has been privileged to play a role in some of the region's most successful technology ventures. The firm invests predominately in seed and Series A rounds across the information technology spectrum, and in 2018 raised a fund to expand initial investments into acceleration stage companies. Madrona manages approximately $1.8 billion and was an early investor in companies such as Amazon, Smartsheet, Rover, and Redfin.</t>
+          <t>The round was led by Point72 Ventures, a VC firm that backs early-stage startups who are catalyzing the future of their industries. Existing investors also participated in the round, including Primary Venture Partners.Founded in 2018 by likeminded healthcare leaders and an experienced Google engineer, Stellar Health is working to improve the delivery of value-based care (VBC). Historically, the healthcare system has been organized around treating the sick and compensating providers on the volume of services ordered, an arrangement commonly known as fee-for-service. Value-based delivery rewards providers for the quality of care they give to their patients. VBC is important because it emphasizes keeping patients healthy, lowering the overall cost of care, and compensates providers based on outcomes, rather than the quantity of care given to their patients. Stellar Health's cloud-based, point-of-care platform encourages VBC by pushing meaningful, actionable insights right to end users: providers and their practice staff. By tracking data and actions, Stellar Health helps primary care providers achieve value-based care goals for their patients and rewards them with real-time incentives."There are so many exciting implementations going on at Stellar Health and we are thrilled to partner with Point72 Ventures and other investors to take this company to the next level," said Michael Meng, Stellar Health's Co-Founder and CEO. "Bringing in outside capital and experience will not only advance the development of our company but will continue our growth to meet and exceed client needs and expectations in value-based care.""Stellar Health has the potential to transform healthcare by increasing the number of providers who successfully adopt value-based care models," said Sri Chandrasekar, Partner at Point72 Ventures. "They have developed a sophisticated and intuitive platform to drive VBC in the U.S. and we are excited to help them build on that momentum."Brad Svrluga, Co-Founder and General Partner at Primary Venture Partners, added, "Stellar Health's success has been achieved as a result of their focus on value-based care outcomes, high standards of data security compliance and most importantly, their strong commitment to their clients. We are excited to partner with Point72 to leverage our mutual strengths to support Stellar Health's growth in existing and targeted payor and provider markets."Stellar Health has developed a robust payor and provider network across 11 states in the U.S. With the additional capital and resources provided by this new round of funding, the company will expand and accelerate product development and engineering, and support operations including the expansion of services to new markets. The company also plans to double the size of its team within the next year and is looking to hire across multiple departments, including Engineering, Product, Operations, and Business Development. These actions will help Stellar Health meet growing client demand and increase the number of patients on its platform. By the end of 2020, Stellar Health expects to have 100,000 patient lives managed through their platform.About Stellar Health: Stellar Health is a point-of-care, cloud-based platform that activates primary care providers to achieve value-based care (VBC) goals that improve patient outcomes, such as improving quality scores and optimizing the patient care journey through transitions of care and high-value referrals. The Stellar platform helps primary care providers continually engage with their patients by providing them real-time information and tangible action-based incentives for improving quality of care. Stellar Health's mission is to enable all providers to engage and succeed in VBC by bridging the incentive gap between providers and payors. If you would like more information, please contact Stellar Health at hello@stellar.health or visit their website at www.stellar.health.About Point72 Ventures: Point72 Ventures is a global venture capital firm led by a diverse set of domain experts with the capital to lead rounds through all stages of a company's growth. The firm invests primarily in Fintech, AI/ML, and Enterprise technologies. As an independent arm of Point72, the global asset management firm led by Steven A. Cohen, Point72 Ventures offers well-informed insights into the global economy. Point72 Ventures has offices in New York City, Palo Alto, California, and Stamford, Connecticut. For more information, visit their website at http://p72.vc/.</t>
         </is>
       </c>
     </row>
@@ -1084,62 +1072,62 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Knock CRM</t>
+          <t>Span</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Knock is an award-winning platform that maximizes the marketing and sales performance of apartment buildings through CRM and communications technology. Multifamily property management companies rely on Knock to easily organize communication across every channel, coordinate and schedule tours and track overall marketing and leasing effectiveness, driving better performance and boosting profits.</t>
+          <t>Span is advancing the future of distributed clean energy with a smart panel that delivers an intuitive interface to the home. The Span panel replaces the standard electrical panel, providing transformative transparency and control over energy use and enabling customers to easily adopt solar, storage, electric vehicles, and other clean energy technologies.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$12,000,000</t>
+          <t>$10,200,000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>07 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Knock Announces a $12M Series B Round</t>
+          <t>Span Secures $10.2M Series A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/knock-crm/venture-capital-funding/cgdfndxcmq</t>
+          <t>https://vcnewsdaily.com/span/venture-capital-funding/ymgfxrttfw</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SEATTLE, WA, Knock has announced a $12 million Series B investment round led by Madrona Venture Group.</t>
+          <t>SAN FRANCISCO, CA, Span has secured a $10.2 million Series A financing.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Knock%20CRM/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Span/venture-funding.php</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Knock has announced a $12 million Series B investment round led by Madrona Venture Group, with participation from Lead Edge Capital and Seven Peaks Ventures.Knock is on a mission to make it as easy to trade-in your home as it is to trade-in your car. We bring certainty, convenience and cost-efficiency to home buying and selling. Knock envisions a world where mobility is easier and simpler for the 64% of home sellers who are also buying their next home at the same time. We buy your new home on your behalf so you can move in before we represent you in the sale of your old home on the open market.</t>
+          <t>Span, the rising smart panel company led by executives and lead engineers from Tesla, Amazon Echo, and Sunrun, has raised $10.2 million to transform the electrical panel into an intelligent gateway for every home and expand the adoption of solar, energy storage, and electric vehicles. Span's smart panel provides intuitive monitoring and controls for all circuits alongside unprecedented flexibility for battery backup during power outages. The Series A round was led by ArcTern Ventures and joined by Capricorn Investment Group, Incite Ventures, and existing investors."Self-sufficiency and control within the home are top-of-mind for many homeowners with power outage concerns now compounded by coronavirus shelter-in-place orders," said Span founder and CEO Arch Rao, who formerly led the product team at Tesla Energy for the Powerwall. "Last fall, power outages affected millions in California, and shutoffs are starting again as utilities perform precautionary maintenance in fire-risk areas. We developed the Span smart panel to give homeowners greater energy independence in the face of these growing challenges. With Span, they have greater control over their home energy, especially when they need it most."Delivering much more than the passive current protection of the traditional electrical panels found in every home, the Span smart panel enables digital automation of home energy and more streamlined installations for clean energy upgrades. While the standard electrical panel has not seen major innovation for nearly a century, today's homes are in need of new functionality to better manage modern connected devices, appliances, electronics, and energy upgrades such as solar panels, batteries, and EV charging systems.Span's smart panel provides monitoring and control for 32 circuits, all managed through a smartphone interface. When the power goes out, Span automatically islands the house and allows homeowners to select what parts of their homes they want to power, going far beyond existing solutions that are limited to covering just a few critical loads.The Span panel is listed to UL standards that mirror this step-change in functionality: UL standard 67 for the regular electrical panel as well as UL 916 for energy management equipment and UL 869A for service equipment.For installers performing solar and storage installations, the panel reduces labor by streamlining the total number of components. Early estimates indicate the installation time to be 50 percent faster than current solutions, resulting in fewer components required and a smaller, more streamlined overall installation.Nest co-founder Matt Rogers joined the funding round through Incite Ventures."We founded Nest to reinvent the largest energy user at home, the thermostat. We replaced an ugly household device with something that invited interaction and saved energy. Span has the potential to solve that for every load in the home. That's why I've come on board as an investor to Span and an advisor to Arch."Span's new investors join a strong base of existing investors, including Wireframe Ventures, Congruent Ventures, Ulu Ventures, Energy Foundry, Hardware Club, 1/0 Capital, and Wells Fargo Strategic Capital. Since launching the product in late 2019, the company has seen significant demand in the residential market from solar plus storage installers, homebuilders, energy companies, and homeowners. Funding will be used to meet this demand and scale Span's panel to households across the U.S.Managing Partner at ArcTern Ventures Murray McCaig sees massive potential for Span's technology to scale and significantly improve how solar and storage can work for homes."We see an incredible opportunity in the solar-plus-storage market, one that Span is extremely well-positioned to capitalize on. Span combines this opportunity with an exceptional team and a deep understanding of the market."Dipender Saluja, Managing Director at Capricorn Investment Group's Technology Impact Fund and an early investor in Tesla, sees Span's combination of engineering innovation and consumer focus as a strong parallel."We have seen the tremendous impact new hardware technologies can have in transforming incumbent industries. I am excited to partner with Arch to deliver a much needed revolution to electrical infrastructure and the distributed energy market."Existing investors are aligned around a similar drive to help scale the growing solar and storage market. Paul Straub of Wireframe Ventures led Span's seed round investment and sees Span as a critical next step to advance distributed clean energy."Span seamlessly integrates into the home and helps consumers get the most out of solar and storage," says Straub. "It will play a central role as more homeowners seek clean energy, flexible backup power, greater resiliency, and easy control of their homes."In addition to the new investment round, Mary Powell, former CEO of Vermont utility Green Mountain Power and a leader in transforming the energy system to be better distributed to homes, businesses, and communities, will join Span's board as an independent member."Mary Powell is one of the most forward-thinking energy executives I've had the privilege of working with," says Span CEO Arch Rao. "She set an example of what a customer-focused utility could look like, bringing the Tesla Powerwall to thousands of customers in the state of Vermont. I'm excited to work with her again as we bring our panel to market."Span has established channel partnerships with solar and storage installers, as well as leading battery storage providers like LG Chem to commercialize the product. Span is focused initially on California and Hawaii as key markets, both states with high rates of solar and battery storage adoption, with plans to expand more broadly in the U.S. this year.Homeowners and installers who are interested in Span can visit www.span.io to learn more, including California homeowners who want to join Span's Early Access program.About Span.IO, Inc.Span is advancing the future of distributed clean energy with a smart panel that delivers an intuitive interface to the home. The Span panel replaces the standard electrical panel, providing transformative transparency and control over energy use and enabling customers to easily adopt solar, storage, electric vehicles, and other clean energy technologies. Span is backed by leading investors in the clean energy space, including ArcTern Ventures, Capricorn Investment Group, Congruent Ventures, Energy Foundry, Hardware Club, Incite Ventures, Ulu Ventures, Wells Fargo Strategic Capital, Wireframe Ventures, and 1/0 Capital. To learn more, visit www.span.io.</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1137,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>emTrain</t>
+          <t>DispatchTrack</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Emtrain's workplace culture platform reinvents compliance training with provocative content that sparks dialogue and unique culture analytics that drive individual and organizational behavior change. Emtrain.ai allows you to benchmark your culture against our global community to identify issues before they become toxic problems that become compliance issues and destroy culture. Emtrain partners with industry experts and uses current events to teach on topics such as sexual harassment, unconscious bias, and ethics. Emtrain's innovative platform is used by more than 800 companies, such as Netflix, Yelp, Dolby, LiveNation, and others. Recognized by Fast Company as an Honorable Mention in its "World Changing Ideas 2020" list, Emtrain is a woman-owned and women-led company.</t>
+          <t>DispatchTrack started with the mission of simplifying and save money on complex delivery operations costs, provide real-time connectivity and communication to all parties involved and improving customer communication, thereby significantly enhancing the experience for the customer, dispatcher and the driver. We started with the furniture industry and now we are servicing several more, including wholesale food distribution, paper distribution, pool service, florist distribution, garage door deliveries, party rental deliveries and more. DispatchTrack's customer base has expanded internationally. We currently service over 35 Million deliveries a year and we are continuing to grow.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1164,32 +1152,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$8,000,000</t>
+          <t>$144,000,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>06 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Emtrain Grabs $8M in Growth Capital</t>
+          <t>DispatchTrack Announces $144M Growth Round</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/emtrain/venture-capital-funding/zyjbkxnfhx</t>
+          <t>https://vcnewsdaily.com/dispatchtrack/venture-capital-funding/nxnrvfsjjj</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO, CA, Emtrain announced it received $8 million in growth capital funding, led by Education Growth Partners.</t>
+          <t>SAN JOSE, CA, DispatchTrack has closed a $144 million growth transaction.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1199,12 +1187,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Emtrain/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/DispatchTrack/venture-funding.php</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Emtrain, an online workplace culture platform that helps companies diagnose, benchmark and prevent bad workplace culture outcomes, today announced it received $8 million in growth capital funding, led by Education Growth Partners ("EGP"), a private equity firm dedicated to providing growth capital to proven, high potential human development and workplace companies. Signature Bank, a New York-based full-service commercial bank with 31 private client offices nationwide, serves as Emtrain's banker and provided a $2 million facility to complement the equity investment.EmtrainEmtrainThe new funding will enable Emtrain to expand its culture tech platform to provide on-demand monitoring and analysis of key indicators that are the foundation of healthy workplace culture. Not only does Emtrain's solution meet increasing state and federal compliance training regulations, but it also diagnoses issues that are otherwise invisible to business leaders and benchmarks those issues against a global average so that internal stakeholders know where to focus their time and attention for maximum and measurable results. The diagnostic tool and data provide a win/win for employers and employees who both want to prevent these issues but lack the visibility, tools and organizational structure to do so effectively.Emtrain's recently launched Emtrain.ai solution has already collected over seven million employee sentiment responses about core culture indicators that exist in organizations such as power dynamics; in-group/out-group dynamics; unconscious biases and other indicators that correlate with a higher risk for bad culture outcomes. The company's initial report, Emtrain's 2020 Workplace Culture Report, published in March, shows that only 17% of employees will report sexual harassment to HR if they see or experience it.  Other data is consistent in that it shows employees don't typically report problems. The result is these problems remain invisible to HR and compliance leaders until there's an explosive incident that rocks the culture. "Our changing demographics, social norms and current tough business climate require a better solution to educate employees of their rights and responsibilities and how to be a culture leader while informing employers where they need to focus their time and attention to support a healthy culture," said Janine Yancey, Founder and CEO of Emtrain. "U.S. businesses spend five billion dollars each year on compliance training without getting real business value; no business intelligence, no benchmarking, no evidence of behavior modification, nothing but a completion certificate. Business leaders are increasingly demanding business value from these programs and a way to solve behavioral problems before they turn into bad outcomes. Emtrain uses data, analytics, and benchmarking to show companies where they are vulnerable and how to address their hotspots in a proactive way.""Janine has a bold, unique vision on how to change the way organizations identify their risk and prevent complex culture issues from becoming damaging," said EGP Managing Partner Peter Campbell. "Janine Yancey and her team have developed their predictive frameworks and data sets over 15 years, and have now built a breakthrough product that anticipates where the market has moved. We're excited to add considerable capital and our expertise in learning and behavioral change to Emtrain as they change the way employers and employees interact to prevent harassment, bias, ethical lapses and other bad culture outcomes."About EmtrainEmtrain's workplace culture platform reinvents compliance training with provocative content that sparks dialogue and unique culture analytics that drive individual and organizational behavior change. Emtrain.ai allows you to benchmark your culture against our global community to identify issues before they become toxic problems that become compliance issues and destroy culture. Emtrain partners with industry experts and uses current events to teach on topics such as sexual harassment, unconscious bias, and ethics. Emtrain's innovative platform is used by more than 800 companies, such as Netflix, Yelp, Dolby, LiveNation, and others. Recognized by Fast Company as an Honorable Mention in its "World Changing Ideas 2020" list, Emtrain is a woman-owned and women-led company.About Education Growth PartnersEducation Growth Partners ("EGP") is a private equity firm dedicated to providing growth capital to proven, high potential learning, data and knowledge, and workplace companies that offer compelling solutions to unmet needs. The extensive operating experience and investment expertise of Education Growth Partners' team ensures its companies receive an infusion of highly strategic capital and insight that can accelerate their reach, scale and impact to create long-term value.About Signature BankSignature Bank, member FDIC, is a New York-based full-service commercial bank with 31 private client offices throughout the New York metropolitan area and Connecticut as well as San Francisco. The Bank's growing network of private client banking teams serves the needs of privately-owned businesses, their owners and senior managers. Its Venture Banking Group serves venture capital firms and the portfolio companies in which they invest while its Fund Banking Division provides financing and banking services to the private equity industry.  For more information, please visit www.signatureny.com.</t>
+          <t>DispatchTrack, a leading provider of SaaS-based last-mile logistics solutions, announced today that it has closed a $144 million growth transaction led by Spectrum Equity, a global growth equity firm that specializes in partnering with internet-enabled software and information services businesses.The company was founded in 2010 by Satish Natarajan and Shailu Satish, a husband-and-wife team who were frustrated with the indefinite waiting, poor communication and overall inefficiency they experienced with at-home deliveries. Over 10 years, they built DispatchTrack into a comprehensive platform that addresses problems faced by merchants, delivery service providers and consumers alike, enabling businesses across a wide range of industries to provide the seamless last-mile delivery experiences consumers have grown to expect, especially in the era of Amazon."We are thrilled to partner with Spectrum Equity in this new stage of our growth," said Natarajan, CEO of DispatchTrack. "We built DispatchTrack to help businesses large and small provide superior delivery experiences, streamline operations and maintain coordination and transparency across all constituents in the last mile. With Spectrum's support, we will continue our rapid pace of innovation and bring best-in-class solutions to more businesses, industries and geographies."DispatchTrack enables end-to-end visibility and real-time coordination across online and physical storefronts, warehouses, drivers and end-customers. The company equips its customers - including retailers, wholesalers, grocers, restaurants, food and beverage distributors, field service businesses, third-party logistics (3PL) companies and others - with the tools and data to transform last-mile operations from a cost center into a core part of the customer experience. The platform includes industry-leading solutions such as capacity-aware self-scheduling tools, enterprise-grade route optimization, automated customer communication and appointment confirmation, dynamic ETA tracking links, mobile apps for change of custody and proof-of-delivery, billing and settlement for delivery service providers and merchants, and real-time visibility for merchants across their network of carriers and drivers.Without lengthy implementations or associated fees, DispatchTrack customers can configure the platform's dynamic optimization engine to the unique needs of their businesses. They can also orchestrate, track and analyze performance across their networks of delivery providers who can securely feed real-time data into the DispatchTrack mobile application. Collectively, these capabilities empower businesses to provide end-customers with specific scheduling windows, real-time ETAs and a frictionless delivery experience. These solutions address significant, historically under-served needs in last-mile delivery, which the CapGemini Research Institute estimates represents 41% of all supply chain costs."We look forward to supporting DispatchTrack's commitment to solving complex problems by building elegant, powerful products that are easy to adopt, configure and scale," said Vic Parker, Managing Director at Spectrum Equity. "The DispatchTrack platform is an exceptionally valuable solution for businesses that recognize the strategic imperative to optimize the delivery experience. We look forward to helping DispatchTrack transform the last mile for more businesses across categories and around the world." Last year, DispatchTrack powered over 60 million deliveries. The company serves thousands of customers, including multibillion-dollar enterprises across industries including furniture, appliances, building materials, food and beverage distribution, restaurants, field and home services, grocery and third-party logistics. In conjunction with the transaction, Vic Parker and Vice President Adam Gassin of Spectrum Equity will join DispatchTrack's board of directors.AQ Technology Partners advised the company on the transaction and Alliance Bernstein provided senior debt financing.</t>
         </is>
       </c>
     </row>
@@ -1214,47 +1202,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Covariant</t>
+          <t>Carbon Health</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Covariant is building the Covariant Brain: universal AI that allows robots to see, reason and act on the world around them. Founded in 2017 by the world's top AI researchers and roboticists from UC Berkeley and OpenAI, Covariant is bringing the latest artificial intelligence research breakthroughs to the biggest industry opportunities.</t>
+          <t>Carbon Health was founded in 2016 when CEO Eren Bali and co-founders Tom Berry and Dr. Greg Burrell decided to reimagine healthcare by building a completely new healthcare system from the ground up. Carbon brings the marketplace model to healthcare, connecting practices with a unified technology platform and giving patients access to all of their providers through their mobile device. Carbon currently has a primary care clinic in San Francisco and provides virtual care throughout California.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series B-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$40,000,000</t>
+          <t>$28,000,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>06 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Covariant Scores $40M in Series B</t>
+          <t>Carbon Health Pulls In $28M Series B1 Round</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/covariant/venture-capital-funding/wmztpthghs</t>
+          <t>https://vcnewsdaily.com/carbon-health/venture-capital-funding/dynyxcpkck</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BERKELEY, CA, Covariant announced that it has raised $40 million in Series B funding led by Index Ventures.</t>
+          <t>SAN FRANCISCO, CA, Carbon Health has raised a $28 million Series B1 financing round.</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Berkeley</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1264,12 +1252,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Covariant/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Carbon%20Health/venture-funding.php</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Covariant, a leading AI Robotics company, today announced that it has raised $40 million in Series B funding, bringing its total funding to $67 million. The round was led by Index Ventures, along with AI-focused Radical Ventures and participation from existing investor Amplify Partners and others. Covariant will use the funding to accelerate its partnerships, introduce AI Robotics to new industries, and grow its research, engineering and commercial teams.From food distribution to healthcare to e-commerce, the global supply chain is facing unprecedented pressure to deliver orders quickly, reliably and efficiently, while keeping workers safe. Automation is the key to meeting those challenges.While repetitive and predictable tasks like the movement of goods have successfully been automated, complex and unpredictable tasks that require hands, such as picking, placing and unloading, have not. Traditional automation can't handle the constant change and infinite variability of these tasks. Automating them requires advanced AI that can understand, learn and adapt.Founded in 2017, Covariant is building the Covariant Brain, universal AI that enables robots to see, reason and act autonomously in the real world. Covariant robots learn general abilities such as robust 3D perception, physical affordances of objects, few-shot learning and real-time motion planning which gives them the intelligence to learn how to manipulate new objects they've never seen before in environments where they've never operated.In January 2020, Covariant launched from stealth to reveal that it had reached a new AI milestone: its AI Robotics stations were running consistently at customer facilities in North America and Europe in the apparel, pharmaceutical and electronics industries, and had achieved autonomy in live production, with a mean unassisted operating time greater than one hour."When we founded Covariant, our goal was to make AI Robotics work autonomously in the real world," said Pieter Abbeel, Covariant's President, Chief Scientist and co-founder. "Having reached that milestone, we see a huge benefit in expanding our universal AI to new use cases, customer environments and industries."The funding comes on the heels of significant momentum for the company. Soon after launching from stealth, Covariant invested in strategic partnerships to accelerate the deployment of robotic stations to customers. In February, Covariant announced a partnership with ABB, a leading industrial robotics supplier. In March, Covariant joined forces with Knapp, a leading supplier of intralogistics systems."As the coronavirus crisis has exposed serious frailty in the global supply chain, we're seeing more demand than ever for our AI Robotics solutions," said Peter Chen, Covariant CEO and co-founder. "Our customers are eager to invest in AI and scale it across their supply chains to meet growing demands and more stringent requirements. This latest funding round, along with our recent partnerships, will allow us to scale quickly across multiple industries."As a part of the investment, Mike Volpi, partner at Index Ventures, will be joining Covariant's board."We've been blown away by Covariant's team of world-class AI researchers and roboticists and the universal AI they've built," said Mike Volpi, partner at Index Ventures. "Covariant's AI, powered by deep learning, will unlock the next wave of robots that learn. We are excited to be a part of Covariant's journey to become the next great AI company."To see Covariant's product offerings or explore open positions, visit covariant.ai.About CovariantCovariant is building the Covariant Brain: universal AI that allows robots to see, reason and act on the world around them. Founded in 2017 by the world's top AI researchers and roboticists from UC Berkeley and OpenAI, Covariant is bringing the latest artificial intelligence research breakthroughs to the biggest industry opportunities. The company is headquartered in Berkeley, CA. For more information, visit covariant.ai.</t>
+          <t>Carbon Health, the technology-enabled healthcare provider designed from the ground up to put patient-care first, announced today that it has tripled its headcount to combat the COVID-19 pandemic and extended its virtual care service to now serve nearly two-thirds of the U.S. population. The growth was made possible by its recent strategic round of funding of $28 million led by existing investor DCVC in an extended Series B, bringing the company's total raised capital to $75 million."In a matter of weeks, this amazing team has tripled in size and driven dozens of initiatives at the frontlines of this pandemic, serving thousands of patients across California. I'm excited to begin expanding our reach nationwide at a time when our communities need healthcare resources more than ever," said Eren Bali, Co-Founder and CEO of Carbon Health. "Expanding our testing efforts and virtual care footprint will help to reduce the pressure on local hospitals and clinics focused on COVID care, provide non-COVID patients the care they need without putting themselves at risk of exposure, and ensure communities across the country are healthy and well as we look towards reopening our economies."With the additional funding, the company has been at the forefront of the COVID-19 pandemic by adding the necessary staff and resources to offer extensive testing and care. In just the past two months, Carbon Health has tripled its staff from 100 to more than 300 employees, assessed over 14,000 coronavirus concerns through its Coronavirus Assessment Tool, and completed more than 12,000 COVID-19 tests across its clinics, COVID-19 Mobile Clinics, and its partnerships with the City of San Francisco and County of Los Angeles.A key part of the personnel addition included hiring pediatric and mental health providers so that the company could extend its virtual care services to include urgent care, primary care, pediatrics and mental health. Carbon Health now offers virtual care in 16 states, 10 of those states being the largest in the U.S., with plans to be in all 50 states by this summer.The expansion comes as the telehealth industry sees a surge in growth due to patients with COVID-19 concerns overwhelming hospitals and clinics, creating a challenge for patients seeking non-COVID healthcare needs. With a mobile-first platform that allows patients to conveniently access all of their care from a mobile app, Carbon Health is poised to be ahead of the curve in hassle-free, accessible virtual care, underscoring its mission to make world-class care accessible to everyone.Carbon Health's Virtual Care is now available in:* Arizona* California* Florida* Georgia* Illinois* Massachusetts* Michigan* New Jersey* New York* Nevada* North Carolina* Ohio* Pennsylvania* Texas* Washington* Virginia"We are aware that millions of Americans have lost their jobs and their health insurance at a time when getting medical care is critically important," Bali said. "We are focused on getting our virtual care services up and running across the country so that seeing a doctor is easy and affordable for anyone who needs care."Carbon Health's virtual care is a video visit through the Carbon Health mobile app. A visit costs $49, about the same or less than insurance co-pays.Based in the San Francisco Bay Area, Carbon Health is dedicated to building the world's first truly connected, technology enabled healthcare provider that readily puts quality care within reach for all patients. To learn more and to try Carbon Health visit carbonhealth.comAbout Carbon HealthCarbon Health is the technology-enabled healthcare provider designed from the ground up to put patient-care first. By combining technology with modern clinics, it delivers a uniquely seamless experience from virtual care to in-person care to meet patients where they are. Through its end-to-end technology platform that dramatically improves clinical efficiency, Carbon Health has rebuilt care delivery to enable physicians to focus on care and spend more time with their patients. Patient experience is further enhanced through the Carbon Health mobile app where patients can easily see all of their health records, book appointments, make payments or conduct a video visit from anywhere. With a team of engineers, designers and expert physicians, Carbon Health removes the boundaries to high-quality, transparent and personal care and envisions making patient-centric, world-class care accessible and a reality for everyone. Carbon Health is headquartered in San Francisco with clinics across California. To access Carbon Health, download the app (iTunes or Google Play) or visit carbonhealth.com.</t>
         </is>
       </c>
     </row>
@@ -1279,62 +1267,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>First Dollar</t>
+          <t>Vise</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>First Dollar is revolutionizing how people think about and interact with healthcare. Founded in October 2019 by repeat successful entrepreneurs Jason Bornhorst and Colin Anawaty, First Dollar\'s powerful platform helps people save for out-of-pocket expenses and find great health care for a fair price. With $5 million in funding, First Dollar is building the first human-centered health care experience.</t>
+          <t>Founded in 2016, by Samir Vasavada and Runik Mehrotra, Vise automates investment management for financial advisors using artificial intelligence. Vise has built a full-stack platform spanning the entire lifecycle of the advisor-client relationship, including designing personalized portfolios for clients, managing portfolios, and providing on-going intelligence. By doing so, Vise helps financial advisors focus on their most valuable resource -- their client relationships.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$5,000,000</t>
+          <t>$14,500,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>06 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>First Dollar Closes $5M Seed Funding</t>
+          <t>Vise Raises $14.5M Series A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/first-dollar/venture-capital-funding/wnfzbjzdyt</t>
+          <t>https://vcnewsdaily.com/vise/venture-capital-funding/mjqmwccgnd</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>AUSTIN, TX, First Dollar has closed a seed funding round of $5M, led by Next Coast Ventures.</t>
+          <t>NEW YORK, NY, Vise has secured $14.5 million in a Series A funding round.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/First%20Dollar/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Vise/venture-funding.php</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>First Dollar, the first human-centric health care savings platform, has announced it has closed a seed funding round of $5M. Next Coast Ventures led the round with participation from Meridian Street Capital.Additional investors in the round include former athenahealth CEO Jonathan Bush, Everlywell CEO Julia Cheek, Bright Health CTO Brian Gambs and Capital Factory. The funding will be used to recruit a top team of engineers and designers to scale the HSA offering and build new functionality for First Dollar's platform.Today, the nation's more than 26 million Health Savings Accounts control $61.7 billion in assets, but the healthcare industry is the primary beneficiary of that total. Most users allow their contributions to sit idle, turning a potential investment vehicle into an under-utilized bank account. Only 11% of participants maximize their contributions each year, and only 13% invest their HSA savings for growth. Even worse, many HSAs charge a monthly fee, so savings are slowly depleted by as much as $100 per year.Empowering Consumers with a Modern Health Care Savings Account PlatformTo solve these problems, First Dollar co-founders Jason Bornhorst and Colin Anawaty set about building an HSA people will actually use. There are no monthly fees, and there will be a heavy focus on easy-to-understand language, education on how to maximize savings and an offering of high-quality health care products at fair prices. No other company offers this complete ecosystem."HSAs are the worst-marketed health care benefit in the United States," said Bornhorst, First Dollar CEO. "Most of them are effectively little-used bank accounts. We're building a product that not only helps you maximize your savings but also offers great health care at a great price. We believe that for every $1 you put into your First Dollar HSA, you should get $2 in value back in savings and spending.""I've been an HSA user for years, and it's an amazing tool if you know how to use it," said Anawaty, First Dollar's chief product officer. "The products on the market, though, don't live up to the power of the HSA. I'm excited to build a product that people will love that makes their finances healthier and also helps them make more informed decisions about their long-term health."First Dollar targets Millennials and Gen Z, a generally healthy population that typically spends too much per year for more coverage than they need. Only 1 in 5 people in those demographics reach their deductible amount each year. First Dollar believes they would be better served by putting the money they spend on premiums into a simple, informative, 100% fee-free HSA account.Investor Perspectives on First Dollar Seed Funding Round"Two of the biggest concerns on people's minds today are their money and their health," said Mike Smerklo, Next Coast Ventures co-founder and managing partner. "In an ever-changing healthcare market, it pays to have leaders who know the space. As co-founders, Jason and Colin know this marketplace, having sold their previous company to athenahealth and then running athenahealth's Austin office. We're excited to partner with them as they redefine an old industry to help consumers get more for their money.""Individuals and employees are increasingly taking responsibility back from the employer with regards to managing and spending their healthcare benefits," said Scott Law, general partner at Meridian Street Capital. "After having worked closely with Jason and Colin from idea to company formation, I believe their unique blend of experiences in both consumer technology and health care will enable First Dollar to become the go-to resource for every American when it comes to healthcare benefits."About First DollarFirst Dollar is revolutionizing how people think about and interact with healthcare. Founded in October 2019 by repeat successful entrepreneurs Jason Bornhorst and Colin Anawaty, First Dollar's powerful platform helps people save for out-of-pocket expenses and find great health care for a fair price. With $5 million in funding, First Dollar is building the first human-centered health care experience. For more, visit firstdollar.com.About Next Coast VenturesNext Coast Ventures is an Austin-based venture capital firm that partners with entrepreneurs building high-growth companies in 'Next Coast' markets. The firm uses macro trends and themes to guide its investment strategy, providing early-stage capital to founders scaling companies across the consumer, enterprise and emerging platform sectors. NCV focuses on bringing value to its founders post-investment by equipping its growing portfolio with hands-on, company building resources through its strong industry network, Entrepreneurs Council program and applying the partners' own operational experience as entrepreneurs. Learn more at www.nextcoastventures.com.</t>
+          <t>Vise, an AI-driven investment management platform built for the modern financial advisor, today announced that it has secured $14.5 million in Series A funding, bringing the total capital raised since Vise's founding to over $16 million. The round was led by Sequoia Capital with participation from previous investors Founders Fund, Bling Capital, Human Capital, Lachy Groom, Steve Chen, co-founder of YouTube and Jon Xu, co-founder of FutureAdvisor."Our platform uses AI to build customized portfolios for every client, which saves advisors time and enables them to focus on their superpowers: managing clients and growing their businesses," said Samir Vasavada, co-founder and CEO of Vise. "Human relationships run the advisory industry, so rather than seeking to replace advisors, Vise harnesses AI to make them even better at their jobs."Founded just over three years ago, Vise has assembled a team of Ph.D. researchers and industry veterans from Morgan Stanley, Merrill Lynch, Bloomberg, Google and Palantir. Vise is already available on the Charles Schwab and TD Ameritrade Institutional platforms, representing over $800M in AUM amongst client commitments. Vise will use the funding to accelerate the growth of advisor partnerships and product development."The registered investment advisor (RIA) landscape is increasingly fragmented as advisors break away from large financial institutions to become independent, and we built Vise to support this new generation of advisor-entrepreneurs," said Runik Mehrotra, co-founder and Chief Investment Officer of Vise. "In the same way Shopify enabled artisans to compete against Amazon, or how Airbnb allowed homeowners to launch their own businesses, Vise is giving independent advisers the tools they need to succeed."AI continues to make inroads across the financial services sector, but most of the $84T wealth management industry, which has grown at a compound annual growth rate of 8.2% since 2001, still runs on legacy software. Vise is designed to fill that gap. Powered by cutting edge natural language processing, Vise builds customized portfolios for every client and helps advisors tell a compelling story to their clients with key talking points, including the "why" behind portfolio decisions."Vise enters the RIA space at a critical time for the wealth management industry," said Keith Rabois, partner at Founders Fund. "Whereas actively managed mutual funds and robo-advisors are both struggling to provide competitive risk-adjusted returns and sufficient downside protection, Vise was designed to help advisors thrive amid volatility and uncertainty.""Rarely have I met founders as talented as Samir and Runik, and never with tailwinds as compelling as with Vise," said Shaun Maguire, partner at Sequoia. "This is one of the biggest markets on Earth currently being revolutionized by the perfect storm of consumers pushing for more personalization, advisors seeking advanced technology so they can be even better at their jobs, and the industry moving towards zero-commission trades. This creates an opportunity to rethink decades of institutional wisdom and puts them in a prime position to be the central nervous system of the wealth management industry."About ViseFounded in 2016, by Samir Vasavada and Runik Mehrotra, Vise automates investment management for financial advisors using artificial intelligence. Vise has built a full-stack platform spanning the entire lifecycle of the advisor-client relationship, including designing personalized portfolios for clients, managing portfolios, and providing on-going intelligence. By doing so, Vise helps financial advisors focus on their most valuable resource -- their client relationships. Vise is headquartered in New York City and is backed by top Silicon Valley venture funds Sequoia Capital, Founders Fund and Bling Capital.About SequoiaSequoia helps daring founders build legendary companies from idea to IPO and beyond. We spur founders to push the boundaries of what's possible. In partnering with Sequoia, companies benefit from 48 years of tribal knowledge from working with founders like Steve Jobs, Larry Ellison, Larry Page, Jan Koum, Brian Chesky, Drew Houston, Adi Tatarko, Julia Hartz and Jack Dorsey. In aggregate, Sequoia-backed companies account for more than 20% of NASDAQ's total value. From the beginning, the vast majority of money we invest has been on behalf of non-profits and schools like the Ford Foundation, Mayo Clinic and MIT, which means founders' accomplishments make a meaningful difference.</t>
         </is>
       </c>
     </row>
@@ -1344,58 +1332,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>StorySlab</t>
+          <t>Greenlight Biosciences</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>StorySlab has cracked the code on the single most important factor for equipping outside reps with technology: Deploying tools that reps actually use. The many Fortune 500 Companies that choose StorySlab enjoy extremely high adoption and thoughtfully designed tech that makes their reps quantifiably more efficient and effective. Headquartered in Syracuse, NY and serving clients all over the world, the StorySlab platform consists of mobile and cloud technologies that enable effortless face-to-face and screen-to-screen sales conversation.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>GreenLight is a bio-performance company with a unique, cell-free production platform that delivers high-performing RNA solutions to human, plant, and animal challenges. GreenLight develops RNA products for plant and life science applications, and collaborates with industry leaders to advance vaccine development, pandemic preparation, crop management, and plant protection. The cutting-edge, natural platform delivers higher-quality RNA at a lower cost and higher speed than was ever before possible.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Venture</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$2,700,000</t>
+          <t>$17,000,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>StorySlab Raises $2.7M Funding</t>
+          <t>GreenLight Biosciences Grabs $17M</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/storyslab/venture-capital-funding/lrkddgwzqh</t>
+          <t>https://vcnewsdaily.com/greenlight-biosciences/venture-capital-funding/frccckmcmt</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SYRACUSE, NY, StorySlab has raised $2.7 million in funding led by Armory Square Ventures.</t>
+          <t>BOSTON, MA, GreenLight Biosciences has closed an oversubscribed $17 million special purpose funding round.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Syracuse</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/StorySlab/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/GreenLight%20Biosciences/venture-funding.php</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>StorySlab, a digital sales enablement technology company based in Syracuse, NY, announced today it has raised $2.7 million in funding led by Armory Square Ventures, along with participation from RiverPark Ventures and TIA Ventures. Martin Babinec, founder of TriNet and nonprofit group Upstate Venture Connect; and Doug Pinckney, one of the founders of the marketing services agency Pinckney Hugo also joined the round as investors.StorySlab provides sales enablement tools for sales representatives selling to customers both remotely and face-to-face. Its platform tools include built-in web conferencing integrations, data reporting, offline storage of presentation materials as well as file sharing capabilities."Our platform makes it easy to have a flexible and seamless conversation with the client," explained Hans Fuller, founder and CEO of StorySlab. "Whether in person or over the web, a salesperson can become more responsive and consultative, keeping the conversation active so the sales process is seamless." StorySlab serves over 100 clients in a range of industries, including chemicals, machinery, plastics, electrical components, and consumer products. With new funding, StorySlab will expand across new industries, scale its marketing team and grow its operations."We were impressed with StorySlab's vision and the Company's strong product/market fit," explained Somak Chattopadhyay, founder and managing partner of Armory Square Ventures. Chattopadhyay joins StorySlab's board of directors as part of this round. "Our team has two decades of experience investing in B2B SaaS companies and supporting their growth. We believe StorySlab has the potential to be a market leader in the sales enablement category."The investment marks StorySlab's first institutional funding round. "We originally started the business to solve a very specific set of problems for our clients," explained Fuller. "Not relying on external investment really kept us focused on solutions that customers were willing to pay for and has resulted in a very refined product and a clear value proposition. Now we're at the point where taking investment lets us build the technologies and staff that will help us scale."StorySlab has also had a strong track record recruiting talent to Central New York. "We recruit people from all over the country. Our team has gone to school elsewhere and lived elsewhere. We are finding, at this stage, that people originally from regions like Upstate New York want to return," explained Fuller.A significant part of the fundraising and pitch process for StorySlab was conducted remotely over Zoom though early conversations with investors started in late February, weeks before the pandemic flared up."We raised the round partly despite Covid and partly because of it," says Fuller, "Our platform enables sales reps to stay productive whether in person or remote, and we really had to embrace remote collaboration ourselves to get this deal done.""In times of uncertainty, investors tend to be focused on capital efficient businesses with strong unit economics and a visible path to profitability," Fuller added. "StorySlab was profitable from day one and has strong customer retention. We look forward to growing far more quickly with the fresh infusion of capital."About StorySlabStorySlab has cracked the code on the single most important factor for equipping outside reps with technology: Deploying tools that reps actually use. The many Fortune 500 Companies that choose StorySlab enjoy extremely high adoption and thoughtfully designed tech that makes their reps quantifiably more efficient and effective. Headquartered in Syracuse, NY and serving clients all over the world, the StorySlab platform consists of mobile and cloud technologies that enable effortless face-to-face and screen-to-screen sales conversation. For more, visit www.StorySlab.com.See our video at: https://web.storyslab.com/videos/how-reps-feel/.About Armory Square VenturesArmory Square Ventures (ASV) is a seed and early-stage venture capital firm based in Upstate New York and New York City. The firm invests in software and technology-enabled services companies in emerging entrepreneurial ecosystems often overlooked by other investors. ASV has offices in Syracuse and New York City. The fund's investments include ACV Auctions, Agronomic Technology Corporation (acquired by Yara), Bentobox CMS, Clerio Vision, Good Uncle (acquired by Aramark), Jorsek, Squarefoot, Vengo Labs and Vizbee. For more, visit www.Armorysv.com.</t>
+          <t>GreenLight Biosciences today announced it has closed an oversubscribed $17M special purpose funding round from new and existing investors to build out its scalable mRNA production capability targeting the production of billions of doses of COVID-19 vaccine. In addition to expanding its manufacturing capacity, GreenLight is developing several differentiated mRNA vaccine candidates against SARS-CoV2, the virus responsible for COVID-19. This initiative is an integral part of the company's expansion into life sciences, which include efforts to develop a large-scale vaccine platform targeting seasonal and pandemic influenza, and rapid response to emerging viruses, such as the novel coronavirus.mRNA-based vaccines offer the potential to address pandemics because of shorter pre-clinical development times compared to traditional vaccines. This has allowed GreenLight to quickly prepare a set of COVID-19 vaccine candidates for laboratory and pre-clinical evaluation of their safety and efficacy.This round of funding is aimed at establishing a scaled process under current good manufacturing practices (cGMP), capable of supporting clinical development and enabling the production of billions of doses of COVID-19 vaccine using GreenLight's proprietary bioprocessing technology. Participating investors include Flu Lab, Xeraya Capital, and Baird Capital.  "GreenLight's team and technology make them uniquely positioned to quickly bring large-scale, practical solutions to market for rapid pandemic response," said Mike Liang, Partner at Baird Capital. "GreenLight's approach promises the billions of doses needed with significantly faster manufacturing times than other technology platforms. Baird Capital believes GreenLight has the potential to be a critical part of us getting back to a healthy, functioning economy in the shortest possible time, and we are proud to support this team of talented scientists and researchers in their efforts."With this latest round of funding, GreenLight is accelerating the research and development of its fully integrated mRNA production capability and product platform. Currently, there is limited global capacity to supply mRNA doses in mass quantities. With global experts predicting the potential need for billion of doses of vaccine, GreenLight is building the scalable biomanufacturing capacity to quickly address the needs of a pandemic response."An effective vaccine against COVID-19 is the only realistic means to stave off the spread of COVID-19 and enable a re-start of our global societies and economies. mRNA based vaccines offer the best approach for a fast response," said Dr. Andrey Zarur, CEO of GreenLight. "Our mRNA manufacturing platform has the potential to produce any mRNA vaccine candidate at a global scale and affordable cost. It is our responsibility to rapidly establish our cGMP manufacturing process to enable broad production of COVID-19 mRNA vaccines. In addition, we are developing novel mRNA sequences to ensure we will be able to effectively respond to this crisis. Our vaccine platform and COVID-19 efforts are a significant component of our broader efforts in human health, where we are pursuing solutions against a number of critical global health needs. Our mission is to enable the global and affordable production of mRNA solutions."mRNA acts as an intermediary between the genetic information in DNA and the amino acid sequence of proteins. Unlike existing vaccines, which typically use weakened or dead forms of a pathogen or recombinant proteins, mRNA vaccines carry instructions such that injected cells themselves produce the target antigen, simulating a viral infection and stimulating immune responses against the pathogen. About GreenLight Biosciences, Inc. GreenLight is a bio-performance company with a unique, cell-free production platform that delivers high-performing RNA solutions to human, plant and animal challenges. GreenLight develops RNA products for plant and life science applications, and collaborates with industry leaders to advance vaccine development, pandemic preparation, crop management, and plant protection. The cutting-edge, natural platform delivers higher-quality RNA at a lower cost and higher speed than was ever before possible. The GreenLight team values diversity, inclusion, and equality and promises to use collaboration to remain scientifically imaginative and passionately focused on making a difference in the world. For more information, visit https://www.greenlightbiosciences.com/.</t>
         </is>
       </c>
     </row>
@@ -1405,47 +1397,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>Lilt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Robinhood is a first-of-its-kind mobile stock brokerage. Built with sophisticated, proprietary algorithms and other unique technology, Robinhood is the only mobile-first premiere stock brokerage offering unlimited commission-free trading in all US listed stocks and ETFs. By eliminating trading commissions, Robinhood's mission is to enable a new generation of people to learn about investing and better manage their wealth. Founded by three-time financial services entrepreneurs Vladimir Tenev and Baiju Bhatt, Robinhood is headquartered in Redwood City, CA and backed by top-tier venture firms including Google Ventures, Andreessen Horowitz and Index Ventures, and angel investors including Tim Draper and Howard Lindzon.</t>
+          <t>Lilt is an AI-powered enterprise language translation company on a mission to make the world's information accessible to everyone regardless of where they were born or which language they speak. The Lilt platform combines adaptive neural machine translation technology with an enterprise translation management system that empowers product, marketing, support, e-commerce, and localization teams to move faster than ever. Lilt gives industry-leading organizations like Intel, ASICS, WalkMe, DigitalOcean, and Sprinklr everything they need to scale their translation programs, go-to-market faster, and deliver exceptional customer experiences to global audiences.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$280,000,000</t>
+          <t>$25,000,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Robinhood Closes $280M Series F Funding</t>
+          <t>Lilt Receives $25M Series B Funding Round</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/robinhood/venture-capital-funding/rqgwrcshxz</t>
+          <t>https://vcnewsdaily.com/lilt/venture-capital-funding/fnsrwblnhn</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>REDWOOD CITY, CA, Investing app Robinhood has announced a $280 million Series F at a $8.3 billion valuation.</t>
+          <t>SAN FRANCISCO, CA, Lilt, the AI-powered enterprise translation software and services company, today announces it has raised $25 million in Series B funding.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Redwood City</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1455,12 +1447,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Robinhood/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Lilt/venture-funding.php</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>According to Business Insider, investors continue to pour money at rising valuations into Robinhood despite the popular investing app facing multiple outages on some of the most volatile trading days in market history earlier this year.The fintech nabbed $280 million in Series F funding at an $8.3 billion valuation in a round led by previous investor Sequoia Capital. NEA, Ribbit Capital, 9Yards Capital, and Unusual Ventures also participated in the round. Robinhood's most recent round comes after a $323 million Series E in July 2019 at a $7.6 billion valuation. In a blog post about the news, Robinhood announced it had added three million funded accounts since the start of the year. "Robinhood has made the financial markets accessible to the masses, and in turn, revolutionized the decades-old brokerage industry," said Andrew Reed, partner at Sequoia, in a statement. "We're excited to further our relationship with Robinhood, which we believe is at the beginning of its opportunity."The growth came despite significant outages that plagued the fintech in early March. The app was down for consecutive days during the first week of March as the markets were rocked with volatility. In a note posted on its blog, Robinhood's cofounders, cited "stress to its infrastructure" from an "unprecedented load."In an interview with Fortune regarding the raise, Vlad Tenev, co-CEO and cofounder, described the outages as a "curveball." As for the new funding, Tenev earmarked it for further growth. "The purpose of the capital raise is to enable us to have flexibility and be strategic, and continue to invest in the platform," Tenev told Fortune. "We envision that over the next few years, Robinhood will expand globally and continue rolling out more products."The latest round is yet another example of Robinhood to continue to raise capital despite slipups. In December 2018 the startup quickly backtracked from an announcement it made for a planned cash-management product after saying it would be SIPC insured despite not checking with the organization ahead of time. That same month Robinhood's options trading experienced an outage. The startup offered some of those affected $75 Amazon gift cards.In November 2019, some Robinhood users uncovered an "infinite leverage" glitch.The following month the Financial Industry Regulatory Authority fined the brokerage $1.25 million for not following "best execution" practices from October 2016 to November 2017.</t>
+          <t>Intel Capital led the round, with participation from existing investors Sequoia Capital, Redpoint Ventures, In-Q-Tel, Zetta Venture Partners, and XSeed Capital. Mark Rostick, vice president and senior managing director at Intel Capital, joins Lilt's board of directors. The round, which brings the total raised by the company to $37.5 million, will help fund additional development in the company's enterprise translation software and further research in its natural language processing technology, as well as accelerate its go-to-market strategy."By enabling the organizations that create and manage knowledge to make it available to more people in more languages, we can achieve our mission of making the world's information accessible to everyone regardless of where they were born or which language they speak," said Lilt CEO and Co-Founder Spence Green. "We're excited to have Intel Capital as an investor and excited to have an industry-leader like Intel Corporation as a customer that recognizes the power of our technology."Intel IT has recently added Lilt to its language services portfolio. "We have been looking for an innovative provider that can help us achieve short-term productivity gains, simplify our language technology solutions, and leverage artificial intelligence to reinvent the way we approach localization in the long-term," said LoÃ¯c Dufresne de Virel, manager of Intel's in-house localization team. "Lilt met the criteria we had been searching for and presents new opportunities to explore the benefits of their adaptive neural MT solution running on Intel CPUs. This is an interesting use case and application of machine learning."Lilt's AI-powered solution combines adaptive neural machine translation technology, an enterprise translation management system, and world-class professional translators to give organizations everything they need to scale their translation programs, go-to-market faster than ever, and improve the global customer experience. By simplifying the translation process, while preserving high translation quality that captures an organization's tone and brand voice, Lilt's technology helps companies meaningfully increase the ROI of their translation programs."Lilt excels at combining machine translation with human translators, and is able to scale globally, regardless of language," said Mark Rostick, vice president and senior managing director, Intel Capital. "The Lilt team's rich heritage of working with leading companies across the globe, combined with their domain expertise, sets them apart as one of the world's leading AI-powered language service providers."Lilt's customers include Fortune 500 companies like Intel, consumer brands such as ASICS, some of the fastest-growing technology companies such as WalkMe, Sprinklr, DigitalOcean, and Canva, and other leading financial, media, healthcare, and manufacturing companies around the world. Lilt is based in San Francisco and Berlin and has recently opened additional offices in Indianapolis and Dublin, Ireland.About LiltHeadquartered in San Francisco, Lilt is an AI-powered enterprise language translation company on a mission to make the world's information accessible to everyone regardless of where they were born or which language they speak. The Lilt platform combines adaptive neural machine translation technology with an enterprise translation management system that empowers product, marketing, support, e-commerce, and localization teams to move faster than ever. Lilt gives industry-leading organizations like Intel, ASICS, WalkMe, DigitalOcean, and Sprinklr everything they need to scale their translation programs, go-to-market faster, and deliver exceptional customer experiences to global audiences. Visit us online at www.lilt.com.</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1462,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Postal.io</t>
+          <t>Travecta Therapeutics</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Postal is a leading sales and marketing engagement platform that empowers companies to improve conversion rates with automated direct mail, corporate gifting and charitable giving. The Postal platform leverages machine learning to enable customers to optimize the creation, delivery, budgeting, and reporting of offline campaigns at scale. Forward-thinking enterprises and small companies alike trust Postal to deliver greater ROI through the automation and integration of offline and online strategies.</t>
+          <t>Travecta Therapeutics is a biopharmaceutical company developing a broad portfolio of product candidates engineered to cross the blood-brain-barrier. The company's proprietary platform mVECTATM allows to screen and develop product candidates that can cross the blood-brain barrier targeting novel and untapped neurological pathways.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1485,47 +1477,47 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$9,000,000</t>
+          <t>$15,000,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Postal.io Scoops Up $9M</t>
+          <t>Travecta Therapeutics Scores $15M Series A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/postal.io/venture-capital-funding/ncqxnllchb</t>
+          <t>https://vcnewsdaily.com/travecta-therapeutics/venture-capital-funding/clvywgxlwc</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SAN LUIS OBISPO, CA, Postal.io, a leading sales and marketing engagement platform has closed a $9 million Series A funding round.</t>
+          <t>NEW YORK, NY, Travecta Therapeutics has secured $15 million in its Series A round of financing.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>San Luis Obispo</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Postal.io/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Travecta%20Therapeutics/venture-funding.php</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>The round was led by Mayfield, the venture capital firm with a 50-year history of people-first investing. Postal helps scale direct mail workflows for sales and marketing, empowering companies to cut through online marketing clutter while improving offline conversion rates with automated direct mail, corporate gifting and charitable giving. In today's era of coronavirus-driven, around-the-clock remote work, creating authentic human connections has become more important than ever, and Postal helps B2B companies find a way to "press palms" with customers in the absence of traditional physical sales calls, meetings and events.Postal.io was founded by serial entrepreneurs Erik Kostelnik and Jed Danner to bring the efficiency of online marketing to offline engagement. Postal enables companies to manage real-world, hands-off prospect and customer touches in the form of cards and letters, as well as tailored premiums and customer gifts - in the same way they currently manage digital marketing assets and programs. Marketing techniques that were once considered "old school" are now "new again," as savvy B2B marketers leverage Postal to manage and measure offline campaigns for maximum return.Given that most people are working from home 24/7, the need for solutions like Postal is particularly urgent, because email marketing shows a continued diminishing rate of return. According to industry experts, post-pandemic email marketing volume is up, while response rates remain at near or all-time lows. The current market environment underscores and truly sets the stage for technologies like Postal, which enables marketers to deliver personalized customer and prospect touches at scale. From campaign creation to delivery, Postal drives conversions by leveraging machine learning, customizable workflows and human-like personalization, which lead to experiences and relationships at scale."What Marketo, Eloqua and HubSpot did for digital marketing automation, Postal is doing for offline marketing automation, particularly in an era when person-to-person connections have become increasingly difficult, yet remain very important," said Kostelnik, also CEO of Postal.io. "Our platform is designed to create authentic, tactile offline customer connections that help brands drive profitable customer relationships, even in turbulent times. We partnered with Mayfield for their people-first approach and experience in helping build SaaS companies from inception to industry leaders. They also deeply understand customer facing applications, given their successful investments such as Marketo, Outreach, ServiceMax and others."Proceeds from this Series A investment will be used to grow the Postal team in San Luis Obispo and to scale revenue operations. "For us at Mayfield, it always starts with the founders, their values and vision and desire and potential to build a great Company," said Rajeev Batra, Mayfield Partner and Postal.io board member. "We met Erik and Jed over five years ago when they were working on their first startup together, TextRecruit, which connected job seekers with employers. It was a lesson in enabling personalized human connections at scale. After TextRecruit's successful acquisition, Erik and Jed wanted to build Postal to enable a similar connection between companies and customers leveraging the offline channel, which has been overlooked as the world moved to digital. They are seamlessly combining the best of both worlds which is a massive opportunity and resonates in this unusual time."Postal gives its clients the ability to scale offline marketing with the ease and speed of digital, and early-adopter customers are seeing the benefit of merging online and offline communication to increase overall conversion rates.Unlike antiquated, manual and un-trackable processes for offline direct mail and gifting campaigns, Postal provides its clients with the ability to manage and report on offline campaigns just as effectively as they can with digital marketing programs. "Personal handwritten notes and prospect gifting have always been a key part of our enterprise strategy," said Zero Keyboard CEO Braden Golub. "Now we can finally scale and track these efforts with Postal."According to Erik Hayden, Founder and Managing Partner of Urban Catalyst, "As the fastest-growing Opportunity Zone Investment Fund in California, we use Postal to customize, personalize and automate all direct mail to our potential investors. We have seen a significant increase in our overall conversion rates as we merge our digital efforts with this new offline platform."More About the Postal.io PlatformThanks to the rapid adoption of marketing automation technologies, the era of digital sales and marketing has achieved critical mass. Companies have learned that differentiation is central to capturing attention and staying competitive, which is why Postal aggregates the best of online marketing technologies to offer a scalable, best-in-class integrated solution that supports offline sales and marketing. Postal's platform supports enterprise account-based marketing (ABM) and enables team management, content curation, automation, and reporting for offline marketing programs. It includes granular control of personalization, budgeting and workflow management and also offers a curated vendor marketplace for delivery of products and correspondence at scale. Users can access a full suite of management capabilities directly from Postal, and it integrates with popular CRM, marketing automation and sales tools.About Postal.ioPostal is a leading sales and marketing engagement platform that empowers companies to improve conversion rates with automated direct mail, corporate gifting and charitable giving. The Postal platform leverages machine learning to enable customers to optimize the creation, delivery, budgeting, and reporting of offline campaigns at scale. Forward-thinking enterprises and small companies alike trust Postal to deliver greater ROI through the automation and integration of offline and online strategies. Postal is a venture-backed, privately held company based in San Luis Obispo, California. To learn more, please visit postal.io.</t>
+          <t>Travecta Therapeutics, a biopharmaceutical company developing a broad portfolio of product candidates engineered to cross the blood-brain-barrier, announces today it has secured $15 million in its Series A round of financing, led by TKS1, a life science focused venture capital fund formed by the partnership between SPRIM and Tikehau Capital.This funding comes on the heels of Travecta Therapeutics' mVECTATM platform achieved targeting of a broad range of product candidates across the blood-brain-barrier with proven efficacy against pharmacological targets. "Our mVECTATM platform technology is unlocking key biological targets in neurological diseases that were previously difficult to engage because of the blood-brain barrier," said Dr. Mahmood Ahmed, Chief Scientific Officer.The proceeds from the Series A financing will be used to support Travecta's growth and advance the development of TVT-004, Travecta's lead non-opioid product targeting pain. The Company plans to enter clinical trials in 2021. The funding will also support the progression of the Company's earlier stage research programs in neuro-oncology and neuro-inflammation.Dr. Michael Shleifer, CEO of Travecta Therapeutics commented, "We are thankful to our partners to support our vision and develop therapies that can potentially transform how neurological conditions, many of which are without FDA approved drugs, are treated."Bruno de Pampelonne, Chairman of Tikehau IM said, "Travecta Therapeutics' mVECTATM platform could revolutionize treatments in a broad range of neurological indications often very difficult to treat. We are thrilled to partner with Travecta's team in this endeavor"Travecta's mVECTATM platformTravecta's mVECTATM proprietary platform is built upon a deep understanding of the Mfs2da transporter protein and its function at the blood-brain-barrier as well as in other key physio-pathological conditions discovered by Dr. David Silver, Professor at Duke-NUS and Scientific Founder of Travecta.About Travecta TherapeuticsTravecta Therapeutics is a biopharmaceutical company developing a broad portfolio of product candidates engineered to cross the blood-brain-barrier. The company's proprietary platform mVECTATM allows to screen and develop product candidates that can cross the blood-brain barrier targeting novel and untapped neurological pathways.Travecta Therapeutics was founded by Dr. David Silver and Dr. Mahmood Ahmed together with the SPRIM Ventures team.For more information, visit: https://travectatherapeutics.com/.</t>
         </is>
       </c>
     </row>
@@ -1535,42 +1527,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cockroach Labs</t>
+          <t>Nanit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cockroach Labs is the company behind CockroachDB, an open source, scalable SQL database headquartered in New York City. CockroachDB is a distributed relational database that is scalable, survivable, and strongly consistent - hence the name. It combines the rich functionality of SQL with the horizontal scalability common to NoSQL offerings, and provides enterprise-grade disaster recovery. The company was founded in 2015 with a mission to Make Data Easy.</t>
+          <t>Nanit is the first smart monitor to merge computer vision with data-backed sleep science, to produce the most advanced and secure camera technology ever introduced to the home. Co-founded by Dr. Assaf Glazer, Tor Ivry and Andrew Berman in New York and Israel, Nanit is combining computer vision, machine learning and advanced camera sensors to measure a baby's sleep cycle by providing actionable insights that lead to improved sleep for the entire family. Nanit Sleep System products are available at buybuy BABY, Amazon and online at Nanit.com.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Growth</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$86,600,000</t>
+          <t>$21,000,000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cockroach Labs Lands $86.6M Series D Round</t>
+          <t>Nanit Scoops Up $21M</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/cockroach-labs/venture-capital-funding/cwgsjrkzdy</t>
+          <t>https://vcnewsdaily.com/nanit/venture-capital-funding/yxxfbqstxf</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NEW YORK, NY, Cockroach Labs, the company behind CockroachDB, the leading enterprise-grade distributed SQL database, today announced $86.6 million in Series D funding.</t>
+          <t>NEW YORK, NY, Nanit, the company behind the most advanced smart baby monitor and sleep tracker, announced the completion of $21 million in financing.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1585,12 +1577,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Cockroach%20Labs/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Nanit/venture-funding.php</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>The round was co-led by Altimeter Capital and BOND with participation from Benchmark, GV, Index Ventures, Redpoint Ventures, Sequoia Capital and Tiger Capital.This round brings Cockroach Labs' total funding to $195 million. Worldwide stay-at-home orders have dramatically increased demand for many businesses, putting increasing stress on the modern tech stack. Economic uncertainty is encouraging greater efficiency, setting the stage for further migration away from legacy, closed-source data platforms to modern, distributed, cloud-native tools. This round of funding will facilitate Cockroach Labs' growing investments in R&amp;D to better support customers as they change to meet these new requirements. Enterprises in areas including communications, gaming and entertainment, e-commerce and financial services are scrambling to support increased consumer demand and remote workforces, and are finding that the resiliency and flexibility necessary to do so just isn't available without an elastically scalable, multi-cloud, modern data platform like CockroachDB.Since its inception in 2016, the CockroachDB next-generation SQL database has helped organizations move and manage critical transactional data in the cloud. The software has developed an ardent and loyal following among architects, developers, and academics by capitalizing on the failed cloud migration promises of legacy database players and the risks associated with "lock-in" from the large public cloud vendors. This has resulted in year-over-year commercial customer growth of 295 percent. And once these users found what they were looking for in CockroachDB, they have doubled-down-first-year customers have, on average, expanded their usage 2x, and have renewed at a rate of over 90 percent.Today, Fortune 500 CIOs are taking notice: while CockroachDB has only been available for two years, it is already in use at some of the world's largest enterprises across all industries, including Equifax, Bose and Comcast. More businesses are turning to CockroachDB to help in both expanding to meet new demand, reducing costs, and moving to the cloud. A recent survey of open roles, specifically for CockroachDB developers, on LinkedIn shows over 40 positions at 25 of the top enterprise companies across industries. Companies include Apple, Honey, Facebook, Tesla and Via."The migration to a multi-cloud environment has long been underway at many, if not all, of the top global enterprises. What cannot be taken for granted in the rush to the cloud is resiliency and scalability, which is near impossible to do without a distributed database that is elastic and self-healing," said CEO and co-founder of Cockroach Labs, Spencer Kimball. "It's a given that this is the way of the future. But as that future approaches faster than many expected it is putting immense pressure on the enterprise to make this leap now, as quickly and effortlessly as possible. CockroachDB was purpose-built for mission-critical, data-intensive, cloud-deployed applications, and as a result, we are seeing a tremendous increase in demand for our services from companies small and large looking for bulletproof resiliency, effortless scalability and an overall more cost-effective platform."A Massive Market, Ripe for Disruption"The cloud has provided the opportunity to rethink all aspects of IT infrastructure and software," explained Tony Baer, principal at dbinsight. "CockroachDB is a prime example of how the cloud is reinventing databases, removing traditional shackles to scale and volume that have constrained them, clearing the way for new forms of globally-distributed applications that weren't thinkable before."The worldwide public cloud services market is forecasted to grow nearly 20 percent in 2020 to a total upwards of $260 billion, according to an analyst firm. It also expects that by 2022, 75 percent of all databases (which saw 18.4 percent of growth in revenue in 2018) will be deployed or migrated to a cloud platform. With double-digit growth in the database market, this represents a larger move away from legacy players like Oracle as companies look for more nimble cloud-native databases. Amidst such growth, the greatest innovation is coming from companies that arose out of the open-source software movement, many of which are poised to disrupt slower-moving players operating on either decades-old technology or on an assembly of services cobbled together via acquisition. As the world's first cloud-native, distributed SQL database, Cockroach Labs is the only player in the space built from the ground up with the needs of the global enterprise in mind."Legacy players have long dominated the enterprise software market. With recent investments in companies like Confluent, Snowflake, and now Cockroach Labs, we're seeing huge market disruption as enterprises move to the cloud and build on a modern tech stack, replacing legacy companies, who are struggling to adapt," said Kevin Wang, partner at Altimeter Capital. "Cockroach Labs is leading this next evolution with a world-class team, ambitious vision, and a transformative product. It's a great time to be in the cloud business."Cockroach most recently closed a $55 million Series C financing round last summer to invest in hiring new talent-doubling its headcount over the past twelve months-and furthering research and development.About Cockroach LabsCockroach Labs helps organizations migrate and manage critical transactional data in the cloud with their next-generation SQL database. CockroachDB uses distribution and replication of data to deliver bulletproof resilience, effortless scale, and can tie data to a location to deliver optimal performance and regulatory compliance. It is architected to run a broad range of applications on and across clouds, on-premise, or in hybrid environments - all as a single store. Headquartered in New York City, Cockroach Labs is backed by Benchmark, GV, Firstmark, Index Ventures, Redpoint Ventures, Sequoia Capital, Tiger Capital and Workbench. For more information, please visit www.cockroachlabs.com.About Altimeter CapitalAltimeter Capital Management is a technology focused investment firm managing public and private investment funds. Private software investments have included AppDynamics, HubSpot, MongoDB, Okta, Snowflake, and Twilio. Altimeter was founded in 2008 and has offices in Menlo Park, CA and Boston, MA.About BONDBOND is a global technology investment firm that supports visionary founders throughout their entire life cycle of innovation and growth. BOND's founding partners have backed industry pioneers such Spotify, Square, Peloton, DocuSign, and Uber.</t>
+          <t>Nanit today announced the completion of $21 million in financing, even as COVID-19 has developed into a global pandemic. Led by existing investors Jerusalem Venture Partners (JVP), Upfront Ventures, RRE Ventures, and Rho Capital Partners, this funding brings the company's total capital raised to $50 million. Nanit will use the proceeds for the next phase of its product development and to further grow its global footprint.Nanit's consumer success has been driven by its ability to keep families connected. Nanit parents are able to loop friends and families into the parenting team, so everyone can feel together even if they can't be there in person. During the COVID-19 pandemic, this has become an essential feature for families with grandparents, aunts, uncles and others making up 20% of Nanit's active users - demonstrating how important the solution is for families separated by a few blocks or even countries.Sarah Dorsett, CEO of Nanit said, "The company has experienced incredible growth from 2018, and our recent funding points to the confidence and demand in the marketplace for innovative consumer products. Having a baby is one of the most significant life moments not only for parents but for the entire family. We are so fortunate to be able to use our technology to keep families connected and sharing in this precious new journey, no matter where they are.""We've increased our commitment to Nanit as we believe the Company is strongly positioned to take advantage of the rapid growth in the connected nursery industry. Nanit uses artificial intelligence and computer vision to truly revolutionize the sleep category; a crucial dimension of the wellness industry. The coronavirus crisis has demonstrated once again how important technology is for families to stay connected," said Erel Margalit, Founder, and Chairman of JVP.  "We are sure the unique solution and advanced technology will be further expanded into new and exciting product lines."Over the past year, Nanit's exponential growth can be attributed to numerous factors:-The NPD Group recognized Nanit for the top increase in North American Market Share in the smart baby monitor category with its Consumer Electronics Industry Performance Award. The company has extended its distribution through national partners including Target.com, Best Buy, and its own direct to consumer channel.-New product expansion with the introduction of Breathing Wear, a line of custom-designed cotton wearables that allow parents to track their infant's breathing motion by reading the pattern printed on the fabric without putting sensors on their skin. Since launch, customers have purchased nearly two pieces of Breathing Wear for every Nanit camera sold, greatly improving the company's LTV.-International expansion with the retail launch of Nanit products in Canada and most recently in the United Kingdom.-Named by Fast Company as one of the Most Innovative Companies of 2019 in Data Science, Nanit has tracked more than 86 million hours of sleep. Its computer vision technology is being applied in research environments through partnerships with leading institutions like Cornell-Weill, Yale and HSS to expand its sleep research and further support the wellbeing of families. With this research, Nanit is offering an unprecedented look into babies' sleep, expanding the company beyond its consumer capabilities, and providing valuable data for the health and wellness community, as witnessed in Nanit's first State of Sleep report issued in March."Nanit has solved the age-old problem of teaching your baby to fall asleep. The company's products are expanding our understanding of "life in the crib" and giving families more ways to share in the joy of parenting. The company has achieved incredible product-market fit and we believe Nanit is well-positioned to address a wide range of health and wellness questions for families and physicians," said Will Porteous, General Partner, RRE Ventures.About NanitNamed to CNBC's Upstart 100 list of most promising startups, Nanit is on a mission to support the journey of parenting. Since launching in 2016, Nanit has tracked over 86 million hours of sleep, 20 million parental visits, and over 8 million morning wakeups. From the AI-powered Nanit Plus camera that tracks and analyzes a baby's sleep, to real-time breathing motion monitoring with Breathing Wear, to capturing amazing memories with Membook, Nanit helps parents see and understand everything happening in and around the crib. Nanit's award-winning products are available internationally at Nanit.com and at retailers including buybuy BABY, Best Buy, Target.com, Amazon, and Pottery Barn Kids, among others.  For more information, please visit www.nanit.com and follow Nanit on Facebook, Twitter and Instagram.</t>
         </is>
       </c>
     </row>
@@ -1600,62 +1592,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TimeDoc</t>
+          <t>GrowFlow</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TimeDoc Health is a leader in Virtual Care Management for healthcare providers. The company enables providers to deliver truly continuous, comprehensive care by helping them establish care management programs for patients with chronic and behavioral health conditions. The solution combines a care management SaaS platform with virtual care management services to provide the personal touch often missing in healthcare.</t>
+          <t>GrowFlow is a customer-driven, B2B SaaS platform providing compliance, inventory management, point of sale, analytics and sales tools for cannabis and hemp businesses at various points in the supply chain. Founded in late 2016, GrowFlow is run by experienced technology founders and executives with management experience from organizations like Google, Microsoft, Expedia, TenCent, and others, and boasts nearly 1,000 customers in 7 states - including some of the largest operations in the world.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Growth</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$5,700,000</t>
+          <t>$8,400,000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>12 May 2020</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TimeDoc Raises $5.7M Series A Financing</t>
+          <t>GrowFlow Nabs $8.4M Growth Financing</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/timedoc/venture-capital-funding/vtkvwbnssc</t>
+          <t>https://vcnewsdaily.com/growflow/venture-capital-funding/xfyzvckxsx</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CHICAGO, IL, TimeDoc has completed a $5.7 million Series A round of financing.</t>
+          <t>LOS ANGELES, CA, GrowFlow has today announced the closing of $8.4 million in growth financing</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/TimeDoc/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/GrowFlow/venture-funding.php</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>TimeDoc, the Virtual Care Management platform that enables the leading healthcare providers to manage their chronic care population, has completed a $5.7 million Series A round of financing. Vocap Investment Partners led the investment round, with participation from existing and new investors Grand Ventures, Serra Ventures, Waterline Ventures, Impact Engine, Break Trail Ventures, Chaifetz Group, and Pat Welsh, co-founder of Welsh, Carson, Anderson &amp; Stowe. "We are excited to have both the financial support and domain expertise of our new investors. They will help us accelerate our vision of building the premier chronic management solution in the market. Our investor syndicate brings strong experience, perspective and relationships with marquee health care organizations," said Will Boeglin, CEO of TimeDoc.TimeDoc has experienced significant growth over the past couple of years as it has focused on building the industry's leading software platform for virtual care management programs. Clients include hospitals, physician group practices, and Federally Qualified Health Centers that leverage the TimeDoc software for Chronic Care Management and Behavioral Health Monitoring."We have studied the virtual care management space for a few years and came to the conclusion that TimeDoc's product-market-fit is distancing them from the competition," said Vinny Olmstead, Managing Director of Vocap Investment Partners. "The company has accomplished a great deal with very little capital and a small sales team. Will, along with co-founders Chris Knoff and John DiCosola, are building what we believe will be the category leader in the space."The COVID-19 pandemic has brought heightened challenges over the past few months to TimeDoc's clients. Specifically, the need to provide care for their most vulnerable demographic: elderly patients with multiple chronic conditions. By leveraging the TimeDoc platform, providers have even been able to save their employees' jobs by repurposing staff to conduct virtual check-ins and provide medical guidance."Our software solutions support our provider clients and their patients in a significant way during this pandemic. This success has been a silver lining for our team in what has been an otherwise challenging time for us all," said Will Boeglin, CEO of TimeDoc.TimeDoc plans to use the new capital to accelerate sales resources, strengthen Electronic Health Record (EHR) integrations, roll out Remote Patient Monitoring, and develop tools to improve outcomes for their chronically ill patients."TimeDoc has developed technology solutions that enable providers to deliver an exceptional quality of care to patients dealing with complicated diseases. Physicians today have large patient panels and require more time to manage their patient's needs. By leveraging TimeDoc's software, and software enabled service offerings, clinicians can focus on their core practice functions, and provide a better care model to their patients," said Robbie Greenglass, Managing Director of Waterline Ventures.This investment brings TimeDoc's total funding since launching in 2016 to over $8 Million. Vocap Investment Partners Managing Director Vinny Olmstead will join TimeDoc's Board of Directors, alongside current outside board member Tim Streit of Grand Ventures.About TimeDoc HealthTimeDoc Health, based in Chicago, Illinois, is a leader in Virtual Care Management for healthcare providers. The company enables providers to deliver truly continuous, comprehensive care by helping them establish care management programs for patients with chronic and behavioral health conditions. The solution combines a care management SaaS platform with virtual care management services to provide the personal touch often missing in healthcare. For more information, visit www.timedochealth.com.About Vocap PartnersVocap Investment Partners provides venture capital and operating expertise to rapidly growing technology companies in high potential verticals, including: Enterprise Software, Healthcare Tech, Marketing Tech, Media and Entertainment, and Internet. For more information, visit: www.vocappartners.com.About Waterline VenturesWaterline Ventures is a Boston based venture capital fund focusing on investments in the healthcare technology and services sector. Waterline Ventures invests in companies that are improving the way care is delivered. Increasing costs, inconsistent quality, and inadequate access to healthcare create the need for innovation. Companies that address these issues stand to create tremendous value while improving people's lives across the country and around the world. There is a massive and growing opportunity for technological transformation in healthcare. Waterline's family of entrepreneurs are leading the change within the healthcare system. For more information, visit: www.waterlineventures.comAbout Impact Engine Impact Engine is a Chicago-based venture capital and private equity investment firm focused on driving positive impact in economic empowerment, education, environmental sustainability, and health while seeking competitive financial returns. The firm was included on the 2019 and 2020 ImpactAssets50 lists, which recognize outstanding impact investment funds with a demonstrated positive social, environmental and financial impact. Impact Engine is women-owned and led and brings the community together to build the impact investing field. For more information, visit: www.theimpactengine.com</t>
+          <t>GrowFlow, the SaaS company providing software to businesses in the cannabis and hemp industry, has today announced the closing of $8.4 million in growth financing led by software-focused growth equity fund TVC Capital. Bull &amp; Bear Fund and two individual angel investors also joined this round.GrowFlow offers compliance, inventory management, point of sale, analytics and sales software to cannabis and hemp businesses. This round of funding will be used to fuel the company's continued sales and marketing efforts, to accelerate product development, and to create the company's new content production arm. Jeb Spencer, TVC's co-founder and managing partner, as well as TVC vice president Ryan McMorrow, will join the company's board of directors."We're thrilled to close this round of funding which will propel our growth and support our mission to streamline every aspect of the cannabis industry," said Travis Steffen, CEO of GrowFlow. "With their track record of financing fundamentally-sound, capital-efficient B2B SaaS leaders that have scaled quickly, it became clear that TVC would be a powerhouse partner to share our vision with. We look forward to working with TVC to expand and release more features to help our customers thrive - especially during this challenging and chaotic time.""TVC Capital is pleased to lead a growth equity investment in GrowFlow. We could not be more impressed with the company's leadership position in the cannabis space and their significant penetration into the market," commented Jeb Spencer, co-founder and managing partner of TVC Capital. "TVC has been seeking an enterprise grade software company in this industry for almost four years, so finding GrowFlow was exciting for us. We look forward to working with Travis and his excellent team as we expand our national footprint."COVID-19 has impacted nearly every industry, though cannabis businesses have largely remained open and classified as an essential service. GrowFlow is working hard to support cannabis and hemp businesses, trying to adapt to the new reality COVID-19 has forced upon them. Many are operating with a reduced staff focused on fulfilling demand, so GrowFlow is extending its free trial for new customers - giving them more time up front to get set up and experience all the value it adds."We know our customers' ways of doing business have changed really quickly in response to this virus, and it's important for us to support them as much as possible," Steffen said. "One of the many new features we're releasing in the coming weeks is an extension of our retail product to offer pre-orders and curbside pickup, allowing our customers the ability to keep servicing their own customers while following social distancing guidelines."Since GrowFlow's last funding announcement in 2018, the company has seen consistent growth among employees, company valuation and generated revenue, with services expanding to nearly 1,000 clients in seven states within the cannabis industry.This additional financing brings the company's total funding to $10M to date.About GrowFlowLos Angeles-based GrowFlow is a customer-driven, B2B SaaS platform providing compliance, inventory management, point of sale, analytics and sales tools for cannabis and hemp businesses at various points in the supply chain. Founded in late 2016, GrowFlow is run by experienced technology founders and executives with management experience from organizations like Google, Microsoft, Expedia, TenCent, and others, and boasts nearly 1,000 customers in 7 states - including some of the largest operations in the world.For more information, visit https://growflow.com/.About TVC CapitalTVC Capital is a San Diego-based growth equity firm with $400 million under management. TVC is focused on investments in and acquisitions of mission-critical software firms. TVC targets a wide spectrum of software sectors and industry verticals that are poised for growth and consolidation. The TVC team is led by operating executives with more than 80 years of experience growing technology companies into market leaders. Current and past investments include CreatorIQ, HealthCrowd, SimpleNexus, Perspectium, Celigo, BitTitan, Limeade, LiquidPlanner, Mercent Digital Map Products, SmartAction, Accordent Technologies, Docupace, MediaPlatform, Levels Beyond (Reach Engine), Del Mar DataTrac, Centage and ReverseVision.For more information, visit http://www.tvccapital.com.</t>
         </is>
       </c>
     </row>
@@ -1665,62 +1657,62 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GigaSpaces Technologies</t>
+          <t>PathologyWatch</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GigaSpaces Technologies provides pure-play cloud orchestration and data scalability platforms through two main product lines, Cloudify and XAP. Hundreds of Tier-1 organizations worldwide are leveraging GigaSpaces' technology to enhance IT efficiency and performance, from top financial and insurance firms, Telco carriers, e-Commerce companies, transportation firms and healthcare organizations. GigaSpaces maintains offices in the US, Europe and Asia Pacific. More at www.gigaspaces.com</t>
+          <t>PathologyWatch is the groundbreaking leader of digital dermatopathology services. Through two programs, ValueWatch and BusinessWatch, dermatology clinics and hospitals can improve operational efficiency by speeding up workflow and improve patient outcomes by utilizing the PathologyWatch expert professional team and partner laboratory services. This can facilitate best-in-class reads and, in some cases, enable additional revenue to the practice by in-housing pathology. With an intuitive and easy-to-implement digital pathology solution that includes access to top-tier dermatopathologists and a streamlined clinical workflow that interfaces directly into the EMR, PathologyWatch brilliantly combines state-of-the-art technology and clinical decision making to deliver unprecedented patient care.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Venture</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$12,000,000</t>
+          <t>$5,000,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>11 May 2020</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GigaSpaces Scores $12M</t>
+          <t>PathologyWatch Raises $5M in Series A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/gigaspaces-technologies/venture-capital-funding/xqczcvkxhk</t>
+          <t>https://vcnewsdaily.com/pathologywatch/venture-capital-funding/fkghhwgltl</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NEW YORK, NY, GigaSpaces announced today that it closed a round of funding of $12 million.</t>
+          <t>SALT LAKE CITY, UT, PathologyWatch announced today a $5M series A funding led by SpringTide Investments and Rock Creek Capital.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/GigaSpaces%20Technologies/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/PathologyWatch/venture-funding.php</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>GigaSpaces, the provider of InsightEdge, the fastest in-memory real-time analytics and data processing platform, announced today that it closed a round of funding of $12 million. Fortissimo Capital led the round, joined by existing investors Claridge Israel and BRM Group.Following record breaking results in 2019 including doubling annual recurring revenues (ARR), tripling the InsightEdge customer base, and achieving record profitability, GigaSpaces continues to demonstrate growth, completing Q1 2020 with record ARR.Increased demand for GigaSpaces solutions is expected during the current COVID-19 crisis, when digital service usage is skyrocketing, market trading volume continues to be volatile and real-time analytics capabilities are required. GigaSpaces is perfectly positioned to address these speed, scale, resilience and TCO challenges.The proceeds from the financing will be used to fuel rapid growth, scale global expansion, further develop collaboration with partners, and accelerate product innovation.  The investment underscores GigaSpaces impact on helping companies drive the largest enterprises digital transformation initiatives that demand real-time insights, acceleration of cloud application performance and operationalizing machine learning (ML) and artificial intelligence (AI).GigaSpaces introduced InsightEdge, a unified analytics, ML and transactional data processing platform in 2017 to address the market needs for real-time data-driven insights. Recognized by top analysts as a leader in the industry, including the latest Q4 2019 Forrester Wave Translytical Data Platform citing, "GigaSpaces makes you faster and smarter at the speed and scale of business strengths in transactions, platform, multi model, customer adoption, development tools, extensibility, and customer support.""Data is a critical strategic asset that must be managed and leveraged correctly to provide insights, intelligence and actions for modern services and applications such as real-time fraud detection, risk analysis, instant payments, personalized offers, customer 360, dynamic pricing and more," said Adi Paz, CEO of GigaSpaces. "This funding will help us drive accelerated growth to help more customers deliver on their data-driven promise.""Today, organizations must remain competitive, and require the agility to develop and deploy real-time data-driven services and applications that improve customer experience while optimizing their business operations," said Yoav Hineman, Partner at Fortissimo Capital. "GigaSpaces' modern data platform and impressive track-record of driving the digital transformation initiatives at tier-1 enterprises from Fortune 500 companies such as financial services, insurance, health services, E-commerce and transportation, confirm GigaSpaces proficiency in addressing today's and tomorrow's customer challenges."Fortissimo Capital was advised by GCA Altium and Meitar. GigaSpaces and existing investors were advised by Meitar.About GigaSpacesGigaSpaces provides the fastest in-memory computing platforms for real-time insight to action and extreme transactional processing. With GigaSpaces, enterprises can operationalize machine learning and transactional processing to gain real-time insights on their data and act upon them in the moment. The always-on platforms for mission-critical applications across cloud, on-premise or hybrid, are leveraged by hundreds of Tier-1 and Fortune-listed organizations worldwide across financial services, retail, transportation, telecom, healthcare, and more. GigaSpaces offices are located in the US, Europe and Asia. For more information, visit www.gigaspaces.com and www.gigaspaces.com/blog/, follow us on Twitter, or visit our YouTube and LinkedIn channels.About Fortissimo CapitalFortissimo Capital is a private equity fund, established in 2004, that invests primarily in Israeli-related technology and industrial companies to expedite growth. Fortissimo raised $1.6 billion across five funds. A few notable portfolio companies that the fund exited include: Kornit Digital (Nasdaq:KRNT), AOD (sold to Primus), SodaStream (SODA, later sold to Pepsi),  Dip-Tech (sold to Ferro), Nur Macroprinters (sold to HP),  Cadent (sold to Align) and Starhome (sold to Tomia Global). Fortissimo has invested in several software companies, including IncrediBuild Software, Priority Software and One Hour Translation. More information about Fortissimo Capital is available at www.ffcapital.com</t>
+          <t>PathologyWatch announced today a $5M series A funding led by SpringTide Investments and Rock Creek Capital with additional funding by individual investors. PathologyWatch is emerging as the groundbreaking leader of intuitive, easy-to-implement digital dermatopathology solutions that can speed the diagnostic process while reducing costs to clinics and enhancing patient care.PathologyWatch will utilize this series A funding to strengthen outreach to dermatology clinics nationwide. Over 12 months, it expects to triple its sales force while expanding marketing efforts and implementing a strong channel partner strategy. The funding also represents a continued investment in the development of technology and supervised artificial intelligence (AI) for various cancer lines.PathologyWatch differentiates itself from competitors by offering fully interfaced EMR (Electronic Medical Records) reporting and 24/7 access to digital slides. Clients also have access to top dermatopathologists and the option to interpret and bill for their cases. PathologyWatch is further distinct by its primary focus on outpatient clinics.Changing "How Pathology Operates by Transforming Biopsy Diagnostics""We believe PathologyWatch will change how pathology operates by transforming biopsy diagnostics," said Austin Waters, principal at SpringTide Investments. "PathologyWatch has created a platform to digitize pathology workflows and is a leading developer of AI algorithms that detect and characterize cancers from biopsy samples. The quality and breadth of their solution, and their early success in dermatopathology, is why we're bullish on the future of this company; PathologyWatch is redefining biopsy diagnostics as we know it."First Live Clinical Implementation of Dermatopathology AI with Ability to Generate Complete Reports"We have the first live clinical implementation of dermatopathology AI that can generate a full report and make physicians significantly more efficient in Australia, as we're working alongside physicians to better diagnose skin cancer," said PathologyWatch co-founder and CEO Dan Lambert. "We provide dermatologists with a digital interface that lets them read their own cases. Heretofore, most of pathology has been done with a microscope. Our service offering is the first of its kind that can aid a dermatologist through digital tools and expert consultation."Benefits the Patient by Merging Clinical Observations with Pathology"PathologyWatch is a game changer," said Jeffrey Smith, Dermatologist, Prairie Lakes Healthcare System. "Digital access to my cases, expert dermpath reads, and an EMR interface- not to mention the time savings and increase in revenue for our hospital, all while keeping our patients in-network. Most importantly, this benefits the patient by merging clinical observations with pathology."The "Future of Dermatopathology for Dermatologists""I believe PathologyWatch is the future of dermatopathology for dermatologists. The group combines academic expertise with the efficiency of a private lab. It is a huge timesaver for me and my staff," said April Larson, Dermatologist. "By reviewing my own cases, I am able to make better clinical decisions for my patients. It's a win-win for everybody."For more information on PathologyWatch, please visit pathologywatch.com.About PathologyWatchPathologyWatch is the groundbreaking leader of digital dermatopathology services. Through two programs, ValueWatch and BusinessWatch, dermatology clinics and hospitals can improve operational efficiency by speeding up workflow and improve patient outcomes by utilizing the PathologyWatch expert professional team and partner laboratory services. This can facilitate best-in-class reads and, in some cases, enable additional revenue to the practice by in-housing pathology. With an intuitive and easy-to-implement digital pathology solution that includes access to top-tier dermatopathologists and a streamlined clinical workflow that interfaces directly into the EMR, PathologyWatch brilliantly combines state-of-the-art technology and clinical decision making to deliver unprecedented patient care.About SpringTide InvestmentsSpringTide is a network of experienced healthcare founders, operators, and investors in the healthcare space. With over $350M in collective exits across 4 startup companies, our Managing Partners are driven to provide access and support for fellow entrepreneurs who are expanding access to quality healthcare.About Rock Creek CapitalA venture and equity investment firm, Rock Creek Capital is a Utah-based fund. Focused on growth equity, the fund helps entrepreneurs and founders of companies scale successfully.</t>
         </is>
       </c>
     </row>
@@ -1730,62 +1722,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Embody</t>
+          <t>CorVent Medical</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Embody is pioneering the next generation regenerative platform for the repair of tendon and ligament injuries with novel collagen-based bio-fabrication techniques and products for the fast-growing sports medicine market.  Founded in 2014 and funded with $20 million in DARPA &amp; DOD funding, the company is developing unique biomaterials with an initial focus on orthopedic applications including Achilles, rotator cuff and knee ligament repair, including ACL (Anterior Cruciate Ligament).</t>
+          <t>CorVent Medical, a privately held portfolio company of Coridea LLC, is committed to developing smart, versatile, lifesaving ventilators for critical care. The company's first product, the CorVent™ Single-Use Ventilator, was designed in partnership with Design Catapult, an industrial design firm recognized for their rapid ideation of medical and commercial products. The ventilator is  currently pending Emergency Use Authorization (EUA) issued by the U.S. Food and Drug Administration (FDA) for ventilators, tubing connectors and accessories, which authorizes its use for the duration of the U.S. Health and Human Services COVID-19 public health emergency declaration. This device is not yet FDA cleared or approved.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$9,300,000</t>
+          <t>$4,500,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>11 May 2020</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Embody Closes $9.3M Series A</t>
+          <t>CorVent Medical Closes $4.5M Seed Financing</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/embody/venture-capital-funding/pvcnwjfswp</t>
+          <t>https://vcnewsdaily.com/corvent-medical/venture-capital-funding/kvhghlphlw</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NORFOLK, VA, Embody has announced the closing of a $9.3 million Series A funding round.</t>
+          <t>NEW YORK, NY, CorVent Medical announced today the closing of a $4.5M seed financing round led by Sofinnova Partners.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Embody/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/CorVent%20Medical/venture-funding.php</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Embody, a privately-held medical device company focused on soft tissue repair, announced today that has closed a $9.3 million Series A funding round led by Litigit LLC, with participation from Cultivate(MD) and 757 Angels. The financing will enable Embody to expand its world-class team and the commercial launch Tapestry, its next-generation soft-tissue repair technology in the second half of 2020. "This financing represents a significant step in the growth of Embody," said Jeff Conroy, Embody's Co-founder and Chief Executive Officer.  "We are now in a position to execute on our goals of commercializing Tapestry, our first in a series of soft-tissue repair products for Achilles, rotator cuff and knee ligament injuries."The global market for sports medicine products is expected to reach $9 billion by 2024.  Embody's products focus on the most pressing patient needs: the repair of serious tendon and ligament injuries and are developed in close collaboration with some of the most advanced clinical thought leaders.About Embody: Embody is pioneering the next generation regenerative platform for the repair of tendon and ligament injuries with novel collagen-based bio-fabrication techniques and products for the fast-growing sports medicine market.  Founded in 2014 and funded with $20 million in DARPA &amp; DOD funding, the company is developing unique biomaterials with an initial focus on orthopedic applications including Achilles, rotator cuff and knee ligament repair, including ACL (Anterior Cruciate Ligament).</t>
+          <t>CorVent Medical, a Coridea portfolio company, announced today the closing of a $4.5M seed financing round to support the commercialization of the first single-use, critical care ventilator that will enable rapid and affordable deployment with superior infection control. The financing round is led by the prominent European life sciences venture capital firm Sofinnova Partners with participation from Redmile Group, Exor Seeds, Genesis Medtech Group, The Deerfield Foundation, The Pagliuca Family Office, and Accel Founder Jim Swartz. Funds will be used to finalize regulatory filings under the U.S. Food and Drug Administration's Emergency Use Authorization (EUA) Act, to upon approval launch the CorVent™ Single-Use Ventilator, and to support future development of next generation lifesaving devices for respiratory insufficiency."The COVID-19 pandemic has highlighted a significant need for emergency-use ventilators that can be rapidly deployed to enable on-demand, critical care ventilation," stated Antoine Papiernik, Managing Partner at Sofinnova Partners. "CorVent has created an elegant yet simple, single-use solution for emergency preparedness that can be stored for long periods of time without the expense and delay of complicated service contracts. We are proud to partner with this proven team to bring a much needed solution to market."The CorVent™ Single-Use Ventilator is designed to meet each patient's respiratory needs in an easy plug and play set-up with built-in safeguards. The single-patient design provides superior infection control with integrated filters to protect healthcare providers, staff and patients. Delivering critical care ventilation at a moment's notice, the CorVent™ Single-Use Ventilator complements existing products during hospital shortages or in underserved markets."Our product is unique in that it is the only single-use, critical care ventilator that extends capacity when needed most," commented Mark Gelfand, CEO of CorVent. "Whether it is in response to a pandemic or to address an underserved market, our single-use ventilator enables hospitals, states and countries to cost-effectively and efficiently address respiratory insufficiency so healthcare providers can immediately focus on critical patient needs."About CorVent Medical, Inc.CorVent Medical, a privately held portfolio company of Coridea LLC, is committed to developing smart, versatile, lifesaving ventilators for critical care. The company's first product, the CorVent™ Single-Use Ventilator, was designed in partnership with Design Catapult, an industrial design firm recognized for their rapid ideation of medical and commercial products. The ventilator is  currently pending Emergency Use Authorization (EUA) issued by the U.S. Food and Drug Administration (FDA) for ventilators, tubing connectors and accessories, which authorizes its use for the duration of the U.S. Health and Human Services COVID-19 public health emergency declaration. This device is not yet FDA cleared or approved.About Coridea, LLCFounded by serial entrepreneurs Dr. Howard Levin and Mark Gelfand, Coridea LLC is a proven medtech incubator that develops unexpected solutions to address complex and costly unmet needs in healthcare. Coridea has successfully launched over 10 companies that focus on bridging the gap between patient care and medical device innovation. To learn more about Coridea, please visit www.coridea.com.About Sofinnova PartnersSofinnova Partners is a leading European venture capital firm specialized in Life Sciences. Based in Paris, France, with offices in London and Milan, the firm brings together a team of 40 professionals from all over Europe, the U.S. and Asia. The firm focuses on paradigm-shifting technologies alongside visionary entrepreneurs. Sofinnova Partners invests across the Life Sciences value chain as a lead or cornerstone investor, from very early-stage opportunities to late-stage/public companies. It has backed nearly 500 companies over more than 48 years, creating market leaders around the globe. Today, Sofinnova Partners has over €2 billion under management. For more information, please visit: www.sofinnovapartners.com.</t>
         </is>
       </c>
     </row>
@@ -1795,62 +1787,62 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SVT Robotics</t>
+          <t>Black Buffalo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Founded in 2018, SVT Robotics is a software company that's revolutionizing robot deployments in warehousing and manufacturing industries. SVT's software platform enables companies to easily connect their enterprise systems to any robot or automation, in a fraction of the time, empowering them to compete in a quickly changing marketplace.</t>
+          <t>Black Buffalo was founded in 2015, and the company has invested over 20,000 hours of research and development into creating Black Buffalo's eight products, which include five long-cut and three pouches varieties, all of which contain pharmaceutical-grade nicotine but no tobacco leaf or tobacco stem.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Growth</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$3,500,000</t>
+          <t>$9,750,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>11 May 2020</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SVT Robotics Nabs $3.5M Seed Round</t>
+          <t>Black Buffalo Raises $9.75M in Growth Capital</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/svt-robotics/venture-capital-funding/mflqxmdzlj</t>
+          <t>https://vcnewsdaily.com/black-buffalo/venture-capital-funding/ffwrsmyxfg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NORFOLK, VA, SVT Robotics has announced that it has completed its seed round of $3.5 million.</t>
+          <t>CHICAGO, IL, Black Buffalo announced the successful closing of a substantially oversubscribed $9.75 million growth capital raise.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/SVT%20Robotics/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Black%20Buffalo/venture-funding.php</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>SVT Robotics, a startup whose software accelerates and simplifies deployment of industrial robotics, announced today that it has completed its seed round of $3.5 million. Cowboy Ventures led the investment round, with Dynamo Ventures, Schematic Ventures, Ludlow Ventures, and NRV all participating."We believe supply chain automation will continue, even during these difficult times, as businesses strive to meet increased consumer expectations," said Ted Wang of Cowboy Ventures. "SVT is well positioned to help companies complete their deployments more quickly, less expensively, and with less risk. Although the company had the resources to ride out a downturn, we invested to help SVT expand its product offering, setting them up to become an enduring company."SVT Robotics CEO and Co-founder A.K. Schultz notes that the current pandemic has accelerated the need for fast and flexible robot adoption to keep up with supply chain demands."Our platform gives any company the power to rapidly deploy new, innovative robotics and the flexibility to alter course quickly to meet the needs of the market," Schultz said. "This seed round shows that SVT Robotics has the right product fit for the market today and as it evolves, plus an amazing group of investors who are looking to help solve the problems of tomorrow."This investment round will enable SVT Robotics to broaden product development efforts for its robotic Integration Platform as a Service (iPaaS). The software platform first launched in 2018, and since then the demand for the platform has continued to grow. SVT is expanding its product feature set to support this customer growth and market demand."The response has been terrific, and we're really excited about the roadmap this year," said Michael Howes, Co-founder, COO &amp; CTO of SVT Robotics. "This investment is helping us to go even faster and direct our energy to features our customers need most.""Large customers have described SVT as 'the missing piece for robot adoption,'" said Julian Counihan of Schematic Ventures. "Last year was about building the pieces, and this year is about putting them in place. We're excited to continue to support SVT Robotics' mission of accelerating the warehouse robot market."SVT Robotics will also utilize the investment funds to continue to scale up the product and customer success teams to help meet these objectives."We at NRV are honored to work alongside the SVT Robotics team of industry experts and developers," said Scott Ukrop, Managing Director at NRV. "Their platform is unique in its ability to seamlessly and quickly bridge robotic hardware and business systems. It's a solution that's needed now more than ever."About SVT RoboticsFounded in 2018, SVT Robotics is a software company that's revolutionizing robot deployments in warehousing and manufacturing industries. SVT's software platform enables companies to easily connect their enterprise systems to any robot or automation, in a fraction of the time, empowering them to compete in a quickly changing marketplace. Learn more about SVT Robotics at svtrobotics.com, Twitter, Facebook, and LinkedIn.</t>
+          <t>Black Buffalo Inc. today announced the successful closing of a substantially oversubscribed $9.75 million growth capital raise including key strategic investors Pendyne Capital, Watchfire Ventures and Open Pantry Food Marts.  Black Buffalo plans to use this capital to expand its marketing presence, upgrade its manufacturing capacity, increase its online distribution, and launch into convenience stores and physical retail outlets nationwide.  To date, adult consumers age 21 and older have been able to purchase Black Buffalo's smokeless tobacco alternative products online at BlackBuffalo.com.Black Buffalo was founded in 2015, and the company has invested over 20,000 hours of research and development into creating Black Buffalo's eight products, which include five long-cut and three pouches varieties, all of which contain pharmaceutical-grade nicotine but no tobacco leaf or tobacco stem.  "Black Buffalo's products were developed by a team that collectively dipped traditional smokeless tobacco products for over 60 years," says co-founder and President Mark Hanson, "and our guiding principle has always been that dipping is about much more than just nicotine delivery.  It's also about the ritual: from the crack of the seal, to the look and feel of the high-definition embossed tin, to the rich, moist flavor of that first pinch or pouch.  We believe that Black Buffalo offers the first true alternative for adult consumers looking to make the switch from traditional dip, as evidenced by our tens of thousands of customers."With proceeds from this capital raise, Black Buffalo has assembled Premarket Tobacco Product Applications for its entire product portfolio, which the company intends to submit to the U.S. Food and Drug Administration's Center for Tobacco Products in the coming months.  Additionally, Black Buffalo has purchased and expects Q2 2020 delivery of a high-throughput pouch maker from one of the world's leading industrial manufacturers.  Adding this equipment will enable the company to continue to satisfy demand from its adult customer base, of which nearly half are regular consumers of pouches products.  Black Buffalo's sales have exhibited strong growth in 2020, with month-over-month revenue growth of 31% in March 2020 and 23% in April 2020.  "One of the best parts of our initial e-commerce strategy has been having a direct relationship with our customers, whom we affectionately call 'the Herd.'  Black Buffalo will always lead with product, but we're equally excited about the opportunity to continue to build upon our already strong brand," says co-founder and Chief Marketing Officer Jeffery David.In late April 2020, Black Buffalo announced that Donald "Cowboy" Cerrone, one of the most well-known and respected fighters in mixed martial arts, has joined the Herd as an official brand ambassador (Cowboy can be found online as @Cowboycerrone across major social media platforms).  Additionally, Black Buffalo has continued to make key hires and investments during the first half of 2020, including hiring Matthew Hanson as Chief Growth Officer, upgrading the company's marketing, manufacturing and distribution capabilities, and implementing transformative company-wide initiatives to support continued rapid growth.  "We have reviewed numerous potential consumer branded goods investments, and we are thrilled to partner with Black Buffalo," says Pendyne Capital's Co-Chief Investment Officer Bo Ramsey.  "We believe Black Buffalo has the potential to capture substantial market share in the nearly $7.5 billion moist smokeless tobacco category, for which we believe no true alternative has existed to date for adult consumers."Robert Buhler, President and CEO of Open Pantry Food Marts, says, "The alternative nicotine category has seen explosive growth over the past few years in the convenience store channel.  We believe that Black Buffalo has the potential to be a category leader with its exceptional product portfolio of oral tobacco alternatives.  We are excited to help launch Black Buffalo in multiple bricks-and-mortar retailer channels."To learn more about Black Buffalo and its products, please visit BlackBuffalo.com.  Black Buffalo products contain pharmaceutical-grade nicotine, which is an addictive chemical, and Black Buffalo products are intended for use solely by adults age 21 and over who are existing users of tobacco products.</t>
         </is>
       </c>
     </row>
@@ -1860,62 +1852,62 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Treasury Prime</t>
+          <t>Genetesis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>With deep knowledge in banking operations and technology, Treasury Prime is uniquely positioned to be a strong partner for banks and fintechs. This expertise delivers unprecedented agility to the banking industry. Recently, a Treasury Prime banking partner launched an SBA Payroll Protection Plan (PPP) application which processed over $1B in loans in three days.</t>
+          <t>Genetesis is a medical device company based in Mason, Ohio creating and developing integrated biomagnetic solutions to improve patients' health, outcomes, and quality of life.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>$9,000,000</t>
+          <t>$9,200,000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>11 May 2020</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Treasury Prime Pulls In $9M Series A</t>
+          <t>Genetesis Raises $9.2M in Series B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/treasury-prime/venture-capital-funding/ckjyptfvtq</t>
+          <t>https://vcnewsdaily.com/genetesis/venture-capital-funding/mdsbzqrhpb</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO, CA, Treasury Prime announced today that it has raised $9 million in its Series A funding round.</t>
+          <t>MASON, OH, Genetesis, a cardiac imaging company, has raised $9.2M in Series B financing.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Mason</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Treasury%20Prime/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Genetesis/venture-funding.php</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Led by Amias Gerety of QED Investors and with participation by Jason Lemkin of SaaStr and Hans Morris of NYCA Partners, the round builds on Treasury Prime's previous $2.5m Seed Round, bringing its total funding to date to $11.5m.Treasury Prime is powering the future of banking with an API that enables banks to provide a modern interface to legacy backend infrastructures. This allows banks to seamlessly integrate with modern financial technology clients. By integrating directly with a bank's core banking system, Treasury Prime's automation drastically reduces the time and cost for onboarding new clients, all while fulfilling the banks' governance requirements. In this way, banks grow with deposits from a new client base, and fintechs can quickly offer secure digital banking services to their customers."We're tremendously happy with our growth so far, and this latest round of investment serves as a testament both to that success and our confidence in the future," said Chris Dean, Co-Founder and CEO of Treasury Prime. "We're thrilled to help banks grow and add more deposits with a new customer base, and to help growing technology companies find homes at institutions that suit their unique needs."With Treasury Prime, fintechs are able to digitally open and manage FDIC insured accounts at scale, make sophisticated payments, and interact with other systems, all with automated fraud detection and audit trails built right into their own integrations. Treasury Prime eases the friction posed by interaction with legacy banking systems."Chris and his team have been working on this integration problem for years, and I couldn't be more excited to be part of their future," said Amias Gerety, Partner at QED Investors. "The partnerships Treasury Prime is enabling between cutting-edge technology companies and financial institutions will bring about a new wave of innovation and entrepreneurship, while also fostering the stability and regulatory compliance needed for long-term success."About Treasury PrimeWith deep knowledge in banking operations and technology, Treasury Prime is uniquely positioned to be a strong partner for banks and fintechs. This expertise delivers unprecedented agility to the banking industry. Recently, a Treasury Prime banking partner launched an SBA Payroll Protection Plan (PPP) application which processed over $1B in loans in three days.Banks in search of back-office modernization, and fintechs in search of banking partners, should visit www.TreasuryPrime.com to learn more.</t>
+          <t>According to FINSMES, Genetesis, a cardiac imaging company, raised $9.2M in Series B financing. The round included strategic investments from TDK Ventures and an undisclosed Fortune 500 global healthcare company, as well as return investors CincyTech, Ohio Innovation Fund, and Mark Cuban.Genetesis is a medical device company based in Mason, Ohio creating and developing integrated biomagnetic solutions to improve patients' health, outcomes, and quality of life.</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1917,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clear Skye</t>
+          <t>StructionSite</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clear Skye's mission is to simplify security and compliance for the enterprise. The Clear Skye vision is that simplification results from the convergence of disparate systems, processes and user experiences. Clear Skye executes on this vision by building Identity Governance software solutions that are native to the Now Platform, making deployment, adoption and integration of its solutions quick and painless for comprehensive and efficient identity governance and administration.</t>
+          <t>StructionSite offers a smarter, easier way to document the progress of your jobsites. Using our iOS or Android application, walk the jobsite recording 360Â° videos and our AI-powered algorithms place them on the project drawing for you. Our automated site capture tool translates daily project updates into actionable insights and valuable data for your team. With StructionSite, you'll be able to reduce rework, increase your efficiency and minimize risk on all of your projects.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1940,47 +1932,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>$4,950,000</t>
+          <t>$7,000,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>11 May 2020</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Clear Skye Grabs $4.95M Series A</t>
+          <t>StructionSite Secures $7M in Series A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/clear-skye/venture-capital-funding/xlyytpnxjm</t>
+          <t>https://vcnewsdaily.com/structionsite/venture-capital-funding/yhhqjfvnyt</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>EMERYVILLE, CA, Clear Skye, the better way to IGA company, today announced that it has closed a $4.95 million Series A round of funding.</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Emeryville</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+          <t>StructionSite has secured a $7 million Series A round of financing. The round was led by D20 Capital.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Clear%20Skye/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/StructionSite/venture-funding.php</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>The round was led by Toba Capital. Other round participants included Inner Loop Capital and existing investor ServiceNow Ventures. The company also announced that new Chief Executive Officer John Milburn and Rajan Aggarwal, Partner, Toba Capital, will join the Clear Skye Board of Directors. Luis P. Almeida completes the executive team as new worldwide leader of Sales and Alliances.Clear Skye is executing on its bold vision of simplifying security by delivering a cost-effective solution for today's Identity Governance challenges. Clear Skye Identity Governance and Administration (IGA) is the only IGA solution built natively on the ServiceNow Now Platform, and as a result uniquely removes friction from business processes related to governing application access. Organizations can greatly increase the efficiency and effectiveness of IGA programs while leveraging and extending their investment in ServiceNow Now Platform. Clear Skye IGA delivers the critical IGA capabilities of Identity Lifecycle Management, Access Review, Access Certification and Audit-Focused Analytics without the overhead of standing up another new software silo requiring integration."Toba shares Clear Skye's goal of significantly improving the effectiveness of IGA programs, which is a space long associated with mediocre customer outcomes," said Vincent Smith, Founder, Toba Capital. "Clear Skye is differentiated in its ability to provide solutions that are aligned with existing business processes and workflows, and we see an unmet demand in the industry which will rapidly accelerate their growth. Additionally, we are excited to support the rapidly evolving Now Platform App Store Ecosystem, which we believe will help drive the continued ServiceNow dominance of IT workflows.""Identity Management is a critical process that should not live in a vacuum - it should align with the way other IT processes are managed," said John Milburn, CEO of Clear Skye. "Customer and industry feedback tell us that by participating natively in the Now Platform, Clear Skye IGA has put Identity Governance where it belongs, on the platform already being used to drive most IT workflows. We are excited to team with Toba Capital and Inner Loop Capital, and for Rajan to join our board of directors, as we work toward executing on our aggressive growth goals for 2020 and beyond."Today's funding will be used to expand all facets of Clear Skye to meet the increasing demand for its Clear Skye IGA™ solution. In addition, this investment will fuel the company's rapid acceleration internationally, where it is already seeing significant customer interest. The funding will further Clear Skye's work to simplify security and compliance for the enterprise and help customers gain more value from their Now Platform investment.While legacy IGA technologies require the addition of another complicated silo to be managed, Clear Skye IGA integrates simply as an additional business process automated by the Now Platform. By providing Provisioning, Access Request, Access Review and Analytics on the Now Platform, Clear Skye customers gain significant efficiencies in the way their IGA programs operate. Additionally, Clear Skye IGA leverages the benefits delivered by other solutions on the Now Platform, such as Configuration Management Database (CMDB); Governance, Risk and Compliance (GRC); and Security Operations.About Toba CapitalToba Capital is an early-stage investment firm committed to helping create incredible technology companies. It looks for businesses capable of long-term growth and teams with the potential to fundamentally shift markets for the common good. It takes a high-conviction, hands-on, dollar-concentrated approach to venture investing. The firm has a single LP evergreen fund structure, which means its process and investment horizons are highly aligned with the teams it backs. Toba Capital was founded in 2012 by Vinny Smith and has offices in Newport Beach, Calif., and San Francisco. For more information, see www.tobacapital.com.About Inner Loop CapitalInner Loop Capital is a seed-stage venture capital firm that invests in a range of enterprise technologies, with a particular focus on Cybersecurity, Cloud Infrastructure and Data Analytics. Since 2015, Inner Loop and its managing director have invested in 15 early-stage cybersecurity companies. Inner Loop Capital is based in Baltimore. For more information, see www.innerloopcap.com.About Clear SkyeClear Skye's mission is to simplify security and compliance for the enterprise. The Clear Skye vision is that simplification results from the convergence of disparate systems, processes and user experiences. Clear Skye executes on this vision by building Identity Governance software solutions that are native to the Now Platform, making deployment, adoption and integration of its solutions quick and painless for comprehensive and efficient identity governance and administration. Clear Skye is a venture backed company headquartered in Emeryville, Calif. For more information, see https://www.clearskye.com.Clear Skye and Clear Skye IGA are registered trademarks of Clear Skye, Inc. All other marks and names mentioned herein may be trademarks of their respective companies.</t>
+          <t>OAKLAND, CA, StructionSite, the automated site capture software that uses cameras and artificial intelligence to automatically track installs on a construction site, has been doing its part to aid the construction industry in a time of uncertainty. Following the reports of worldwide site shutdowns and restricted jobsite access due to the COVID-19 outbreak, StructionSite announced it would offer free access to its site documentation platform for 60 days to any company that needs to quickly document their jobsites during this time.Companies that choose to stop using the platform after 60 days will have the ability to fully export their project data (drawings and hyperlinked 360 photos) to an offline format for archiving.According to Ted Jennings, Senior VDC Manager at Barton Malow, "Throughout the COVID pandemic there have been multiple challenges thrown at construction projects. One challenge that Barton Malow was faced with was photographic documentation for jobsites. Documenting existing conditions across many of our sites in the most organized and efficient way became a large priority. With the help of StructionSite, their platform has provided Barton Malow with the best solution for detailed, easily accessible photo navigation and comparison." He added that, as an additional benefit, "the ease of accessibility through StructionSite's intuitive user interface allows teams to remotely view their projects.""As the construction industry experiences a new set of challenges as a result of COVID-19, our partners at StructionSite are increasing the ability to track progress on-site, helping contractors avoid risk while keeping projects moving," said Kris Lengieza, Sr. Director of Business Development at Procore. "Connecting into the Procore platform provides one place for project teams to work together with an integrated set of construction applications that are mobile-ready for the field."StructionSite also just announced that it has secured a $7 million Series A round of financing. The round was led by D20 Capital, with participation from Prelude, CEMEX Ventures, 500 Startups, Obayashi Corporation, and several industry-defining Angel Investors. With roots in the construction industry, the founding team is intimately aware of the many challenges that the industry faces, and the company plans to use this funding to continue its efforts to build innovative products that provide solutions to some of those pain points.That dedication is felt by many of StructionSite's customers as well as industry leaders, as the company has seen exceptional customer growth over the course of the last year, coupled with a significant increase in strategic partnerships with standout construction technology companies. Now trusted by 75% of the ENR Top 20 construction companies in North America, StructionSite continues to deliver on its promise to help contractors reduce rework, improve communication, and mitigate risk. According to Kaushal Diwan, National Director of Innovation at DPR Construction, "StructionSite has been an invaluable solution for many DPR projects, especially during the COVID crisis. It has really helped those crews quickly document projects."In the wake of this pandemic and beyond, StructionSite's platform is able to give distributed project teams complete, 360-degree access to the jobsite at any time, from any device. By simply walking the site while recording 360-degree video with their VideoWalkÂ® functionality, a wealth of in-the-moment project knowledge is gained that can be shared across disparate teams during the course of construction. With SmartTrackÂ®, StructionSite's upcoming product, image data is quantified using computer vision and machine learning, allowing project teams to easily see and visualize the daily status of work completed for specific trades.Now more than ever, this data will continue to be critical to contractors as the industry prepares to shift to post-pandemic business operations.Highlighted features"This new investment ultimately means we have an expanded capacity to deliver an amazing customer experience while also having the resources to build new and unique products that solve serious business problems," said StructionSite Chief Executive Officer Matt Daly. "It's not a coincidence that several of our investors have roots in construction, meaning they have a long-term stake in making our industry better. It is our honor to be partnered with both investors and customers who share our vision to optimize construction project performance, fueled by reality capture data and artificial intelligence."About StructionSiteStructionSite offers a smarter, easier way to document the progress of your jobsites. Using our iOS or Android application, walk the jobsite recording 360Â° videos and our AI-powered algorithms place them on the project drawing for you. Our automated site capture tool translates daily project updates into actionable insights and valuable data for your team. With StructionSite, you'll be able to reduce rework, increase your efficiency and minimize risk on all of your projects.About D20 CapitalD20 Capital is a newly formed investment firm based in San Francisco, with a focus on backing bold entrepreneurs in traditional industries historically underserved by technology. Leveraging a close partnership with Doosan Group, a Korean industrials conglomerate, the D20 Capital team offers startups a unique mix of investing experience, domain expertise, and a broad industry network.</t>
         </is>
       </c>
     </row>
@@ -1990,62 +1974,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PulmonX</t>
+          <t>Nextmv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pulmonx is the world leader in interventional pulmonology diagnostics, planning tools, and treatments for obstructive lung disease.</t>
+          <t>Nextmv is the first real-time, end to end decision automation platform. Our tools let you encode, test, and manage decisions in the cloud, so you can scale your business with predictable performance and lower cost. Build better decisions, faster.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Venture</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>$66,000,000</t>
+          <t>$2,700,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>05 May 2020</t>
+          <t>11 May 2020</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pulmonx Announces $66M Funding Round</t>
+          <t>Nextmv Raises $2.7M in Seed Funding</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/pulmonx/venture-capital-funding/dpsgtnnhtl</t>
+          <t>https://vcnewsdaily.com/nextmv/venture-capital-funding/knqlfslrqv</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>REDWOOD CITY, CA, Pulmonx has announced a $66 million financing.</t>
+          <t>PHILADELPHIA, PA, Nextmv has raised a $2.7 million seed round from FirstMark Capital and Dynamo</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Redwood City</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Pulmonx/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Nextmv/venture-funding.php</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Pulmonx, a commercial-stage medical technology company that provides a minimally-invasive treatment for patients with severe emphysema, announces a $66 million financing led by Ally Bridge Group, a leading global life science investor. The financing also attracted new investors Adage Capital Management, HealthQuest Capital, Partner Fund Management, and Rock Springs Capital, as well as existing investors. In addition, $17 million in growth capital was secured through CIBC Innovation Banking to refinance an existing debt facility.Proceeds from this financing will ensure that Pulmonx is well-capitalized to support the continued global commercial expansion of the Zephyr Valve System, the first FDA-approved minimally-invasive treatment option for severe emphysema, a form of COPD. The Zephyr Valve procedure, done through a simple bronchoscopy with no incision or tissue resection, is clinically proven to improve patients' breathing, exercise capacity, and quality of life, without the risks of major surgery.1"Ally Bridge is pleased to support Pulmonx in this oversubscribed financing," said Frank Yu, Founder, CEO and CIO of Ally Bridge Group. "The combination of Pulmonx' Zephyr Valve System, patient assessment tools, established reimbursement programs, and global commercial footprint positions it as the world leader in interventional COPD procedures."Emphysema is a progressive and life-threatening form of Chronic Obstructive Pulmonary Disease (COPD) and represents about 25% of all COPD patients. In the United States, COPD is the third leading cause of death and is expected to be associated with approximately $49 billion in direct medical costs in 2020. Emphysema is a debilitating and life-threatening disease that progressively destroys lung tissue, resulting in a diminishing ability to breathe and engage in the most basic daily activities, leading to further deconditioning and to a high mortality rate. It is estimated that more than 1.2M severe emphysema patients in the US, Europe and Japan are candidates for the Zephyr Valve treatment. Medical therapy delivers limited benefit in later stage patients, and because of the high risks and limited availability, surgical options are only available for a narrow patient population."We are pleased to be able to accelerate our efforts to bring our landmark technology to severe emphysema patients who need it," said Glen French, CEO of Pulmonx. "The recently secured financing will ensure we are able to continue to scale our commercialization efforts to meet the global demand for our Zephyr Valve System, as well as continue R&amp;D efforts on new minimally-invasive pulmonary treatments."About Bronchoscopic Lung Volume Reduction with the Zephyr ValveBronchoscopic lung volume reduction with the Zephyr Valve is a one-time procedure performed through a bronchoscope, which requires no cutting or incisions. During the procedure, an average of four valves are placed in the airways to block off a diseased portion of the lung. The target area then reduces in size and allows adjacent healthier lung tissue to expand and function more efficiently. This results in patients being able to breathe more easily and experience less shortness of breath. Many patients treated with the Zephyr Valves have reported immediate relief and the ability to go back to doing everyday tasks with greater ease within weeks of treatment. Data from four published randomized controlled clinical studies have proven that the Zephyr Valve delivers significant and persistent improvement in pulmonary function, exercise capacity, breathlessness, and quality of life with less morbidity and mortality than surgical treatment options.2,3,4,5 These data have led to the inclusion of Zephyr Valves in several national and global treatment guidelines including the UK's National Institute for Health and Care Excellent (NICE) and the Global Initiative for Chronic Obstructive Lung Disease (GOLD) which gives endobronchial valves a level 'A' evidence rating, the highest rating possible.About Pulmonx CorporationPulmonx is the global leader in interventional procedures for the treatment of COPD. It develops and markets non-surgical technologies for the assessment and treatment of patients with severe emphysema, a progressive and life-threatening form of COPD. The Pulmonx solution, which is comprised of the Zephyr Endobronchial Valve (Zephyr Valve), the Chartis Pulmonary Assessment System (Chartis System) and the StratX Lung Analysis Platform, is designed to treat severe emphysema patients who, despite medical management, are still profoundly symptomatic and either do not want or are ineligible for surgical approaches. The technology is supported by a compelling body of clinical evidence including over 100 published scientific articles regarding the clinical benefits of Zephyr Valves. FDA granted the Zephyr Valve a "breakthrough device" designation, and in June 2018 Pulmonx received FDA pre-market approval to commercialize our Zephyr Valve. The Zephyr Valve is now commercially available and physicians in more than 25 countries around the world routinely use the Zephyr Valves to improve the lives of patients with severe emphysema, with over 76,000 valves used to treat more than 19,000 patients worldwide to date.In addition to the Zephyr Valve System, the Company is planning further clinical trials of AeriSealÂ®, a foam-based lung sealant delivered through a bronchoscope to treat the subset of advanced emphysema that cannot be treated with the Zephyr valve. For more information, visit www.MyLungsMyLife.com.About Ally Bridge GroupAlly Bridge Group ("ABG"), founded and led by Frank Yu (previously at Goldman Sachs and Och-Ziff Capital), is a global healthcare investment firm focused on supporting the world's most innovative life science technologies benefiting many millions of human lives and leading high-impact transactions, primarily in the U.S. For more information, please visit www.ally-bridge.com.About CIBC Innovation BankingCIBC Innovation Banking delivers strategic advice, cash management and funding to North American innovation companies at each stage of their business cycle, from start up to IPO and beyond. With offices in Atlanta, Austin, Chicago, Denver, Menlo Park, Montreal, Reston, Toronto and Vancouver, the team has extensive experience and a strong, collaborative approach that extends across CIBC's commercial banking and capital markets businesses in the U.S. and Canada.___________________________1 Am J Respir Crit Care Med Vol 198, Issue 9, pp 1151-1164, Nov 1, 2018.2 Am J Respir Crit Care Med Vol 198, Issue 9, pp 1151-1164 (2018).3 Am J Respir Crit Care Med, Vol 196, Issue 12, pp 1535-1543 (2015).4 Am J Respir Crit Care Med, Vol 194 Issue 9, pp 1073-1082 (2016).5 N Engl J Med, Vol 373, Issue 24, pp 2325-2335 (2015).</t>
+          <t>According to TC, Nextmv has raised a $2.7 million seed round from FirstMark Capital and Dynamo, with participation from XFactor, Atypical and 2048.Nextmv is the first real-time, end to end decision automation platform. Our tools let you encode, test, and manage decisions in the cloud, so you can scale your business with predictable performance and lower cost. Build better decisions, faster.</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2039,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZAF Energy Systems</t>
+          <t>Workstream</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Incorporated in 2011 and with locations in Montana and Missouri, ZAF Energy Systems develops and commercializes next-generation battery technologies that use sustainable, nontoxic materials and can be safely and easily recycled. Its breakthrough battery technologies include a portfolio of eco-friendly energy storage solutions including nickel zinc (NiZn) and a zinc air chemistry, both of which deliver the highest power and energy density of any battery system in their class. ZAF's rechargeable batteries pro vide longlife and economical solutions in a safe package for a variety of applications, including electric vehicles, commercial trucking, renewables integration, back-up power, consumer electronics, mobility, recreation vehicles, and in aerospace and defense.</t>
+          <t>Adopting a unique funnel approach to optimize their efficiency at each stage of the hiring process, Workstream enables hiring managers to reduce time to hire by an average of 70%. The platform also helps employers cast a wider net by posting to multiple job sites with one swipe and leveraging AI to optimize job postings.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2070,47 +2054,47 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>$22,000,000</t>
+          <t>$10,000,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>04 May 2020</t>
+          <t>09 May 2020</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ZAF Energy Systems Raises $22M in Series A</t>
+          <t>Workstream Closes $10M Series A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/zaf-energy-systems/venture-capital-funding/lkkqwmlsls</t>
+          <t>https://vcnewsdaily.com/workstream/venture-capital-funding/zlfknjbksw</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>JOPLIN, MO, ZAF Energy Systems has completed recent capital raise. Included in the $22 million Series A funding round</t>
+          <t>SAN FRANCISCO, CA, Workstream announced the closing of a $10M Series A funding round. The round was led by Keith Rabois of Founders Fund.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Joplin</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/ZAF%20Energy%20Systems/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Workstream/venture-funding.php</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ZAF Energy Systems Inc. (ZAF), a developer of next-generation battery technologies, announced today that it has completed recent capital raise. Included in the $22 million Series A funding round were investments from institutional and strategic investors including Elevage Capital Management, Catalus Capital, Holt Ventures, and Coventry Asset Management. ZAF will use the funds to accelerate the commercialization and adoption of its nickel-zinc (NiZn) battery technology and expand its manufacturing capacity.The company will use the investment to meet the growing customer demands of its NiZn technology in key markets like the large-scale data storage, telecommunications, healthcare, and commercial trucking industries that are in need of powerful, cost-effective, and environmentally friendly battery solutions. ZAF is also currently working with three segments of the US Department of the Defense on energy storage solutions that where the NiZn batteries provide significant performance enhancements over current solutions. Funding will further enable ZAF to accelerate licensing and joint venture negotiations and to commercialize NiZn batteries with both domestic and international strategic partners.Demand for ZAF's  NiZn technology as a replacement for lead-acid batteries in key market segments continues to grow. ZAF's  NiZn chemistry can reduce the footprint of lead acid data center UPS systems by 40% and because NiZn lasts over twice as long as lead acid, it will reduce the number of batteries consumed by up to 75%. ZAF's  NiZn battery also yields twice the energy density of lead-acid batteries at less than a quarter of the cost, making them smaller, lighter and less expensive. ZAF's  NiZn batteries use sustainable, abundantly available materials that are both fully recyclable and non-toxic to the environment in disposal situations, providing long-life and economical solutions for many applications.Gen Fukunaga, CEO of Coventry Asset Management and the founder and former CEO of Funimation Entertainment which brought anime to the US and Canadian entertainment markets remarked, "I look for innovative products that match with industry-changing trends. My belief is that ZAF's environmentally friendly batteries are going to change the way the industry looks at cost effective energy storage. For far too long energy storage has been the "Achilles Heel" of the energy industry. I  am excited to be a part of this ground-breaking technology."Meg Paulus, Partner at Holt Ventures, commented, "We at Holt Ventures focus on investments  that have the potential to disrupt the current way of doing things within the heavy equipment landscape, including at our own Caterpillar dealership. We constantly look for ways that our businesses can be more environmentally friendly and at the same time focus on profitability and efficiency. The nickel zinc battery not only out-performs the lead acid battery exponentially, it provides an eco-friendly alternative to an environmental problem experienced around the globe, while still providing vastly superior energy storage capacity for our future needs"3CR-Riverbend Capital Advisors, Dallas, TX led the ZAF Series A Capital Raise. Randy Moore, President and CEO of ZAF said, "I want to thank  all our investors and the folks at 3CR-Riverbend who really came through for us and have been a pleasure to work with. The addition of institutional and strategic funding, together with our recent contract awards, have provided sufficient funds to accomplish our objectives."About ZAF Energy Systems, Inc.Incorporated in 2011 and with locations in Montana and Missouri, ZAF Energy Systems develops and commercializes next-generation battery technologies that use sustainable, nontoxic materials and can be safely and easily recycled. Its breakthrough battery technologies include a portfolio of eco-friendly energy storage solutions including nickel zinc (NiZn) and a zinc air chemistry, both of which deliver the highest power and energy density of any battery system in their class. ZAF's rechargeable batteries pro vide longlife and economical solutions in a safe package for a variety of applications, including electric vehicles, commercial trucking, renewables integration, back-up power, consumer electronics, mobility, recreation vehicles, and in aerospace and defense. For more information, visit: www.zafsys.com</t>
+          <t>Workstream, a hiring platform and mobile app that streamlines the sourcing and onboarding of hourly workers, today announced the closing of a $10M Series A funding round. The round was led by Keith Rabois of Founders Fund, who will be joining Workstream's Board of Directors. Workstream is used by almost 5,000 hiring managers in the U.S. and helps hire front-line workers: caregivers, nurses, delivery drivers, take-out restaurant staff, gas station attendants, etc. Workstream Technologies, Inc.Workstream Technologies, Inc.Adopting a unique funnel approach to optimize their efficiency at each stage of the hiring process, Workstream enables hiring managers to reduce time to hire by an average of 70%. The platform also helps employers cast a wider net by posting to multiple job sites with one swipe and leveraging AI to optimize job postings. The global pandemic has inevitably reshaped the hiring process. Companies are increasingly shifting toward virtual hiring as a necessity to mitigate risks. "We've built a platform that allows for completely 'contactless hiring', which has been pivotal in helping our clients meet manpower needs without putting themselves and their families at risk," said Max Wang, CTO."Workstream is already helping customers in sectors like healthcare and logistics facilitate recent surges in hiring. Workstream's technology will make it much faster and easier for industries like food service and hospitality to aggressively ramp up hiring of hourly workers as the economy reopens in the coming months," said Keith Rabois, of Founders Fund.This latest round of funding will be used to further validate the company's product offerings. Workstream is expanding onboarding modules to include more comprehensive training features, as well as developing a suite of seamless integrations with major HRIS systems and workforce programs, including the Work Opportunity Tax Credit. "Our North Star has always been the concept of doing right by our clients," said Lei Xu, Chief Product Officer of Workstream. "Businesses need all the help they can get right now, so we're prioritizing features that save them money. Our new integrations make it easy for employers to file for WOTC, so they can save $9,600 in tax credits for every qualifying new hire." Workstream's platform has an in-built phone and video conferencing feature to enable hiring managers to conduct interviews despite the social distancing rules. "We're incredibly fortunate to have Eric (CEO, Zoom) as an early investor in Workstream," said Desmond Lim, CEO. "Eric's continual support has enabled us to build Zoom teleconferencing into this essential process to keep businesses going." To get the word out, Workstream is building a world-class go-to-market team with the addition of Blake Harber and Lydia Fayal Hall, who lead sales and marketing, respectively. Blake most recently served as Director of Corporate Sales at Lucid; he was previously at HireVue. Lydia held leadership positions at OneSignal and Chalkup (acquired by Microsoft). Both are former founders with experience growing ARR 10x. In addition to Founders Fund, Workstream's investors include Anna Khan of Charles River Ventures, Lan XueZhao of Basis Set Ventures, Joel Peterson (Chairman of JetBlue), Heartland Ventures, GGV Capital, Max Levchin, Geoff Donaker of Burst Capital (former COO of Yelp), Eric Yuan (Zoom CEO), Tony Xu (DoorDash CEO), Miyuki Matsumoto (Bernard Arnault, Chairman LVMH), Aneel Ranadive (Owner of Sacramento Kings), James Harden, Joe Montana, and more.About WorkstreamWorkstream is a staffing automation company that connects job seekers to hourly positions and, on average, reduces time to hire by 70%. Founded by three immigrants, CEO Desmond Lim, CTO Max Wang, and CPO Lei Xu, the platform is used by almost 5,000 hiring managers in the U.S. and helps hire front line workers: caregivers, nurses, delivery drivers, take-out restaurant staff, gas station attendants, etc. Learn more at Workstream.us.</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2104,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Knowde</t>
+          <t>Qrvey</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Founded 2017, Knowde is the first digital marketplace built for chemicals, polymers and ingredients. Marketplaces have modernized and disrupted major industries. Knowde is bringing this same experience to our industry. Our value is simple: We provide instant customer-facing digital transformation, without any capital expense.</t>
+          <t>Qrvey helps businesses improve the customer experience and make more informed decisions, with the only full-cycle feedback platform covering data collection, data analysis and automating actions. Qrvey\'s unique multi-app platform offers many choices beyond just online surveys that can be seamlessly embedded into mobile and web environment in just a few hours. Qrvey\'s underlying analysis tools are designed for non-technical users, and best of all Qrvey can help businesses automate actions based on feedback.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2135,47 +2119,47 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>$14,000,000</t>
+          <t>$7,500,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>04 May 2020</t>
+          <t>09 May 2020</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Knowde Secures $14M in Series A Funding</t>
+          <t>Qrvey Secures $7.5M in Series A Funding</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/knowde/venture-capital-funding/jtnrllqtrk</t>
+          <t>https://vcnewsdaily.com/qrvey/venture-capital-funding/pkkpvymtrj</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>SAN JOSE, CA, Knowde announced it has raised $14 million in Series A funding led by Sequoia Capital</t>
+          <t>TYSONS, VA, Qrvey has announced the close of a $7.5 million Series A investment round.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Tysons</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Knowde/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Qrvey/venture-funding.php</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>According to Pulse 2.0, Knowde announced it has raised $14 million in Series A funding led by Sequoia Capital with participation from Refactor Capital, Bee Partners, Cantos Ventures and Knollwood Investment Advisory.Founded 2017, Knowde is the first digital marketplace built for chemicals, polymers and ingredients. Marketplaces have modernized and disrupted major industries. Knowde is bringing this same experience to our industry. Our value is simple: We provide instant customer-facing digital transformation, without any capital expense.</t>
+          <t>According to MarTech, Qrvey, an analytics platform built to change the way companies interact with their data, has announced the close of a $7.5 million Series A investment round. The new investment was led by investors who also participated in Qrvey's Angel and Seed rounds.Qrvey is the only 100% microservices based all-in-one business analytics platform built on AWS. Data, analytics, automation and machine learning all come standard. So does our decades of experience providing embedded and distributed analytics solutions for companies like you. Qrvey's next-generation business analytics platform harnesses the power of AWS to bring your organization beyond just visualizations and into the age of microservices. By combining data collection, transformation, automation and machine learning with world-class visualizations, Qrvey powers the next-generation of analytics applications. Our cloud-native, cutting-edge microservices architecture offers performance, scalability and flexibility that traditional providers simply cannot match.</t>
         </is>
       </c>
     </row>
@@ -2185,58 +2169,58 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Altoida</t>
+          <t>QL Gaming Group</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Altoida Inc. is a health technology firm that uses active digital biomarkers and cutting-edge technology in Artificial Intelligence (AI) and Augmented Reality (AR) to classify patients' risk of Mild Cognitive Impairment (MCI) due to Alzheimer's Disease (AD) and drive better clinical outcomes for brain diseases. Led by an international team of esteemed neuroscientists, computer scientists and medical business professionals, the company offers an FDA-cleared and CE Mark-approved medical device and brain health data platform to support early detection of Alzheimer's disease up to ten years prior to onset - with up to 94% accuracy. The company is privately held and supported by the current investor syndicate of M-Ventures (lead investor), GreySky Venture Partners, FYRFLY, VI Partners. Altoida has offices in Houston, San Diego, and Lucerne, Switzerland.</t>
+          <t>The QL Gaming Group, based in New York City, is a direct to consumer sports data and iGaming affiliate platform. QLGG's mission is to educate sports fans and ultimately increase betting's entertainment per dollar ratio through data-driven products like BetQL. The company was founded in 2015 by Justin Park and Mike Shiekman. Learn more about QL Gaming Group.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>undisclosed</t>
+          <t>$1,100,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>04 May 2020</t>
+          <t>09 May 2020</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Altoida Secures Investment</t>
+          <t>QL Gaming Group Raises $1.1M Funding</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/altoida/venture-capital-funding/dzjkllvzfd</t>
+          <t>https://vcnewsdaily.com/ql-gaming-group/venture-capital-funding/wyrklrnfcc</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HOUSTON, TX, Altoida has secured financing from Hikma Ventures.</t>
+          <t>NEW YORK, NY, The QL Gaming Group announced an additional $1.1M in funding, as well as the acquisition of Finnish sports simulation company.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Altoida/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/QL%20Gaming%20Group/venture-funding.php</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Altoida Inc., a predictive digital biomarker company, today announced it has secured financing from Hikma Ventures, the venture capital arm of Hikma Pharmaceuticals PLC.The financing comes at a time of rapid growth for Altoida, as the company's -FDA cleared and CE Mark-approved medical device and brain health data platform is being used by researchers, patients and physicians across the globe to detect Alzheimer's Disease (AD) up to ten years prior to onset. The additional financing will be used to further expand Altoida's presence in the US, Japan, Europe and Brazil and follows the company's $6.3 million Series A round that closed early 2019."Hikma Ventures is a highly reputable venture capital firm, and we share a common vision of putting better health within reach for millions of people across the globe," said Dr. Richard Fischer, President &amp; CEO of Altoida Inc. "Their investment in Altoida during these unprecedented times is a testament to their belief in the strength of our company and the value of our digital health technology. Hikma Ventures is the perfect addition to our investor syndicate and an important partner as we continue to execute on our clearly defined commercialization strategy."Altoida leverages predictive digital biomarkers to drive better clinical outcomes for brain disease. By leveraging the latest advancements in Artificial Intelligence (AI), Machine Learning (ML) and Augmented Reality (AR), Altoida collects functional and cognitive biomarkers to help detect Mild Cognitive Impairment (MCI) due to Alzheimer's disease prior to its onset - with up to 94% accuracy. Now healthcare professionals have a novel way to objectively assess cognitive and everyday functions, in the most ecologically valid way.Using Smart Device sensors, Altoida analyzes visuospatial and executive function during complex activities of daily living by asking patients to hide and seek virtual objects in a physical space. Altoida is able to detect "micro-errors" as both a prognostic and diagnostic digital biomarker, allowing medical professionals to detect Alzheimer's disease in patients 62+ years old between six and ten years prior to the onset of symptoms - and before irreversible damage occurs. The company has validated its platform and methodology in more than 12 peer-reviewed journal publications and in more than 200 independent studies."We are excited to invest in Altoida and their digital health technology, which is helping patients and healthcare providers by reinventing digital biomarkers to drive better clinical outcomes for brain disease," said Lana Ghanem, Managing Director of Hikma Ventures. "This is the latest example of Hikma Ventures commitment to supporting innovative companies utilizing machine learning and other cutting-edge technologies to meaningfully improve patients' lives."About Hikma(LSE: HIK) (NASDAQ Dubai: HIK) (OTC: HKMPY), (rated Ba1/stable Moody's and BB+/positive S&amp;P)Hikma helps put better health within reach every day for millions of people in more than 50 countries around the world.  For more than 40 years, the company has been creating high-quality medicines and making them accessible to the people who need them.  Headquartered in the UK, Hikma is a global company with a local presence across the United States (US), the Middle East and North Africa (MENA) and Europe, and they use their unique insight and expertise to transform cutting-edge science into innovative solutions that transform people's lives.  Hikma is committed to their customers, and the people they care for, and by thinking creatively and acting practically, they provide them with a broad range of branded and non-branded generic medicines.  Together, Hikma's 8,400 colleagues are helping to shape a healthier world that enriches all our communities.  The company is a leading licensing partner, and through its venture capital arm, is helping bring innovative health technologies to people around the world.  For more information, please visit www.hikma.com.About Hikma VenturesFounded in August 2015, Hikma Ventures operates as the corporate venture capital arm of Hikma Pharmaceuticals. Hikma Ventures invests in global start-ups where Hikma's expertise can accelerate revenue growth and enhance value creation by providing ventures with access to the resources of a multinational pharmaceutical company.For more information, please visit www.hikmaventures.com.About Altoida Inc.Altoida Inc. is a health technology firm that uses active digital biomarkers and cutting-edge technology in Artificial Intelligence (AI) and Augmented Reality (AR) to classify patients' risk of Mild Cognitive Impairment (MCI) due to Alzheimer's Disease (AD) and drive better clinical outcomes for brain diseases. Led by an international team of esteemed neuroscientists, computer scientists and medical business professionals, the company offers an FDA-cleared and CE Mark-approved medical device and brain health data platform to support early detection of Alzheimer's disease up to ten years prior to onset - with up to 94% accuracy. The company is privately held and supported by the current investor syndicate of M-Ventures (lead investor), GreySky Venture Partners, FYRFLY, VI Partners. Altoida has offices in Houston, San Diego, and Lucerne, Switzerland. For more information, please visit www.altoida.com and follow us on LinkedIn https://www.linkedin.com/company/altoida.</t>
+          <t>The QL Gaming Group (QLGG), a leading direct to consumer sports data and iGaming affiliate platform, today announced an additional $1.1 million in funding, as well as the acquisition of Finnish sports simulation company, Accuscore. The combined announcement will expand the capabilities of BetQL, QLGG's sports betting analytics platform for casual bettors and will accelerate the launch of BetQL's player prop and in-game predictions and more sports like International pro soccer, tennis, golf and eSports.The round was led by Tim and Todd McSweeney, with participation by Boston Seed Capital, Karlani Capital, Subversive Capital, Rob Seaver and Jere Doyle. QL Gaming, formerly known as RotoQL,  has now raised $8.3 million from investors that have also included the late David Stern, former commissioner of the NBA, John Kosner, Stern's former partner at Micromanagement Ventures and former William Hill chief Ralph Topping."Our thesis is betting properties with the best data and analytics will win, and our acquisition of Accuscore vastly increases our IP, grows our marketplace position and puts us in a very strong place as the sports world returns to active play in the near future," said Justin Park, QL Gaming CEO. "Our new and long term investors are very bullish on the casual gaming and sports betting market, and we are now poised to emerge stronger.""We are thrilled to join QL Gaming," Accuscore CEO Tuomas Kanervala, added. "Their expertise around customer facing sports data products is unrivaled and will help both our B2C and B2B businesses. The latter will serve as the foundation for soon to be launched BetQL B2B that will help sportsbook operators and media companies acquire and retain bettors."The injection of capital will be used to further accelerate BetQL's growth, which boasted a 200% increase in subscription sales from 2018 to 2019. In just 18 months of launch, BetQL has acquired over 300,000 free users, 10,000 paying customers and is already a seven figure business. Funds will also supercharge BetQL's burgeoning affiliate marketing business which has partnered with ten operators in Indiana, New Jersey, Pennsylvania and West Virginia.QL Gaming initially launched in September 2015 as RotoQL to provide data and analytics to daily fantasy sports (DFS). "DraftKings and FanDuel's dominance of the regulated betting market in NJ can be attributed to their pole position in DFS," added Peter Blacklow, Managing Partner at Boston Seed Capital, who led the seed rounds for both QLGG and DraftKings. "The same is going to be true of QL Gaming and the media opportunity around betting. The team's mastery of engaging DFS players through data is carrying over seamlessly to sports betting audiences."ABOUT QL GAMING GROUPThe QL Gaming Group, based in New York City, is a direct to consumer sports data and iGaming affiliate platform. QLGG's mission is to educate sports fans and ultimately increase betting's entertainment per dollar ratio through data-driven products like BetQL. The company was founded in 2015 by Justin Park and Mike Shiekman. Learn more about QL Gaming Group.  Learn more about BetQL.ABOUT ACCUSCOREAccuscore has developed and refined models to accurately predict the outcome of sporting events. More specifically, the algorithms simulate the outcome of games approximately 10,000 times and takes into account past player performance, team composition, weather, coaching staff and more. Accuscore covers all major US sports and 13 global soccer leagues. The company licenses their predictive data directly to consumers and to media companies and sportsbook operators.  Learn more about Accuscore.</t>
         </is>
       </c>
     </row>
@@ -2246,58 +2230,58 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines</t>
+          <t>ResFrac</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines is a clinical-stage genetic neuroscience company developing breakthrough therapies for patients and families affected by complex and debilitating brain disorders, including psychiatric disorders, movement disorders and rare pediatric epilepsies. These disease areas share overlapping genetics and neurocircuit biology, as well as a profound need for new therapeutic options that target the underlying cause of the disease. Praxis is advancing a pipeline of breakthrough medicines with the potential to more precisely treat brain disorders.</t>
+          <t>Established in 2018 and backed by Altira Group LLC, ResFrac is one of the preeminent developers of hydraulic fracturing and reservoir simulation software and services designed specifically to guide operators through the complex challenges of unconventional reservoir development.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>$100,000,000</t>
+          <t>undisclosed</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>04 May 2020</t>
+          <t>09 May 2020</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Launches with $100M</t>
+          <t>ResFrac Closes Equity Financing</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/praxis-precision-medicines/venture-capital-funding/dqvtggmtxb</t>
+          <t>https://vcnewsdaily.com/resfrac/venture-capital-funding/njllhlqgsb</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>CAMBRIDGE, MA, Praxis Precision Medicines launched today with more than $100M in financing led by founding investor Blackstone Life Sciences.</t>
+          <t>PALO ALTO, CA, ResFrac Corporation announced that the company has closed a preferred share financing with its financial sponsor Altira Group.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Palo Alto</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Praxis%20Precision%20Medicines/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/ResFrac/venture-funding.php</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines, a clinical-stage, genetic neuroscience company, launched today with more than $100 million in financing since its inception from premier life science investors led by founding investor Blackstone Life Sciences (via prior Clarus funds in 2016) as well as Novo Holdings, Vida Ventures, Eventide and other prominent funds. Praxis is deploying a precision medicine approach to develop high-impact therapies that target the underlying causal mechanisms of both prevalent and rare brain disorders with overlapping disease biology."Neurology and psychiatry are finally primed for a revolution in how new therapies are discovered and developed, and Praxis' approach has the potential to change the treatment landscape," said Marcio Souza, president and chief executive officer of Praxis. "The combination of the expertise of our team in CNS drug development, insights into CNS biology, and our approach to drug discovery, positions us as at the forefront of the development of novel CNS therapies.""Depression, and more broadly, psychiatric and neurological disorders are a large and increasing unmet medical need with profound implications on the economy. Praxis aims to leverage the recent breakthroughs in genetics to develop innovative medicines that can improve the lives of the many patients who need them," said Nicholas Galakatos, Ph.D., chairman of the Praxis board of directors and global head of Blackstone Life Sciences.Praxis Approach and PipelinePraxis is leveraging recent discoveries in the genetics of epilepsy, which have elucidated genes, that when dysregulated, drive a range of neuropsychiatric and movement disorders. Using these insights, Praxis is rapidly advancing a pipeline of treatments that specifically address genes controlling the imbalance of excitation and inhibition of neuronal circuitry at the core of multiple CNS disorders. The company's portfolio is led by PRAX-114, a GABAA positive allosteric modulator (PAM) in Phase 2 development for the treatment of major depressive disorder (MDD) and perimenopausal depression, and PRAX-944, a T-type calcium channel blocker, in Phase 2 development for the treatment of essential tremor. Within the next year, Praxis plans to initiate its first pivotal trial for PRAX-114 in MDD, report proof-of-concept data for PRAX-944 in essential tremor and advance its earlier stage programs into clinical development for rare epilepsies and other neurological disorders with genetically validated mechanisms."As was achieved in oncology decades ago, recent genetic insights have presented meaningful opportunities to treat brain disorders in entirely different and targeted ways based on the specific genetically validated pathways driving a patient's disease," said Kiran Reddy, M.D., co-founder and member of Praxis' board of directors. "We are reducing these insights to practice, to create novel medicines that could fundamentally alter the treatment path and outcomes for patients with brain disorders."Internationally Recognized Founding TeamPraxis' founders are renowned scientists and clinicians leading the industry's growing understanding of the genetics and biology of disease-causing targets in psychiatric and neurologic disorders.Dr. Reddy is a venture partner and senior advisor at Blackstone Life Sciences. He was previously on the corporate strategy leadership team at Biogen and was an associate partner at Third Rock Ventures, where he co-founded multiple biotech companies. Dr. Reddy is a neurologist and started his career in academic medicine at Harvard/Massachusetts General Hospital.Co-founder David Goldstein, Ph.D. is the Director of The Institute for Genomic Medicine, and Professor in the Department of Genetics and Development, at Columbia University. Dr. Goldstein's work focuses on broad aspects of precision medicine and is widely recognized for multiple influential studies in population and human genetics, including those of the Epi4K consortium that discovered and characterized novel epilepsy genes.Co-founder and chief scientific officer, Steven Petrou, Ph.D. is the Director of the Florey Institute of Neuroscience and Mental Health, Head of the Department of the Florey Institute at the University of Melbourne in Australia, heads the Ion Channels and Human Disease Laboratory. Prof. Petrou is a recognized leader in the field of ion channel neuropathies in rare pediatric epilepsies and other neurodevelopmental disorders. His published interdisciplinary research has focused on functional genetics and genomics of epilepsy, elucidation of mechanisms of disease, development of several of the first animal models of genetic epilepsy and discovery and evaluation of consequent precision medicine approaches.Successful Biotech CEO and Leadership TeamPrior to joining Praxis as president and chief executive officer, Mr. Souza was at PTC Therapeutics, where he served in leadership roles since 2014, most recently serving as chief operating officer. He also served in leadership roles in the U.S. and globally at NPS Pharmaceuticals, Shire and Genzyme. Mr. Souza holds a degree in pharmacy and biochemistry from University of SÃ£o Paulo and an MBA from FundaÃ§Ã£o Dom Cabral in Brazil.The Praxis leadership team is comprised of recognized leaders in neuroscience drug discovery, development, and commercialization, including Bernard Ravina, M.D., M.S., chief medical officer; Stuart Chaffee, Ph.D., MBA, chief business officer; Dr. Petrou., co-founder and chief scientific officer; Marion Wittmann, Ph.D., vice president of biology; Gabriel Martinez, Ph.D., vice president of chemistry; Rosa Tarng, vice president, portfolio management; and Karl Hansen, Ph.D., senior vice president, CMC.About Praxis Precision MedicinesPraxis Precision Medicines is a clinical-stage genetic neuroscience company developing breakthrough therapies for patients and families affected by complex and debilitating brain disorders, including psychiatric disorders, movement disorders and rare pediatric epilepsies. These disease areas share overlapping genetics and neurocircuit biology, as well as a profound need for new therapeutic options that target the underlying cause of the disease. Praxis is advancing a pipeline of breakthrough medicines with the potential to more precisely treat brain disorders. For more information, please visit www.praxismedicines.com.</t>
+          <t>ResFrac Corporation ("ResFrac"), an innovative simulation software provider, announced today that the company has closed a preferred share financing with its financial sponsor Altira Group. The funds will be used to support the company's rapid growth. ResFrac's revenues grew 250% in 2019 as its customer list doubled. The company has authored scientific papers with customers including Hess Corporation, QEP Resources, ConocoPhillips and Shell International Exploration and Production Inc.ResFrac also announced that two prominent oil and gas industry leaders, Dr. Mark Zoback and Joe Frantz, have joined the company as senior advisers.Comments from ResFrac CEO Mark McClure"Our company offers a product that helps exploration and production companies plan their well completions with much greater confidence and efficiency in today's challenging price environment," said ResFrac co-founder and CEO Mark McClure. "I want to thank Altira Group for their continued and enthusiastic support. The team at Altira has brought the financial strength and value-added guidance that we need to continue to grow."I also want to thank Mark Zoback and Joe Frantz for making their vast technical experience available to our development and consulting teams as we continue to enhance our software and consulting capabilities to help our customers guide their completion designs," McClure said. "We recently launched a new user interface that allows for streamlined use and more detailed results. As oil and gas producers cut costs, companies are beginning to rethink their frac designs. The economic advantage of running frac simulation software and consulting with our reservoir engineers avoids the heavy and unpredictable expense of trial and error completions in the field."Mark Zoback, Ph.D.Dr. Mark Zoback is the Benjamin M. Page Professor of Geophysics and the Director of the Stanford Natural Gas Initiative at Stanford University. Dr. Zoback's research includes in situ stress, fault mechanics and reservoir geomechanics. He has authored or co-authored more than 300 technical papers, holds five patents and has authored two books: Reservoir Geomechanics, published by Cambridge University Press and now its 15th printing, and Unconventional Reservoir Geomechanics, written with Arjun Kohli and released by Cambridge Press in April 2019. Dr. Zoback codirects Stanford Center for Induced and Triggered Seismicity (SCITS) and the Stanford Center for Carbon Storage (SCCS). Dr. Zoback was elected to the U.S. National Academy of Engineering and he was awarded Honorary Membership of the Society of Exploration Geophysics. Dr. Zoback earned a Ph.D. and a Master of Science in geophysics from Stanford University after obtaining his Bachelor of Science in geophysics from the University of Arizona."Mark and the team at ResFrac have done a terrific job bringing a much-needed technology to oil and gas engineers, who are charged with planning a hydraulic fracturing program based on specific reservoir characteristics, then are issued revised drilling plans, have to account for new well spacing, changing parent-child influences on well performance and the myriad of other geophysical attributes that affect a successful completion design," Dr. Zoback said. "Developing shale is a highly technical business, but Mark McClure's team has delivered a piece of technology that allows operators to crack the code and get the completion right by doing unlimited simulations on the computer screen - before the company spends real money in the field."Joe FrantzMr. Frantz served as vice president of engineering for Range Resources in the Marcellus Division, where he was initially responsible for the completions, production, facilities and reservoir engineering departments. He also managed the field operations for completions, water, production and facilities construction. He was then moved to vice president of engineering technology at the corporate level, where his team evaluated new and applied technology to improve drilling, completing and producing wells. Prior to his time at Range, Mr. Frantz was president and CEO of Unbridled Energy, a public startup oil and gas company. Mr. Frantz also previously worked for Getty Oil and Texaco in various capacities. In the consulting arena, he worked for S.A. Holditch &amp; Associates before they were acquired by Schlumberger. He managed Schlumberger's consulting shale evaluation team for various emerging formations. Mr. Frantz has extensive experience in shale evaluations and has performed numerous studies that include reservoir simulation and hydraulic fracture optimization. Mr. Frantz was chair of the drilling, completion, facility and production committee for the Marcellus Shale Coalition, and he recently served on the board of the Society of Petroleum Engineers International (SPEI) as regional director. He earned a Bachelor of Science in petroleum and natural gas engineering from Pennsylvania State University."ResFrac provides a straightforward tool where any engineer can be taught to perform two valuable skillsets," Mr. Frantz said. "Parent-child and now even grandparent scenarios dominate our planning and field decisions. The ResFrac model provides a means to evaluate stress shadowing, depletion effects and repressurization/restimulation opportunities, among many other real-world scenarios. Combined with other diagnostic data, a calibrated frac/simulation model can be used to investigate various field opportunities quickly and more cost-effectively than by brute force with drilling too many trial wells."About ResFrac CorporationEstablished in 2018 and backed by Altira Group LLC, ResFrac is one of the preeminent developers of hydraulic fracturing and reservoir simulation software and services designed specifically to guide operators through the complex challenges of unconventional reservoir development. For details please visit www.ResFrac.com.About Altira Group LLCWith more than 20 years of experience, Altira Group LLC provides venture capital funding for carefully curated technology products and advantaged service offerings that help meet the modern and complex challenges of today's oil and gas industry. Over a span of two decades, Altira has raised six funds and invested more than $1 billion with partners in more than 50 portfolio companies. Altira Group is headquartered in Denver, Colorado. Please visit www.AltiraGroup.com for more information.</t>
         </is>
       </c>
     </row>
@@ -2307,58 +2291,62 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Medable</t>
+          <t>Jellyfish</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Medable is on a mission to reduce clinical trial timelines by 50 percent. The company's global decentralized trial platform streamlines design, recruitment, retention and data quality, replacing siloed systems with integrated digital tools, data and interfaces to accelerate trial execution. Medable connects patients, sites and clinical trial teams to improve patient access, experience, and outcomes.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Jellyfish is the leading Engineering Management Platform (EMP), providing complete visibility into engineering organizations, the work they do, and how they operate. By analyzing engineering signals and contextual business data, Jellyfish enables Engineering leaders to align engineering decisions with strategic business objectives and deliver the right software, efficiently, on time. Companies like Acquia, Toast, and Jobvite use Jellyfish to optimize the process, allocation, and structure of their organizations, and to focus their teams on what matters most to the business.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>$25,000,000</t>
+          <t>$12,000,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>04 May 2020</t>
+          <t>08 May 2020</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Medable Secures $25M Venture Funding</t>
+          <t>Jellyfish Announces $12M Series A Funding</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/medable/venture-capital-funding/gqhwfxmknw</t>
+          <t>https://vcnewsdaily.com/jellyfish/venture-capital-funding/ppcvcnnvdj</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>PALO ALTO, CA, Medable announced $25 million in funding led by GSR Ventures.</t>
+          <t>BOSTON, MA, Jellyfish has raised over $12 million from preeminent investors Accel and Wing Venture Capital.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Palo Alto</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Medable/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Jellyfish/venture-funding.php</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Medable, Inc., the leading global platform for decentralized clinical trials, today announced $25 million in funding to accelerate clinical drug development with digital technology, enabling effective new therapies to reach patients faster. The investment will be used to extend product development, partnerships and market adoption for Medable's decentralized trial platform, which brings together clinical trial participants, clinical research sites, partners and analytics to enable more patient-centric and informed clinical research.The funding round was led by early-stage healthcare and AI investor GSR Ventures, with additional investment from existing investor PPD, Inc. The funding brings Medable's total capital raised to more than $45 million.Medable is on a mission to reduce clinical trial timelines by 50 percent. The company has become a leader in the movement to digitize and virtualize clinical trials. Over the past several years, Medable's team has built a modular digital platform-as-a-service that streamlines clinical trials with direct-to-patient technologies. The platform is now used by leading biopharma sponsors and clinical research organizations worldwide, and has been used for trials in 30+ countries and 26 languages."This is an important milestone for Medable and the industry's shift to decentralized trials, which are critical to bringing effective therapies to patients faster," said Dr. Michelle Longmire, CEO and co-founder of Medable. "As we've seen with the COVID-19 pandemic, traditional trial processes and timelines are insufficient to meet the global need for clinical research. Decentralized trials can improve access to new therapies and trials for participants, as well as reduce trial timelines.""The future of medicine is digital, personalized, data-driven and delivered directly to the patient," said Dr. Sunny Kumar, partner at GSR Ventures, who joins the Medable board. "Medable has built a diverse and capable team of technology and biopharma experts, and they have built a comprehensive platform that is well-positioned to meet the market need. Clinical trials are clearly ripe for disruption, and Medable brings forward the next generation of clinical trial platform technology to streamline new therapy development."Based on its market analysis, GSR Ventures believes decentralized clinical trials can reach a broader, more representative population; speed up recruitment and enrollment; generate more robust data; and be more convenient and accessible for patients. A digital trial infrastructure will also allow for new types of monitoring and analysis, including digital endpoints; integration of wearable devices; and enhanced Phase 4 monitoring of patients after trial endpoints have been reached.Many of these needs and opportunities are magnified by the COVID-19 pandemic, which has accelerated interest in Medable's platform over the past 60 days. Prior to the pandemic, decentralized trials were gaining momentum but still considered a "nice to have." In the current environment, decentralized trials have become a necessity as many clinical sites are shut down or not seeing non-COVID-19 patients-and patients around the world are sheltering in place.To address immediate needs for COVID-19 research, Medable recently:Introduced a global telemedicine capability that in partnership with PPD has already been used to connect patients virtually with site coordinators, investigators and other care professionals anywhere in the world;Announced a global partnership with MRN to support remote and in-home care, which are critical for trial continuity in spite of shelter-in-place initiatives;Announced a partnership with AliveCor to dramatically scale remote clinical trials by enabling the use of AliveCor's in-home ECGs as part of Medable's platform; andAnnounced a multi-company research framework to accelerate the development of diagnostics and treatments for COVID-19, providing a mobile application and secure infrastructure to connect health researchers and clinical trial teams with up to millions of home-bound individuals in the United States.About GSR VenturesFounded in 2005, GSR Ventures is one of the world's most successful early-stage venture firms, with over $3 billion under management. The firm focuses on early-stage companies developing AI-enabled healthcare technology, enterprise software, and consumer platforms. GSR Ventures' team is composed of founders, engineers and physicians with deep technical knowledge and a proven track record. Notable investments include Kinsa, Deep 6 AI, DataVisor, Plus AI, and Qunar (NASDAQ:QUNR).About MedableMedable is on a mission to reduce clinical trial timelines by 50 percent. The company's global decentralized trial platform streamlines design, recruitment, retention and data quality, replacing siloed systems with integrated digital tools, data and interfaces to accelerate trial execution. Medable connects patients, sites and clinical trial teams to improve patient access, experience, and outcomes. Medable is a privately held, venture-backed company headquartered in Palo Alto, California. For more information, visit www.medable.com and follow @Medableinc on Twitter.</t>
+          <t>Jellyfish, the pioneer Engineering Management Platform, announced today it has raised over $12 million from preeminent investors Accel and Wing Venture Capital. The company has experienced tremendous growth following a worldwide movement to remote work. Revenues have grown over 90% already, and the company is on pace to triple its customer base in 2020. This continued momentum speaks to a significant market need for engineering leaders to have better visibility, drive strategic alignment, and improve performance as more organizations move to remote and distributed workplaces. Jellyfish is the brainchild of Andrew Lau, David Gourley, and Phil Braden, former engineering and product leaders who faced the challenges of managing growing teams and aligning their work with the strategic direction of the business at companies like Endeca and Groupon. "As engineering organizations scale," said Andrew Lau, the team's CEO, "it becomes increasingly difficult for leaders to keep a pulse on what their teams are working on, whether those things are aligned with the company's strategy, and how these teams are performing." That is especially true of remote and distributed teams, where visibility into the daily work productivity and alignment poses an even greater challenge. "Leaders need a comprehensive picture of their organizations now more than ever. But in a world where software development has become the foundation of modern business, data-driven engineering insights are still scarce.""Sales and Marketing have data-driven tools like Salesforce and Marketo," explains Patrick Rubeski, VP of Engineering at Buildium, a Real Page Company. "I needed something similar to run the operations of my engineering organization that's distributed across three locations in addition to a remote workforce. We found that only Jellyfish provided the right balance of capabilities, connecting our day-to-day operations up to strategic level metrics with their Allocation Framework."By aggregating data from engineering tools, or "engineering signals," along with contextual business data and applying intelligence, the Jellyfish Engineering Management Platform (EMP) provides the kind of visibility engineering leaders need to make sure the team is working on the things that are strategically aligned to the business, optimize the team's execution, and deliver results faster. "Businesses depend on data now more than ever, but they're just scratching the surface," said Accel's Ping Li. "In modern organizations with distributed engineering teams and remote workforces, the need for data-driven visibility and alignment is stronger than ever. Jellyfish takes a unique approach to data-driven engineering to provide that alignment where others cannot."About JellyfishJellyfish is the leading Engineering Management Platform (EMP), providing complete visibility into engineering organizations, the work they do, and how they operate. By analyzing engineering signals and contextual business data, Jellyfish enables Engineering leaders to align engineering decisions with strategic business objectives and deliver the right software, efficiently, on time. Companies like Acquia, Toast, and Jobvite use Jellyfish to optimize the process, allocation, and structure of their organizations, and to focus their teams on what matters most to the business.</t>
         </is>
       </c>
     </row>
@@ -2368,12 +2356,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dear Media</t>
+          <t>Finite State</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Media is changing. And Dear Media (DM) a podcast production company based in Los Angeles, CA is on the front wave of that sea change. As a company, Dear Media will help individuals conceptualize, develop and produce customized podcasts with a personalized touch and an emphasis on female hosts and voices. Dear Media will place women, their stories and narratives, at the forefront of conversation.</t>
+          <t>The mission of Finite State is to protect the devices that power our modern lives by illuminating the vulnerabilities and threats within their complex software supply chains. With backgrounds in the U.S. Intelligence Community, our team has the unique perspective to be able to understand the intricacies of hidden risk in connected devices. Finite State is headquartered in the heart of the Midwest in Columbus, Ohio.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2383,47 +2371,47 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>$8,000,000</t>
+          <t>$12,500,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>01 May 2020</t>
+          <t>08 May 2020</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dear Media Lands $8M in Series A Funding</t>
+          <t>Finite State Snares $12.5M in Series A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/dear-media/venture-capital-funding/dspgnwcrbt</t>
+          <t>https://vcnewsdaily.com/finite-state/venture-capital-funding/ymlwnshxdb</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>WEST HOLLYWOOD, CA, Dear Media has raised $8 million in Series A funding from Magnet Companies.</t>
+          <t>COLUMBUS, OH, Finite State has raised $12.5 Million in a Series A funding round. The round was led by Energy Impact Partners.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>West Hollywood</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Dear%20Media/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Finite%20State/venture-funding.php</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Dear Media, the podcast network behind female-focused shows like The Bitch Bible, The Skinny Confidential: Him &amp; Her and Taste of Taylor, has raised $8 million in Series A funding from Magnet Companies.Media is changing. And Dear Media (DM) a podcast production company based in Los Angeles, CA is on the front wave of that sea change. As a company, Dear Media will help individuals conceptualize, develop and produce customized podcasts with a personalized touch and an emphasis on female hosts and voices. Dear Media will place women, their stories and narratives, at the forefront of conversation.</t>
+          <t>Finite State, experts in supply chain security and risk management for IoT and embedded devices, announced today that it has raised $12.5 Million in a Series A funding round. The round was led by Energy Impact Partners, who were joined by Zetta Venture Partners, cybersecurity veteran Niloofar Howe, and other undisclosed investors. This round follows a $7M seed round led by Drive Capital, a Midwest based fund with $1.2B under management, bringing the total company funding to $19.5M.Based in Columbus and founded in 2017 by Matt Wyckhouse, founder and former CTO of Battelle's Cyber Business Unit, Finite State has remained largely in stealth mode as its team has worked diligently on building advanced technology that uncovers vulnerabilities and threats in the supply chain of IoT and connected devices. Despite keeping a low profile, the company widely showcased its unique capabilities in June of 2019 when its Huawei Supply Chain Assessment revealed numerous backdoors and major security vulnerabilities in the Chinese technology company's networking devices that could be used in 5G networks. The report has been cited by government officials, cybersecurity experts, and in news and media around the world. This round of funding will allow Finite State to scale its team of world-class engineers, whose mission is focused on advancing the company's cutting-edge technology that enables unprecedented visibility into device firmware. With its focus on users and manufacturers of connected devices in the energy, telecommunications, and national security sectors, an expanded team will give Finite State the bandwidth to secure some of the world's most critical infrastructure."The exponential growth of connected devices powering our critical infrastructure is driving attackers to change their tactics and target these more vulnerable devices," said Matt Wyckhouse, Founder and CEO of Finite State. "Finite State focuses on creating transparency within supply chains, so manufacturers and end users can work together to mitigate vulnerabilities before they are exploited.""The proliferation of internet of things (IoT) devices has enabled a smarter and more resilient electric grid. As operators rapidly deploy IoT devices for critical industrial and business functions, the stakes have never been higher for security teams to keep up with the risks and vulnerabilities that exist within these devices," said Sameer Reddy, partner at EIP. "We're excited to partner with Finite State as the company brings its platform to the energy sector to provide operators with exceptional, real-time intelligence of supply chain risk.""Finite State takes a uniquely data-driven approach to discovering vulnerabilities in the IoT fabric that now powers every part of the economy from transportation to health care to fundamental infrastructure," said Jocelyn Goldfein of Zetta Venture Partners. Zetta was also among the company's initial investors. She goes on to say that "IoT represents the new frontier of cyber attacks, and Finite State's unique threat intelligence is an invaluable assist for defenders." PRIORITIZING SUPPLY CHAIN SECURITYThe complexity of supply chains for connected devices makes it extremely difficult to know whether or not a device is truly secure. Because device manufacturers source parts and software from many different vendors, it is challenging for them to understand and mitigate the risks their devices pose without extensive testing. Through firmware analysis on behalf of device manufacturers and their customers, Finite State's platform is able to automatically scan each device and provide an in-depth analysis into the device's firmware, including the presence of known vulnerabilities, potential backdoors, supply chain threats, and other crucial information that affects the overall risk of each device. This information is key to allowing end users to understand and mitigate the risk presented by each device, and it allows OEMs to address and resolve these issues and share the risk analysis with their customers. This transparency is the key to creating more secure supply chains and ensuring safer networks in all industries from utilities to manufacturing, healthcare to government systems.ABOUT FINITE STATEThe mission of Finite State is to protect the devices that power our modern lives by illuminating the vulnerabilities and threats within their complex software supply chains. With backgrounds in the U.S. Intelligence Community, our team has the unique perspective to be able to understand the intricacies of hidden risk in connected devices. Finite State is headquartered in the heart of the Midwest in Columbus, Ohio. For more information, visit www.finitestate.io.ABOUT ENERGY IMPACT PARTNERSEIP is an investment firm focused on the conversion of the energy industry towards a decarbonized, decentralized, digitized and electrified future. EIP brings together leading innovators with some of the world's most forward-looking energy and operating companies to create a cleaner, more secure, and resilient future. Through close collaboration with its investor base, EIP connects innovative companies with buying power and industry vision to influence the emerging energy landscape. EIP's utility partners include Southern Company, National Grid, Xcel Energy, Ameren, Evergy, Fortis Inc., AGL, Avista, MGE Energy Inc., TEPCO, PTT Public Company Limited, OGE Energy Corp., TC Energy, and Alliant Energy. www.energyimpactpartners.com.ABOUT ZETTA VENTURE PARTNERSFounded in 2013, Zetta Venture Partners is the leading venture capital firm focused exclusively on AI. With $365 million under management, Zetta supports entrepreneurs inspired by the power of data and AI to confront fundamental challenges in health, climate, economies, and infrastructure. Visit http://www.zettavp.com for more.ABOUT NILOOFAR RAZI HOWENiloofar Razi Howe has been an investor, executive and entrepreneur in the technology industry for the past 25 years, with a focus on cybersecurity for the past 10. Most recently, Howe served as Chief Strategy Officer and Senior Vice President of Strategy and Operations at RSA, a global cybersecurity company where she led corporate strategy, corporate development and planning, business development, global program management, business operations, security operations and Federal business development. Prior to RSA, she served as the Chief Strategy Officer of Endgame, Inc.</t>
         </is>
       </c>
     </row>
@@ -2433,58 +2421,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Immunomic Therapeutics</t>
+          <t>Limbix</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Immunomic Therapeutics (ITI) is a clinical stage biotechnology company that is developing next generation vaccines based on the patented Lysosomal Associated Membrane Protein, or LAMP, Technology. The vaccine platform significantly increases the effectiveness of the immune response to nucleic acid vaccines while simplifying overall vaccine design and delivery, yielding safer, more cost-effective human and animal therapies.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Limbix is a prescription digital therapeutic company passionate about creating mental health treatments for young people. The Limbix team is uniquely suited to develop prescription digital therapeutics, as its diverse team of clinicians, product designers, researchers, and engineers understand the value of pairing clinical expertise with technological innovation.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>$61,300,000</t>
+          <t>$9,000,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>01 May 2020</t>
+          <t>08 May 2020</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Immunomic Therapeutics Closes $61.3M Funding</t>
+          <t>Limbix Lands $9M Series A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/immunomic-therapeutics/venture-capital-funding/stbclvnhmy</t>
+          <t>https://vcnewsdaily.com/limbix/venture-capital-funding/yrsbjbvrsj</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ROCKVILLE, MD, Immunomic Therapeutics announced today the close of a $61.3M financing led by HLB Co., LTD.</t>
+          <t>PALO ALTO, CA, Limbix has successfully raised a $9M Series A led by GSR Ventures.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Rockville</t>
+          <t>Palo Alto</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Immunomic%20Therapeutics/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Limbix/venture-funding.php</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Immunomic Therapeutics, Inc., ("ITI") a privately-held clinical-stage biotechnology company pioneering the study of nucleic acid immunotherapy platforms, announced today the close of a $61.3M financing led by HLB Co., LTD, a global pharmaceutical company focused on developing novel cancer drugs. This represents the second closing in the investment process for the HLB Consortium, ($10M was placed in February 2020), and substantially increases their holding in Immunomic Therapeutics to 47.6% of the common stock. HLB also secured an option to make further investment into the company in the months ahead."We are pleased to welcome HLB as a significant shareholder of Immunomic Therapeutics and look forward to working with them within the framework of the HLB Bio family of companies. They have a proven track record of success in Asia and share our commitment and passion for developing best-in-class therapies for cancer and other serious diseases," said Dr. William Hearl, CEO of Immunomic Therapeutics. "With HLB's support, we are well-positioned to accelerate our efforts in immuno-oncology, in particular glioblastoma multiforme, and rapidly advance other key candidates in our pipeline, including our most recent initiative into infectious diseases with development of our vaccine candidate for COVID-19."Proceeds from the financing will support the acceleration of ITI's Phase II clinical trial of ITI-1000 for the treatment of glioblastoma multiforme (GBM), advance its emerging pipeline, and expand upon the current applications of its UNITE platform. The financing will also enable Immunomic to expand its team and infrastructure to support the future growth of the company.In addition, ITI and HLB intend to establish an Asian Brain Cancer Research Center in Seoul that will bring together the world's leading experts and cutting-edge science to advance research in the GBM field and to deploy ITI-1000 to the Asian population. ITI-1000 is a cell therapy powered by ITI's UNITE platform that is currently being evaluated in a Phase II clinical trial (ATTAC-II) in collaboration with researchers at the University of Florida (Dr. Duane Mitchell) and Duke University (Dr. John Sampson). ITI-1001 is an alternative, cell-free approach to treating GBM. The company held a successful pre-IND meeting earlier this year for ITI-1001 and expects to be able to file an Investigational New Drug Application (IND) with the U.S. Food and Drug Administration (FDA) by the end of 2020.Concurrent with the financing, five (5) members from HLB Co., LTD will be joining the Immunomic Therapeutics Board of Directors.About UNITEITI's investigational UNITE platform, or UNiversal Intracellular Targeted Expression, works by fusing pathogenic antigens with the Lysosomal Associated Membrane Protein, an endogenous protein in humans, for immune processing. In this way, ITI's vaccines (DNA or RNA) have the potential to utilize the body's natural biochemistry to develop a broad immune response including antibody production, cytokine release and critical immunological memory. This approach could put UNITE technology at the crossroads of immunotherapies in a number of illnesses, including cancer, allergy and infectious diseases. UNITE is currently being employed in Phase II clinical trials as a cancer immunotherapy. ITI is also collaborating with academic centers and biotechnology companies to study the use of UNITE in cancer types of high mortality, including cases where there are limited treatment options like glioblastoma and acute myeloid leukemia. ITI believes that these early clinical studies may provide a proof of concept for UNITE therapy in cancer, and if successful, set the stage for future studies, including combinations in these tumor types and others. Preclinical data is currently being developed to explore whether LAMP nucleic acid constructs may amplify and activate the immune response in highly immunogenic tumor types and be used to create immune responses to tumor types that otherwise do not provoke an immune response.About Immunomic Therapeutics, Inc.Immunomic Therapeutics, Inc. (ITI) is a privately-held, clinical stage biotechnology company pioneering the development of vaccines through its proprietary technology platform, UNiversal Intracellular Targeted Expression (UNITE), which is designed to utilize the body's natural biochemistry to develop vaccines that generate broad immune responses. UNITE has a robust history of applications in various therapeutic areas, including infectious diseases, oncology, allergy and autoimmune diseases. ITI is primarily focused on applying the UNITE platform to oncology, where it could potentially have broad applications, including viral antigens, cancer antigens, neoantigens and antigen-derived antibodies as biologics. The Company has built a large pipeline from UNITE with six oncology programs and two allergy programs. ITI has entered into a significant allergy partnership with Astellas Pharma and has formed several academic collaborations with leading Immuno-oncology researchers at Fred Hutchinson Cancer Research Institute, Johns Hopkins University of Medicine, and Duke University. ITI maintains its headquarters in Rockville, Maryland. For more information, please visit www.immunomix.com.</t>
+          <t>Limbix, the leader in digital therapeutics for the treatment of adolescent mental health disorders, is excited to announce it has successfully raised a $9M Series A led by GSR Ventures, an early-stage investment firm based in Palo Alto. Also joining the financing round are other existing Limbix investors, including Sequoia Capital, Storm Ventures, NextGen Venture Partners, and BIXINK Therapeutics.The new funding enables further research and development of the company's flagship product, Limbix Spark, the first prescription digital therapeutic designed to treat adolescents with depression. Limbix Spark is a multi-week cognitive behavioral therapy based program focused on the completion of value-based activities that spark feelings of pleasure or mastery. With increased screening for depression in primary care, treating adolescent depression often falls to pediatricians who have limited effective treatments to offer patients. Once FDA cleared, Limbix Spark will be available as a new treatment option for pediatricians to prescribe to their patients."GSR Ventures has tremendous expertise in medicine and digital health, making them an ideal partner for our company," said Ben Lewis, CEO and co-founder of Limbix. "In the coming years we'll be running more trials on Limbix Spark, forming commercialization partnerships, and working towards FDA clearance on Limbix Spark as a Class II medical device. Having GSR Ventures' guidance along this path is incredibly helpful for our business.""We are thrilled to partner with such a passionate team working to improve mental health treatment for those who need it most. The Limbix team focuses on rigorous clinical data, and their combination of strong medical, research, and technology backgrounds make them uniquely positioned to succeed," said Justin Norden, Partner at GSR Ventures.About Limbix:Limbix is a prescription digital therapeutic company passionate about creating mental health treatments for young people. The Limbix team is uniquely suited to develop prescription digital therapeutics, as its diverse team of clinicians, product designers, researchers, and engineers understand the value of pairing clinical expertise with technological innovation. Limbix is headquartered in Palo Alto, California. For more information visit limbix.com.About GSR Ventures:Founded in 2005, GSR Ventures is one of the world's most successful early-stage venture firms, with over $3 billion under management. The firm focuses on early-stage companies developing AI-enabled healthcare technology, enterprise software, and consumer platforms. GSR Ventures' team is composed of founders, engineers and physicians with deep technical knowledge and a proven track record. Notable investments include Kinsa, Deep 6 AI, DataVisor, Plus AI, and Qunar.</t>
         </is>
       </c>
     </row>
@@ -2494,62 +2486,58 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Josh.ai</t>
+          <t>White Ops</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Josh is a voice-controlled home automation system. Like Siri or Google Now, the Josh programming language is built to support natural language voice commands. This includes greetings, questions, instructions, and more. Further, Josh is built to control and connect any "smart" device, from any device. For example, with Josh you can turn on your speakers from your watch, change the temperature from your phone, shut off the lights from your desktop, etc. Initially, Josh will be focused on the smart home, but over time we envision a more general-purpose AI. Josh will go where you go, making your life easier and more productive.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Series A</t>
-        </is>
-      </c>
+          <t>White Ops is a pioneer in the detection of and systematic defense against bot and malware fraud, providing advertisers and enterprise businesses with the tools they need to eliminate fraud, raise their bottom lines and ensure the success of their campaigns and the security of their systems and data. White Ops\' leading-edge technology combats criminal activity in a significantly different and more comprehensive way than any method currently on the market.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>$11,000,000</t>
+          <t>undisclosed</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>01 May 2020</t>
+          <t>08 May 2020</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Josh.ai Secures $11M Series A Round</t>
+          <t>White Ops Receives Investment</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/josh.ai/venture-capital-funding/hblcrhfrqh</t>
+          <t>https://vcnewsdaily.com/white-ops/venture-capital-funding/fzfsrkxnjk</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>DENVER, CO, Josh has secured an $11 million Series A round from undisclosed investors.</t>
+          <t>NEW YORK, NY, White Ops today announced the completion of an investment by Goldman Sachs Merchant Banking Division and ClearSky Security.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Josh.ai/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/White%20Ops/venture-funding.php</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Josh has secured an $11 million Series A round from undisclosed investors.Josh is a voice-controlled home automation system. Like Siri or Google Now, the Josh programming language is built to support natural language voice commands. This includes greetings, questions, instructions, and more. Further, Josh is built to control and connect any "smart" device, from any device. For example, with Josh you can turn on your speakers from your watch, change the temperature from your phone, shut off the lights from your desktop, etc. Initially, Josh will be focused on the smart home, but over time we envision a more general-purpose AI. Josh will go where you go, making your life easier and more productive.</t>
+          <t>White Ops ("White Ops" or the "Company"), the global leader in bot mitigation and fraud protection, today announced the completion of an investment by Goldman Sachs Merchant Banking Division and ClearSky Security to support the Company in its next phase of growth. With this investment, a member of the Goldman Sachs team will join representatives from previous investors Paladin Capital Group and Grotech Ventures on the White Ops board of directors. Terms of the transaction were not disclosed.The investment will enable White Ops to further accelerate its growth and expansion on a global basis, support product development, and expand into new vertical markets. The Company's core mission is to protect enterprises from sophisticated bot attacks and fraud across the domains of cybersecurity, digital advertising, and marketing, serving some of the largest enterprises and internet platforms. Today, White Ops verifies the humanity of more than 5 trillion interactions per week and growing, providing an incredibly broad and deep platform to stop nefarious activity across the internet. As the shift in consumer and enterprise engagement toward digital channels continues to accelerate, it is a critical time to be proactive in protecting against fraud and sophisticated bot attacks."Goldman Sachs and ClearSky are ideal partners to support our growth across multiple markets, use cases and geographies," said Tamer Hassan, CEO and co-founder of White Ops. "Their investment in the Company and support of our mission to disrupt the economics of cybercrime puts us in an incredibly strong position to extend our leadership and execute on our vision for the collective protection against fraud and abuse.""White Ops is a gold standard in bot detection and mitigation and we're delighted to be able to partner with them, especially at a time when levels of cybercrime are increasing significantly, there is an accelerated shift to digital, and the Company has seen a meaningful increase in the demand for their services," said Anthony Arnold, Managing Director at Goldman Sachs. "We look forward to working with the management team to continue their track record of innovation in this large and fast-growing market.""White Ops' technology platform and bot detection framework are highly differentiated in its industry, helping detect and prevent the most sophisticated forms of digital fraud," said Matthew Popper, Managing Director at Goldman Sachs. "We look forward to helping maximize White Ops' growth potential, including expanding into new industry verticals and serving new use cases.""As bot-based fraud becomes increasingly prevalent across the internet, enterprises and internet platforms require sophisticated threat protection now more than ever," said Jay Leek, Managing Partner of ClearSky. "We look forward to partnering with management to continue to build on White Ops' leadership position in the industry."Bad actors with millions of sophisticated bots at their disposal cause fraud at the rate of tens of billions of dollars a year against companies across the globe. These sophisticated bots live on consumer and enterprise devices, sharing browsing history and habits with real humans, which makes them especially difficult to detect. White Ops' multilayered detection methodology, advanced algorithm, Satori Threat Intelligence and Research Team, and massive scale can detect and prevent these bot populations at every level of sophistication. These capabilities enabled White Ops to play a leading role in taking down 3ve, the largest ad fraud botnet to date, through collective protection and bringing together the largest private sector collaboration in history, including the FBI, Google, Facebook and many others in the industry. White Ops also recently uncovered ICEBUCKET, the largest and widest Connected TV (CTV) related fraud operation.White Ops Bot Mitigation Platform solves top cybersecurity use cases through its three product offerings:Application Integrity - Protects enterprises from fraud and abuse of applications including account takeover attacks, automated account creation, and web scraping, enabling low friction user experiences and saving dollars lost due to fraudAdvertising Integrity - Protects from fraud and abuse in online media and advertising, across desktop, mobile, and CTV environments, enabling more effective advertising spendMarketing Integrity - Protects from fraud and abuse in performance marketing, user acquisition, and lead generation, driving higher conversion rates, reducing wasted marketing and sales spend, and ensuring the accuracy and integrity of analytics and the customer acquisition funnelTo learn more about White Ops perspective on how this investment further advances their mission, read this blog post from CEO and co-founder, Tamer Hassan: https://www.whiteops.com/blog/why-white-ops.About White OpsWhite Ops is the global leader in bot mitigation and fraud protection. We protect more than 200 enterprises - including the largest internet platforms - from sophisticated bots attacks across the domains of cyber security, digital advertising and marketing by verifying the humanity of more than 5 trillion online interactions every week. The most sophisticated bots look and act like humans when they click on ads, visit websites, fill out forms, take over accounts, and commit payment fraud. We stop them. To learn more, visit www.whiteops.com.About Goldman Sachs Merchant Banking DivisionFounded in 1869, The Goldman Sachs Group, Inc. is a leading global investment banking, securities and investment management firm. Goldman Sachs Merchant Banking Division (MBD) is the primary center for the firm's long-term principal investing activity. MBD is one of the leading private capital investors in the world with investments across private equity, infrastructure, private debt, growth equity and real estate.About ClearSkyClearSky is a venture capital/growth equity firm that has been operating since 2012 with offices in Florida, New York, Boston and San Francisco. ClearSky is currently investing through two funds: ClearSky Power &amp; Technology and ClearSky Security. ClearSky Power &amp; Technology invests in innovative companies providing technology and services to enterprise customers, with a special focus on the power sector. ClearSky Security invests in companies that offer transformative security solutions, with a special focus on cybersecurity, industrial security and critical infrastructure security.</t>
         </is>
       </c>
     </row>
@@ -2559,62 +2547,62 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASAPP</t>
+          <t>Burst Oral Care</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ASAPP builds AI-Native™ products to solve large, complex, data-rich problems, by automating and augmenting human workflows, radically improving efficiency and effectiveness to empower people to be their best. By building AI-Native™ products driven by advances in fundamental AI research, ASAPP makes organizations more efficient by augmenting and automating the world's workflows. The company has headquarters in New York with offices in Silicon Valley, Raleigh, London and Buenos Aires.</t>
+          <t>BURST has one simple aim: to make sonic oral care affordable and available to everyone. With the help of the dental community, we've crafted an incredible sonic toothbrush that boasts charcoal nano-particle embedded bristles, 33,000 sonic vibrations and an industry leading lithium ion battery that lasts for 4 weeks on just one charge.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$185,000,000</t>
+          <t>$20,000,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>01 May 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ASAPP Completes $185M in Series B</t>
+          <t>Burst Oral Care Grabs $20M in Funding</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/asapp/venture-capital-funding/vpkpdjdhry</t>
+          <t>https://vcnewsdaily.com/burst-oral-care/venture-capital-funding/cyckhnbjdp</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>NEW YORK, NY, ASAPP announced that it recently completed $185 million in a Series B funding.</t>
+          <t>WALNUT, CA, Burst Oral Care has received $20 million in Series C financing.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/ASAPP/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Burst%20Oral%20Care/venture-funding.php</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ASAPP, Inc., the artificial intelligence research-driven company advancing the future of productivity and efficiency in customer experience, announced that it recently completed $185 million in a Series B funding bringing the company's total funding to $260 million. Participation in the Series B round includes legendary Silicon Valley veterans John Doerr, John Chambers, Dave Strohm and Joe Tucci, along with respected institutions Emergence Capital, March Capital Partners, Euclidean Capital, Telstra Ventures, HOF Capital and Vast Ventures."ASAPP builds AI-Native products to solve problems of massive scale and systemic inefficiency. We are thrilled and grateful by this latest investment, which allows ASAPP to continue scaling and meeting the extraordinary demands large enterprises are facing as a result of the global pandemic. Many organizations are experiencing historically high levels of customer interactions at a time when their capacity to support is at an all-time low. By augmenting agents who are on the frontlines, ASAPP enables them to be vastly more efficient and productive, realizing significant savings while delighting customers." said Founder and CEO Gustavo Sapoznik. "Our current focus is in solving customer experience challenges faced by large enterprises, which for decades has been addressed by attempting to deflect customer calls, and has resulted in poor experiences, frustration, and massive amounts of money being spent on this problem. Our approach to cost savings is radically different and focuses on building state-of-the-art capabilities to make agents better and empower them by augmenting and automating their workflows." said Sapoznik."ASAPP has created an all-in, AI-Native platform which delivers significant savings and a superior customer experience" said investor and ASAPP board member John Doerr. "Gustavo's world-class team is creating audacious partnerships with large, forward thinking enterprises. We're excited to be part of the team by backing ASAPP's vision." Customer care and sales agents use the ASAPP platform to know the right thing to say and the right action to take, in real time, as the customer conversation transpires on phone calls and digital messages. ASAPP's machine learning models are continuously learning and predicting from every customer interaction, effectively turning every agent into your best agent without the need for manual programming or extensive training. Many of the world's largest companies in telecom, financial services, and travel have realized dramatic improvements to both efficiency and effectiveness in how their agents serve customers today.The company has seen a massive increase in interest for their platform in recent weeks. The Coronavirus pandemic and resulting economic recession are creating significant disruption at contact centers across all industries. Historically, the execution of efficiency measures - more call deflections, hiding contact information from customers, frustrating chatbots that cannot handle complex transactions - has come at the expense of customer satisfaction. Customer Experience Officers are looking for fast improvements to their operations, to drive significant automation without sacrificing customer experience. ASAPP is uniquely designed to deliver this promise, not by traditional means, but by radically improving agent labor efficiency and effectiveness with artificial intelligence. ASAPP customers have achieved a 2.5x agent throughput increase, while realizing a 45%-100% improvement in customer satisfaction scores as a result of using the platform.With ASAPP, for the first time what is right for the company in the form of lowering costs and improving efficiency, is now also right for the customer: fast, accurate issue resolution and superior experience.In 2015 ASAPP decided to tackle its first chosen field-customer experience. The product vision required to truly transform these operations were beyond existing capabilities. As a result, ASAPP formed a large AI research team composed of PhDs and leading experts in the field to further advance disciplines such as natural language processing, machine learning, and speech recognition which serve as the foundation for ASAPP products.About ASAPP ASAPP builds AI-Native™ products to solve large, complex, data-rich problems, by automating and augmenting human workflows, radically improving efficiency and effectiveness to empower people to be their best. By building AI-Native™ products driven by advances in fundamental AI research, ASAPP makes organizations more efficient by augmenting and automating the world's workflows. The company has headquarters in New York with offices in Silicon Valley, Raleigh, London and Buenos Aires. For more information visit asapp.com</t>
+          <t>Burst Oral Care has received $20 million in financing. The Series C funding round was led by Goldman Sachs' Growth Equity Platform, GS Growth.BURST has one simple aim: to make sonic oral care affordable and available to everyone. With the help of the dental community, we've crafted an incredible sonic toothbrush that boasts charcoal nano-particle embedded bristles, 33,000 sonic vibrations and an industry leading lithium ion battery that lasts for 4 weeks on just one charge.</t>
         </is>
       </c>
     </row>
@@ -2624,62 +2612,62 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WindESCo</t>
+          <t>Grail</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>WindESCo provides services to wind plants to improve energy production and reduce operating expense. Combining the power of physics-based models with data science, WindESCo's solutions are actively optimizing wind farms in eight countries on three continents.</t>
+          <t>GRAIL is a life sciences company whose mission is to detect cancer early when it can be cured. GRAIL combines the power of high-intensity sequencing (ultra-broad and ultra-deep sequencing), leading-edge computer science, and large population-scale clinical studies to enhance the scientific understanding of cancer biology and develop a blood test for early-stage cancer detection.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>$10,000,000</t>
+          <t>$390,000,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>WindESCo Closes $10M Series B Financing</t>
+          <t>GRAIL Scoops Up $390M Series D</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/windesco/venture-capital-funding/kntdwndxbz</t>
+          <t>https://vcnewsdaily.com/grail/venture-capital-funding/tdggfjrsdk</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BURLINGTON, MA, WindESCo, a wind energy performance optimization company, today announces it has closed a $10 million Series B funding round.</t>
+          <t>MENLO PARK, CA, GRAIL, a healthcare company whose mission is to detect cancer early, when it can be cured, today announced a $390 million Series D financing round.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Burlington</t>
+          <t>Menlo Park</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/WindESCo/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/GRAIL/venture-funding.php</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>The round was led by WAVE Equity Partners, with participation from an affiliate of Tenaska, Inc. as well as existing investors. Using a combination of wind plant domain expertise, machine learning and smart sensing, WindESCo is revolutionizing how wind plants leverage data to maximize profit and performance. The Company will use the proceeds of the financing to further enhance its technology offerings, bolster growth through the expansion of its sales and customer success teams, forge joint development and channel partnerships and take its solutions to the global marketplace."WindESCo's solutions fill a major gap in the wind energy performance optimization space. We have successfully applied our solutions to increasing the operating margins of wind plants for project owners," said Mo Dua, founder and CEO of WindESCo. "WAVE and Tenaska's investment validates our approach. The funds will allow WindESCo to expand our product offerings and further our customer-centric focus."WindESCo is delivering powerful and proven solutions for the utility-scale wind energy industry that optimize turbine performance and maximize profit by increasing annual energy production and reducing operating expenses. Providing validated revenue increases for its customers in actual dollars - not just on paper - WindESCo's comprehensive solutions have enabled customers to increase plant revenues by between 1% and 7%.  WindESCo is also pioneering the next generation of "Social Wind Farms," empowering turbines to seamlessly learn from one another in real time and to operate as a cooperative unit. The Company has innovated in terms of both technology and business model. Several major wind plant owners are now deploying WindESCo's solutions."WAVE is grateful for the opportunity to work with WindESCo's smart founding team. They have pioneered the best sensing and analytics system to optimize performance efficiency and operational health of wind turbines," said Praveen Sahay, managing partner at WAVE Equity Partners. "The wind industry is facing multiple headwinds, including declining incentives and premature failure of equipment, that are hurting profits. By solving key pain points and improving profitability, WindESCo is playing a crucial role in securing a leading source of sustainable energy.""As the economics of wind generation continue to face margin pressures, operational optimization and reduction in maintenance costs will have a significant impact on asset owners' cash flows and long-term sustainability," said Rishi Bhakar, Tenaska vice president who oversees its sustainable energy investments. "Tenaska is excited to witness firsthand the progress that Mo and his fantastic team at WindESCo have made in developing innovative solutions for the wind industry. Tenaska's expertise in power marketing and trusted relationships with wind asset owners combined with WindESCo's advanced software-based strategy will benefit our customers through innovative products and services."About WindESCo, Inc.WindESCo provides services to wind plants to improve energy production and reduce operating expense. Combining the power of physics-based models with data science, WindESCo's solutions are actively optimizing wind farms in eight countries on three continents. Additional information about WindESCo can be found on the Company's website, www.windesco.com.About WAVE Equity PartnersWAVE Equity Partners is a Boston-based private equity firm that accelerates market validated companies solving some of the world's greatest challenges in essential markets for clean energy, water, waste, food and clean air. It specializes in breakthrough innovations in hard tech and manufacturing. For additional information, visit waveep.com.About Tenaska, Inc.Tenaska, based in Omaha, Nebraska, is one of the leading independent energy companies in the United States. Forbes magazine consistently ranks Tenaska among the 50 largest private U.S. companies.  Tenaska affiliates are industry leaders in natural gas and electric power marketing. For more information, visit www.tenaska.com.</t>
+          <t>New investors including Public Sector Pension Investment Board (PSP Investments) and Canada Pension Plan Investment Board (CPP Investments), as well as two undisclosed investors, joined existing backers including Illumina, Inc. in this round of funding."GRAIL is making significant progress with our blood-based, multi-cancer early detection test," said Hans Bishop, Chief Executive Officer at GRAIL. "Nearly 80 percent of cancer deaths result from cancers for which there is no screening test today, and GRAIL's mission is to change that through the early detection and localization of more than 50 cancers. Enabling this through a single blood draw could improve patient access and adherence to cancer screening and address disparities in cancer care by improving access for rural, vulnerable, and under-served populations. We are delighted that such a high-quality group of investors share our vision and recognize the public health benefits of our technology."The Series D funding adds to the company's balance sheet and will support continued development and commercialization of GRAIL's multi-cancer early detection blood test. Since early 2016, GRAIL has raised more than $1.9 billion in four rounds of equity financing to pursue reducing cancer mortality worldwide through multi-cancer early detection.About GRAIL's Multi-Cancer Early Detection TestGRAIL's multi-cancer early detection test is designed to detect cancers in early stages, when the chance of survival is higher than if cancer is detected after symptoms appear. Clinical data have shown the ability of this technology to detect more than 50 cancer types with a very low false positive rate of less than one percent. GRAIL's test was designed to minimize false positives in order to limit associated harms, including patient anxiety and unnecessary diagnostic workups. When a cancer signal is detected, the test has been able to identify where in the body the cancer is located with high accuracy, an important step to guiding diagnostic next steps and care.GRAIL's methylation-based technology preferentially targets the most informative regions of the genome and is designed to use its proprietary database and machine-learning algorithms to both detect the presence of cancer and identify the tumor's tissue of origin. GRAIL believes its sequencing database of cancer and non-cancer methylation signatures is the largest of its kind.About GRAILGRAIL is a healthcare company whose mission is to detect cancer early, when it can be cured. GRAIL is focused on alleviating the global burden of cancer by developing pioneering technology to detect and identify multiple deadly cancer types early. The company is using the power of next-generation sequencing, population-scale clinical studies, and state-of-the-art computer science and data science to enhance the scientific understanding of cancer biology, and to develop its multi-cancer early detection blood test. GRAIL is located in Menlo Park, California and Washington, D.C. It is supported by leading global investors and pharmaceutical, technology, and healthcare companies. For more information, please visit www.grail.com.</t>
         </is>
       </c>
     </row>
@@ -2689,62 +2677,62 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Taysha Gene Therapies</t>
+          <t>Stardog</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Taysha Gene Therapies is on a mission to eradicate monogenic CNS disease. With a singular focus on developing curative medicines, we are able to rapidly translate our treatments from bench to bedside. We have combined our team's proven experience in gene therapy drug development and commercialization with the world-class UT Southwestern Gene Therapy Program to quickly and efficiently build an extensive, AAV gene therapy pipeline focused on both rare and large-market indications. Together, we leverage our fully integrated platform -- an engine for new cures -- to dramatically improve patients' lives.</t>
+          <t>Stardog enterprise data unification platform unifies data across the enterprise using smart graph technology. Stardog has enterprise customers from Fortune 500 in finance, health care &amp; life sciences, energy, media, and government.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$30,000,000</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Taysha Gene Therapies Lands $30M Seed Round</t>
+          <t>Stardog Expands Its Series B Financing</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/taysha-gene-therapies/venture-capital-funding/pnrydcgxxq</t>
+          <t>https://vcnewsdaily.com/stardog/venture-capital-funding/pjlnxshfms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>DALLAS, TX, Taysha Gene Therapies has raised $30 million in seed financing co-led by PBM Capital and Nolan Capital.</t>
+          <t>ARLINGTON, VA, Stardog has expanded its Series B to $11.4 million by securing an additional $3 million.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Taysha%20Gene%20Therapies/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Stardog/venture-funding.php</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Taysha Gene Therapies today announced it has launched with a mission to eradicate severe and life-threatening monogenic diseases of the central nervous system (CNS) by advancing its pipeline of 15 AAV (adeno-associated virus) gene therapy programs, with options to an additional four programs. The company reunites former investors and executives from AveXis, while accelerating its discovery and development efforts with the UT Southwestern Gene Therapy Program and Department of Pediatrics, one of the largest pediatric neurology residency programs in the U.S.To advance its mission and extensive pipeline, Taysha has raised $30 million in seed financing co-led by PBM Capital, the first institutional investor in AveXis, and Nolan Capital, the investment fund of former AveXis CEO Sean Nolan. Taysha's Board of Directors played an integral role in the formation of the company and is comprised of Sean Nolan (Chairman of the Board), Paul Manning of PBM Capital, Claire Aldridge, Ph.D., of UT Southwestern, and RA Session II, President, CEO and Founder of Taysha."Gene therapies have proven to deliver transformational benefit to patients who suffer from devastating diseases with significant, unmet medical need. Our mission at Taysha is to build upon these advancements to eradicate monogenic CNS diseases for the thousands affected," said RA Session II. "In joining forces with UT Southwestern-home to some of the brightest minds in gene therapy-we will advance our deep pipeline of potentially curative medicines with speed and scale. At Taysha, we are ushering in a new era of gene therapy drug development, one in which we can rapidly translate early discoveries into the clinic and beyond."An Unrivaled Alliance with the UT Southwestern Gene Therapy ProgramTaysha and UT Southwestern have entered into a strategic partnership to rapidly and efficiently translate novel AAV gene therapies from bench to bedside. The UT Southwestern Gene Therapy Program is led by Steven Gray, Ph.D., Director of the Viral Vector Core and Assistant Professor in the Department of Pediatrics, and Berge Minassian, M.D., Division Chief of Child Neurology. UT Southwestern has developed a state-of-the-art, GMP viral vector manufacturing facility with the capacity to support Taysha's broad preclinical and clinical development programs.Under the partnership, UT Southwestern will conduct discovery and preclinical research, lead IND-enabling studies, provide clinical GMP manufacturing, as well as execute natural history studies. Taysha will lead all clinical development, regulatory strategy, commercial manufacturing and commercialization activities. The collaboration will be governed by a joint steering committee composed of key leadership members from Taysha and UT Southwestern."Together with Taysha, we are merging cutting-edge translational research, hands-on clinical care, and proven regulatory and commercial expertise - ultimately creating an engine for new cures," said Claire Aldridge, Ph.D., Taysha Board Member and Associate Vice President of Commercialization and Business Development at UT Southwestern Medical Center. "In a short amount of time, I've already witnessed how quickly and efficiently we can leverage our collective expertise and resources to advance new gene therapies to the patients who so desperately need them."The Taysha ApproachTaysha's approach is to combine the speed, scale and expertise of the UT Southwestern Gene Therapy Program with the experience of a proven management team in the gene therapy space. The company is developing an extensive pipeline of potentially curative therapies for monogenic CNS diseases in both rare and large-market indications that are centered on proven AAV technology. In addition, Taysha is developing a novel AAV capsid platform that utilizes machine learning, DNA shuffling and directed evolution to improve targeted delivery. The company is also developing an AAV redosing platform that facilitates redosing by subverting the humoral immune response through delivery to the vagus nerve.Taysha currently has 15 AAV gene therapy programs in its pipeline with options to an additional four programs. TGTX-101, a gene replacement therapy for GM2-Gangliosidosis, is expected to advance into clinical development later this year. In total, Taysha is planning to file four Initial New Drug (IND) applications by the end of 2021, including indications for SURF1 deficiency, SLC6A1 haploinsufficiency and Rett syndrome."Taysha is leveraging the proven safety and heritage of AAV technology-combining it with an experienced management team and the world-class capabilities of UT Southwestern-to rapidly accelerate the research and development of multiple new therapies at a scope we haven't seen before," said Sean Nolan, Chairman of Taysha and former CEO of AveXis. "This is an exciting time for gene therapy, and Taysha's approach brings promise to patients suffering from many devastating CNS diseases."About Taysha Gene TherapiesTaysha Gene Therapies is on a mission to eradicate monogenic CNS disease. With a singular focus on developing curative medicines, we are able to rapidly translate our treatments from bench to bedside. We have combined our team's proven experience in gene therapy drug development and commercialization with the world-class UT Southwestern Gene Therapy Program to quickly and efficiently build an extensive, AAV gene therapy pipeline focused on both rare and large-market indications. Together, we leverage our fully integrated platform-an engine for new cures-to dramatically improve patients' lives. More information is available at www.tayshagtx.com.</t>
+          <t>Stardog, the leading Enterprise Knowledge Graph platform, today announced it has expanded its Series B round to $11.4m, securing an additional $3 million from new investors Contour Venture Partners, Dcode Capital, and Presidio Ventures, the corporate venture capital arm of Sumitomo Corporation. The additional capital will be used to scale go-to-market operations, following the market's increasing interest in knowledge graph technology."Our new partners have deep knowledge in critical areas of our go-to-market," said Kendall Clark, CEO and Founder of Stardog. "We plan to expand our successful EU operations, strengthen our work in the public sector, and to develop tools and partnerships to broaden access to knowledge graphs."Stardog's Enterprise Knowledge Graph platform is used by industry leaders including Morgan Stanley, NASA, Schneider Electric and Bayer. Customers use Stardog for a range of solutions including operational resilience, pharmaceutical R&amp;D and situational awareness. Stardog's platform uniquely combines graph storage and virtualization capabilities for flexible, cost-effective data integration. In March, Stardog was recognized by Fast Company in its annual list of the World's Most Innovative Companies as the 7th most innovative Enterprise. "Now more than ever, knowledge graphs are poised to have a strategic impact on the data management landscape," said Clark. "People need tools that can handle complexity, allowing them to adapt accordingly. Knowledge graphs are proven to do just that by unifying data that is varied, hybrid and changing to reliably deliver insight."Stardog, the leading Enterprise Knowledge Graph platform, turns data into knowledge to power more effective digital transformations. Industry leaders including Bayer, Bosch, Morgan Stanley and NASA use Stardog to create a flexible data layer that can support countless applications. Stardog is a privately held, venture-backed company headquartered in Arlington, VA. For more information, please visit www.stardog.com.</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2742,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pivot Bio</t>
+          <t>LetsGetChecked</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>At Pivot Bio, we believe in meeting the needs of the present without compromising the needs of future generations. Our unparalleled understanding of the crop microbiome will help create a future with cleaner water and air. We are dedicated to providing farmers with solutions, so they can grow high-quality, environmentally-responsible and sustainably focused food crops that help feed families worldwide.</t>
+          <t>Founded in 2014 by Peter Foley, LetsGetChecked is a medical technology platform linking customers to regulated laboratory testing to better manage and control their personal health. LetsGetChecked is making healthcare and diagnostics open and patient-led, empowering people to use technology in a simple but powerful way by providing greater control of personal health. LetsGetChecked is based in Dublin and New York with more than 30 tests for general health, sexual health, cancer screening and fertility checks available in the US, Canada and 14 European countries.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2769,47 +2757,47 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>$100,000,000</t>
+          <t>$71,000,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pivot Bio Scores $100M Series C</t>
+          <t>LetsGetChecked Secures $71M Series C</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/pivot-bio/venture-capital-funding/lpgvglbtpf</t>
+          <t>https://vcnewsdaily.com/letsgetchecked/venture-capital-funding/zjwnzlxxxx</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BERKELEY, CA, Pivot Bio announced the close of its $100 million Series C funding round co-led by return investors Breakthrough Energy Ventures and global investment company Temasek.</t>
+          <t>NEW YORK, NY, LetsGetChecked has announced an oversubscribed $71 million Series C round.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Berkeley</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Pivot%20Bio/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/LetsGetChecked/venture-funding.php</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Seed and Series A lead and Series B investor, DCVC, also materially participated in the round. With this new funding, Pivot Bio will accelerate its plans to scale its first-to-market microbial nitrogen technology that increases crop yields and farmer revenue. The technology will also aid in decreasing greenhouse gas emissions, water pollution, and global energy use related to the $65 billion global synthetic nitrogen fertilizer market. Pivot Bio PROVEN™, the company's inaugural product for corn, consistently delivers more nitrogen into the crop than synthetic nitrogen, translating to an average of 5.8 bushels per acre advantage when compared to fields using only synthetic nitrogen in 2019.By adopting Pivot Bio's cleaner nitrogen, agriculture will simultaneously achieve more consistent yields and eliminate one gigaton of carbon dioxide-equivalent emissions (akin to removing 216 million cars off the road). Additionally, water-borne nitrates will be reduced, avoiding an estimated $4.1 billion in U.S. water purification costs and significantly reducing the dead zones in our oceans. These reductions are driven by Pivot Bio helping farmers shrink their use of synthetic nitrogen fertilizer by at least 100 million metric tons over the coming decade."Growers and our planet deserve a better fertilizer - one that balances on-farm economics with the farmer's commitment to leave the land better for the next generation, and Pivot Bio's technology helps them do just that," said Karsten Temme, Ph.D., CEO and co-founder of Pivot Bio. "The strong backing by our Series C investors enables Pivot Bio to redefine the future of fertilizer and provide the world's farmers with a new nitrogen source. Based on remarkable demand, we expect to ramp up from our large current footprint to millions of additional acres in the next growing season."Pivot Bio PROVEN™ - in its second year of commercialization - has again sold out and is used on hundreds of thousands of acres of U.S. corn as farmers seek cleaner nitrogen technology that can increase their profitability. Pivot Bio will deploy Series C capital to rapidly expand internationally. Pivot Bio PROVEN™ will soon be available to Argentinian corn farmers, and through IN10T's FarmerTrials, Pivot Bio will launch Intent to Pivot on-farm corn trials for Canadian growers. Earlier this spring, the company launched its inaugural product for U.S. wheat crops, Pivot Bio RETURN™, through a limited, early-adopter program."Pivot Bio's microbial nitrogen fertilizers are revolutionizing how farmers apply nitrogen to their crops, and we're excited to continue our investment to support this important mission," said Carmichael Roberts of Breakthrough Energy Ventures. "The company is leading the charge on truly sustainable farming techniques, and we're confident that they'll continue to innovate their product offerings to solve this critical climate and societal challenge."Manufactured, sold, and distributed to farmers in a radically different model from traditional synthetic nitrogen fertilizer, Pivot Bio's approach uses significantly less energy than the manufacturing of synthetic fertilizer, eliminates 99.5% of greenhouse gas emissions during its production, and is delivered through regular shipping carriers. This model eliminates the costly infrastructure of factories, pipelines, barges, and storage at brick-and-mortar retail locations. Instead, local trusted agronomic advisors can leverage a simplified mobile app to order and schedule on-demand delivery as they help farmers plan their nutrient management strategy."Pivot Bio is addressing one of the most difficult challenges facing agriculture in the 21st century - reducing dependence on damaging synthetic fertilizer while increasing crop yields and creating better outcomes for farmers," said Matt Ocko, Managing Partner, DCVC. "DCVC led Pivot Bio's early rounds and remains a major backer because we believe the company will truly transform global agricultural practices. We're pleased the company continues to bring its microbial nitrogen technology to new crops and new locations, across America and around the world.""Farmer acceptance of our technology and support of our vision is far beyond our expectations," said Temme. "They understand the economics and efficiencies our product offers - more consistent yields, 100 percent nitrogen efficiency with the crop, and a lighter environmental footprint. It's a triple bottom line for them and our planet."Series C is co-led by return Series B investors Breakthrough Energy Ventures and Temasek and are joined by DCVC who led Pivot Bio's seed and Series A rounds; Prelude Ventures; Spruce Capital Partners; Codon Capital; Bunge Ventures; Continental Grain Company; Tekfen Ventures; Pavilion Capital; and individual investors Alan Cohen and Roger Underwood. To date, the company has raised $186 million in capital.About Pivot BioAt Pivot Bio, we believe in meeting the needs of the present without compromising the needs of future generations. Our unparalleled understanding of the crop microbiome will help create a future with cleaner water and air. We are dedicated to providing farmers with solutions, so they can grow high-quality, environmentally-responsible and sustainably focused food crops that help feed families worldwide. For more information, visit www.pivotbio.com and follow @pivotbio on Twitter.</t>
+          <t>According to MobiHealthNews, LetsGetChecked has wrapped up an oversubscribed $71 million Series C round co-led by Illumina Ventures and HLM Venture Partners.The raise also included new backers Deerfield, CommonFund Capital and Angeles Investments, while investors Transformation Capital, Optum Ventures and Qiming Venture Partners USA returned to further fuel the startup's business. With this, Illumina's Nick Naclerio, founding partner, and HLM's Steven Tolle, partner, will be joining LetsGetChecked's board as members.WHAT IT DOESFounded in 2014, LetsGetChecked provides consumer customers with a range of at-home testing kits, such as ones for hormone levels, sexually transmitted infections, liver performance, nutrition and - specifically for frontline healthcare workers - COVID-19.Customers receive their kit in the mail, with which they collect and return a personal sample for testing. One of the startup's lab partners analyzes the sample and returns it to a LetsGetChecked physician, who reviews the results and counsels customers - over the phone, if necessary. For later reference, test results are saved in a LetsGetChecked patient app that interfaces with Apple Health, Fitbit, Garmin and other consumer-friendly health tools.As of March, the company has also been offering a COVID-19 "twin-track" antibody and PCR test exclusive to providers working at the point of care. However, the company said it hopes to release a direct-to-consumer version of the testing kit down the road."The company's work has never been more important now that the world faces a global pandemic, forcing us all to re-evaluate how we obtain health and wellness services," Illumina's Naclerio said in a statement. "LetsGetChecked is already having a profound impact on patient-led at-home healthcare, which is necessary now and will become increasingly common in the future."WHAT IT'S FORThe company said these funds will help build up its manufacturing, supply and testing capacity for COVID-19. It will be increasing activity at its California laboratory while boosting operations and partnerships across the U.S. and Europe."We have been developing our platform for more than five years and have helped hundreds of thousands of individuals by enabling access to high-quality testing and telehealth services in the home, across many health conditions," Peter Foley, CEO and founder of LetsGetChecked, said in a statement. "With the onset of COVID-19, we realigned resources with a view to helping with this global pandemic and are currently delivering tens of thousands of tests per day to critical and frontline healthcare workers"MARKET SNAPSHOTConsumer-facing home testing startups were already picking up momentum around the time of LetsGetChecked's $30 million Series B, with competitors like EverlyWell, healthy.io and Scanwell Health all announcing new rounds or services over the course of the last year. However, COVID-19 has ramped up demand across the industry and led to some confusion with the FDA on more than one occasion. But the window for these companies to take their COVID-19 tests directly to consumers appears to be reopening: It was just a few weeks ago that LabCorp's COVID-19 RT-PCR test became the first permitted for at-home sample collection.ON THE RECORD"HLM invests in companies that inherently drive adoption due to the need they serve, and companies that leverage important market trends," Tolle said in a statement. "In this case, LetsGetChecked is helping to improve consumer access to care, which is increasingly essential."</t>
         </is>
       </c>
     </row>
@@ -2819,47 +2807,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Superior Sensor Technology</t>
+          <t>Invisible AI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Superior Sensor Technology was established with the objective to revolutionize the high-performance, cost-driven pressure sensor market by developing integrative, high-performance cost-efficient solutions for industrial, HVAC and medical applications. The company's technology is based on a proprietary platform, called NimbleSense™, which significantly improves overall sensor performance while adding proprietary application-specific system features. Superior Sensor Technology was founded in 2016 and is based in Santa Clara, California.</t>
+          <t>Invisible AI is a visual intelligence platform that's building the next generation of computer vision solutions for manufacturing. Headquartered in San Francisco, CA, the company's founding team comes from the world of autonomous vehicles, having previously developed state-of-the-art AI systems. Invisible AI has built an intelligent camera that tracks body posture and movement to automatically monitor assembly processes, and works with operators to ensure high production quality.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Venture</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>$4,500,000</t>
+          <t>$3,600,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Superior Sensor Technology Inks $4.5M</t>
+          <t>Invisible AI Raises $3.6M Seed Round</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/superior-sensor-technology/venture-capital-funding/qlcjltkgkj</t>
+          <t>https://vcnewsdaily.com/invisible-ai/venture-capital-funding/hzqgmnqgjj</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>SANTA CLARA, CA, Superior Sensor Technology announced it has secured $4.5 million in funding.</t>
+          <t>SAN FRANCISCO, CA, Invisible AI, a next-generation computer vision company, today announced that it has raised a $3.6 million seed round, led by 8VC.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2869,12 +2857,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Superior%20Sensor%20Technology/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Invisible%20AI/venture-funding.php</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Superior Sensor Technology, a developer of advanced pressure sensors for industrial, HVAC and medical equipment, today announced it has secured $4.5 million in funding led by 40 North Ventures, a venture capital subsidiary of Standard Industries Group. This additional funding will provide growth capital to add resources to its marketing and sales efforts while accelerating its product development road map.Superior Sensor Technology was founded in 2016 with the objective to develop cost-efficient, high-performance pressure sensor solutions that enhance performance, reduce system design complexity, and lower manufacturing and installation equipment costs. Using its proprietary NimbleSense™ architecture, the company is setting a new standard of performance for pressure sensors that has resulted in numerous design wins with major industrial, HVAC and medical equipment manufacturers."There has been a broad-based acceptance of this new technology across all geographies, with new designs underway using our HV-Series and SP-Series pressure sensor products," said Jim Finch, CEO of Superior Sensor Technology. "This new round of funding will enable us to better support our growing customer base with the development of advanced pressure sensing solutions for a broader range of applications and increase our marketing, sales and application resources to support this larger product offering for next-generation equipment.""Superior Sensor Technology was the first company to demonstrate the system performance advantages of applying an innovative, fresh technology perspective to the pressure sensing market. As a company deeply entrenched in the industrial commercial market, we believe Superior Sensor Technology has a unique opportunity to become the undisputed leading supplier of pressure sensing solutions into this space," said Marc van den Berg, General Partner of 40 North Ventures.About Superior Sensor Technology:Superior Sensor Technology was established with the objective to revolutionize the high-performance, cost-driven pressure sensor market by developing integrative, high-performance cost-efficient solutions for industrial, HVAC and medical applications. The company's technology is based on a proprietary platform, called NimbleSense™, which significantly improves overall sensor performance while adding proprietary application-specific system features. Superior Sensor Technology was founded in 2016 and is based in Santa Clara, California.About 40 North Ventures40 North Ventures, LP is a $200 million venture fund based in California and related to Standard Industries, a privately held, global, diversified industrial company with interests in building materials, including the world's largest roofing and waterproofing manufacturer. 40 North Ventures provides investors with the opportunity to realize long-term capital appreciation from investments in early- through late-stage venture deals with a focus on emerging technologies in the industrial space.</t>
+          <t>Participating investors include iRobot Ventures, K9 Ventures, Sierra Ventures and Slow Ventures. Invisible AI offers the industry's first no-code, edge-based computer vision platform. Their first application tracks body movement to improve manual assembly processes in manufacturing facilities. Invisible AI's technology augments the workforce by giving operators real-time feedback to increase productivity, improve quality, and ensure safety.Earlier this year, Invisible AI was showcased by Toyota Motor North America as one of four technologies augmenting the workforce on the manufacturing floor of the world's largest automaker."We are proud to be working closely with 8VC and other strategic partners to help us advance the product and meet demand," said Eric Danziger, CEO of Invisible AI. "We are already working with some of the best names in manufacturing, but we believe every organization can benefit from our AI-enabled cameras. Our service helps to assure high quality, a safe workplace, and replicate best practices throughout manufacturing facilities."Introducing Invisible AI's edge computer vision platformBusinesses are starting to rapidly install cameras to gain visibility but this simply increases the burden on employees to review the video to gain insights. Invisible AI instead uses computer vision to help businesses answer critical questions, consistently and inexpensively. Specifically, the inability for manufacturers to monitor assembly processes results in millions of dollars of waste, lost worker time and preventable human injury or error. With this first product, Invisible AI has seen strong demand within top-tier manufacturing companies and this round of funding will be used to rapidly grow the team and expand product capabilities.Invisible AI's low-bandwidth and low-cost cameras can be deployed at each workstation to enable full visibility into assembly processes. This computer vision technology operates entirely at the edge with deep learning models 100x smaller than the current state-of-the-art technology available today. The proprietary, custom solution can be deployed in hours, compared to their competition which typically has a lead time of 8 weeks. There is also built-in privacy, with no video data stored in the cloud and no facial data ever utilized."8VC is excited to help Invisible AI expand its reach and grow its customer base," said Alex Moore, partner at 8VC. "We are convinced that Invisible AI is set to have a huge impact on the $200-billion global manufacturing market, saving money and helping improve processes for a multitude of clients."For more information about Invisible AI, please visit www.invisible.ai.ABOUT INVISIBLE AIInvisible AI is a visual intelligence platform that's building the next generation of computer vision solutions for manufacturing. Headquartered in San Francisco, CA, the company's founding team comes from the world of autonomous vehicles, having previously developed state-of-the-art AI systems. Invisible AI has built an intelligent camera that tracks body posture and movement to automatically monitor assembly processes, and works with operators to ensure high production quality. The company recently closed a seed round led by 8VC, with participation from iRobot Ventures, K9 Ventures, Sierra Ventures and Slow Ventures.</t>
         </is>
       </c>
     </row>
@@ -2884,62 +2872,62 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ontic</t>
+          <t>LimeBike</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The Ontic protective intelligence software platform unifies real-time and historical data related to physical security threats and behaviors of concern, and enables smart collaboration with connected workflows, so security teams can get more relevant intelligence -- faster -- for early threat detection. Ontic's automated, smart and actionable insights allow corporate security and school leaders to better identify pre-incident indicators, assess risk and mitigate potential threats in order to protect employees, facilities, students and schools. Ontic works with Fortune 5000 companies and leading educational institutions today to keep its most prized assets safe -- its people.</t>
+          <t>Lime was focused on the idea that mobility can be smart, equitable, and fun. By connecting cities and improving the way people experience first and last mile transporation, we aim to leave future generations with a cleaner, healthier planet. From smart bikes to electronic scooters ans beyond, weâre committed to building strong social bonds, lasting community relationships, and the worlds most versatile smart mobility fleet.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Venture</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$12,000,000</t>
+          <t>$170,000,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ontic Announces $12M Series A Round</t>
+          <t>Lime Lands $170M Funding Round</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/ontic/venture-capital-funding/tvfbxhqvds</t>
+          <t>https://vcnewsdaily.com/limebike/venture-capital-funding/kktwwvynzx</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>AUSTIN, TX, Ontic has raised $12 million in a Series A funding round.</t>
+          <t>SAN MATEO, CA, Lime has secured $170 million in financing led by Uber Technologies.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>San Mateo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Ontic/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/LimeBike/venture-funding.php</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Ontic, the protective intelligence software platform developed to help businesses proactively address physical safety, announced today it has raised $12 million in a Series A funding round led by Felicis Ventures. All existing investors participated in the round, including Silverton Partners, Floodgate and Village Global. The funding comes on the heels of Ontic's 5X year-over-year growth, increased demand and expanded platform usage from dozens of Fortune 1000 clients."In recent weeks, our clients across all industries have seen a 300 percent increase in COVID-19 and threat-related data. Now more than ever, in the midst of this pandemic health crisis that has remote and mobile workforces always-on across time zones, businesses can't afford to turn a blind eye to the rising threats to their employees, facilities and assets," said Lukas Quanstrom, Chief Executive Officer, Ontic. "Ontic understands that many physical security teams lack a comprehensive view of emerging threats, and vital pre-incident indicators often live in silos across tools and teams, inhibiting collaboration. It is critically important to aggregate and make sense of the data security teams need to proactively connect the dots before it's too late."Ontic's platform connects to hundreds of real-time and historical data points and provides curated access to smart indicators that deliver the most relevant intelligence to security teams - faster - for early threat detection. By unifying critical data related to physical security threats and enabling smart collaboration with connected workflows in a single software platform, Ontic gives security teams the ability to better identify pre-incident indicators, assess risk and mitigate potential threats.Expanded Platform Offers Early Indicators for Internal and External ThreatsFrom helping corporate security and executive protection teams keep external threats at bay, to internal assessments for early indication of workplace violence or insider threats, Ontic's platform enables Fortune 1000 security teams to protect their people, properties and reputation. With the recent launch of two new Ontic Platform modules, Incident Management and Assessments, security teams can better identify, investigate and prevent employee behavioral issues before an incident takes place. For example, given the significant growth of the on-demand economy, especially during the COVID-19 crisis, Ontic has seen a large demand in supporting delivery and driver programs by managing the investigative workflow required to keep these employees and their customers safe."Protective intelligence is the last key segment of security that has been largely untouched by innovation over the last decade. Intelligence is still managed today in a manual way with disparate point solutions at a time when the level of data about threats is exploding across social media, visitor management, and other public and private data sources," said Victoria Treyger, General Partner and Managing Director at Felicis Ventures. "We invested in Ontic because we believe its platform will become the definitive system of record for the intelligence vertical and look forward to working with the Ontic team to help them achieve this vision."The $12 million investment will be used to fuel the expansion of Ontic's footprint across enterprise businesses and family offices while accelerating product development and expanding sales to enter new markets.About OnticThe Ontic protective intelligence software platform unifies real-time and historical data related to physical security threats and behaviors of concern, and enables smart collaboration with connected workflows, so security teams can get more relevant intelligence - faster - for early threat detection. Ontic's automated, smart and actionable insights allow corporate security and school leaders to better identify pre-incident indicators, assess risk and mitigate potential threats in order to protect employees, facilities, students and schools. Ontic works with Fortune 5000 companies and leading educational institutions today to keep its most prized assets safe - its people.About Felicis VenturesFounded in 2006, Felicis Ventures is a venture capital firm that has backed 28 companies valued at $1B or more. Felicis invests in iconic companies reinventing core markets, as well as those creating frontier technologies. More than 80 Felicis portfolio companies have been acquired or gone public, including Adyen (IPO), Guardant Health (IPO), Fitbit (IPO), Shopify (IPO), Meraki (acquired by Cisco), Twitch (acquired by Amazon) and Ring (acquired by Amazon). To learn more, please visit www.felicis.com.</t>
+          <t>Uber Technologies Inc. is leading an investment round of $170 million in scooter-rental company Lime, a lifeline for a startup reeling from plunging customer numbers and company-wide layoffs.Alphabet Inc., GV and Bain Capital Ventures, along with other new and existing stakeholders, also participated, Lime said in a statement on Thursday. As part of the deal, Lime will acquire Uber's Jump bike-sharing business operations and the two companies will expand the integration of their mobile apps.The investment round valued Lime at $400 million, a person familiar with the terms said, asking not to be identified because they're private. That's a massive drop from the $2.4 billion investors priced the company at in a funding round last year. Lime didn't comment on the valuation in the statement.Venture capitalists have invested more than $1 billion in the last few years in two startups renting electric scooters -- Lime and Bird -- but they began falling out of favor this year. First unprofitable business models fell out of fashion, and then the pandemic kept customers stuck at home. Both companies had to drastically reduce their fleets by mid-March.Lime said in January it was cutting 14% of staff, about 100 employees, and retreating from a dozen markets in a drive toward profitability. In March it said it was "winding down or pausing" service in all markets but South Korea. And in April, further job cuts were announced.Lime said its chief executive officer, Brad Bao, would be replaced by Wayne Ting, previously the company's head of operations. Bao will continue as board chairman.Global self-isolation measures and government bans on travel had decimated Lime's ability to generate revenue from the hundreds of thousands of scooters it has around the world. The company went from 147,000 scooter trips globally on March 14 to about 52,000 three days later as Europe went into lockdown.Scooter companies are also suffering from a sharp decline in transportation spending and a newfound aversion to the sharing economy. This combination of factors is also weighing heavily on Airbnb Inc., Getaround Inc., Lyft Inc. and Uber. Lyft said Wednesday that it's cutting 17% of its workforce.</t>
         </is>
       </c>
     </row>
@@ -2949,62 +2937,62 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Material Bank</t>
+          <t>Braid Health</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Material Bank is a marketplace for design professionals and brands in the architecture and design industry, providing the fastest and most powerful way to discover and sample materials. The revolutionary platform powers complex searches across hundreds of brands in seconds. Samples ordered by midnight (ET) are delivered in a single box by 10:30 AM the next day-always free for design professionals. With a rapidly growing community of members, Material Bank is the easiest way for brands to connect with thousands of vetted design professionals in the specification process. Follow Material Bank via LinkedIn and Instagram.</t>
+          <t>Braid Health is a digital health innovation company focused on the development and delivery of an AI powered diagnostic collaboration platform for radiology and the healthcare industry. Headquartered in San Francisco, CA, the company was founded in 2018 by Kevin Quennesson and Alessandro Sabatelli, developers behind the Apple Watch, iPhone and Siri.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Seed and Series A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$28,000,000</t>
+          <t>$9,000,000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Material Bank Scores $28M</t>
+          <t>Braid Health Pulls In $9M</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/material-bank/venture-capital-funding/bpwycxmkjx</t>
+          <t>https://vcnewsdaily.com/braid-health/venture-capital-funding/pmqgfzynvc</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>NEW YORK, NY, Material Bank announced it has secured $28 million in Series B funding led by Bain Capital Ventures.</t>
+          <t>SAN FRANCISCO, CA, Braid Health has announced the close of $9 million in seed and Series A investment rounds.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Material%20Bank/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Braid%20Health/venture-funding.php</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Material Bank, the technology and logistics company revolutionizing the $140 billion architecture and design materials industry, today announced it has secured $28 million in Series B funding led by Bain Capital Ventures. This round, which also included existing investors such as Raine Ventures and Barry Sternlicht, co-founder, chairman and CEO of Starwood Capital Group, brings Material Bank's total funding to date to $55 million. Merritt Hummer, partner at Bain Capital Ventures, and Jeff Sine, co-founder and partner at The Raine Group, will join Material Bank's Board of Directors.Material Bank will use the funding to accelerate expansion into new categories, build a new robotic logistics facility to support increased demand, and further develop its SaaS platform. For Q1 2020, Material Bank recorded 45% quarter-on-quarter revenue growth and the company is on track to grow revenue 200% and will double its participating brands in 2020.Material Bank is the world's largest material marketplace of its kind. It simplifies the complex process of material search and sampling by enabling architects, designers, and corporate buyers to search hundreds of thousands of materials such as paint, flooring, and textiles across hundreds of vendors. Material Bank's powerful database is combined with its propriety robotic distribution facility, allowing users to order samples until midnight (ET) to be delivered free of charge anywhere in the US, in one box, by 10:30 AM the next morning. Material Bank also significantly improves the sustainability of the design industry by reducing the number of inbound packages to firms by over 70%. "Our mission is to remove the friction that exists when searching and sampling materials. Material Bank has almost doubled its member base within the last six months and is rapidly transforming the architecture and design industry," said Material Bank founder and CEO Adam I. Sandow. "Our dramatic growth is a result of the changing demands of the industry and our ability to efficiently serve them. We're thrilled to announce support from Bain Capital Ventures during this time of rapid expansion."Material Bank has over 35,000 approved members who use the platform to source billions of dollars of materials for more than 75,000 construction and design projects since its official launch in January 2019. "Material Bank is a perfect fit with Bain Capital Ventures' mission of investing in industry-leading B2B companies. We are excited about the potential of online marketplaces to transform the B2B commerce landscape, and Material Bank's exponential growth over the past year shows they are very well positioned to become the dominant marketplace in the materials industry," said Merritt Hummer, partner at Bain Capital Ventures.In today's rapidly changing environment, Material Bank is uniquely positioned to help drive the industry forward while design professionals adapt to working differently. Material Bank is used by architects, designers and corporate buyers from a wide range of industries, including real estate, government, retail, healthcare, education and hospitality.  About Material BankMaterial Bank is a marketplace for design professionals and brands in the architecture and design industry, providing the fastest and most powerful way to discover and sample materials. The revolutionary platform powers complex searches across hundreds of brands in seconds. Samples ordered by midnight (ET) are delivered in a single box by 10:30 AM the next day-always free for design professionals. With a rapidly growing community of members, Material Bank is the easiest way for brands to connect with thousands of vetted design professionals in the specification process. Follow Material Bank via LinkedIn and Instagram.About Bain Capital VenturesBain Capital Ventures partners with disruptive founders to accelerate their ideas to market. The firm invests from seed to growth in startups driving transformation across industries, from SaaS, infrastructure software and security to fintech and healthcare to commerce and consumer tech. The firm has helped launch and commercialize more than 240 companies, including DocuSign, Jet.com, Kiva Systems, Lime, LinkedIn, Rapid7, Redis Labs, Rent the Runway, Rubrik, SendGrid and SurveyMonkey. Bain Capital Ventures has $5.2 billion in assets under management with offices in San Francisco, New York, Boston and Palo Alto. Follow the firm via LinkedIn and Twitter.</t>
+          <t>Braid Health, a digital health innovation company that develops AI-powered diagnostic tools for radiology, today announced the close of $9 million in seed and Series A investment rounds led by Lux Capital. Venture capital firms 01 Advisors, formed by top Twitter executives Dick Costolo and Adam Bain, and Rucker Park Capital also participated in the financing.Braid Health combines AI-powered diagnostics with board-certified radiologists to unlock the next generation of augmented radiology. Whereas imaging technology can be slow, cumbersome and difficult to share with patients, Braid Health offers urgent care centers, health systems and retail pharmacies an AI-powered, end-to-end teleradiology platform built from the ground up with speed, accuracy, security and mobility in mind."At Lux Capital, we invest at the outermost edges of what is possible," says Zavain Dar, partner at Lux Capital and Braid Health board member. "Kevin Quennesson and Alessandro Sabatelli founded Braid Health to challenge the status quo in medical imaging and diagnostics at a time when a growing aging population is straining the ability of teleradiology firms and urgent care centers to meet patient demand. We are excited to support their innovative approach to delivering nearly instant access to the best possible imaging diagnostics in the world."Braid Health will use proceeds of the financing to:-Hire the most experienced team in healthcare technology.-Build the healthcare industry's most advanced, AI-driven diagnostic imaging platform.-Develop the Braid Network, a technology platform connecting a virtual network of healthcare specialists to improve care delivery and drive cost out of the system."Since our founding in 2018, Braid Health has been committed to delivering expert diagnosis at significantly lower costs and faster turnaround times," said Kevin Quennesson, CEO and co-founder of Braid Health. "Today, as we reinvent the imaging experience and enhance diagnostic accuracy by bringing expanded capabilities to market, we are honored to have the support of visionary investors who believe in our mission of universal access to medical expertise."About Braid.HealthBraid Health is a digital health innovation company focused on the development and delivery of an AI powered diagnostic collaboration platform for radiology and the healthcare industry. Headquartered in San Francisco, CA, the company was founded in 2018 by Kevin Quennesson and Alessandro Sabatelli, developers behind the Apple Watch, iPhone and Siri. The company is backed by Lux Capital and other prominent investors including former Twitter CEO and COO Dick Costolo and Adam Bain. To learn more, visit braid.health.</t>
         </is>
       </c>
     </row>
@@ -3014,62 +3002,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Guilded</t>
+          <t>Every Mother</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Guilded is the ultimate chat platform for gaming communities. Founded in 2017 by Eli Brown, a former pro gamer who played an integral role on Instagram's Growth Team and Microsoft's Xbox team, Guilded serves the world's top professional esports teams and over 50,000 high school, collegiate, casual and semi-pro teams.</t>
+          <t>Every Mother is designed for women at all stages of motherhood, from those first moments of pregnancy to decades after giving birth. We offer an evidence-based pre and postnatal fitness exercise program (previously known as The Dia Method) proven to prevent and resolve diastasis recti and improve core strength and function while building total body fitness through safe, effective workouts.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$7,000,000</t>
+          <t>$1,500,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>30 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Guilded Pulls In $7M Series A Financing</t>
+          <t>Every Mother Collects $1.5M Seed Round</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/guilded/venture-capital-funding/vrjcqgmzzr</t>
+          <t>https://vcnewsdaily.com/every-mother/venture-capital-funding/txzsdrgrzg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO, CA, Guilded has raised $7 million in Series A financing to provide the ultimate chat platform for gaming communities.</t>
+          <t>BROOKLYN, NY, Every Mother has raised a $1.5 million seed round led by Courtside Ventures.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Brooklyn</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Guilded/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Every%20Mother/venture-funding.php</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>The funding was led by Matrix Partners, with participation from Initialized Capital, Susa Ventures, and Sterling.VC. Ilya Sukhar, general partner at Matrix Partners, joined the Board of Directors as part of the investment."Today, gaming communities use a variety of tools to chat and to organize, but none of them are built for them," said Eli Brown, founder and CEO, Guilded. "We're building the world's best platform for connecting communities - and we're building it specifically for gamers."Guilded will use the capital to strategically expand the company's world-class team, build out powerful features and functionality, and create strategic partnerships with top games publishers and developers, as well as esports teams and organizations."Eli and Guilded are building the gaming community tools I wish I had when I was a teenager with an Everquest guild," said Alexis Ohanian, managing partner at Initialized Capital. "We're excited to support them on the next phase of their journey as they start to support tournaments, voice, video and more."Guilded has already built an array of powerful features for gaming communities into the platform, including robust voice and video chat, group calendars and scheduling tools, and more. In June, Guilded will launch its highly-anticipated Tournaments feature, bringing integration with its full suite of advanced collaborative tools to the world of esports leagues and tournament management."We are very excited about Guilded and Eli's mission," said Ilya Sukhar, general partner, Matrix Partners. "Guilded is already a superb product, and it has the potential to become the go-to platform for gamers of all stripes, from casual gaming communities to esports teams."To learn more about the company and its vision, visit: www.guilded.ggAbout Guilded:Guilded is the ultimate chat platform for gaming communities. Founded in 2017 by Eli Brown, a former pro gamer who played an integral role on Instagram's Growth Team and Microsoft's Xbox team, Guilded serves the world's top professional esports teams and over 50,000 high school, collegiate, casual and semi-pro teams. The company is backed by Y Combinator, Matrix Partners, Initialized Capital, Susa Ventures, Sterling.VC, ZhenFund, and Liquid 2 ventures.</t>
+          <t>According to TC, Every Mother has raised a $1.5 million seed round led by Courtside Ventures, with participation from Serena Williams' Serena Ventures, Techstars Ventures, The Fund and prominent angels Robin Berzin of Parsley Health and Ilia Papas of Blue Apron.Every Mother is designed for women at all stages of motherhood, from those first moments of pregnancy to decades after giving birth. We offer an evidence-based pre and postnatal fitness exercise program (previously known as The Dia Method) proven to prevent and resolve diastasis recti and improve core strength and function while building total body fitness through safe, effective workouts.</t>
         </is>
       </c>
     </row>
@@ -3079,62 +3067,62 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Stash</t>
+          <t>Sleuth</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Stash is the fast-growing investment app for millennials. People can choose where to invest their money, starting with as little as $5, and receive ongoing guidance from the Stash Advisor. Based in New York City, Stash was started in February 2015 by serial entrepreneur David Ronick and Wall Street veterans Brandon Krieg and Ed Robinson.</t>
+          <t>Deployment tracking, move fast without breaking things. When a deployment causes downtime, reduced performance, or customer facing bugs, Sleuth knows. Drawing from the best in class tools your engineering teams already use such as source control, APM, issue and error tracking. We equip your teams with the data needed to dramatically reduce downtime!</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$112,000,000</t>
+          <t>$3,000,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>29 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Stash Raises $112M in Series F Funding</t>
+          <t>Sleuth Snares $3M Seed Financing</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/stash/venture-capital-funding/ssqbccghjt</t>
+          <t>https://vcnewsdaily.com/sleuth/venture-capital-funding/wzspdptbqz</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>NEW YORK, NY, Stash has raised a $112 million Series F round of funding led by LendingTree.</t>
+          <t>SAN FRANCISCO, CA, Sleuth announced it has raised a $3 million seed round led by CRV.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Stash/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Sleuth/venture-funding.php</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Stash has raised a $112 million Series F round of funding led by LendingTree. Other participating investors include T. Rowe Price Associates, Inc., Breyer Capital, Goodwater Capital, Greenspring Associates, and Union Square Ventures.Stash is the fast-growing investment app for millennials. People can choose where to invest their money, starting with as little as $5, and receive ongoing guidance from the Stash Advisor. Based in New York City, Stash was started in February 2015 by serial entrepreneur David Ronick and Wall Street veterans Brandon Krieg and Ed Robinson.</t>
+          <t>According to TC, Sleuth announced it has raised a $3 million seed round. CRV led the round with participation from angel investors from New Relic, Atlassian and LaunchDarkly.Deployment tracking, move fast without breaking things. When a deployment causes downtime, reduced performance, or customer facing bugs, Sleuth knows. Drawing from the best in class tools your engineering teams already use such as source control, APM, issue and error tracking. We equip your teams with the data needed to dramatically reduce downtime.</t>
         </is>
       </c>
     </row>
@@ -3144,62 +3132,62 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fat Snax</t>
+          <t>VNDLY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fat Snax has been providing low-carb, yet indulgent, snacks and desserts to customers since 2017. The brand began when founder Jeffrey Frese set out to solve his own desire for delicious, nostalgic desserts using clean ingredients minus any grains or added sugar. Today, Fat Snax offers four flavors of their soft-baked cookies, along with Brownie Bites and Blondie Bites. The products can be found at FatSnax.com or at more than 4,000 retail locations nationwide, including Kroger, Sprouts, Whole Foods Market, The Vitamin Shoppe, Wegmans, and H-E-B.</t>
+          <t>Founded in 2017, VNDLY transforms how companies manage the contingent workforce. With its SaaS Work Management System (WMS), companies can manage the entire non-employee engagement lifecycle from talent acquisition to training to payment and off boarding. The VNDLY WMS applies sophisticated algorithms, Machine Learning (ML) and Artificial Intelligence (AI) technology to automate manual tasks, increasing efficiency and productivity in today's digital and agile environment. Unlike legacy VMS offerings, VNDLY uses an "outcomes"-based management, rather than a traditional "process" based approach, giving organizations worldwide the opportunity to execute projects in a timely and cost effective manner. The VNDLY platform is comprised of four major modules: Contingent Workforce Management, Statement of Work (SoW) Management, Independent Contractor (IC) Compliance and Total Talent Acquisition.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B-1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$4,500,000</t>
+          <t>$8,500,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>29 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Fat Snax Closes $4.5M Series A</t>
+          <t>VNDLY Receives $8.5M in Series B-1</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/fat-snax/venture-capital-funding/hvxrsfxxtr</t>
+          <t>https://vcnewsdaily.com/vndly/venture-capital-funding/cnqpgpjqgz</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BROOKLYN, NY, Fat Snax has closed a $4.5M Series A funding led by BFG Partners.</t>
+          <t>CINCINNATI, OH, VNDLY announced its most recent round of Series B-1 funding of $8.5 million led by Madrona Venture Group.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Brooklyn</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Fat%20Snax/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/VNDLY/venture-funding.php</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Fat Snax, the leading low-carb &amp; keto snack brand, announced this week the closing of a $5mm Series A funding led by BFG Partners and BIGR (Boulder Investment Group Reprise) Ventures. The Brooklyn-based brand, which launched their cookies online in March 2017, anticipates significant growth in 2020, fueled by this round of financing.An initial direct-to-consumer strategy enabled the brand to perfect their recipes and develop a deep understanding of customer needs. In just six months, Fat Snax became the top selling keto cookie brand online, and has since accelerated growth by focusing on retail expansion. The company can now be found nationally in Whole Foods Market, Sprouts, Kroger, and Wegmans, among others, and anticipates being in over 6,000 retail doors by the end of 2020.The funding, which represents the first outside investment into Fat Snax, will stimulate growth of the brand's retail footprint for current product lines including cookies, brownies, and blondies. It will also support the launch of the brand's newest innovations: Almond Flour Crackers and Mini Cookies. "Leveraging this capital and these key partners allows us to increase distribution and launch new product lines," said Founder Jeffrey Frese. "We are now in a strong position to support the accelerated growth that we've always envisioned.""We're eager to support Jeff Frese and the Fat Snax team through this period of rapid growth," said BFG Vice President Tyler Morgan. "Fat Snax is already a leader in the low-carb, low-sugar snacking space and we anticipate demand for these products will only continue to accelerate.""BIGR has been following the keto &amp; low-carb trends closely over the past few years," said Duane Primizich, managing partner at BIGR. "Fat Snax was a perfect fit as they continue building a strong brand that embodies great tasting, low-carb snacking and we've been particularly impressed with the hustle, grit and creativity of the team." Since 2019, Fat Snax has worked closely with Presence Marketing, owned by BIGR managing partner Bill Weiland."Our mission has always been to bring delicious, low-carb snacking to the masses, and I'm confident that we're working with the best possible partners to help us do that," added Frese. "Demand for Fat Snax has continued to skyrocket, and this capital will help us launch new flavors and meet retailer and online demand."About Fat SnaxFat Snax has been providing low-carb, yet indulgent, snacks and desserts to customers since 2017. The brand began when founder Jeffrey Frese set out to solve his own desire for delicious, nostalgic desserts using clean ingredients minus any grains or added sugar. Today, Fat Snax offers four flavors of their soft-baked cookies, along with Brownie Bites and Blondie Bites. The products can be found at FatSnax.com or at more than 4,000 retail locations nationwide, including Kroger, Sprouts, Whole Foods Market, The Vitamin Shoppe, Wegmans, and H-E-B.About BFGBoulder Food Group ("BFG"), based in both Boulder and Los Angeles, is a venture capital fund which seeks to partner with early stage food and beverage consumer product companies. BFG works alongside exceptional entrepreneurs to ensure the business is able to deliver sustainable growth and outperform its competitors. BFG was founded by Tom Spier, a Co-Founder of EVOL Foods (acquired by Boulder Brands) and COO of Bear Naked (acquired by Kellogg's). (http://www.bfgpartners.com)About BIGR VenturesFounded by proven industry veterans Carole Buyers, Duane Primozich, and Bill Weiland in December 2015, BIGR Ventures is a growth equity fund providing value-added, strategic partnership and capital to promising early-stage natural and organic product companies. Headquartered in Boulder, CO, and boasting 75+ years of combined natural product experience between its founders, BIGR Ventures leverages unparalleled industry relationships and experience to maximize the potential of promising young companies. (https://bigrventures.com/)</t>
+          <t>VNDLY, a leading cloud-based workforce management systems provider, announced its most recent round of Series B-1 funding -- $8.5 million led by Madrona Venture Group. Madrona's Steve Singh will join the VNDLY board. This brings the company's external funding total to $57.5 million, with the previous Series B investments totaling $35 million in 2019. Madrona Venture Group is a Seattle-based venture firm that has backed many industry-defining technology companies like Amazon, Smartsheet, and Snowflake.Founded in 2017, VNDLY is recognized by industry experts as a top-ranking technology provider in the vendor management systems category (VMS). The company, which already has many Fortune 500 clients, will use the most recent investment to continue its industry-changing innovation, global expansion, and product development that includes building out new software modules. "We're honored that Madrona sees VNDLY in the same light as the other technology greats they stand behind. We know this will be a major driver for us as we move to the next level in our industry, continuing our mission to successfully challenge the status quo offered by legacy VMS firms," said Shashank Saxena, VNDLY's CEO.Singh, the former CEO and co-founder of Concur, joined Madrona earlier this year as a managing director after participating for many years as a strategic advisor and angel investor. Concur was acquired by SAP in 2014 for $8.3 billion.  He remained with the company through 2017 and was responsible for the majority of their cloud businesses, including Ariba, Fieldglass and Concur. Singh currently serves as the Chairman of Talend and on the boards of DocuSign and WaFd Bank.  "As the contract workforce grows, VNDLY's cloud-native vendor management solution gives employers and contractors an AI-based platform that adapts to the changing needs of both groups. I am looking forward to working with Shashank and the VNDLY team to build the market-leading workforce management company," Singh said.Contact:Dominique Castle(513) 572-2512dominique@vndly.com About VNDLYFounded in 2017, VNDLY transforms how companies manage the contingent workforce. With its SaaS Work Management System (WMS), companies can manage the entire non-employee engagement lifecycle from talent acquisition to training to payment and offboarding. VNDLY serves as the ERP system of record for multiple Fortune 500 companies to manage their entire contingent and non-employee workforce on a single platform. VNDLY is a cloud-native platform that helps simplify the implementation, integration, and change management aspects compared to legacy VMS solutions. The VNDLY platform is composed of four modules: contingent workforce management, statement of work (SOW) management, independent contractor (IC) compliance, and total talent acquisition. For more information, please visit www.VNDLY.com.About MadronaMadrona (www.madrona.com) has been investing in early-stage technology companies in the Pacific Northwest since 1995 and has been privileged to play a role in some of the region's most successful technology ventures. The firm invests predominately in seed and Series A rounds across the information technology spectrum, and in 2018 raised a fund to expand initial investments into acceleration stage companies. Madrona manages approximately $1.8 billion and was an early investor in companies such as Amazon, Smartsheet, Rover, and Redfin.</t>
         </is>
       </c>
     </row>
@@ -3209,62 +3197,62 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wise</t>
+          <t>Knock CRM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Founded in December 2018, Wise, a Techstars NYC company, headquartered in San Mateo, CA, is a FinTech that offers modern businesses a seamless way to bank, pay, and get paid without any anxiety, frustration, or hassle. Wise embeds its all-in-one banking solution, making it readily available in platforms and marketplaces to help businesses get ahead financially.</t>
+          <t>Knock is an award-winning platform that maximizes the marketing and sales performance of apartment buildings through CRM and communications technology. Multifamily property management companies rely on Knock to easily organize communication across every channel, coordinate and schedule tours and track overall marketing and leasing effectiveness, driving better performance and boosting profits.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$5,700,000</t>
+          <t>$12,000,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>29 Apr 2020</t>
+          <t>07 May 2020</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Wise Raises $5.7M Seed Round</t>
+          <t>Knock Announces a $12M Series B Round</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/wise/venture-capital-funding/nxkyrrmvsy</t>
+          <t>https://vcnewsdaily.com/knock-crm/venture-capital-funding/cgdfndxcmq</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>SAN MATEO, CA, FinTech startup that offers banking and payments services has raised $5.7M in a seed round led by Base10 Partners.</t>
+          <t>SEATTLE, WA, Knock has announced a $12 million Series B investment round led by Madrona Venture Group.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>San Mateo</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://vcnewsdaily.com/Wise/venture-funding.php</t>
+          <t>https://vcnewsdaily.com/Knock%20CRM/venture-funding.php</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Wise, a FinTech startup that offers banking and payments services to modern businesses, announced today that it has raised $5.7M in a seed round led by Base10 Partners' Rexhi Dollaku. Abstract Ventures, Backend Capital, The Fund, Two Culture Capital, and notable angels such as Michael Vaughan, Jonathan Weiner, Lawrence Chu, Inaki Berenguer and others also participated in the round."Modern businesses are increasingly digital, but their banking experience is still frustratingly physical," said Arjun Thyagarajan, Co-Founder and CEO of Wise. "Businesses that bank with Wise get access to their hard earned cash faster, in a delightful, modern banking experience that's designed for them - all without ever stepping foot in a bank branch."Pushkar Phatak, owner of e-bikes store Watt Wagons that is built on Shopify, commented, "Wise has changed how I run my business. With Wise, I can access my business' cash faster, and it's integrated entirely into my Shopify experience. Now I can worry less about banking and spend more time on what I enjoy - building bikes.""We are excited to embed our banking functionality directly into digital platforms or ecosystems that create or service businesses, like Shopify," said Arjun. "For too long, these platforms have forced their customers to work with banking providers that are not designed for their business or integrated into the platform. We will be launching more of these platform developer tools so that digital platforms can, for the first time, create a modern, delightful banking experience for their customers too."In addition to the funding, Wise is excited to welcome Raghav Lal - former Chief Credit Officer at American Express and General Manager of Small Business at Visa - as President. Raghav commented, "Over the last two decades, I've proudly served small businesses. I look forward to working closely with Arjun, executing on Wise's vision of embedding banking functionality into digital ecosystems, and ultimately helping small businesses accelerate their cashflow and succeed.""Wise is making huge strides in redefining banking for the real economy, and we are excited to be investing and supporting that change," said Rexhi Dollaku, Principal at Base10 Partners. "We believe Wise's banking experience has the potential to create a category-defining company, and we are thrilled to enable our online platform partners to provide a better banking experience and ultimately serve their customers better."This announcement follows the launch of Wise's FDIC-insured business checking account in partnership with BBVA. Wise now powers over a thousand modern businesses. Wise's mission is to be alongside ambitious businesses, every step of the way.About WiseFounded in December 2018, Wise, a Techstars NYC company, headquartered in San Mateo, CA, is a FinTech that offers modern businesses a seamless way to bank, pay, and get paid without any anxiety, frustration, or hassle. Wise embeds its all-in-one banking solution, making it readily available in platforms and marketplaces to help businesses get ahead financially. For more information about Wise and its products, visit wise.us.About Base10 PartnersBase10 is an early-stage venture firm investing in Automation for the Real Economy. Founded by Adeyemi Ajao and TJ Nahigian, the firm focuses on Automation impacting many sectors of the Real Economy, including transportation, hardware manufacturing, logistics, and construction. Notable portfolio investments include ThePillClub, Shipwell, Reflektive, and Wonolo. Headquartered in San Francisco, Base10 currently has $137M in assets under management. Connect via base10.vc.</t>
+          <t>Knock has announced a $12 million Series B investment round led by Madrona Venture Group, with participation from Lead Edge Capital and Seven Peaks Ventures.Knock is on a mission to make it as easy to trade-in your home as it is to trade-in your car. We bring certainty, convenience and cost-efficiency to home buying and selling. Knock envisions a world where mobility is easier and simpler for the 64% of home sellers who are also buying their next home at the same time. We buy your new home on your behalf so you can move in before we represent you in the sale of your old home on the open market.</t>
         </is>
       </c>
     </row>
@@ -3274,56 +3262,2181 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>emTrain</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Emtrain's workplace culture platform reinvents compliance training with provocative content that sparks dialogue and unique culture analytics that drive individual and organizational behavior change. Emtrain.ai allows you to benchmark your culture against our global community to identify issues before they become toxic problems that become compliance issues and destroy culture. Emtrain partners with industry experts and uses current events to teach on topics such as sexual harassment, unconscious bias, and ethics. Emtrain's innovative platform is used by more than 800 companies, such as Netflix, Yelp, Dolby, LiveNation, and others. Recognized by Fast Company as an Honorable Mention in its "World Changing Ideas 2020" list, Emtrain is a woman-owned and women-led company.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Growth</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>$8,000,000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>06 May 2020</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Emtrain Grabs $8M in Growth Capital</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/emtrain/venture-capital-funding/zyjbkxnfhx</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO, CA, Emtrain announced it received $8 million in growth capital funding, led by Education Growth Partners.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Emtrain/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Emtrain, an online workplace culture platform that helps companies diagnose, benchmark and prevent bad workplace culture outcomes, today announced it received $8 million in growth capital funding, led by Education Growth Partners ("EGP"), a private equity firm dedicated to providing growth capital to proven, high potential human development and workplace companies. Signature Bank, a New York-based full-service commercial bank with 31 private client offices nationwide, serves as Emtrain's banker and provided a $2 million facility to complement the equity investment.EmtrainEmtrainThe new funding will enable Emtrain to expand its culture tech platform to provide on-demand monitoring and analysis of key indicators that are the foundation of healthy workplace culture. Not only does Emtrain's solution meet increasing state and federal compliance training regulations, but it also diagnoses issues that are otherwise invisible to business leaders and benchmarks those issues against a global average so that internal stakeholders know where to focus their time and attention for maximum and measurable results. The diagnostic tool and data provide a win/win for employers and employees who both want to prevent these issues but lack the visibility, tools and organizational structure to do so effectively.Emtrain's recently launched Emtrain.ai solution has already collected over seven million employee sentiment responses about core culture indicators that exist in organizations such as power dynamics; in-group/out-group dynamics; unconscious biases and other indicators that correlate with a higher risk for bad culture outcomes. The company's initial report, Emtrain's 2020 Workplace Culture Report, published in March, shows that only 17% of employees will report sexual harassment to HR if they see or experience it.  Other data is consistent in that it shows employees don't typically report problems. The result is these problems remain invisible to HR and compliance leaders until there's an explosive incident that rocks the culture. "Our changing demographics, social norms and current tough business climate require a better solution to educate employees of their rights and responsibilities and how to be a culture leader while informing employers where they need to focus their time and attention to support a healthy culture," said Janine Yancey, Founder and CEO of Emtrain. "U.S. businesses spend five billion dollars each year on compliance training without getting real business value; no business intelligence, no benchmarking, no evidence of behavior modification, nothing but a completion certificate. Business leaders are increasingly demanding business value from these programs and a way to solve behavioral problems before they turn into bad outcomes. Emtrain uses data, analytics, and benchmarking to show companies where they are vulnerable and how to address their hotspots in a proactive way.""Janine has a bold, unique vision on how to change the way organizations identify their risk and prevent complex culture issues from becoming damaging," said EGP Managing Partner Peter Campbell. "Janine Yancey and her team have developed their predictive frameworks and data sets over 15 years, and have now built a breakthrough product that anticipates where the market has moved. We're excited to add considerable capital and our expertise in learning and behavioral change to Emtrain as they change the way employers and employees interact to prevent harassment, bias, ethical lapses and other bad culture outcomes."About EmtrainEmtrain's workplace culture platform reinvents compliance training with provocative content that sparks dialogue and unique culture analytics that drive individual and organizational behavior change. Emtrain.ai allows you to benchmark your culture against our global community to identify issues before they become toxic problems that become compliance issues and destroy culture. Emtrain partners with industry experts and uses current events to teach on topics such as sexual harassment, unconscious bias, and ethics. Emtrain's innovative platform is used by more than 800 companies, such as Netflix, Yelp, Dolby, LiveNation, and others. Recognized by Fast Company as an Honorable Mention in its "World Changing Ideas 2020" list, Emtrain is a woman-owned and women-led company.About Education Growth PartnersEducation Growth Partners ("EGP") is a private equity firm dedicated to providing growth capital to proven, high potential learning, data and knowledge, and workplace companies that offer compelling solutions to unmet needs. The extensive operating experience and investment expertise of Education Growth Partners' team ensures its companies receive an infusion of highly strategic capital and insight that can accelerate their reach, scale and impact to create long-term value.About Signature BankSignature Bank, member FDIC, is a New York-based full-service commercial bank with 31 private client offices throughout the New York metropolitan area and Connecticut as well as San Francisco. The Bank's growing network of private client banking teams serves the needs of privately-owned businesses, their owners and senior managers. Its Venture Banking Group serves venture capital firms and the portfolio companies in which they invest while its Fund Banking Division provides financing and banking services to the private equity industry.  For more information, please visit www.signatureny.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Covariant</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Covariant is building the Covariant Brain: universal AI that allows robots to see, reason and act on the world around them. Founded in 2017 by the world's top AI researchers and roboticists from UC Berkeley and OpenAI, Covariant is bringing the latest artificial intelligence research breakthroughs to the biggest industry opportunities.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>$40,000,000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>06 May 2020</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Covariant Scores $40M in Series B</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/covariant/venture-capital-funding/wmztpthghs</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>BERKELEY, CA, Covariant announced that it has raised $40 million in Series B funding led by Index Ventures.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Berkeley</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Covariant/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Covariant, a leading AI Robotics company, today announced that it has raised $40 million in Series B funding, bringing its total funding to $67 million. The round was led by Index Ventures, along with AI-focused Radical Ventures and participation from existing investor Amplify Partners and others. Covariant will use the funding to accelerate its partnerships, introduce AI Robotics to new industries, and grow its research, engineering and commercial teams.From food distribution to healthcare to e-commerce, the global supply chain is facing unprecedented pressure to deliver orders quickly, reliably and efficiently, while keeping workers safe. Automation is the key to meeting those challenges.While repetitive and predictable tasks like the movement of goods have successfully been automated, complex and unpredictable tasks that require hands, such as picking, placing and unloading, have not. Traditional automation can't handle the constant change and infinite variability of these tasks. Automating them requires advanced AI that can understand, learn and adapt.Founded in 2017, Covariant is building the Covariant Brain, universal AI that enables robots to see, reason and act autonomously in the real world. Covariant robots learn general abilities such as robust 3D perception, physical affordances of objects, few-shot learning and real-time motion planning which gives them the intelligence to learn how to manipulate new objects they've never seen before in environments where they've never operated.In January 2020, Covariant launched from stealth to reveal that it had reached a new AI milestone: its AI Robotics stations were running consistently at customer facilities in North America and Europe in the apparel, pharmaceutical and electronics industries, and had achieved autonomy in live production, with a mean unassisted operating time greater than one hour."When we founded Covariant, our goal was to make AI Robotics work autonomously in the real world," said Pieter Abbeel, Covariant's President, Chief Scientist and co-founder. "Having reached that milestone, we see a huge benefit in expanding our universal AI to new use cases, customer environments and industries."The funding comes on the heels of significant momentum for the company. Soon after launching from stealth, Covariant invested in strategic partnerships to accelerate the deployment of robotic stations to customers. In February, Covariant announced a partnership with ABB, a leading industrial robotics supplier. In March, Covariant joined forces with Knapp, a leading supplier of intralogistics systems."As the coronavirus crisis has exposed serious frailty in the global supply chain, we're seeing more demand than ever for our AI Robotics solutions," said Peter Chen, Covariant CEO and co-founder. "Our customers are eager to invest in AI and scale it across their supply chains to meet growing demands and more stringent requirements. This latest funding round, along with our recent partnerships, will allow us to scale quickly across multiple industries."As a part of the investment, Mike Volpi, partner at Index Ventures, will be joining Covariant's board."We've been blown away by Covariant's team of world-class AI researchers and roboticists and the universal AI they've built," said Mike Volpi, partner at Index Ventures. "Covariant's AI, powered by deep learning, will unlock the next wave of robots that learn. We are excited to be a part of Covariant's journey to become the next great AI company."To see Covariant's product offerings or explore open positions, visit covariant.ai.About CovariantCovariant is building the Covariant Brain: universal AI that allows robots to see, reason and act on the world around them. Founded in 2017 by the world's top AI researchers and roboticists from UC Berkeley and OpenAI, Covariant is bringing the latest artificial intelligence research breakthroughs to the biggest industry opportunities. The company is headquartered in Berkeley, CA. For more information, visit covariant.ai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>First Dollar</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>First Dollar is revolutionizing how people think about and interact with healthcare. Founded in October 2019 by repeat successful entrepreneurs Jason Bornhorst and Colin Anawaty, First Dollar\'s powerful platform helps people save for out-of-pocket expenses and find great health care for a fair price. With $5 million in funding, First Dollar is building the first human-centered health care experience.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>$5,000,000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>06 May 2020</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>First Dollar Closes $5M Seed Funding</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/first-dollar/venture-capital-funding/wnfzbjzdyt</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>AUSTIN, TX, First Dollar has closed a seed funding round of $5M, led by Next Coast Ventures.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/First%20Dollar/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>First Dollar, the first human-centric health care savings platform, has announced it has closed a seed funding round of $5M. Next Coast Ventures led the round with participation from Meridian Street Capital.Additional investors in the round include former athenahealth CEO Jonathan Bush, Everlywell CEO Julia Cheek, Bright Health CTO Brian Gambs and Capital Factory. The funding will be used to recruit a top team of engineers and designers to scale the HSA offering and build new functionality for First Dollar's platform.Today, the nation's more than 26 million Health Savings Accounts control $61.7 billion in assets, but the healthcare industry is the primary beneficiary of that total. Most users allow their contributions to sit idle, turning a potential investment vehicle into an under-utilized bank account. Only 11% of participants maximize their contributions each year, and only 13% invest their HSA savings for growth. Even worse, many HSAs charge a monthly fee, so savings are slowly depleted by as much as $100 per year.Empowering Consumers with a Modern Health Care Savings Account PlatformTo solve these problems, First Dollar co-founders Jason Bornhorst and Colin Anawaty set about building an HSA people will actually use. There are no monthly fees, and there will be a heavy focus on easy-to-understand language, education on how to maximize savings and an offering of high-quality health care products at fair prices. No other company offers this complete ecosystem."HSAs are the worst-marketed health care benefit in the United States," said Bornhorst, First Dollar CEO. "Most of them are effectively little-used bank accounts. We're building a product that not only helps you maximize your savings but also offers great health care at a great price. We believe that for every $1 you put into your First Dollar HSA, you should get $2 in value back in savings and spending.""I've been an HSA user for years, and it's an amazing tool if you know how to use it," said Anawaty, First Dollar's chief product officer. "The products on the market, though, don't live up to the power of the HSA. I'm excited to build a product that people will love that makes their finances healthier and also helps them make more informed decisions about their long-term health."First Dollar targets Millennials and Gen Z, a generally healthy population that typically spends too much per year for more coverage than they need. Only 1 in 5 people in those demographics reach their deductible amount each year. First Dollar believes they would be better served by putting the money they spend on premiums into a simple, informative, 100% fee-free HSA account.Investor Perspectives on First Dollar Seed Funding Round"Two of the biggest concerns on people's minds today are their money and their health," said Mike Smerklo, Next Coast Ventures co-founder and managing partner. "In an ever-changing healthcare market, it pays to have leaders who know the space. As co-founders, Jason and Colin know this marketplace, having sold their previous company to athenahealth and then running athenahealth's Austin office. We're excited to partner with them as they redefine an old industry to help consumers get more for their money.""Individuals and employees are increasingly taking responsibility back from the employer with regards to managing and spending their healthcare benefits," said Scott Law, general partner at Meridian Street Capital. "After having worked closely with Jason and Colin from idea to company formation, I believe their unique blend of experiences in both consumer technology and health care will enable First Dollar to become the go-to resource for every American when it comes to healthcare benefits."About First DollarFirst Dollar is revolutionizing how people think about and interact with healthcare. Founded in October 2019 by repeat successful entrepreneurs Jason Bornhorst and Colin Anawaty, First Dollar's powerful platform helps people save for out-of-pocket expenses and find great health care for a fair price. With $5 million in funding, First Dollar is building the first human-centered health care experience. For more, visit firstdollar.com.About Next Coast VenturesNext Coast Ventures is an Austin-based venture capital firm that partners with entrepreneurs building high-growth companies in 'Next Coast' markets. The firm uses macro trends and themes to guide its investment strategy, providing early-stage capital to founders scaling companies across the consumer, enterprise and emerging platform sectors. NCV focuses on bringing value to its founders post-investment by equipping its growing portfolio with hands-on, company building resources through its strong industry network, Entrepreneurs Council program and applying the partners' own operational experience as entrepreneurs. Learn more at www.nextcoastventures.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>StorySlab</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>StorySlab has cracked the code on the single most important factor for equipping outside reps with technology: Deploying tools that reps actually use. The many Fortune 500 Companies that choose StorySlab enjoy extremely high adoption and thoughtfully designed tech that makes their reps quantifiably more efficient and effective. Headquartered in Syracuse, NY and serving clients all over the world, the StorySlab platform consists of mobile and cloud technologies that enable effortless face-to-face and screen-to-screen sales conversation.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>$2,700,000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>06 May 2020</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>StorySlab Raises $2.7M Funding</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/storyslab/venture-capital-funding/lrkddgwzqh</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>SYRACUSE, NY, StorySlab has raised $2.7 million in funding led by Armory Square Ventures.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/StorySlab/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>StorySlab, a digital sales enablement technology company based in Syracuse, NY, announced today it has raised $2.7 million in funding led by Armory Square Ventures, along with participation from RiverPark Ventures and TIA Ventures. Martin Babinec, founder of TriNet and nonprofit group Upstate Venture Connect; and Doug Pinckney, one of the founders of the marketing services agency Pinckney Hugo also joined the round as investors.StorySlab provides sales enablement tools for sales representatives selling to customers both remotely and face-to-face. Its platform tools include built-in web conferencing integrations, data reporting, offline storage of presentation materials as well as file sharing capabilities."Our platform makes it easy to have a flexible and seamless conversation with the client," explained Hans Fuller, founder and CEO of StorySlab. "Whether in person or over the web, a salesperson can become more responsive and consultative, keeping the conversation active so the sales process is seamless." StorySlab serves over 100 clients in a range of industries, including chemicals, machinery, plastics, electrical components, and consumer products. With new funding, StorySlab will expand across new industries, scale its marketing team and grow its operations."We were impressed with StorySlab's vision and the Company's strong product/market fit," explained Somak Chattopadhyay, founder and managing partner of Armory Square Ventures. Chattopadhyay joins StorySlab's board of directors as part of this round. "Our team has two decades of experience investing in B2B SaaS companies and supporting their growth. We believe StorySlab has the potential to be a market leader in the sales enablement category."The investment marks StorySlab's first institutional funding round. "We originally started the business to solve a very specific set of problems for our clients," explained Fuller. "Not relying on external investment really kept us focused on solutions that customers were willing to pay for and has resulted in a very refined product and a clear value proposition. Now we're at the point where taking investment lets us build the technologies and staff that will help us scale."StorySlab has also had a strong track record recruiting talent to Central New York. "We recruit people from all over the country. Our team has gone to school elsewhere and lived elsewhere. We are finding, at this stage, that people originally from regions like Upstate New York want to return," explained Fuller.A significant part of the fundraising and pitch process for StorySlab was conducted remotely over Zoom though early conversations with investors started in late February, weeks before the pandemic flared up."We raised the round partly despite Covid and partly because of it," says Fuller, "Our platform enables sales reps to stay productive whether in person or remote, and we really had to embrace remote collaboration ourselves to get this deal done.""In times of uncertainty, investors tend to be focused on capital efficient businesses with strong unit economics and a visible path to profitability," Fuller added. "StorySlab was profitable from day one and has strong customer retention. We look forward to growing far more quickly with the fresh infusion of capital."About StorySlabStorySlab has cracked the code on the single most important factor for equipping outside reps with technology: Deploying tools that reps actually use. The many Fortune 500 Companies that choose StorySlab enjoy extremely high adoption and thoughtfully designed tech that makes their reps quantifiably more efficient and effective. Headquartered in Syracuse, NY and serving clients all over the world, the StorySlab platform consists of mobile and cloud technologies that enable effortless face-to-face and screen-to-screen sales conversation. For more, visit www.StorySlab.com.See our video at: https://web.storyslab.com/videos/how-reps-feel/.About Armory Square VenturesArmory Square Ventures (ASV) is a seed and early-stage venture capital firm based in Upstate New York and New York City. The firm invests in software and technology-enabled services companies in emerging entrepreneurial ecosystems often overlooked by other investors. ASV has offices in Syracuse and New York City. The fund's investments include ACV Auctions, Agronomic Technology Corporation (acquired by Yara), Bentobox CMS, Clerio Vision, Good Uncle (acquired by Aramark), Jorsek, Squarefoot, Vengo Labs and Vizbee. For more, visit www.Armorysv.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Robinhood</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Robinhood is a first-of-its-kind mobile stock brokerage. Built with sophisticated, proprietary algorithms and other unique technology, Robinhood is the only mobile-first premiere stock brokerage offering unlimited commission-free trading in all US listed stocks and ETFs. By eliminating trading commissions, Robinhood's mission is to enable a new generation of people to learn about investing and better manage their wealth. Founded by three-time financial services entrepreneurs Vladimir Tenev and Baiju Bhatt, Robinhood is headquartered in Redwood City, CA and backed by top-tier venture firms including Google Ventures, Andreessen Horowitz and Index Ventures, and angel investors including Tim Draper and Howard Lindzon.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Series F</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>$280,000,000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Robinhood Closes $280M Series F Funding</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/robinhood/venture-capital-funding/rqgwrcshxz</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>REDWOOD CITY, CA, Investing app Robinhood has announced a $280 million Series F at a $8.3 billion valuation.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Redwood City</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Robinhood/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>According to Business Insider, investors continue to pour money at rising valuations into Robinhood despite the popular investing app facing multiple outages on some of the most volatile trading days in market history earlier this year.The fintech nabbed $280 million in Series F funding at an $8.3 billion valuation in a round led by previous investor Sequoia Capital. NEA, Ribbit Capital, 9Yards Capital, and Unusual Ventures also participated in the round. Robinhood's most recent round comes after a $323 million Series E in July 2019 at a $7.6 billion valuation. In a blog post about the news, Robinhood announced it had added three million funded accounts since the start of the year. "Robinhood has made the financial markets accessible to the masses, and in turn, revolutionized the decades-old brokerage industry," said Andrew Reed, partner at Sequoia, in a statement. "We're excited to further our relationship with Robinhood, which we believe is at the beginning of its opportunity."The growth came despite significant outages that plagued the fintech in early March. The app was down for consecutive days during the first week of March as the markets were rocked with volatility. In a note posted on its blog, Robinhood's cofounders, cited "stress to its infrastructure" from an "unprecedented load."In an interview with Fortune regarding the raise, Vlad Tenev, co-CEO and cofounder, described the outages as a "curveball." As for the new funding, Tenev earmarked it for further growth. "The purpose of the capital raise is to enable us to have flexibility and be strategic, and continue to invest in the platform," Tenev told Fortune. "We envision that over the next few years, Robinhood will expand globally and continue rolling out more products."The latest round is yet another example of Robinhood to continue to raise capital despite slipups. In December 2018 the startup quickly backtracked from an announcement it made for a planned cash-management product after saying it would be SIPC insured despite not checking with the organization ahead of time. That same month Robinhood's options trading experienced an outage. The startup offered some of those affected $75 Amazon gift cards.In November 2019, some Robinhood users uncovered an "infinite leverage" glitch.The following month the Financial Industry Regulatory Authority fined the brokerage $1.25 million for not following "best execution" practices from October 2016 to November 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Postal.io</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Postal is a leading sales and marketing engagement platform that empowers companies to improve conversion rates with automated direct mail, corporate gifting and charitable giving. The Postal platform leverages machine learning to enable customers to optimize the creation, delivery, budgeting, and reporting of offline campaigns at scale. Forward-thinking enterprises and small companies alike trust Postal to deliver greater ROI through the automation and integration of offline and online strategies.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>$9,000,000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Postal.io Scoops Up $9M</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/postal.io/venture-capital-funding/ncqxnllchb</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SAN LUIS OBISPO, CA, Postal.io, a leading sales and marketing engagement platform has closed a $9 million Series A funding round.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>San Luis Obispo</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Postal.io/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>The round was led by Mayfield, the venture capital firm with a 50-year history of people-first investing. Postal helps scale direct mail workflows for sales and marketing, empowering companies to cut through online marketing clutter while improving offline conversion rates with automated direct mail, corporate gifting and charitable giving. In today's era of coronavirus-driven, around-the-clock remote work, creating authentic human connections has become more important than ever, and Postal helps B2B companies find a way to "press palms" with customers in the absence of traditional physical sales calls, meetings and events.Postal.io was founded by serial entrepreneurs Erik Kostelnik and Jed Danner to bring the efficiency of online marketing to offline engagement. Postal enables companies to manage real-world, hands-off prospect and customer touches in the form of cards and letters, as well as tailored premiums and customer gifts - in the same way they currently manage digital marketing assets and programs. Marketing techniques that were once considered "old school" are now "new again," as savvy B2B marketers leverage Postal to manage and measure offline campaigns for maximum return.Given that most people are working from home 24/7, the need for solutions like Postal is particularly urgent, because email marketing shows a continued diminishing rate of return. According to industry experts, post-pandemic email marketing volume is up, while response rates remain at near or all-time lows. The current market environment underscores and truly sets the stage for technologies like Postal, which enables marketers to deliver personalized customer and prospect touches at scale. From campaign creation to delivery, Postal drives conversions by leveraging machine learning, customizable workflows and human-like personalization, which lead to experiences and relationships at scale."What Marketo, Eloqua and HubSpot did for digital marketing automation, Postal is doing for offline marketing automation, particularly in an era when person-to-person connections have become increasingly difficult, yet remain very important," said Kostelnik, also CEO of Postal.io. "Our platform is designed to create authentic, tactile offline customer connections that help brands drive profitable customer relationships, even in turbulent times. We partnered with Mayfield for their people-first approach and experience in helping build SaaS companies from inception to industry leaders. They also deeply understand customer facing applications, given their successful investments such as Marketo, Outreach, ServiceMax and others."Proceeds from this Series A investment will be used to grow the Postal team in San Luis Obispo and to scale revenue operations. "For us at Mayfield, it always starts with the founders, their values and vision and desire and potential to build a great Company," said Rajeev Batra, Mayfield Partner and Postal.io board member. "We met Erik and Jed over five years ago when they were working on their first startup together, TextRecruit, which connected job seekers with employers. It was a lesson in enabling personalized human connections at scale. After TextRecruit's successful acquisition, Erik and Jed wanted to build Postal to enable a similar connection between companies and customers leveraging the offline channel, which has been overlooked as the world moved to digital. They are seamlessly combining the best of both worlds which is a massive opportunity and resonates in this unusual time."Postal gives its clients the ability to scale offline marketing with the ease and speed of digital, and early-adopter customers are seeing the benefit of merging online and offline communication to increase overall conversion rates.Unlike antiquated, manual and un-trackable processes for offline direct mail and gifting campaigns, Postal provides its clients with the ability to manage and report on offline campaigns just as effectively as they can with digital marketing programs. "Personal handwritten notes and prospect gifting have always been a key part of our enterprise strategy," said Zero Keyboard CEO Braden Golub. "Now we can finally scale and track these efforts with Postal."According to Erik Hayden, Founder and Managing Partner of Urban Catalyst, "As the fastest-growing Opportunity Zone Investment Fund in California, we use Postal to customize, personalize and automate all direct mail to our potential investors. We have seen a significant increase in our overall conversion rates as we merge our digital efforts with this new offline platform."More About the Postal.io PlatformThanks to the rapid adoption of marketing automation technologies, the era of digital sales and marketing has achieved critical mass. Companies have learned that differentiation is central to capturing attention and staying competitive, which is why Postal aggregates the best of online marketing technologies to offer a scalable, best-in-class integrated solution that supports offline sales and marketing. Postal's platform supports enterprise account-based marketing (ABM) and enables team management, content curation, automation, and reporting for offline marketing programs. It includes granular control of personalization, budgeting and workflow management and also offers a curated vendor marketplace for delivery of products and correspondence at scale. Users can access a full suite of management capabilities directly from Postal, and it integrates with popular CRM, marketing automation and sales tools.About Postal.ioPostal is a leading sales and marketing engagement platform that empowers companies to improve conversion rates with automated direct mail, corporate gifting and charitable giving. The Postal platform leverages machine learning to enable customers to optimize the creation, delivery, budgeting, and reporting of offline campaigns at scale. Forward-thinking enterprises and small companies alike trust Postal to deliver greater ROI through the automation and integration of offline and online strategies. Postal is a venture-backed, privately held company based in San Luis Obispo, California. To learn more, please visit postal.io.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Cockroach Labs</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cockroach Labs is the company behind CockroachDB, an open source, scalable SQL database headquartered in New York City. CockroachDB is a distributed relational database that is scalable, survivable, and strongly consistent - hence the name. It combines the rich functionality of SQL with the horizontal scalability common to NoSQL offerings, and provides enterprise-grade disaster recovery. The company was founded in 2015 with a mission to Make Data Easy.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Series D</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>$86,600,000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Cockroach Labs Lands $86.6M Series D Round</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/cockroach-labs/venture-capital-funding/cwgsjrkzdy</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NEW YORK, NY, Cockroach Labs, the company behind CockroachDB, the leading enterprise-grade distributed SQL database, today announced $86.6 million in Series D funding.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Cockroach%20Labs/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>The round was co-led by Altimeter Capital and BOND with participation from Benchmark, GV, Index Ventures, Redpoint Ventures, Sequoia Capital and Tiger Capital.This round brings Cockroach Labs' total funding to $195 million. Worldwide stay-at-home orders have dramatically increased demand for many businesses, putting increasing stress on the modern tech stack. Economic uncertainty is encouraging greater efficiency, setting the stage for further migration away from legacy, closed-source data platforms to modern, distributed, cloud-native tools. This round of funding will facilitate Cockroach Labs' growing investments in R&amp;D to better support customers as they change to meet these new requirements. Enterprises in areas including communications, gaming and entertainment, e-commerce and financial services are scrambling to support increased consumer demand and remote workforces, and are finding that the resiliency and flexibility necessary to do so just isn't available without an elastically scalable, multi-cloud, modern data platform like CockroachDB.Since its inception in 2016, the CockroachDB next-generation SQL database has helped organizations move and manage critical transactional data in the cloud. The software has developed an ardent and loyal following among architects, developers, and academics by capitalizing on the failed cloud migration promises of legacy database players and the risks associated with "lock-in" from the large public cloud vendors. This has resulted in year-over-year commercial customer growth of 295 percent. And once these users found what they were looking for in CockroachDB, they have doubled-down-first-year customers have, on average, expanded their usage 2x, and have renewed at a rate of over 90 percent.Today, Fortune 500 CIOs are taking notice: while CockroachDB has only been available for two years, it is already in use at some of the world's largest enterprises across all industries, including Equifax, Bose and Comcast. More businesses are turning to CockroachDB to help in both expanding to meet new demand, reducing costs, and moving to the cloud. A recent survey of open roles, specifically for CockroachDB developers, on LinkedIn shows over 40 positions at 25 of the top enterprise companies across industries. Companies include Apple, Honey, Facebook, Tesla and Via."The migration to a multi-cloud environment has long been underway at many, if not all, of the top global enterprises. What cannot be taken for granted in the rush to the cloud is resiliency and scalability, which is near impossible to do without a distributed database that is elastic and self-healing," said CEO and co-founder of Cockroach Labs, Spencer Kimball. "It's a given that this is the way of the future. But as that future approaches faster than many expected it is putting immense pressure on the enterprise to make this leap now, as quickly and effortlessly as possible. CockroachDB was purpose-built for mission-critical, data-intensive, cloud-deployed applications, and as a result, we are seeing a tremendous increase in demand for our services from companies small and large looking for bulletproof resiliency, effortless scalability and an overall more cost-effective platform."A Massive Market, Ripe for Disruption"The cloud has provided the opportunity to rethink all aspects of IT infrastructure and software," explained Tony Baer, principal at dbinsight. "CockroachDB is a prime example of how the cloud is reinventing databases, removing traditional shackles to scale and volume that have constrained them, clearing the way for new forms of globally-distributed applications that weren't thinkable before."The worldwide public cloud services market is forecasted to grow nearly 20 percent in 2020 to a total upwards of $260 billion, according to an analyst firm. It also expects that by 2022, 75 percent of all databases (which saw 18.4 percent of growth in revenue in 2018) will be deployed or migrated to a cloud platform. With double-digit growth in the database market, this represents a larger move away from legacy players like Oracle as companies look for more nimble cloud-native databases. Amidst such growth, the greatest innovation is coming from companies that arose out of the open-source software movement, many of which are poised to disrupt slower-moving players operating on either decades-old technology or on an assembly of services cobbled together via acquisition. As the world's first cloud-native, distributed SQL database, Cockroach Labs is the only player in the space built from the ground up with the needs of the global enterprise in mind."Legacy players have long dominated the enterprise software market. With recent investments in companies like Confluent, Snowflake, and now Cockroach Labs, we're seeing huge market disruption as enterprises move to the cloud and build on a modern tech stack, replacing legacy companies, who are struggling to adapt," said Kevin Wang, partner at Altimeter Capital. "Cockroach Labs is leading this next evolution with a world-class team, ambitious vision, and a transformative product. It's a great time to be in the cloud business."Cockroach most recently closed a $55 million Series C financing round last summer to invest in hiring new talent-doubling its headcount over the past twelve months-and furthering research and development.About Cockroach LabsCockroach Labs helps organizations migrate and manage critical transactional data in the cloud with their next-generation SQL database. CockroachDB uses distribution and replication of data to deliver bulletproof resilience, effortless scale, and can tie data to a location to deliver optimal performance and regulatory compliance. It is architected to run a broad range of applications on and across clouds, on-premise, or in hybrid environments - all as a single store. Headquartered in New York City, Cockroach Labs is backed by Benchmark, GV, Firstmark, Index Ventures, Redpoint Ventures, Sequoia Capital, Tiger Capital and Workbench. For more information, please visit www.cockroachlabs.com.About Altimeter CapitalAltimeter Capital Management is a technology focused investment firm managing public and private investment funds. Private software investments have included AppDynamics, HubSpot, MongoDB, Okta, Snowflake, and Twilio. Altimeter was founded in 2008 and has offices in Menlo Park, CA and Boston, MA.About BONDBOND is a global technology investment firm that supports visionary founders throughout their entire life cycle of innovation and growth. BOND's founding partners have backed industry pioneers such Spotify, Square, Peloton, DocuSign, and Uber.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TimeDoc</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TimeDoc Health is a leader in Virtual Care Management for healthcare providers. The company enables providers to deliver truly continuous, comprehensive care by helping them establish care management programs for patients with chronic and behavioral health conditions. The solution combines a care management SaaS platform with virtual care management services to provide the personal touch often missing in healthcare.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>$5,700,000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TimeDoc Raises $5.7M Series A Financing</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/timedoc/venture-capital-funding/vtkvwbnssc</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CHICAGO, IL, TimeDoc has completed a $5.7 million Series A round of financing.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/TimeDoc/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>TimeDoc, the Virtual Care Management platform that enables the leading healthcare providers to manage their chronic care population, has completed a $5.7 million Series A round of financing. Vocap Investment Partners led the investment round, with participation from existing and new investors Grand Ventures, Serra Ventures, Waterline Ventures, Impact Engine, Break Trail Ventures, Chaifetz Group, and Pat Welsh, co-founder of Welsh, Carson, Anderson &amp; Stowe. "We are excited to have both the financial support and domain expertise of our new investors. They will help us accelerate our vision of building the premier chronic management solution in the market. Our investor syndicate brings strong experience, perspective and relationships with marquee health care organizations," said Will Boeglin, CEO of TimeDoc.TimeDoc has experienced significant growth over the past couple of years as it has focused on building the industry's leading software platform for virtual care management programs. Clients include hospitals, physician group practices, and Federally Qualified Health Centers that leverage the TimeDoc software for Chronic Care Management and Behavioral Health Monitoring."We have studied the virtual care management space for a few years and came to the conclusion that TimeDoc's product-market-fit is distancing them from the competition," said Vinny Olmstead, Managing Director of Vocap Investment Partners. "The company has accomplished a great deal with very little capital and a small sales team. Will, along with co-founders Chris Knoff and John DiCosola, are building what we believe will be the category leader in the space."The COVID-19 pandemic has brought heightened challenges over the past few months to TimeDoc's clients. Specifically, the need to provide care for their most vulnerable demographic: elderly patients with multiple chronic conditions. By leveraging the TimeDoc platform, providers have even been able to save their employees' jobs by repurposing staff to conduct virtual check-ins and provide medical guidance."Our software solutions support our provider clients and their patients in a significant way during this pandemic. This success has been a silver lining for our team in what has been an otherwise challenging time for us all," said Will Boeglin, CEO of TimeDoc.TimeDoc plans to use the new capital to accelerate sales resources, strengthen Electronic Health Record (EHR) integrations, roll out Remote Patient Monitoring, and develop tools to improve outcomes for their chronically ill patients."TimeDoc has developed technology solutions that enable providers to deliver an exceptional quality of care to patients dealing with complicated diseases. Physicians today have large patient panels and require more time to manage their patient's needs. By leveraging TimeDoc's software, and software enabled service offerings, clinicians can focus on their core practice functions, and provide a better care model to their patients," said Robbie Greenglass, Managing Director of Waterline Ventures.This investment brings TimeDoc's total funding since launching in 2016 to over $8 Million. Vocap Investment Partners Managing Director Vinny Olmstead will join TimeDoc's Board of Directors, alongside current outside board member Tim Streit of Grand Ventures.About TimeDoc HealthTimeDoc Health, based in Chicago, Illinois, is a leader in Virtual Care Management for healthcare providers. The company enables providers to deliver truly continuous, comprehensive care by helping them establish care management programs for patients with chronic and behavioral health conditions. The solution combines a care management SaaS platform with virtual care management services to provide the personal touch often missing in healthcare. For more information, visit www.timedochealth.com.About Vocap PartnersVocap Investment Partners provides venture capital and operating expertise to rapidly growing technology companies in high potential verticals, including: Enterprise Software, Healthcare Tech, Marketing Tech, Media and Entertainment, and Internet. For more information, visit: www.vocappartners.com.About Waterline VenturesWaterline Ventures is a Boston based venture capital fund focusing on investments in the healthcare technology and services sector. Waterline Ventures invests in companies that are improving the way care is delivered. Increasing costs, inconsistent quality, and inadequate access to healthcare create the need for innovation. Companies that address these issues stand to create tremendous value while improving people's lives across the country and around the world. There is a massive and growing opportunity for technological transformation in healthcare. Waterline's family of entrepreneurs are leading the change within the healthcare system. For more information, visit: www.waterlineventures.comAbout Impact Engine Impact Engine is a Chicago-based venture capital and private equity investment firm focused on driving positive impact in economic empowerment, education, environmental sustainability, and health while seeking competitive financial returns. The firm was included on the 2019 and 2020 ImpactAssets50 lists, which recognize outstanding impact investment funds with a demonstrated positive social, environmental and financial impact. Impact Engine is women-owned and led and brings the community together to build the impact investing field. For more information, visit: www.theimpactengine.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GigaSpaces Technologies</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GigaSpaces Technologies provides pure-play cloud orchestration and data scalability platforms through two main product lines, Cloudify and XAP. Hundreds of Tier-1 organizations worldwide are leveraging GigaSpaces' technology to enhance IT efficiency and performance, from top financial and insurance firms, Telco carriers, e-Commerce companies, transportation firms and healthcare organizations. GigaSpaces maintains offices in the US, Europe and Asia Pacific. More at www.gigaspaces.com</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Venture</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>$12,000,000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>GigaSpaces Scores $12M</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/gigaspaces-technologies/venture-capital-funding/xqczcvkxhk</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>NEW YORK, NY, GigaSpaces announced today that it closed a round of funding of $12 million.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/GigaSpaces%20Technologies/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>GigaSpaces, the provider of InsightEdge, the fastest in-memory real-time analytics and data processing platform, announced today that it closed a round of funding of $12 million. Fortissimo Capital led the round, joined by existing investors Claridge Israel and BRM Group.Following record breaking results in 2019 including doubling annual recurring revenues (ARR), tripling the InsightEdge customer base, and achieving record profitability, GigaSpaces continues to demonstrate growth, completing Q1 2020 with record ARR.Increased demand for GigaSpaces solutions is expected during the current COVID-19 crisis, when digital service usage is skyrocketing, market trading volume continues to be volatile and real-time analytics capabilities are required. GigaSpaces is perfectly positioned to address these speed, scale, resilience and TCO challenges.The proceeds from the financing will be used to fuel rapid growth, scale global expansion, further develop collaboration with partners, and accelerate product innovation.  The investment underscores GigaSpaces impact on helping companies drive the largest enterprises digital transformation initiatives that demand real-time insights, acceleration of cloud application performance and operationalizing machine learning (ML) and artificial intelligence (AI).GigaSpaces introduced InsightEdge, a unified analytics, ML and transactional data processing platform in 2017 to address the market needs for real-time data-driven insights. Recognized by top analysts as a leader in the industry, including the latest Q4 2019 Forrester Wave Translytical Data Platform citing, "GigaSpaces makes you faster and smarter at the speed and scale of business strengths in transactions, platform, multi model, customer adoption, development tools, extensibility, and customer support.""Data is a critical strategic asset that must be managed and leveraged correctly to provide insights, intelligence and actions for modern services and applications such as real-time fraud detection, risk analysis, instant payments, personalized offers, customer 360, dynamic pricing and more," said Adi Paz, CEO of GigaSpaces. "This funding will help us drive accelerated growth to help more customers deliver on their data-driven promise.""Today, organizations must remain competitive, and require the agility to develop and deploy real-time data-driven services and applications that improve customer experience while optimizing their business operations," said Yoav Hineman, Partner at Fortissimo Capital. "GigaSpaces' modern data platform and impressive track-record of driving the digital transformation initiatives at tier-1 enterprises from Fortune 500 companies such as financial services, insurance, health services, E-commerce and transportation, confirm GigaSpaces proficiency in addressing today's and tomorrow's customer challenges."Fortissimo Capital was advised by GCA Altium and Meitar. GigaSpaces and existing investors were advised by Meitar.About GigaSpacesGigaSpaces provides the fastest in-memory computing platforms for real-time insight to action and extreme transactional processing. With GigaSpaces, enterprises can operationalize machine learning and transactional processing to gain real-time insights on their data and act upon them in the moment. The always-on platforms for mission-critical applications across cloud, on-premise or hybrid, are leveraged by hundreds of Tier-1 and Fortune-listed organizations worldwide across financial services, retail, transportation, telecom, healthcare, and more. GigaSpaces offices are located in the US, Europe and Asia. For more information, visit www.gigaspaces.com and www.gigaspaces.com/blog/, follow us on Twitter, or visit our YouTube and LinkedIn channels.About Fortissimo CapitalFortissimo Capital is a private equity fund, established in 2004, that invests primarily in Israeli-related technology and industrial companies to expedite growth. Fortissimo raised $1.6 billion across five funds. A few notable portfolio companies that the fund exited include: Kornit Digital (Nasdaq:KRNT), AOD (sold to Primus), SodaStream (SODA, later sold to Pepsi),  Dip-Tech (sold to Ferro), Nur Macroprinters (sold to HP),  Cadent (sold to Align) and Starhome (sold to Tomia Global). Fortissimo has invested in several software companies, including IncrediBuild Software, Priority Software and One Hour Translation. More information about Fortissimo Capital is available at www.ffcapital.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Embody</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Embody is pioneering the next generation regenerative platform for the repair of tendon and ligament injuries with novel collagen-based bio-fabrication techniques and products for the fast-growing sports medicine market.  Founded in 2014 and funded with $20 million in DARPA &amp; DOD funding, the company is developing unique biomaterials with an initial focus on orthopedic applications including Achilles, rotator cuff and knee ligament repair, including ACL (Anterior Cruciate Ligament).</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>$9,300,000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Embody Closes $9.3M Series A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/embody/venture-capital-funding/pvcnwjfswp</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NORFOLK, VA, Embody has announced the closing of a $9.3 million Series A funding round.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Norfolk</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Embody/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Embody, a privately-held medical device company focused on soft tissue repair, announced today that has closed a $9.3 million Series A funding round led by Litigit LLC, with participation from Cultivate(MD) and 757 Angels. The financing will enable Embody to expand its world-class team and the commercial launch Tapestry, its next-generation soft-tissue repair technology in the second half of 2020. "This financing represents a significant step in the growth of Embody," said Jeff Conroy, Embody's Co-founder and Chief Executive Officer.  "We are now in a position to execute on our goals of commercializing Tapestry, our first in a series of soft-tissue repair products for Achilles, rotator cuff and knee ligament injuries."The global market for sports medicine products is expected to reach $9 billion by 2024.  Embody's products focus on the most pressing patient needs: the repair of serious tendon and ligament injuries and are developed in close collaboration with some of the most advanced clinical thought leaders.About Embody: Embody is pioneering the next generation regenerative platform for the repair of tendon and ligament injuries with novel collagen-based bio-fabrication techniques and products for the fast-growing sports medicine market.  Founded in 2014 and funded with $20 million in DARPA &amp; DOD funding, the company is developing unique biomaterials with an initial focus on orthopedic applications including Achilles, rotator cuff and knee ligament repair, including ACL (Anterior Cruciate Ligament).</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SVT Robotics</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Founded in 2018, SVT Robotics is a software company that's revolutionizing robot deployments in warehousing and manufacturing industries. SVT's software platform enables companies to easily connect their enterprise systems to any robot or automation, in a fraction of the time, empowering them to compete in a quickly changing marketplace.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>$3,500,000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>SVT Robotics Nabs $3.5M Seed Round</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/svt-robotics/venture-capital-funding/mflqxmdzlj</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NORFOLK, VA, SVT Robotics has announced that it has completed its seed round of $3.5 million.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Norfolk</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/SVT%20Robotics/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>SVT Robotics, a startup whose software accelerates and simplifies deployment of industrial robotics, announced today that it has completed its seed round of $3.5 million. Cowboy Ventures led the investment round, with Dynamo Ventures, Schematic Ventures, Ludlow Ventures, and NRV all participating."We believe supply chain automation will continue, even during these difficult times, as businesses strive to meet increased consumer expectations," said Ted Wang of Cowboy Ventures. "SVT is well positioned to help companies complete their deployments more quickly, less expensively, and with less risk. Although the company had the resources to ride out a downturn, we invested to help SVT expand its product offering, setting them up to become an enduring company."SVT Robotics CEO and Co-founder A.K. Schultz notes that the current pandemic has accelerated the need for fast and flexible robot adoption to keep up with supply chain demands."Our platform gives any company the power to rapidly deploy new, innovative robotics and the flexibility to alter course quickly to meet the needs of the market," Schultz said. "This seed round shows that SVT Robotics has the right product fit for the market today and as it evolves, plus an amazing group of investors who are looking to help solve the problems of tomorrow."This investment round will enable SVT Robotics to broaden product development efforts for its robotic Integration Platform as a Service (iPaaS). The software platform first launched in 2018, and since then the demand for the platform has continued to grow. SVT is expanding its product feature set to support this customer growth and market demand."The response has been terrific, and we're really excited about the roadmap this year," said Michael Howes, Co-founder, COO &amp; CTO of SVT Robotics. "This investment is helping us to go even faster and direct our energy to features our customers need most.""Large customers have described SVT as 'the missing piece for robot adoption,'" said Julian Counihan of Schematic Ventures. "Last year was about building the pieces, and this year is about putting them in place. We're excited to continue to support SVT Robotics' mission of accelerating the warehouse robot market."SVT Robotics will also utilize the investment funds to continue to scale up the product and customer success teams to help meet these objectives."We at NRV are honored to work alongside the SVT Robotics team of industry experts and developers," said Scott Ukrop, Managing Director at NRV. "Their platform is unique in its ability to seamlessly and quickly bridge robotic hardware and business systems. It's a solution that's needed now more than ever."About SVT RoboticsFounded in 2018, SVT Robotics is a software company that's revolutionizing robot deployments in warehousing and manufacturing industries. SVT's software platform enables companies to easily connect their enterprise systems to any robot or automation, in a fraction of the time, empowering them to compete in a quickly changing marketplace. Learn more about SVT Robotics at svtrobotics.com, Twitter, Facebook, and LinkedIn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Treasury Prime</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>With deep knowledge in banking operations and technology, Treasury Prime is uniquely positioned to be a strong partner for banks and fintechs. This expertise delivers unprecedented agility to the banking industry. Recently, a Treasury Prime banking partner launched an SBA Payroll Protection Plan (PPP) application which processed over $1B in loans in three days.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>$9,000,000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Treasury Prime Pulls In $9M Series A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/treasury-prime/venture-capital-funding/ckjyptfvtq</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO, CA, Treasury Prime announced today that it has raised $9 million in its Series A funding round.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Treasury%20Prime/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Led by Amias Gerety of QED Investors and with participation by Jason Lemkin of SaaStr and Hans Morris of NYCA Partners, the round builds on Treasury Prime's previous $2.5m Seed Round, bringing its total funding to date to $11.5m.Treasury Prime is powering the future of banking with an API that enables banks to provide a modern interface to legacy backend infrastructures. This allows banks to seamlessly integrate with modern financial technology clients. By integrating directly with a bank's core banking system, Treasury Prime's automation drastically reduces the time and cost for onboarding new clients, all while fulfilling the banks' governance requirements. In this way, banks grow with deposits from a new client base, and fintechs can quickly offer secure digital banking services to their customers."We're tremendously happy with our growth so far, and this latest round of investment serves as a testament both to that success and our confidence in the future," said Chris Dean, Co-Founder and CEO of Treasury Prime. "We're thrilled to help banks grow and add more deposits with a new customer base, and to help growing technology companies find homes at institutions that suit their unique needs."With Treasury Prime, fintechs are able to digitally open and manage FDIC insured accounts at scale, make sophisticated payments, and interact with other systems, all with automated fraud detection and audit trails built right into their own integrations. Treasury Prime eases the friction posed by interaction with legacy banking systems."Chris and his team have been working on this integration problem for years, and I couldn't be more excited to be part of their future," said Amias Gerety, Partner at QED Investors. "The partnerships Treasury Prime is enabling between cutting-edge technology companies and financial institutions will bring about a new wave of innovation and entrepreneurship, while also fostering the stability and regulatory compliance needed for long-term success."About Treasury PrimeWith deep knowledge in banking operations and technology, Treasury Prime is uniquely positioned to be a strong partner for banks and fintechs. This expertise delivers unprecedented agility to the banking industry. Recently, a Treasury Prime banking partner launched an SBA Payroll Protection Plan (PPP) application which processed over $1B in loans in three days.Banks in search of back-office modernization, and fintechs in search of banking partners, should visit www.TreasuryPrime.com to learn more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Clear Skye</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Clear Skye's mission is to simplify security and compliance for the enterprise. The Clear Skye vision is that simplification results from the convergence of disparate systems, processes and user experiences. Clear Skye executes on this vision by building Identity Governance software solutions that are native to the Now Platform, making deployment, adoption and integration of its solutions quick and painless for comprehensive and efficient identity governance and administration.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>$4,950,000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Clear Skye Grabs $4.95M Series A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/clear-skye/venture-capital-funding/xlyytpnxjm</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>EMERYVILLE, CA, Clear Skye, the better way to IGA company, today announced that it has closed a $4.95 million Series A round of funding.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Emeryville</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Clear%20Skye/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>The round was led by Toba Capital. Other round participants included Inner Loop Capital and existing investor ServiceNow Ventures. The company also announced that new Chief Executive Officer John Milburn and Rajan Aggarwal, Partner, Toba Capital, will join the Clear Skye Board of Directors. Luis P. Almeida completes the executive team as new worldwide leader of Sales and Alliances.Clear Skye is executing on its bold vision of simplifying security by delivering a cost-effective solution for today's Identity Governance challenges. Clear Skye Identity Governance and Administration (IGA) is the only IGA solution built natively on the ServiceNow Now Platform, and as a result uniquely removes friction from business processes related to governing application access. Organizations can greatly increase the efficiency and effectiveness of IGA programs while leveraging and extending their investment in ServiceNow Now Platform. Clear Skye IGA delivers the critical IGA capabilities of Identity Lifecycle Management, Access Review, Access Certification and Audit-Focused Analytics without the overhead of standing up another new software silo requiring integration."Toba shares Clear Skye's goal of significantly improving the effectiveness of IGA programs, which is a space long associated with mediocre customer outcomes," said Vincent Smith, Founder, Toba Capital. "Clear Skye is differentiated in its ability to provide solutions that are aligned with existing business processes and workflows, and we see an unmet demand in the industry which will rapidly accelerate their growth. Additionally, we are excited to support the rapidly evolving Now Platform App Store Ecosystem, which we believe will help drive the continued ServiceNow dominance of IT workflows.""Identity Management is a critical process that should not live in a vacuum - it should align with the way other IT processes are managed," said John Milburn, CEO of Clear Skye. "Customer and industry feedback tell us that by participating natively in the Now Platform, Clear Skye IGA has put Identity Governance where it belongs, on the platform already being used to drive most IT workflows. We are excited to team with Toba Capital and Inner Loop Capital, and for Rajan to join our board of directors, as we work toward executing on our aggressive growth goals for 2020 and beyond."Today's funding will be used to expand all facets of Clear Skye to meet the increasing demand for its Clear Skye IGA™ solution. In addition, this investment will fuel the company's rapid acceleration internationally, where it is already seeing significant customer interest. The funding will further Clear Skye's work to simplify security and compliance for the enterprise and help customers gain more value from their Now Platform investment.While legacy IGA technologies require the addition of another complicated silo to be managed, Clear Skye IGA integrates simply as an additional business process automated by the Now Platform. By providing Provisioning, Access Request, Access Review and Analytics on the Now Platform, Clear Skye customers gain significant efficiencies in the way their IGA programs operate. Additionally, Clear Skye IGA leverages the benefits delivered by other solutions on the Now Platform, such as Configuration Management Database (CMDB); Governance, Risk and Compliance (GRC); and Security Operations.About Toba CapitalToba Capital is an early-stage investment firm committed to helping create incredible technology companies. It looks for businesses capable of long-term growth and teams with the potential to fundamentally shift markets for the common good. It takes a high-conviction, hands-on, dollar-concentrated approach to venture investing. The firm has a single LP evergreen fund structure, which means its process and investment horizons are highly aligned with the teams it backs. Toba Capital was founded in 2012 by Vinny Smith and has offices in Newport Beach, Calif., and San Francisco. For more information, see www.tobacapital.com.About Inner Loop CapitalInner Loop Capital is a seed-stage venture capital firm that invests in a range of enterprise technologies, with a particular focus on Cybersecurity, Cloud Infrastructure and Data Analytics. Since 2015, Inner Loop and its managing director have invested in 15 early-stage cybersecurity companies. Inner Loop Capital is based in Baltimore. For more information, see www.innerloopcap.com.About Clear SkyeClear Skye's mission is to simplify security and compliance for the enterprise. The Clear Skye vision is that simplification results from the convergence of disparate systems, processes and user experiences. Clear Skye executes on this vision by building Identity Governance software solutions that are native to the Now Platform, making deployment, adoption and integration of its solutions quick and painless for comprehensive and efficient identity governance and administration. Clear Skye is a venture backed company headquartered in Emeryville, Calif. For more information, see https://www.clearskye.com.Clear Skye and Clear Skye IGA are registered trademarks of Clear Skye, Inc. All other marks and names mentioned herein may be trademarks of their respective companies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PulmonX</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Pulmonx is the world leader in interventional pulmonology diagnostics, planning tools, and treatments for obstructive lung disease.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Venture</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>$66,000,000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>05 May 2020</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pulmonx Announces $66M Funding Round</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/pulmonx/venture-capital-funding/dpsgtnnhtl</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>REDWOOD CITY, CA, Pulmonx has announced a $66 million financing.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Redwood City</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Pulmonx/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Pulmonx, a commercial-stage medical technology company that provides a minimally-invasive treatment for patients with severe emphysema, announces a $66 million financing led by Ally Bridge Group, a leading global life science investor. The financing also attracted new investors Adage Capital Management, HealthQuest Capital, Partner Fund Management, and Rock Springs Capital, as well as existing investors. In addition, $17 million in growth capital was secured through CIBC Innovation Banking to refinance an existing debt facility.Proceeds from this financing will ensure that Pulmonx is well-capitalized to support the continued global commercial expansion of the Zephyr Valve System, the first FDA-approved minimally-invasive treatment option for severe emphysema, a form of COPD. The Zephyr Valve procedure, done through a simple bronchoscopy with no incision or tissue resection, is clinically proven to improve patients' breathing, exercise capacity, and quality of life, without the risks of major surgery.1"Ally Bridge is pleased to support Pulmonx in this oversubscribed financing," said Frank Yu, Founder, CEO and CIO of Ally Bridge Group. "The combination of Pulmonx' Zephyr Valve System, patient assessment tools, established reimbursement programs, and global commercial footprint positions it as the world leader in interventional COPD procedures."Emphysema is a progressive and life-threatening form of Chronic Obstructive Pulmonary Disease (COPD) and represents about 25% of all COPD patients. In the United States, COPD is the third leading cause of death and is expected to be associated with approximately $49 billion in direct medical costs in 2020. Emphysema is a debilitating and life-threatening disease that progressively destroys lung tissue, resulting in a diminishing ability to breathe and engage in the most basic daily activities, leading to further deconditioning and to a high mortality rate. It is estimated that more than 1.2M severe emphysema patients in the US, Europe and Japan are candidates for the Zephyr Valve treatment. Medical therapy delivers limited benefit in later stage patients, and because of the high risks and limited availability, surgical options are only available for a narrow patient population."We are pleased to be able to accelerate our efforts to bring our landmark technology to severe emphysema patients who need it," said Glen French, CEO of Pulmonx. "The recently secured financing will ensure we are able to continue to scale our commercialization efforts to meet the global demand for our Zephyr Valve System, as well as continue R&amp;D efforts on new minimally-invasive pulmonary treatments."About Bronchoscopic Lung Volume Reduction with the Zephyr ValveBronchoscopic lung volume reduction with the Zephyr Valve is a one-time procedure performed through a bronchoscope, which requires no cutting or incisions. During the procedure, an average of four valves are placed in the airways to block off a diseased portion of the lung. The target area then reduces in size and allows adjacent healthier lung tissue to expand and function more efficiently. This results in patients being able to breathe more easily and experience less shortness of breath. Many patients treated with the Zephyr Valves have reported immediate relief and the ability to go back to doing everyday tasks with greater ease within weeks of treatment. Data from four published randomized controlled clinical studies have proven that the Zephyr Valve delivers significant and persistent improvement in pulmonary function, exercise capacity, breathlessness, and quality of life with less morbidity and mortality than surgical treatment options.2,3,4,5 These data have led to the inclusion of Zephyr Valves in several national and global treatment guidelines including the UK's National Institute for Health and Care Excellent (NICE) and the Global Initiative for Chronic Obstructive Lung Disease (GOLD) which gives endobronchial valves a level 'A' evidence rating, the highest rating possible.About Pulmonx CorporationPulmonx is the global leader in interventional procedures for the treatment of COPD. It develops and markets non-surgical technologies for the assessment and treatment of patients with severe emphysema, a progressive and life-threatening form of COPD. The Pulmonx solution, which is comprised of the Zephyr Endobronchial Valve (Zephyr Valve), the Chartis Pulmonary Assessment System (Chartis System) and the StratX Lung Analysis Platform, is designed to treat severe emphysema patients who, despite medical management, are still profoundly symptomatic and either do not want or are ineligible for surgical approaches. The technology is supported by a compelling body of clinical evidence including over 100 published scientific articles regarding the clinical benefits of Zephyr Valves. FDA granted the Zephyr Valve a "breakthrough device" designation, and in June 2018 Pulmonx received FDA pre-market approval to commercialize our Zephyr Valve. The Zephyr Valve is now commercially available and physicians in more than 25 countries around the world routinely use the Zephyr Valves to improve the lives of patients with severe emphysema, with over 76,000 valves used to treat more than 19,000 patients worldwide to date.In addition to the Zephyr Valve System, the Company is planning further clinical trials of AeriSealÂ®, a foam-based lung sealant delivered through a bronchoscope to treat the subset of advanced emphysema that cannot be treated with the Zephyr valve. For more information, visit www.MyLungsMyLife.com.About Ally Bridge GroupAlly Bridge Group ("ABG"), founded and led by Frank Yu (previously at Goldman Sachs and Och-Ziff Capital), is a global healthcare investment firm focused on supporting the world's most innovative life science technologies benefiting many millions of human lives and leading high-impact transactions, primarily in the U.S. For more information, please visit www.ally-bridge.com.About CIBC Innovation BankingCIBC Innovation Banking delivers strategic advice, cash management and funding to North American innovation companies at each stage of their business cycle, from start up to IPO and beyond. With offices in Atlanta, Austin, Chicago, Denver, Menlo Park, Montreal, Reston, Toronto and Vancouver, the team has extensive experience and a strong, collaborative approach that extends across CIBC's commercial banking and capital markets businesses in the U.S. and Canada.___________________________1 Am J Respir Crit Care Med Vol 198, Issue 9, pp 1151-1164, Nov 1, 2018.2 Am J Respir Crit Care Med Vol 198, Issue 9, pp 1151-1164 (2018).3 Am J Respir Crit Care Med, Vol 196, Issue 12, pp 1535-1543 (2015).4 Am J Respir Crit Care Med, Vol 194 Issue 9, pp 1073-1082 (2016).5 N Engl J Med, Vol 373, Issue 24, pp 2325-2335 (2015).</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ZAF Energy Systems</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Incorporated in 2011 and with locations in Montana and Missouri, ZAF Energy Systems develops and commercializes next-generation battery technologies that use sustainable, nontoxic materials and can be safely and easily recycled. Its breakthrough battery technologies include a portfolio of eco-friendly energy storage solutions including nickel zinc (NiZn) and a zinc air chemistry, both of which deliver the highest power and energy density of any battery system in their class. ZAF's rechargeable batteries pro vide longlife and economical solutions in a safe package for a variety of applications, including electric vehicles, commercial trucking, renewables integration, back-up power, consumer electronics, mobility, recreation vehicles, and in aerospace and defense.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>$22,000,000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>04 May 2020</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ZAF Energy Systems Raises $22M in Series A</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/zaf-energy-systems/venture-capital-funding/lkkqwmlsls</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>JOPLIN, MO, ZAF Energy Systems has completed recent capital raise. Included in the $22 million Series A funding round</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Joplin</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/ZAF%20Energy%20Systems/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>ZAF Energy Systems Inc. (ZAF), a developer of next-generation battery technologies, announced today that it has completed recent capital raise. Included in the $22 million Series A funding round were investments from institutional and strategic investors including Elevage Capital Management, Catalus Capital, Holt Ventures, and Coventry Asset Management. ZAF will use the funds to accelerate the commercialization and adoption of its nickel-zinc (NiZn) battery technology and expand its manufacturing capacity.The company will use the investment to meet the growing customer demands of its NiZn technology in key markets like the large-scale data storage, telecommunications, healthcare, and commercial trucking industries that are in need of powerful, cost-effective, and environmentally friendly battery solutions. ZAF is also currently working with three segments of the US Department of the Defense on energy storage solutions that where the NiZn batteries provide significant performance enhancements over current solutions. Funding will further enable ZAF to accelerate licensing and joint venture negotiations and to commercialize NiZn batteries with both domestic and international strategic partners.Demand for ZAF's  NiZn technology as a replacement for lead-acid batteries in key market segments continues to grow. ZAF's  NiZn chemistry can reduce the footprint of lead acid data center UPS systems by 40% and because NiZn lasts over twice as long as lead acid, it will reduce the number of batteries consumed by up to 75%. ZAF's  NiZn battery also yields twice the energy density of lead-acid batteries at less than a quarter of the cost, making them smaller, lighter and less expensive. ZAF's  NiZn batteries use sustainable, abundantly available materials that are both fully recyclable and non-toxic to the environment in disposal situations, providing long-life and economical solutions for many applications.Gen Fukunaga, CEO of Coventry Asset Management and the founder and former CEO of Funimation Entertainment which brought anime to the US and Canadian entertainment markets remarked, "I look for innovative products that match with industry-changing trends. My belief is that ZAF's environmentally friendly batteries are going to change the way the industry looks at cost effective energy storage. For far too long energy storage has been the "Achilles Heel" of the energy industry. I  am excited to be a part of this ground-breaking technology."Meg Paulus, Partner at Holt Ventures, commented, "We at Holt Ventures focus on investments  that have the potential to disrupt the current way of doing things within the heavy equipment landscape, including at our own Caterpillar dealership. We constantly look for ways that our businesses can be more environmentally friendly and at the same time focus on profitability and efficiency. The nickel zinc battery not only out-performs the lead acid battery exponentially, it provides an eco-friendly alternative to an environmental problem experienced around the globe, while still providing vastly superior energy storage capacity for our future needs"3CR-Riverbend Capital Advisors, Dallas, TX led the ZAF Series A Capital Raise. Randy Moore, President and CEO of ZAF said, "I want to thank  all our investors and the folks at 3CR-Riverbend who really came through for us and have been a pleasure to work with. The addition of institutional and strategic funding, together with our recent contract awards, have provided sufficient funds to accomplish our objectives."About ZAF Energy Systems, Inc.Incorporated in 2011 and with locations in Montana and Missouri, ZAF Energy Systems develops and commercializes next-generation battery technologies that use sustainable, nontoxic materials and can be safely and easily recycled. Its breakthrough battery technologies include a portfolio of eco-friendly energy storage solutions including nickel zinc (NiZn) and a zinc air chemistry, both of which deliver the highest power and energy density of any battery system in their class. ZAF's rechargeable batteries pro vide longlife and economical solutions in a safe package for a variety of applications, including electric vehicles, commercial trucking, renewables integration, back-up power, consumer electronics, mobility, recreation vehicles, and in aerospace and defense. For more information, visit: www.zafsys.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Knowde</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Founded 2017, Knowde is the first digital marketplace built for chemicals, polymers and ingredients. Marketplaces have modernized and disrupted major industries. Knowde is bringing this same experience to our industry. Our value is simple: We provide instant customer-facing digital transformation, without any capital expense.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>$14,000,000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>04 May 2020</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Knowde Secures $14M in Series A Funding</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/knowde/venture-capital-funding/jtnrllqtrk</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>SAN JOSE, CA, Knowde announced it has raised $14 million in Series A funding led by Sequoia Capital</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Knowde/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>According to Pulse 2.0, Knowde announced it has raised $14 million in Series A funding led by Sequoia Capital with participation from Refactor Capital, Bee Partners, Cantos Ventures and Knollwood Investment Advisory.Founded 2017, Knowde is the first digital marketplace built for chemicals, polymers and ingredients. Marketplaces have modernized and disrupted major industries. Knowde is bringing this same experience to our industry. Our value is simple: We provide instant customer-facing digital transformation, without any capital expense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Altoida</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Altoida Inc. is a health technology firm that uses active digital biomarkers and cutting-edge technology in Artificial Intelligence (AI) and Augmented Reality (AR) to classify patients' risk of Mild Cognitive Impairment (MCI) due to Alzheimer's Disease (AD) and drive better clinical outcomes for brain diseases. Led by an international team of esteemed neuroscientists, computer scientists and medical business professionals, the company offers an FDA-cleared and CE Mark-approved medical device and brain health data platform to support early detection of Alzheimer's disease up to ten years prior to onset - with up to 94% accuracy. The company is privately held and supported by the current investor syndicate of M-Ventures (lead investor), GreySky Venture Partners, FYRFLY, VI Partners. Altoida has offices in Houston, San Diego, and Lucerne, Switzerland.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>undisclosed</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>04 May 2020</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Altoida Secures Investment</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/altoida/venture-capital-funding/dzjkllvzfd</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>HOUSTON, TX, Altoida has secured financing from Hikma Ventures.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Altoida/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Altoida Inc., a predictive digital biomarker company, today announced it has secured financing from Hikma Ventures, the venture capital arm of Hikma Pharmaceuticals PLC.The financing comes at a time of rapid growth for Altoida, as the company's -FDA cleared and CE Mark-approved medical device and brain health data platform is being used by researchers, patients and physicians across the globe to detect Alzheimer's Disease (AD) up to ten years prior to onset. The additional financing will be used to further expand Altoida's presence in the US, Japan, Europe and Brazil and follows the company's $6.3 million Series A round that closed early 2019."Hikma Ventures is a highly reputable venture capital firm, and we share a common vision of putting better health within reach for millions of people across the globe," said Dr. Richard Fischer, President &amp; CEO of Altoida Inc. "Their investment in Altoida during these unprecedented times is a testament to their belief in the strength of our company and the value of our digital health technology. Hikma Ventures is the perfect addition to our investor syndicate and an important partner as we continue to execute on our clearly defined commercialization strategy."Altoida leverages predictive digital biomarkers to drive better clinical outcomes for brain disease. By leveraging the latest advancements in Artificial Intelligence (AI), Machine Learning (ML) and Augmented Reality (AR), Altoida collects functional and cognitive biomarkers to help detect Mild Cognitive Impairment (MCI) due to Alzheimer's disease prior to its onset - with up to 94% accuracy. Now healthcare professionals have a novel way to objectively assess cognitive and everyday functions, in the most ecologically valid way.Using Smart Device sensors, Altoida analyzes visuospatial and executive function during complex activities of daily living by asking patients to hide and seek virtual objects in a physical space. Altoida is able to detect "micro-errors" as both a prognostic and diagnostic digital biomarker, allowing medical professionals to detect Alzheimer's disease in patients 62+ years old between six and ten years prior to the onset of symptoms - and before irreversible damage occurs. The company has validated its platform and methodology in more than 12 peer-reviewed journal publications and in more than 200 independent studies."We are excited to invest in Altoida and their digital health technology, which is helping patients and healthcare providers by reinventing digital biomarkers to drive better clinical outcomes for brain disease," said Lana Ghanem, Managing Director of Hikma Ventures. "This is the latest example of Hikma Ventures commitment to supporting innovative companies utilizing machine learning and other cutting-edge technologies to meaningfully improve patients' lives."About Hikma(LSE: HIK) (NASDAQ Dubai: HIK) (OTC: HKMPY), (rated Ba1/stable Moody's and BB+/positive S&amp;P)Hikma helps put better health within reach every day for millions of people in more than 50 countries around the world.  For more than 40 years, the company has been creating high-quality medicines and making them accessible to the people who need them.  Headquartered in the UK, Hikma is a global company with a local presence across the United States (US), the Middle East and North Africa (MENA) and Europe, and they use their unique insight and expertise to transform cutting-edge science into innovative solutions that transform people's lives.  Hikma is committed to their customers, and the people they care for, and by thinking creatively and acting practically, they provide them with a broad range of branded and non-branded generic medicines.  Together, Hikma's 8,400 colleagues are helping to shape a healthier world that enriches all our communities.  The company is a leading licensing partner, and through its venture capital arm, is helping bring innovative health technologies to people around the world.  For more information, please visit www.hikma.com.About Hikma VenturesFounded in August 2015, Hikma Ventures operates as the corporate venture capital arm of Hikma Pharmaceuticals. Hikma Ventures invests in global start-ups where Hikma's expertise can accelerate revenue growth and enhance value creation by providing ventures with access to the resources of a multinational pharmaceutical company.For more information, please visit www.hikmaventures.com.About Altoida Inc.Altoida Inc. is a health technology firm that uses active digital biomarkers and cutting-edge technology in Artificial Intelligence (AI) and Augmented Reality (AR) to classify patients' risk of Mild Cognitive Impairment (MCI) due to Alzheimer's Disease (AD) and drive better clinical outcomes for brain diseases. Led by an international team of esteemed neuroscientists, computer scientists and medical business professionals, the company offers an FDA-cleared and CE Mark-approved medical device and brain health data platform to support early detection of Alzheimer's disease up to ten years prior to onset - with up to 94% accuracy. The company is privately held and supported by the current investor syndicate of M-Ventures (lead investor), GreySky Venture Partners, FYRFLY, VI Partners. Altoida has offices in Houston, San Diego, and Lucerne, Switzerland. For more information, please visit www.altoida.com and follow us on LinkedIn https://www.linkedin.com/company/altoida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines is a clinical-stage genetic neuroscience company developing breakthrough therapies for patients and families affected by complex and debilitating brain disorders, including psychiatric disorders, movement disorders and rare pediatric epilepsies. These disease areas share overlapping genetics and neurocircuit biology, as well as a profound need for new therapeutic options that target the underlying cause of the disease. Praxis is advancing a pipeline of breakthrough medicines with the potential to more precisely treat brain disorders.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>$100,000,000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>04 May 2020</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines Launches with $100M</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/praxis-precision-medicines/venture-capital-funding/dqvtggmtxb</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE, MA, Praxis Precision Medicines launched today with more than $100M in financing led by founding investor Blackstone Life Sciences.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambridge</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Praxis%20Precision%20Medicines/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, a clinical-stage, genetic neuroscience company, launched today with more than $100 million in financing since its inception from premier life science investors led by founding investor Blackstone Life Sciences (via prior Clarus funds in 2016) as well as Novo Holdings, Vida Ventures, Eventide and other prominent funds. Praxis is deploying a precision medicine approach to develop high-impact therapies that target the underlying causal mechanisms of both prevalent and rare brain disorders with overlapping disease biology."Neurology and psychiatry are finally primed for a revolution in how new therapies are discovered and developed, and Praxis' approach has the potential to change the treatment landscape," said Marcio Souza, president and chief executive officer of Praxis. "The combination of the expertise of our team in CNS drug development, insights into CNS biology, and our approach to drug discovery, positions us as at the forefront of the development of novel CNS therapies.""Depression, and more broadly, psychiatric and neurological disorders are a large and increasing unmet medical need with profound implications on the economy. Praxis aims to leverage the recent breakthroughs in genetics to develop innovative medicines that can improve the lives of the many patients who need them," said Nicholas Galakatos, Ph.D., chairman of the Praxis board of directors and global head of Blackstone Life Sciences.Praxis Approach and PipelinePraxis is leveraging recent discoveries in the genetics of epilepsy, which have elucidated genes, that when dysregulated, drive a range of neuropsychiatric and movement disorders. Using these insights, Praxis is rapidly advancing a pipeline of treatments that specifically address genes controlling the imbalance of excitation and inhibition of neuronal circuitry at the core of multiple CNS disorders. The company's portfolio is led by PRAX-114, a GABAA positive allosteric modulator (PAM) in Phase 2 development for the treatment of major depressive disorder (MDD) and perimenopausal depression, and PRAX-944, a T-type calcium channel blocker, in Phase 2 development for the treatment of essential tremor. Within the next year, Praxis plans to initiate its first pivotal trial for PRAX-114 in MDD, report proof-of-concept data for PRAX-944 in essential tremor and advance its earlier stage programs into clinical development for rare epilepsies and other neurological disorders with genetically validated mechanisms."As was achieved in oncology decades ago, recent genetic insights have presented meaningful opportunities to treat brain disorders in entirely different and targeted ways based on the specific genetically validated pathways driving a patient's disease," said Kiran Reddy, M.D., co-founder and member of Praxis' board of directors. "We are reducing these insights to practice, to create novel medicines that could fundamentally alter the treatment path and outcomes for patients with brain disorders."Internationally Recognized Founding TeamPraxis' founders are renowned scientists and clinicians leading the industry's growing understanding of the genetics and biology of disease-causing targets in psychiatric and neurologic disorders.Dr. Reddy is a venture partner and senior advisor at Blackstone Life Sciences. He was previously on the corporate strategy leadership team at Biogen and was an associate partner at Third Rock Ventures, where he co-founded multiple biotech companies. Dr. Reddy is a neurologist and started his career in academic medicine at Harvard/Massachusetts General Hospital.Co-founder David Goldstein, Ph.D. is the Director of The Institute for Genomic Medicine, and Professor in the Department of Genetics and Development, at Columbia University. Dr. Goldstein's work focuses on broad aspects of precision medicine and is widely recognized for multiple influential studies in population and human genetics, including those of the Epi4K consortium that discovered and characterized novel epilepsy genes.Co-founder and chief scientific officer, Steven Petrou, Ph.D. is the Director of the Florey Institute of Neuroscience and Mental Health, Head of the Department of the Florey Institute at the University of Melbourne in Australia, heads the Ion Channels and Human Disease Laboratory. Prof. Petrou is a recognized leader in the field of ion channel neuropathies in rare pediatric epilepsies and other neurodevelopmental disorders. His published interdisciplinary research has focused on functional genetics and genomics of epilepsy, elucidation of mechanisms of disease, development of several of the first animal models of genetic epilepsy and discovery and evaluation of consequent precision medicine approaches.Successful Biotech CEO and Leadership TeamPrior to joining Praxis as president and chief executive officer, Mr. Souza was at PTC Therapeutics, where he served in leadership roles since 2014, most recently serving as chief operating officer. He also served in leadership roles in the U.S. and globally at NPS Pharmaceuticals, Shire and Genzyme. Mr. Souza holds a degree in pharmacy and biochemistry from University of SÃ£o Paulo and an MBA from FundaÃ§Ã£o Dom Cabral in Brazil.The Praxis leadership team is comprised of recognized leaders in neuroscience drug discovery, development, and commercialization, including Bernard Ravina, M.D., M.S., chief medical officer; Stuart Chaffee, Ph.D., MBA, chief business officer; Dr. Petrou., co-founder and chief scientific officer; Marion Wittmann, Ph.D., vice president of biology; Gabriel Martinez, Ph.D., vice president of chemistry; Rosa Tarng, vice president, portfolio management; and Karl Hansen, Ph.D., senior vice president, CMC.About Praxis Precision MedicinesPraxis Precision Medicines is a clinical-stage genetic neuroscience company developing breakthrough therapies for patients and families affected by complex and debilitating brain disorders, including psychiatric disorders, movement disorders and rare pediatric epilepsies. These disease areas share overlapping genetics and neurocircuit biology, as well as a profound need for new therapeutic options that target the underlying cause of the disease. Praxis is advancing a pipeline of breakthrough medicines with the potential to more precisely treat brain disorders. For more information, please visit www.praxismedicines.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Medable</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Medable is on a mission to reduce clinical trial timelines by 50 percent. The company's global decentralized trial platform streamlines design, recruitment, retention and data quality, replacing siloed systems with integrated digital tools, data and interfaces to accelerate trial execution. Medable connects patients, sites and clinical trial teams to improve patient access, experience, and outcomes.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>$25,000,000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>04 May 2020</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Medable Secures $25M Venture Funding</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/medable/venture-capital-funding/gqhwfxmknw</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>PALO ALTO, CA, Medable announced $25 million in funding led by GSR Ventures.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Medable/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Medable, Inc., the leading global platform for decentralized clinical trials, today announced $25 million in funding to accelerate clinical drug development with digital technology, enabling effective new therapies to reach patients faster. The investment will be used to extend product development, partnerships and market adoption for Medable's decentralized trial platform, which brings together clinical trial participants, clinical research sites, partners and analytics to enable more patient-centric and informed clinical research.The funding round was led by early-stage healthcare and AI investor GSR Ventures, with additional investment from existing investor PPD, Inc. The funding brings Medable's total capital raised to more than $45 million.Medable is on a mission to reduce clinical trial timelines by 50 percent. The company has become a leader in the movement to digitize and virtualize clinical trials. Over the past several years, Medable's team has built a modular digital platform-as-a-service that streamlines clinical trials with direct-to-patient technologies. The platform is now used by leading biopharma sponsors and clinical research organizations worldwide, and has been used for trials in 30+ countries and 26 languages."This is an important milestone for Medable and the industry's shift to decentralized trials, which are critical to bringing effective therapies to patients faster," said Dr. Michelle Longmire, CEO and co-founder of Medable. "As we've seen with the COVID-19 pandemic, traditional trial processes and timelines are insufficient to meet the global need for clinical research. Decentralized trials can improve access to new therapies and trials for participants, as well as reduce trial timelines.""The future of medicine is digital, personalized, data-driven and delivered directly to the patient," said Dr. Sunny Kumar, partner at GSR Ventures, who joins the Medable board. "Medable has built a diverse and capable team of technology and biopharma experts, and they have built a comprehensive platform that is well-positioned to meet the market need. Clinical trials are clearly ripe for disruption, and Medable brings forward the next generation of clinical trial platform technology to streamline new therapy development."Based on its market analysis, GSR Ventures believes decentralized clinical trials can reach a broader, more representative population; speed up recruitment and enrollment; generate more robust data; and be more convenient and accessible for patients. A digital trial infrastructure will also allow for new types of monitoring and analysis, including digital endpoints; integration of wearable devices; and enhanced Phase 4 monitoring of patients after trial endpoints have been reached.Many of these needs and opportunities are magnified by the COVID-19 pandemic, which has accelerated interest in Medable's platform over the past 60 days. Prior to the pandemic, decentralized trials were gaining momentum but still considered a "nice to have." In the current environment, decentralized trials have become a necessity as many clinical sites are shut down or not seeing non-COVID-19 patients-and patients around the world are sheltering in place.To address immediate needs for COVID-19 research, Medable recently:Introduced a global telemedicine capability that in partnership with PPD has already been used to connect patients virtually with site coordinators, investigators and other care professionals anywhere in the world;Announced a global partnership with MRN to support remote and in-home care, which are critical for trial continuity in spite of shelter-in-place initiatives;Announced a partnership with AliveCor to dramatically scale remote clinical trials by enabling the use of AliveCor's in-home ECGs as part of Medable's platform; andAnnounced a multi-company research framework to accelerate the development of diagnostics and treatments for COVID-19, providing a mobile application and secure infrastructure to connect health researchers and clinical trial teams with up to millions of home-bound individuals in the United States.About GSR VenturesFounded in 2005, GSR Ventures is one of the world's most successful early-stage venture firms, with over $3 billion under management. The firm focuses on early-stage companies developing AI-enabled healthcare technology, enterprise software, and consumer platforms. GSR Ventures' team is composed of founders, engineers and physicians with deep technical knowledge and a proven track record. Notable investments include Kinsa, Deep 6 AI, DataVisor, Plus AI, and Qunar (NASDAQ:QUNR).About MedableMedable is on a mission to reduce clinical trial timelines by 50 percent. The company's global decentralized trial platform streamlines design, recruitment, retention and data quality, replacing siloed systems with integrated digital tools, data and interfaces to accelerate trial execution. Medable connects patients, sites and clinical trial teams to improve patient access, experience, and outcomes. Medable is a privately held, venture-backed company headquartered in Palo Alto, California. For more information, visit www.medable.com and follow @Medableinc on Twitter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Dear Media</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Media is changing. And Dear Media (DM) a podcast production company based in Los Angeles, CA is on the front wave of that sea change. As a company, Dear Media will help individuals conceptualize, develop and produce customized podcasts with a personalized touch and an emphasis on female hosts and voices. Dear Media will place women, their stories and narratives, at the forefront of conversation.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>$8,000,000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>01 May 2020</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Dear Media Lands $8M in Series A Funding</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/dear-media/venture-capital-funding/dspgnwcrbt</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>WEST HOLLYWOOD, CA, Dear Media has raised $8 million in Series A funding from Magnet Companies.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>West Hollywood</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Dear%20Media/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Dear Media, the podcast network behind female-focused shows like The Bitch Bible, The Skinny Confidential: Him &amp; Her and Taste of Taylor, has raised $8 million in Series A funding from Magnet Companies.Media is changing. And Dear Media (DM) a podcast production company based in Los Angeles, CA is on the front wave of that sea change. As a company, Dear Media will help individuals conceptualize, develop and produce customized podcasts with a personalized touch and an emphasis on female hosts and voices. Dear Media will place women, their stories and narratives, at the forefront of conversation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Immunomic Therapeutics</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Immunomic Therapeutics (ITI) is a clinical stage biotechnology company that is developing next generation vaccines based on the patented Lysosomal Associated Membrane Protein, or LAMP, Technology. The vaccine platform significantly increases the effectiveness of the immune response to nucleic acid vaccines while simplifying overall vaccine design and delivery, yielding safer, more cost-effective human and animal therapies.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>$61,300,000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>01 May 2020</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Immunomic Therapeutics Closes $61.3M Funding</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/immunomic-therapeutics/venture-capital-funding/stbclvnhmy</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ROCKVILLE, MD, Immunomic Therapeutics announced today the close of a $61.3M financing led by HLB Co., LTD.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Rockville</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Immunomic%20Therapeutics/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Immunomic Therapeutics, Inc., ("ITI") a privately-held clinical-stage biotechnology company pioneering the study of nucleic acid immunotherapy platforms, announced today the close of a $61.3M financing led by HLB Co., LTD, a global pharmaceutical company focused on developing novel cancer drugs. This represents the second closing in the investment process for the HLB Consortium, ($10M was placed in February 2020), and substantially increases their holding in Immunomic Therapeutics to 47.6% of the common stock. HLB also secured an option to make further investment into the company in the months ahead."We are pleased to welcome HLB as a significant shareholder of Immunomic Therapeutics and look forward to working with them within the framework of the HLB Bio family of companies. They have a proven track record of success in Asia and share our commitment and passion for developing best-in-class therapies for cancer and other serious diseases," said Dr. William Hearl, CEO of Immunomic Therapeutics. "With HLB's support, we are well-positioned to accelerate our efforts in immuno-oncology, in particular glioblastoma multiforme, and rapidly advance other key candidates in our pipeline, including our most recent initiative into infectious diseases with development of our vaccine candidate for COVID-19."Proceeds from the financing will support the acceleration of ITI's Phase II clinical trial of ITI-1000 for the treatment of glioblastoma multiforme (GBM), advance its emerging pipeline, and expand upon the current applications of its UNITE platform. The financing will also enable Immunomic to expand its team and infrastructure to support the future growth of the company.In addition, ITI and HLB intend to establish an Asian Brain Cancer Research Center in Seoul that will bring together the world's leading experts and cutting-edge science to advance research in the GBM field and to deploy ITI-1000 to the Asian population. ITI-1000 is a cell therapy powered by ITI's UNITE platform that is currently being evaluated in a Phase II clinical trial (ATTAC-II) in collaboration with researchers at the University of Florida (Dr. Duane Mitchell) and Duke University (Dr. John Sampson). ITI-1001 is an alternative, cell-free approach to treating GBM. The company held a successful pre-IND meeting earlier this year for ITI-1001 and expects to be able to file an Investigational New Drug Application (IND) with the U.S. Food and Drug Administration (FDA) by the end of 2020.Concurrent with the financing, five (5) members from HLB Co., LTD will be joining the Immunomic Therapeutics Board of Directors.About UNITEITI's investigational UNITE platform, or UNiversal Intracellular Targeted Expression, works by fusing pathogenic antigens with the Lysosomal Associated Membrane Protein, an endogenous protein in humans, for immune processing. In this way, ITI's vaccines (DNA or RNA) have the potential to utilize the body's natural biochemistry to develop a broad immune response including antibody production, cytokine release and critical immunological memory. This approach could put UNITE technology at the crossroads of immunotherapies in a number of illnesses, including cancer, allergy and infectious diseases. UNITE is currently being employed in Phase II clinical trials as a cancer immunotherapy. ITI is also collaborating with academic centers and biotechnology companies to study the use of UNITE in cancer types of high mortality, including cases where there are limited treatment options like glioblastoma and acute myeloid leukemia. ITI believes that these early clinical studies may provide a proof of concept for UNITE therapy in cancer, and if successful, set the stage for future studies, including combinations in these tumor types and others. Preclinical data is currently being developed to explore whether LAMP nucleic acid constructs may amplify and activate the immune response in highly immunogenic tumor types and be used to create immune responses to tumor types that otherwise do not provoke an immune response.About Immunomic Therapeutics, Inc.Immunomic Therapeutics, Inc. (ITI) is a privately-held, clinical stage biotechnology company pioneering the development of vaccines through its proprietary technology platform, UNiversal Intracellular Targeted Expression (UNITE), which is designed to utilize the body's natural biochemistry to develop vaccines that generate broad immune responses. UNITE has a robust history of applications in various therapeutic areas, including infectious diseases, oncology, allergy and autoimmune diseases. ITI is primarily focused on applying the UNITE platform to oncology, where it could potentially have broad applications, including viral antigens, cancer antigens, neoantigens and antigen-derived antibodies as biologics. The Company has built a large pipeline from UNITE with six oncology programs and two allergy programs. ITI has entered into a significant allergy partnership with Astellas Pharma and has formed several academic collaborations with leading Immuno-oncology researchers at Fred Hutchinson Cancer Research Institute, Johns Hopkins University of Medicine, and Duke University. ITI maintains its headquarters in Rockville, Maryland. For more information, please visit www.immunomix.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Josh.ai</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Josh is a voice-controlled home automation system. Like Siri or Google Now, the Josh programming language is built to support natural language voice commands. This includes greetings, questions, instructions, and more. Further, Josh is built to control and connect any "smart" device, from any device. For example, with Josh you can turn on your speakers from your watch, change the temperature from your phone, shut off the lights from your desktop, etc. Initially, Josh will be focused on the smart home, but over time we envision a more general-purpose AI. Josh will go where you go, making your life easier and more productive.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>$11,000,000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>01 May 2020</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Josh.ai Secures $11M Series A Round</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/josh.ai/venture-capital-funding/hblcrhfrqh</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>DENVER, CO, Josh has secured an $11 million Series A round from undisclosed investors.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Josh.ai/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Josh has secured an $11 million Series A round from undisclosed investors.Josh is a voice-controlled home automation system. Like Siri or Google Now, the Josh programming language is built to support natural language voice commands. This includes greetings, questions, instructions, and more. Further, Josh is built to control and connect any "smart" device, from any device. For example, with Josh you can turn on your speakers from your watch, change the temperature from your phone, shut off the lights from your desktop, etc. Initially, Josh will be focused on the smart home, but over time we envision a more general-purpose AI. Josh will go where you go, making your life easier and more productive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ASAPP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ASAPP builds AI-Native™ products to solve large, complex, data-rich problems, by automating and augmenting human workflows, radically improving efficiency and effectiveness to empower people to be their best. By building AI-Native™ products driven by advances in fundamental AI research, ASAPP makes organizations more efficient by augmenting and automating the world's workflows. The company has headquarters in New York with offices in Silicon Valley, Raleigh, London and Buenos Aires.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>$185,000,000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>01 May 2020</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ASAPP Completes $185M in Series B</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/asapp/venture-capital-funding/vpkpdjdhry</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>NEW YORK, NY, ASAPP announced that it recently completed $185 million in a Series B funding.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/ASAPP/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ASAPP, Inc., the artificial intelligence research-driven company advancing the future of productivity and efficiency in customer experience, announced that it recently completed $185 million in a Series B funding bringing the company's total funding to $260 million. Participation in the Series B round includes legendary Silicon Valley veterans John Doerr, John Chambers, Dave Strohm and Joe Tucci, along with respected institutions Emergence Capital, March Capital Partners, Euclidean Capital, Telstra Ventures, HOF Capital and Vast Ventures."ASAPP builds AI-Native products to solve problems of massive scale and systemic inefficiency. We are thrilled and grateful by this latest investment, which allows ASAPP to continue scaling and meeting the extraordinary demands large enterprises are facing as a result of the global pandemic. Many organizations are experiencing historically high levels of customer interactions at a time when their capacity to support is at an all-time low. By augmenting agents who are on the frontlines, ASAPP enables them to be vastly more efficient and productive, realizing significant savings while delighting customers." said Founder and CEO Gustavo Sapoznik. "Our current focus is in solving customer experience challenges faced by large enterprises, which for decades has been addressed by attempting to deflect customer calls, and has resulted in poor experiences, frustration, and massive amounts of money being spent on this problem. Our approach to cost savings is radically different and focuses on building state-of-the-art capabilities to make agents better and empower them by augmenting and automating their workflows." said Sapoznik."ASAPP has created an all-in, AI-Native platform which delivers significant savings and a superior customer experience" said investor and ASAPP board member John Doerr. "Gustavo's world-class team is creating audacious partnerships with large, forward thinking enterprises. We're excited to be part of the team by backing ASAPP's vision." Customer care and sales agents use the ASAPP platform to know the right thing to say and the right action to take, in real time, as the customer conversation transpires on phone calls and digital messages. ASAPP's machine learning models are continuously learning and predicting from every customer interaction, effectively turning every agent into your best agent without the need for manual programming or extensive training. Many of the world's largest companies in telecom, financial services, and travel have realized dramatic improvements to both efficiency and effectiveness in how their agents serve customers today.The company has seen a massive increase in interest for their platform in recent weeks. The Coronavirus pandemic and resulting economic recession are creating significant disruption at contact centers across all industries. Historically, the execution of efficiency measures - more call deflections, hiding contact information from customers, frustrating chatbots that cannot handle complex transactions - has come at the expense of customer satisfaction. Customer Experience Officers are looking for fast improvements to their operations, to drive significant automation without sacrificing customer experience. ASAPP is uniquely designed to deliver this promise, not by traditional means, but by radically improving agent labor efficiency and effectiveness with artificial intelligence. ASAPP customers have achieved a 2.5x agent throughput increase, while realizing a 45%-100% improvement in customer satisfaction scores as a result of using the platform.With ASAPP, for the first time what is right for the company in the form of lowering costs and improving efficiency, is now also right for the customer: fast, accurate issue resolution and superior experience.In 2015 ASAPP decided to tackle its first chosen field-customer experience. The product vision required to truly transform these operations were beyond existing capabilities. As a result, ASAPP formed a large AI research team composed of PhDs and leading experts in the field to further advance disciplines such as natural language processing, machine learning, and speech recognition which serve as the foundation for ASAPP products.About ASAPP ASAPP builds AI-Native™ products to solve large, complex, data-rich problems, by automating and augmenting human workflows, radically improving efficiency and effectiveness to empower people to be their best. By building AI-Native™ products driven by advances in fundamental AI research, ASAPP makes organizations more efficient by augmenting and automating the world's workflows. The company has headquarters in New York with offices in Silicon Valley, Raleigh, London and Buenos Aires. For more information visit asapp.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>WindESCo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>WindESCo provides services to wind plants to improve energy production and reduce operating expense. Combining the power of physics-based models with data science, WindESCo's solutions are actively optimizing wind farms in eight countries on three continents.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>$10,000,000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>WindESCo Closes $10M Series B Financing</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/windesco/venture-capital-funding/kntdwndxbz</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>BURLINGTON, MA, WindESCo, a wind energy performance optimization company, today announces it has closed a $10 million Series B funding round.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Burlington</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/WindESCo/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>The round was led by WAVE Equity Partners, with participation from an affiliate of Tenaska, Inc. as well as existing investors. Using a combination of wind plant domain expertise, machine learning and smart sensing, WindESCo is revolutionizing how wind plants leverage data to maximize profit and performance. The Company will use the proceeds of the financing to further enhance its technology offerings, bolster growth through the expansion of its sales and customer success teams, forge joint development and channel partnerships and take its solutions to the global marketplace."WindESCo's solutions fill a major gap in the wind energy performance optimization space. We have successfully applied our solutions to increasing the operating margins of wind plants for project owners," said Mo Dua, founder and CEO of WindESCo. "WAVE and Tenaska's investment validates our approach. The funds will allow WindESCo to expand our product offerings and further our customer-centric focus."WindESCo is delivering powerful and proven solutions for the utility-scale wind energy industry that optimize turbine performance and maximize profit by increasing annual energy production and reducing operating expenses. Providing validated revenue increases for its customers in actual dollars - not just on paper - WindESCo's comprehensive solutions have enabled customers to increase plant revenues by between 1% and 7%.  WindESCo is also pioneering the next generation of "Social Wind Farms," empowering turbines to seamlessly learn from one another in real time and to operate as a cooperative unit. The Company has innovated in terms of both technology and business model. Several major wind plant owners are now deploying WindESCo's solutions."WAVE is grateful for the opportunity to work with WindESCo's smart founding team. They have pioneered the best sensing and analytics system to optimize performance efficiency and operational health of wind turbines," said Praveen Sahay, managing partner at WAVE Equity Partners. "The wind industry is facing multiple headwinds, including declining incentives and premature failure of equipment, that are hurting profits. By solving key pain points and improving profitability, WindESCo is playing a crucial role in securing a leading source of sustainable energy.""As the economics of wind generation continue to face margin pressures, operational optimization and reduction in maintenance costs will have a significant impact on asset owners' cash flows and long-term sustainability," said Rishi Bhakar, Tenaska vice president who oversees its sustainable energy investments. "Tenaska is excited to witness firsthand the progress that Mo and his fantastic team at WindESCo have made in developing innovative solutions for the wind industry. Tenaska's expertise in power marketing and trusted relationships with wind asset owners combined with WindESCo's advanced software-based strategy will benefit our customers through innovative products and services."About WindESCo, Inc.WindESCo provides services to wind plants to improve energy production and reduce operating expense. Combining the power of physics-based models with data science, WindESCo's solutions are actively optimizing wind farms in eight countries on three continents. Additional information about WindESCo can be found on the Company's website, www.windesco.com.About WAVE Equity PartnersWAVE Equity Partners is a Boston-based private equity firm that accelerates market validated companies solving some of the world's greatest challenges in essential markets for clean energy, water, waste, food and clean air. It specializes in breakthrough innovations in hard tech and manufacturing. For additional information, visit waveep.com.About Tenaska, Inc.Tenaska, based in Omaha, Nebraska, is one of the leading independent energy companies in the United States. Forbes magazine consistently ranks Tenaska among the 50 largest private U.S. companies.  Tenaska affiliates are industry leaders in natural gas and electric power marketing. For more information, visit www.tenaska.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Taysha Gene Therapies</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Taysha Gene Therapies is on a mission to eradicate monogenic CNS disease. With a singular focus on developing curative medicines, we are able to rapidly translate our treatments from bench to bedside. We have combined our team's proven experience in gene therapy drug development and commercialization with the world-class UT Southwestern Gene Therapy Program to quickly and efficiently build an extensive, AAV gene therapy pipeline focused on both rare and large-market indications. Together, we leverage our fully integrated platform -- an engine for new cures -- to dramatically improve patients' lives.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>$30,000,000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Taysha Gene Therapies Lands $30M Seed Round</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/taysha-gene-therapies/venture-capital-funding/pnrydcgxxq</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>DALLAS, TX, Taysha Gene Therapies has raised $30 million in seed financing co-led by PBM Capital and Nolan Capital.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Taysha%20Gene%20Therapies/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Taysha Gene Therapies today announced it has launched with a mission to eradicate severe and life-threatening monogenic diseases of the central nervous system (CNS) by advancing its pipeline of 15 AAV (adeno-associated virus) gene therapy programs, with options to an additional four programs. The company reunites former investors and executives from AveXis, while accelerating its discovery and development efforts with the UT Southwestern Gene Therapy Program and Department of Pediatrics, one of the largest pediatric neurology residency programs in the U.S.To advance its mission and extensive pipeline, Taysha has raised $30 million in seed financing co-led by PBM Capital, the first institutional investor in AveXis, and Nolan Capital, the investment fund of former AveXis CEO Sean Nolan. Taysha's Board of Directors played an integral role in the formation of the company and is comprised of Sean Nolan (Chairman of the Board), Paul Manning of PBM Capital, Claire Aldridge, Ph.D., of UT Southwestern, and RA Session II, President, CEO and Founder of Taysha."Gene therapies have proven to deliver transformational benefit to patients who suffer from devastating diseases with significant, unmet medical need. Our mission at Taysha is to build upon these advancements to eradicate monogenic CNS diseases for the thousands affected," said RA Session II. "In joining forces with UT Southwestern-home to some of the brightest minds in gene therapy-we will advance our deep pipeline of potentially curative medicines with speed and scale. At Taysha, we are ushering in a new era of gene therapy drug development, one in which we can rapidly translate early discoveries into the clinic and beyond."An Unrivaled Alliance with the UT Southwestern Gene Therapy ProgramTaysha and UT Southwestern have entered into a strategic partnership to rapidly and efficiently translate novel AAV gene therapies from bench to bedside. The UT Southwestern Gene Therapy Program is led by Steven Gray, Ph.D., Director of the Viral Vector Core and Assistant Professor in the Department of Pediatrics, and Berge Minassian, M.D., Division Chief of Child Neurology. UT Southwestern has developed a state-of-the-art, GMP viral vector manufacturing facility with the capacity to support Taysha's broad preclinical and clinical development programs.Under the partnership, UT Southwestern will conduct discovery and preclinical research, lead IND-enabling studies, provide clinical GMP manufacturing, as well as execute natural history studies. Taysha will lead all clinical development, regulatory strategy, commercial manufacturing and commercialization activities. The collaboration will be governed by a joint steering committee composed of key leadership members from Taysha and UT Southwestern."Together with Taysha, we are merging cutting-edge translational research, hands-on clinical care, and proven regulatory and commercial expertise - ultimately creating an engine for new cures," said Claire Aldridge, Ph.D., Taysha Board Member and Associate Vice President of Commercialization and Business Development at UT Southwestern Medical Center. "In a short amount of time, I've already witnessed how quickly and efficiently we can leverage our collective expertise and resources to advance new gene therapies to the patients who so desperately need them."The Taysha ApproachTaysha's approach is to combine the speed, scale and expertise of the UT Southwestern Gene Therapy Program with the experience of a proven management team in the gene therapy space. The company is developing an extensive pipeline of potentially curative therapies for monogenic CNS diseases in both rare and large-market indications that are centered on proven AAV technology. In addition, Taysha is developing a novel AAV capsid platform that utilizes machine learning, DNA shuffling and directed evolution to improve targeted delivery. The company is also developing an AAV redosing platform that facilitates redosing by subverting the humoral immune response through delivery to the vagus nerve.Taysha currently has 15 AAV gene therapy programs in its pipeline with options to an additional four programs. TGTX-101, a gene replacement therapy for GM2-Gangliosidosis, is expected to advance into clinical development later this year. In total, Taysha is planning to file four Initial New Drug (IND) applications by the end of 2021, including indications for SURF1 deficiency, SLC6A1 haploinsufficiency and Rett syndrome."Taysha is leveraging the proven safety and heritage of AAV technology-combining it with an experienced management team and the world-class capabilities of UT Southwestern-to rapidly accelerate the research and development of multiple new therapies at a scope we haven't seen before," said Sean Nolan, Chairman of Taysha and former CEO of AveXis. "This is an exciting time for gene therapy, and Taysha's approach brings promise to patients suffering from many devastating CNS diseases."About Taysha Gene TherapiesTaysha Gene Therapies is on a mission to eradicate monogenic CNS disease. With a singular focus on developing curative medicines, we are able to rapidly translate our treatments from bench to bedside. We have combined our team's proven experience in gene therapy drug development and commercialization with the world-class UT Southwestern Gene Therapy Program to quickly and efficiently build an extensive, AAV gene therapy pipeline focused on both rare and large-market indications. Together, we leverage our fully integrated platform-an engine for new cures-to dramatically improve patients' lives. More information is available at www.tayshagtx.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pivot Bio</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>At Pivot Bio, we believe in meeting the needs of the present without compromising the needs of future generations. Our unparalleled understanding of the crop microbiome will help create a future with cleaner water and air. We are dedicated to providing farmers with solutions, so they can grow high-quality, environmentally-responsible and sustainably focused food crops that help feed families worldwide.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Series C</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>$100,000,000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pivot Bio Scores $100M Series C</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/pivot-bio/venture-capital-funding/lpgvglbtpf</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>BERKELEY, CA, Pivot Bio announced the close of its $100 million Series C funding round co-led by return investors Breakthrough Energy Ventures and global investment company Temasek.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Berkeley</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Pivot%20Bio/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Seed and Series A lead and Series B investor, DCVC, also materially participated in the round. With this new funding, Pivot Bio will accelerate its plans to scale its first-to-market microbial nitrogen technology that increases crop yields and farmer revenue. The technology will also aid in decreasing greenhouse gas emissions, water pollution, and global energy use related to the $65 billion global synthetic nitrogen fertilizer market. Pivot Bio PROVEN™, the company's inaugural product for corn, consistently delivers more nitrogen into the crop than synthetic nitrogen, translating to an average of 5.8 bushels per acre advantage when compared to fields using only synthetic nitrogen in 2019.By adopting Pivot Bio's cleaner nitrogen, agriculture will simultaneously achieve more consistent yields and eliminate one gigaton of carbon dioxide-equivalent emissions (akin to removing 216 million cars off the road). Additionally, water-borne nitrates will be reduced, avoiding an estimated $4.1 billion in U.S. water purification costs and significantly reducing the dead zones in our oceans. These reductions are driven by Pivot Bio helping farmers shrink their use of synthetic nitrogen fertilizer by at least 100 million metric tons over the coming decade."Growers and our planet deserve a better fertilizer - one that balances on-farm economics with the farmer's commitment to leave the land better for the next generation, and Pivot Bio's technology helps them do just that," said Karsten Temme, Ph.D., CEO and co-founder of Pivot Bio. "The strong backing by our Series C investors enables Pivot Bio to redefine the future of fertilizer and provide the world's farmers with a new nitrogen source. Based on remarkable demand, we expect to ramp up from our large current footprint to millions of additional acres in the next growing season."Pivot Bio PROVEN™ - in its second year of commercialization - has again sold out and is used on hundreds of thousands of acres of U.S. corn as farmers seek cleaner nitrogen technology that can increase their profitability. Pivot Bio will deploy Series C capital to rapidly expand internationally. Pivot Bio PROVEN™ will soon be available to Argentinian corn farmers, and through IN10T's FarmerTrials, Pivot Bio will launch Intent to Pivot on-farm corn trials for Canadian growers. Earlier this spring, the company launched its inaugural product for U.S. wheat crops, Pivot Bio RETURN™, through a limited, early-adopter program."Pivot Bio's microbial nitrogen fertilizers are revolutionizing how farmers apply nitrogen to their crops, and we're excited to continue our investment to support this important mission," said Carmichael Roberts of Breakthrough Energy Ventures. "The company is leading the charge on truly sustainable farming techniques, and we're confident that they'll continue to innovate their product offerings to solve this critical climate and societal challenge."Manufactured, sold, and distributed to farmers in a radically different model from traditional synthetic nitrogen fertilizer, Pivot Bio's approach uses significantly less energy than the manufacturing of synthetic fertilizer, eliminates 99.5% of greenhouse gas emissions during its production, and is delivered through regular shipping carriers. This model eliminates the costly infrastructure of factories, pipelines, barges, and storage at brick-and-mortar retail locations. Instead, local trusted agronomic advisors can leverage a simplified mobile app to order and schedule on-demand delivery as they help farmers plan their nutrient management strategy."Pivot Bio is addressing one of the most difficult challenges facing agriculture in the 21st century - reducing dependence on damaging synthetic fertilizer while increasing crop yields and creating better outcomes for farmers," said Matt Ocko, Managing Partner, DCVC. "DCVC led Pivot Bio's early rounds and remains a major backer because we believe the company will truly transform global agricultural practices. We're pleased the company continues to bring its microbial nitrogen technology to new crops and new locations, across America and around the world.""Farmer acceptance of our technology and support of our vision is far beyond our expectations," said Temme. "They understand the economics and efficiencies our product offers - more consistent yields, 100 percent nitrogen efficiency with the crop, and a lighter environmental footprint. It's a triple bottom line for them and our planet."Series C is co-led by return Series B investors Breakthrough Energy Ventures and Temasek and are joined by DCVC who led Pivot Bio's seed and Series A rounds; Prelude Ventures; Spruce Capital Partners; Codon Capital; Bunge Ventures; Continental Grain Company; Tekfen Ventures; Pavilion Capital; and individual investors Alan Cohen and Roger Underwood. To date, the company has raised $186 million in capital.About Pivot BioAt Pivot Bio, we believe in meeting the needs of the present without compromising the needs of future generations. Our unparalleled understanding of the crop microbiome will help create a future with cleaner water and air. We are dedicated to providing farmers with solutions, so they can grow high-quality, environmentally-responsible and sustainably focused food crops that help feed families worldwide. For more information, visit www.pivotbio.com and follow @pivotbio on Twitter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Superior Sensor Technology</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Superior Sensor Technology was established with the objective to revolutionize the high-performance, cost-driven pressure sensor market by developing integrative, high-performance cost-efficient solutions for industrial, HVAC and medical applications. The company's technology is based on a proprietary platform, called NimbleSense™, which significantly improves overall sensor performance while adding proprietary application-specific system features. Superior Sensor Technology was founded in 2016 and is based in Santa Clara, California.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Venture</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>$4,500,000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Superior Sensor Technology Inks $4.5M</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/superior-sensor-technology/venture-capital-funding/qlcjltkgkj</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>SANTA CLARA, CA, Superior Sensor Technology announced it has secured $4.5 million in funding.</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Superior%20Sensor%20Technology/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Superior Sensor Technology, a developer of advanced pressure sensors for industrial, HVAC and medical equipment, today announced it has secured $4.5 million in funding led by 40 North Ventures, a venture capital subsidiary of Standard Industries Group. This additional funding will provide growth capital to add resources to its marketing and sales efforts while accelerating its product development road map.Superior Sensor Technology was founded in 2016 with the objective to develop cost-efficient, high-performance pressure sensor solutions that enhance performance, reduce system design complexity, and lower manufacturing and installation equipment costs. Using its proprietary NimbleSense™ architecture, the company is setting a new standard of performance for pressure sensors that has resulted in numerous design wins with major industrial, HVAC and medical equipment manufacturers."There has been a broad-based acceptance of this new technology across all geographies, with new designs underway using our HV-Series and SP-Series pressure sensor products," said Jim Finch, CEO of Superior Sensor Technology. "This new round of funding will enable us to better support our growing customer base with the development of advanced pressure sensing solutions for a broader range of applications and increase our marketing, sales and application resources to support this larger product offering for next-generation equipment.""Superior Sensor Technology was the first company to demonstrate the system performance advantages of applying an innovative, fresh technology perspective to the pressure sensing market. As a company deeply entrenched in the industrial commercial market, we believe Superior Sensor Technology has a unique opportunity to become the undisputed leading supplier of pressure sensing solutions into this space," said Marc van den Berg, General Partner of 40 North Ventures.About Superior Sensor Technology:Superior Sensor Technology was established with the objective to revolutionize the high-performance, cost-driven pressure sensor market by developing integrative, high-performance cost-efficient solutions for industrial, HVAC and medical applications. The company's technology is based on a proprietary platform, called NimbleSense™, which significantly improves overall sensor performance while adding proprietary application-specific system features. Superior Sensor Technology was founded in 2016 and is based in Santa Clara, California.About 40 North Ventures40 North Ventures, LP is a $200 million venture fund based in California and related to Standard Industries, a privately held, global, diversified industrial company with interests in building materials, including the world's largest roofing and waterproofing manufacturer. 40 North Ventures provides investors with the opportunity to realize long-term capital appreciation from investments in early- through late-stage venture deals with a focus on emerging technologies in the industrial space.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ontic</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The Ontic protective intelligence software platform unifies real-time and historical data related to physical security threats and behaviors of concern, and enables smart collaboration with connected workflows, so security teams can get more relevant intelligence -- faster -- for early threat detection. Ontic's automated, smart and actionable insights allow corporate security and school leaders to better identify pre-incident indicators, assess risk and mitigate potential threats in order to protect employees, facilities, students and schools. Ontic works with Fortune 5000 companies and leading educational institutions today to keep its most prized assets safe -- its people.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>$12,000,000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Ontic Announces $12M Series A Round</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/ontic/venture-capital-funding/tvfbxhqvds</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>AUSTIN, TX, Ontic has raised $12 million in a Series A funding round.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Ontic/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Ontic, the protective intelligence software platform developed to help businesses proactively address physical safety, announced today it has raised $12 million in a Series A funding round led by Felicis Ventures. All existing investors participated in the round, including Silverton Partners, Floodgate and Village Global. The funding comes on the heels of Ontic's 5X year-over-year growth, increased demand and expanded platform usage from dozens of Fortune 1000 clients."In recent weeks, our clients across all industries have seen a 300 percent increase in COVID-19 and threat-related data. Now more than ever, in the midst of this pandemic health crisis that has remote and mobile workforces always-on across time zones, businesses can't afford to turn a blind eye to the rising threats to their employees, facilities and assets," said Lukas Quanstrom, Chief Executive Officer, Ontic. "Ontic understands that many physical security teams lack a comprehensive view of emerging threats, and vital pre-incident indicators often live in silos across tools and teams, inhibiting collaboration. It is critically important to aggregate and make sense of the data security teams need to proactively connect the dots before it's too late."Ontic's platform connects to hundreds of real-time and historical data points and provides curated access to smart indicators that deliver the most relevant intelligence to security teams - faster - for early threat detection. By unifying critical data related to physical security threats and enabling smart collaboration with connected workflows in a single software platform, Ontic gives security teams the ability to better identify pre-incident indicators, assess risk and mitigate potential threats.Expanded Platform Offers Early Indicators for Internal and External ThreatsFrom helping corporate security and executive protection teams keep external threats at bay, to internal assessments for early indication of workplace violence or insider threats, Ontic's platform enables Fortune 1000 security teams to protect their people, properties and reputation. With the recent launch of two new Ontic Platform modules, Incident Management and Assessments, security teams can better identify, investigate and prevent employee behavioral issues before an incident takes place. For example, given the significant growth of the on-demand economy, especially during the COVID-19 crisis, Ontic has seen a large demand in supporting delivery and driver programs by managing the investigative workflow required to keep these employees and their customers safe."Protective intelligence is the last key segment of security that has been largely untouched by innovation over the last decade. Intelligence is still managed today in a manual way with disparate point solutions at a time when the level of data about threats is exploding across social media, visitor management, and other public and private data sources," said Victoria Treyger, General Partner and Managing Director at Felicis Ventures. "We invested in Ontic because we believe its platform will become the definitive system of record for the intelligence vertical and look forward to working with the Ontic team to help them achieve this vision."The $12 million investment will be used to fuel the expansion of Ontic's footprint across enterprise businesses and family offices while accelerating product development and expanding sales to enter new markets.About OnticThe Ontic protective intelligence software platform unifies real-time and historical data related to physical security threats and behaviors of concern, and enables smart collaboration with connected workflows, so security teams can get more relevant intelligence - faster - for early threat detection. Ontic's automated, smart and actionable insights allow corporate security and school leaders to better identify pre-incident indicators, assess risk and mitigate potential threats in order to protect employees, facilities, students and schools. Ontic works with Fortune 5000 companies and leading educational institutions today to keep its most prized assets safe - its people.About Felicis VenturesFounded in 2006, Felicis Ventures is a venture capital firm that has backed 28 companies valued at $1B or more. Felicis invests in iconic companies reinventing core markets, as well as those creating frontier technologies. More than 80 Felicis portfolio companies have been acquired or gone public, including Adyen (IPO), Guardant Health (IPO), Fitbit (IPO), Shopify (IPO), Meraki (acquired by Cisco), Twitch (acquired by Amazon) and Ring (acquired by Amazon). To learn more, please visit www.felicis.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Material Bank</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Material Bank is a marketplace for design professionals and brands in the architecture and design industry, providing the fastest and most powerful way to discover and sample materials. The revolutionary platform powers complex searches across hundreds of brands in seconds. Samples ordered by midnight (ET) are delivered in a single box by 10:30 AM the next day-always free for design professionals. With a rapidly growing community of members, Material Bank is the easiest way for brands to connect with thousands of vetted design professionals in the specification process. Follow Material Bank via LinkedIn and Instagram.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Series B</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>$28,000,000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Material Bank Scores $28M</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/material-bank/venture-capital-funding/bpwycxmkjx</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>NEW YORK, NY, Material Bank announced it has secured $28 million in Series B funding led by Bain Capital Ventures.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Material%20Bank/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Material Bank, the technology and logistics company revolutionizing the $140 billion architecture and design materials industry, today announced it has secured $28 million in Series B funding led by Bain Capital Ventures. This round, which also included existing investors such as Raine Ventures and Barry Sternlicht, co-founder, chairman and CEO of Starwood Capital Group, brings Material Bank's total funding to date to $55 million. Merritt Hummer, partner at Bain Capital Ventures, and Jeff Sine, co-founder and partner at The Raine Group, will join Material Bank's Board of Directors.Material Bank will use the funding to accelerate expansion into new categories, build a new robotic logistics facility to support increased demand, and further develop its SaaS platform. For Q1 2020, Material Bank recorded 45% quarter-on-quarter revenue growth and the company is on track to grow revenue 200% and will double its participating brands in 2020.Material Bank is the world's largest material marketplace of its kind. It simplifies the complex process of material search and sampling by enabling architects, designers, and corporate buyers to search hundreds of thousands of materials such as paint, flooring, and textiles across hundreds of vendors. Material Bank's powerful database is combined with its propriety robotic distribution facility, allowing users to order samples until midnight (ET) to be delivered free of charge anywhere in the US, in one box, by 10:30 AM the next morning. Material Bank also significantly improves the sustainability of the design industry by reducing the number of inbound packages to firms by over 70%. "Our mission is to remove the friction that exists when searching and sampling materials. Material Bank has almost doubled its member base within the last six months and is rapidly transforming the architecture and design industry," said Material Bank founder and CEO Adam I. Sandow. "Our dramatic growth is a result of the changing demands of the industry and our ability to efficiently serve them. We're thrilled to announce support from Bain Capital Ventures during this time of rapid expansion."Material Bank has over 35,000 approved members who use the platform to source billions of dollars of materials for more than 75,000 construction and design projects since its official launch in January 2019. "Material Bank is a perfect fit with Bain Capital Ventures' mission of investing in industry-leading B2B companies. We are excited about the potential of online marketplaces to transform the B2B commerce landscape, and Material Bank's exponential growth over the past year shows they are very well positioned to become the dominant marketplace in the materials industry," said Merritt Hummer, partner at Bain Capital Ventures.In today's rapidly changing environment, Material Bank is uniquely positioned to help drive the industry forward while design professionals adapt to working differently. Material Bank is used by architects, designers and corporate buyers from a wide range of industries, including real estate, government, retail, healthcare, education and hospitality.  About Material BankMaterial Bank is a marketplace for design professionals and brands in the architecture and design industry, providing the fastest and most powerful way to discover and sample materials. The revolutionary platform powers complex searches across hundreds of brands in seconds. Samples ordered by midnight (ET) are delivered in a single box by 10:30 AM the next day-always free for design professionals. With a rapidly growing community of members, Material Bank is the easiest way for brands to connect with thousands of vetted design professionals in the specification process. Follow Material Bank via LinkedIn and Instagram.About Bain Capital VenturesBain Capital Ventures partners with disruptive founders to accelerate their ideas to market. The firm invests from seed to growth in startups driving transformation across industries, from SaaS, infrastructure software and security to fintech and healthcare to commerce and consumer tech. The firm has helped launch and commercialize more than 240 companies, including DocuSign, Jet.com, Kiva Systems, Lime, LinkedIn, Rapid7, Redis Labs, Rent the Runway, Rubrik, SendGrid and SurveyMonkey. Bain Capital Ventures has $5.2 billion in assets under management with offices in San Francisco, New York, Boston and Palo Alto. Follow the firm via LinkedIn and Twitter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Guilded</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Guilded is the ultimate chat platform for gaming communities. Founded in 2017 by Eli Brown, a former pro gamer who played an integral role on Instagram's Growth Team and Microsoft's Xbox team, Guilded serves the world's top professional esports teams and over 50,000 high school, collegiate, casual and semi-pro teams.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>$7,000,000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>30 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Guilded Pulls In $7M Series A Financing</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/guilded/venture-capital-funding/vrjcqgmzzr</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO, CA, Guilded has raised $7 million in Series A financing to provide the ultimate chat platform for gaming communities.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Guilded/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>The funding was led by Matrix Partners, with participation from Initialized Capital, Susa Ventures, and Sterling.VC. Ilya Sukhar, general partner at Matrix Partners, joined the Board of Directors as part of the investment."Today, gaming communities use a variety of tools to chat and to organize, but none of them are built for them," said Eli Brown, founder and CEO, Guilded. "We're building the world's best platform for connecting communities - and we're building it specifically for gamers."Guilded will use the capital to strategically expand the company's world-class team, build out powerful features and functionality, and create strategic partnerships with top games publishers and developers, as well as esports teams and organizations."Eli and Guilded are building the gaming community tools I wish I had when I was a teenager with an Everquest guild," said Alexis Ohanian, managing partner at Initialized Capital. "We're excited to support them on the next phase of their journey as they start to support tournaments, voice, video and more."Guilded has already built an array of powerful features for gaming communities into the platform, including robust voice and video chat, group calendars and scheduling tools, and more. In June, Guilded will launch its highly-anticipated Tournaments feature, bringing integration with its full suite of advanced collaborative tools to the world of esports leagues and tournament management."We are very excited about Guilded and Eli's mission," said Ilya Sukhar, general partner, Matrix Partners. "Guilded is already a superb product, and it has the potential to become the go-to platform for gamers of all stripes, from casual gaming communities to esports teams."To learn more about the company and its vision, visit: www.guilded.ggAbout Guilded:Guilded is the ultimate chat platform for gaming communities. Founded in 2017 by Eli Brown, a former pro gamer who played an integral role on Instagram's Growth Team and Microsoft's Xbox team, Guilded serves the world's top professional esports teams and over 50,000 high school, collegiate, casual and semi-pro teams. The company is backed by Y Combinator, Matrix Partners, Initialized Capital, Susa Ventures, Sterling.VC, ZhenFund, and Liquid 2 ventures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Stash</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Stash is the fast-growing investment app for millennials. People can choose where to invest their money, starting with as little as $5, and receive ongoing guidance from the Stash Advisor. Based in New York City, Stash was started in February 2015 by serial entrepreneur David Ronick and Wall Street veterans Brandon Krieg and Ed Robinson.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Series F</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>$112,000,000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>29 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Stash Raises $112M in Series F Funding</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/stash/venture-capital-funding/ssqbccghjt</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>NEW YORK, NY, Stash has raised a $112 million Series F round of funding led by LendingTree.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Stash/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Stash has raised a $112 million Series F round of funding led by LendingTree. Other participating investors include T. Rowe Price Associates, Inc., Breyer Capital, Goodwater Capital, Greenspring Associates, and Union Square Ventures.Stash is the fast-growing investment app for millennials. People can choose where to invest their money, starting with as little as $5, and receive ongoing guidance from the Stash Advisor. Based in New York City, Stash was started in February 2015 by serial entrepreneur David Ronick and Wall Street veterans Brandon Krieg and Ed Robinson.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fat Snax</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fat Snax has been providing low-carb, yet indulgent, snacks and desserts to customers since 2017. The brand began when founder Jeffrey Frese set out to solve his own desire for delicious, nostalgic desserts using clean ingredients minus any grains or added sugar. Today, Fat Snax offers four flavors of their soft-baked cookies, along with Brownie Bites and Blondie Bites. The products can be found at FatSnax.com or at more than 4,000 retail locations nationwide, including Kroger, Sprouts, Whole Foods Market, The Vitamin Shoppe, Wegmans, and H-E-B.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Series A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>$4,500,000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>29 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Fat Snax Closes $4.5M Series A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/fat-snax/venture-capital-funding/hvxrsfxxtr</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>BROOKLYN, NY, Fat Snax has closed a $4.5M Series A funding led by BFG Partners.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Fat%20Snax/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Fat Snax, the leading low-carb &amp; keto snack brand, announced this week the closing of a $5mm Series A funding led by BFG Partners and BIGR (Boulder Investment Group Reprise) Ventures. The Brooklyn-based brand, which launched their cookies online in March 2017, anticipates significant growth in 2020, fueled by this round of financing.An initial direct-to-consumer strategy enabled the brand to perfect their recipes and develop a deep understanding of customer needs. In just six months, Fat Snax became the top selling keto cookie brand online, and has since accelerated growth by focusing on retail expansion. The company can now be found nationally in Whole Foods Market, Sprouts, Kroger, and Wegmans, among others, and anticipates being in over 6,000 retail doors by the end of 2020.The funding, which represents the first outside investment into Fat Snax, will stimulate growth of the brand's retail footprint for current product lines including cookies, brownies, and blondies. It will also support the launch of the brand's newest innovations: Almond Flour Crackers and Mini Cookies. "Leveraging this capital and these key partners allows us to increase distribution and launch new product lines," said Founder Jeffrey Frese. "We are now in a strong position to support the accelerated growth that we've always envisioned.""We're eager to support Jeff Frese and the Fat Snax team through this period of rapid growth," said BFG Vice President Tyler Morgan. "Fat Snax is already a leader in the low-carb, low-sugar snacking space and we anticipate demand for these products will only continue to accelerate.""BIGR has been following the keto &amp; low-carb trends closely over the past few years," said Duane Primizich, managing partner at BIGR. "Fat Snax was a perfect fit as they continue building a strong brand that embodies great tasting, low-carb snacking and we've been particularly impressed with the hustle, grit and creativity of the team." Since 2019, Fat Snax has worked closely with Presence Marketing, owned by BIGR managing partner Bill Weiland."Our mission has always been to bring delicious, low-carb snacking to the masses, and I'm confident that we're working with the best possible partners to help us do that," added Frese. "Demand for Fat Snax has continued to skyrocket, and this capital will help us launch new flavors and meet retailer and online demand."About Fat SnaxFat Snax has been providing low-carb, yet indulgent, snacks and desserts to customers since 2017. The brand began when founder Jeffrey Frese set out to solve his own desire for delicious, nostalgic desserts using clean ingredients minus any grains or added sugar. Today, Fat Snax offers four flavors of their soft-baked cookies, along with Brownie Bites and Blondie Bites. The products can be found at FatSnax.com or at more than 4,000 retail locations nationwide, including Kroger, Sprouts, Whole Foods Market, The Vitamin Shoppe, Wegmans, and H-E-B.About BFGBoulder Food Group ("BFG"), based in both Boulder and Los Angeles, is a venture capital fund which seeks to partner with early stage food and beverage consumer product companies. BFG works alongside exceptional entrepreneurs to ensure the business is able to deliver sustainable growth and outperform its competitors. BFG was founded by Tom Spier, a Co-Founder of EVOL Foods (acquired by Boulder Brands) and COO of Bear Naked (acquired by Kellogg's). (http://www.bfgpartners.com)About BIGR VenturesFounded by proven industry veterans Carole Buyers, Duane Primozich, and Bill Weiland in December 2015, BIGR Ventures is a growth equity fund providing value-added, strategic partnership and capital to promising early-stage natural and organic product companies. Headquartered in Boulder, CO, and boasting 75+ years of combined natural product experience between its founders, BIGR Ventures leverages unparalleled industry relationships and experience to maximize the potential of promising young companies. (https://bigrventures.com/)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Founded in December 2018, Wise, a Techstars NYC company, headquartered in San Mateo, CA, is a FinTech that offers modern businesses a seamless way to bank, pay, and get paid without any anxiety, frustration, or hassle. Wise embeds its all-in-one banking solution, making it readily available in platforms and marketplaces to help businesses get ahead financially.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>$5,700,000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>29 Apr 2020</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Wise Raises $5.7M Seed Round</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/wise/venture-capital-funding/nxkyrrmvsy</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>SAN MATEO, CA, FinTech startup that offers banking and payments services has raised $5.7M in a seed round led by Base10 Partners.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>San Mateo</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://vcnewsdaily.com/Wise/venture-funding.php</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Wise, a FinTech startup that offers banking and payments services to modern businesses, announced today that it has raised $5.7M in a seed round led by Base10 Partners' Rexhi Dollaku. Abstract Ventures, Backend Capital, The Fund, Two Culture Capital, and notable angels such as Michael Vaughan, Jonathan Weiner, Lawrence Chu, Inaki Berenguer and others also participated in the round."Modern businesses are increasingly digital, but their banking experience is still frustratingly physical," said Arjun Thyagarajan, Co-Founder and CEO of Wise. "Businesses that bank with Wise get access to their hard earned cash faster, in a delightful, modern banking experience that's designed for them - all without ever stepping foot in a bank branch."Pushkar Phatak, owner of e-bikes store Watt Wagons that is built on Shopify, commented, "Wise has changed how I run my business. With Wise, I can access my business' cash faster, and it's integrated entirely into my Shopify experience. Now I can worry less about banking and spend more time on what I enjoy - building bikes.""We are excited to embed our banking functionality directly into digital platforms or ecosystems that create or service businesses, like Shopify," said Arjun. "For too long, these platforms have forced their customers to work with banking providers that are not designed for their business or integrated into the platform. We will be launching more of these platform developer tools so that digital platforms can, for the first time, create a modern, delightful banking experience for their customers too."In addition to the funding, Wise is excited to welcome Raghav Lal - former Chief Credit Officer at American Express and General Manager of Small Business at Visa - as President. Raghav commented, "Over the last two decades, I've proudly served small businesses. I look forward to working closely with Arjun, executing on Wise's vision of embedding banking functionality into digital ecosystems, and ultimately helping small businesses accelerate their cashflow and succeed.""Wise is making huge strides in redefining banking for the real economy, and we are excited to be investing and supporting that change," said Rexhi Dollaku, Principal at Base10 Partners. "We believe Wise's banking experience has the potential to create a category-defining company, and we are thrilled to enable our online platform partners to provide a better banking experience and ultimately serve their customers better."This announcement follows the launch of Wise's FDIC-insured business checking account in partnership with BBVA. Wise now powers over a thousand modern businesses. Wise's mission is to be alongside ambitious businesses, every step of the way.About WiseFounded in December 2018, Wise, a Techstars NYC company, headquartered in San Mateo, CA, is a FinTech that offers modern businesses a seamless way to bank, pay, and get paid without any anxiety, frustration, or hassle. Wise embeds its all-in-one banking solution, making it readily available in platforms and marketplaces to help businesses get ahead financially. For more information about Wise and its products, visit wise.us.About Base10 PartnersBase10 is an early-stage venture firm investing in Automation for the Real Economy. Founded by Adeyemi Ajao and TJ Nahigian, the firm focuses on Automation impacting many sectors of the Real Economy, including transportation, hardware manufacturing, logistics, and construction. Notable portfolio investments include ThePillClub, Shipwell, Reflektive, and Wonolo. Headquartered in San Francisco, Base10 currently has $137M in assets under management. Connect via base10.vc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>Qorus</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Qorus is the sales enablement and proposal management platform for remote teams. We empower your sales force to close deals faster. With Qorus, remote sales teams can deliver customized proposals and build personalized content in minutes versus hours, while tracking effectiveness of sales materials to tailor follow up communication. Qorus is a diverse, vibrant group with headquarters in Bellevue, Washington and offices in Cape Town, South Africa.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>$5,000,000</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>29 Apr 2020</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Qorus Secures $5M Financing</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>https://vcnewsdaily.com/qorus/venture-capital-funding/xfyjwqfvvr</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>SEATTLE, WA, Qorus has completed a $5 million round of financing led by WestRiver Group.</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Seattle</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>https://vcnewsdaily.com/Qorus/venture-funding.php</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>Qorus, one of the world's premier sales enablement and proposal management platforms for remote sales teams announced today it has completed a $5 million round of financing led by WestRiver Group.This recent investment builds on an expanding presence for Qorus in North America, which saw a growing roster of clients, key executive appointments, critical partnerships and increasing market momentum in the high growth area of AI powered sales enablement and proposal management. Qorus recently appointed marketing veteran Jennifer Tomlinson from Microsoft Corp, as the Company's EVP of Marketing and expanded partnerships with Salesforce and others."Qorus sits at the heart of your revenue generation hub, helping you work anywhere to quickly and easily build compelling and targeted proposals, track their performance and provide cross group collaboration among your sales, marketing and business development teams," says Qorus Chief Executive Officer Ray Meiring. "Having the financial support and expertise of WestRiver Group will help us accelerate the execution of our vision, with the added benefit of experience, perspective and industry relationships."Built on Microsoft Azure, Qorus integrates seamlessly with Microsoft Office, Dynamics CRM and Salesforce, to enable companies to build and deliver highly targeted proposals and sales materials to prospects in minutes versus hours. Qorus also has a built-in analytics dashboard that enables sales teams to track proposal performance and foster a real-time sales strategy. The Qorus platform has been adopted by Microsoft who uses Qorus to manage and distribute their sales and marketing content to its Microsoft Partner Network. Presently, more than 4,000 users within the Microsoft Partner Network use Qorus each day to accelerate their sales efforts.   "WestRiver's investment in Qorus is based on our thesis that the sales enablement market will continue to grow at an accelerating pace as companies seek to optimize business results through the adoption of next generation technologies including the use of machine learning and AI," said Anthony Bontrager, Managing Director with WestRiver Group.  "We believe Qorus, with its superior technology platform, is perfectly positioned to provide remote sales teams with the advanced tools they need to stay productive in today's challenging economic environment."WestRiver Group Managing Directors Anthony Bontrager and Laurel Buckner will join Qorus' Board of Directors.About Qorus Qorus is the sales enablement and proposal management platform for remote teams. We empower your sales force to close deals faster. With Qorus, remote sales teams can deliver customized proposals and build personalized content in minutes versus hours, while tracking effectiveness of sales materials to tailor follow up communication.Qorus is a diverse, vibrant group with headquarters in Bellevue, Washington and offices in Cape Town, South Africa.About WestRiver GroupWestRiver Group is a collection of investment funds providing integrated capital solutions to the global innovation economy. The Seattle-based venture debt and equity company boasts a growing portfolio of investments in technology, life sciences, energy and experiential sectors.</t>
         </is>
